--- a/省联动.xlsx
+++ b/省联动.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D2652\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D2652\Desktop\workdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EDDAA9-E337-4B89-8B45-606332F15B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40715ADD-70F3-404C-9CAA-211E9D50EF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="390" windowWidth="25820" windowHeight="14990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="130">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1086,7 +1086,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1184,48 +1184,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1244,93 +1292,36 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="10" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{9EA95E99-C423-45BD-B946-364681CF80E9}"/>
   </cellStyles>
-  <dxfs count="92">
+  <dxfs count="30">
     <dxf>
       <fill>
         <patternFill>
@@ -1489,440 +1480,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2341,27 +1898,27 @@
       <c r="E2" s="1">
         <v>26000</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
       <c r="J2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
       <c r="N2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
       <c r="R2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2406,11 +1963,11 @@
       <c r="E3" s="1">
         <v>12800</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="51">
         <f ca="1">TODAY()</f>
         <v>45083</v>
       </c>
-      <c r="H3" s="46"/>
+      <c r="H3" s="52"/>
       <c r="I3" s="3">
         <f ca="1">TODAY()</f>
         <v>45083</v>
@@ -2418,11 +1975,11 @@
       <c r="J3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="45">
+      <c r="K3" s="51">
         <f ca="1">TODAY()</f>
         <v>45083</v>
       </c>
-      <c r="L3" s="46"/>
+      <c r="L3" s="52"/>
       <c r="M3" s="3">
         <f ca="1">TODAY()</f>
         <v>45083</v>
@@ -2430,11 +1987,11 @@
       <c r="N3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="45">
+      <c r="O3" s="51">
         <f ca="1">TODAY()</f>
         <v>45083</v>
       </c>
-      <c r="P3" s="46"/>
+      <c r="P3" s="52"/>
       <c r="Q3" s="3">
         <f ca="1">TODAY()</f>
         <v>45083</v>
@@ -2473,7 +2030,7 @@
         <f>AB3-AA3</f>
         <v>68800</v>
       </c>
-      <c r="AE3" s="33">
+      <c r="AE3" s="62">
         <f>SUM(AA3:AA6)</f>
         <v>602779</v>
       </c>
@@ -2494,31 +2051,31 @@
       <c r="E4" s="1">
         <v>12108</v>
       </c>
-      <c r="G4" s="38" cm="1">
+      <c r="G4" s="53" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">SUM(SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,{"海盐","平湖","海宁","桐乡"}))</f>
         <v>0</v>
       </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40" t="s">
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="38" cm="1">
+      <c r="K4" s="53" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">SUM(SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,{"红星","月星","六空"}))</f>
         <v>0</v>
       </c>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="40" t="s">
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="38">
+      <c r="O4" s="53">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY())</f>
         <v>0</v>
       </c>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="40" t="s">
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="55" t="s">
         <v>21</v>
       </c>
       <c r="W4" s="22" t="s">
@@ -2551,7 +2108,7 @@
         <f t="shared" ref="AD4:AD9" si="2">AB4-AA4</f>
         <v>74116</v>
       </c>
-      <c r="AE4" s="33"/>
+      <c r="AE4" s="62"/>
     </row>
     <row r="5" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -2569,18 +2126,18 @@
       <c r="E5" s="1">
         <v>22800</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="40"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="55"/>
       <c r="W5" s="22" t="s">
         <v>107</v>
       </c>
@@ -2611,7 +2168,7 @@
         <f t="shared" si="2"/>
         <v>-67197</v>
       </c>
-      <c r="AE5" s="33"/>
+      <c r="AE5" s="62"/>
     </row>
     <row r="6" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -2629,18 +2186,18 @@
       <c r="E6" s="1">
         <v>50000</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="40"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="55"/>
       <c r="W6" s="22" t="s">
         <v>108</v>
       </c>
@@ -2671,7 +2228,7 @@
         <f t="shared" si="2"/>
         <v>-28498</v>
       </c>
-      <c r="AE6" s="33"/>
+      <c r="AE6" s="62"/>
     </row>
     <row r="7" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -2689,18 +2246,18 @@
       <c r="E7" s="1">
         <v>16600</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="40"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="55"/>
       <c r="W7" s="22" t="s">
         <v>109</v>
       </c>
@@ -2731,7 +2288,7 @@
         <f t="shared" si="2"/>
         <v>44612</v>
       </c>
-      <c r="AE7" s="33">
+      <c r="AE7" s="62">
         <f>SUM(AA7:AA9)</f>
         <v>575288</v>
       </c>
@@ -2752,30 +2309,30 @@
       <c r="E8" s="1">
         <v>6500</v>
       </c>
-      <c r="G8" s="34" t="e">
+      <c r="G8" s="56" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY())/SUMIFS($E:$E,$C:$C,TODAY()-1)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
       <c r="J8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="34" t="e">
+      <c r="K8" s="56" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,K2)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,K2)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
       <c r="N8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="34" t="e">
+      <c r="O8" s="56" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY())/SUMIFS($E:$E,$C:$C,TODAY()-1)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
       <c r="R8" s="4" t="s">
         <v>23</v>
       </c>
@@ -2809,7 +2366,7 @@
         <f t="shared" si="2"/>
         <v>-726</v>
       </c>
-      <c r="AE8" s="33"/>
+      <c r="AE8" s="62"/>
     </row>
     <row r="9" spans="1:31" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -2824,30 +2381,30 @@
       <c r="E9" s="1">
         <v>22800</v>
       </c>
-      <c r="G9" s="41" cm="1">
+      <c r="G9" s="58" cm="1">
         <f t="array" ref="G9">SUM(SUMIFS($E:$E,$B:$B,{"海盐","平湖","海宁","桐乡"}))</f>
         <v>602779</v>
       </c>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
       <c r="J9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="41" cm="1">
+      <c r="K9" s="58" cm="1">
         <f t="array" ref="K9">SUM(SUMIFS($E:$E,$B:$B,{"红星","月星","六空"}))</f>
         <v>575288</v>
       </c>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
       <c r="N9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="41">
+      <c r="O9" s="58">
         <f>SUM($E:$E)</f>
         <v>1178067</v>
       </c>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
       <c r="R9" s="4" t="s">
         <v>17</v>
       </c>
@@ -2881,7 +2438,7 @@
         <f t="shared" si="2"/>
         <v>-19174</v>
       </c>
-      <c r="AE9" s="33"/>
+      <c r="AE9" s="62"/>
     </row>
     <row r="10" spans="1:31" ht="17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -2899,27 +2456,27 @@
       <c r="E10" s="1">
         <v>19999</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="58">
         <v>650000</v>
       </c>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
       <c r="J10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="41">
+      <c r="K10" s="58">
         <v>600000</v>
       </c>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
       <c r="N10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="41">
+      <c r="O10" s="58">
         <v>1250000</v>
       </c>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
       <c r="R10" s="4" t="s">
         <v>18</v>
       </c>
@@ -2975,30 +2532,30 @@
       <c r="E11" s="1">
         <v>45776</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="56">
         <f>G9/G10</f>
         <v>0.9273523076923077</v>
       </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
       <c r="J11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="56">
         <f>K9/K10</f>
         <v>0.9588133333333333</v>
       </c>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
       <c r="N11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O11" s="34">
+      <c r="O11" s="56">
         <f>O9/O10</f>
         <v>0.9424536</v>
       </c>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
       <c r="R11" s="4" t="s">
         <v>19</v>
       </c>
@@ -3019,30 +2576,30 @@
       <c r="E12" s="1">
         <v>1600</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="60">
         <f>G9-G10</f>
         <v>-47221</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
       <c r="J12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="36">
+      <c r="K12" s="60">
         <f>K9-K10</f>
         <v>-24712</v>
       </c>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
       <c r="N12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="36">
+      <c r="O12" s="60">
         <f>O9-O10</f>
         <v>-71933</v>
       </c>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
       <c r="R12" s="6" t="s">
         <v>20</v>
       </c>
@@ -3063,35 +2620,35 @@
       <c r="E13" s="1">
         <v>21200</v>
       </c>
-      <c r="G13" s="43" t="s">
+      <c r="G13" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
       <c r="J13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K13" s="43" t="s">
+      <c r="K13" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
       <c r="N13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O13" s="43" t="s">
+      <c r="O13" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
       <c r="R13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="S13" s="43" t="s">
+      <c r="S13" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
       <c r="V13" s="5" t="s">
         <v>2</v>
       </c>
@@ -3112,11 +2669,11 @@
       <c r="E14" s="1">
         <v>5500</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="51">
         <f ca="1">TODAY()</f>
         <v>45083</v>
       </c>
-      <c r="H14" s="46"/>
+      <c r="H14" s="52"/>
       <c r="I14" s="3">
         <f ca="1">TODAY()</f>
         <v>45083</v>
@@ -3124,11 +2681,11 @@
       <c r="J14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="45">
+      <c r="K14" s="51">
         <f ca="1">TODAY()</f>
         <v>45083</v>
       </c>
-      <c r="L14" s="46"/>
+      <c r="L14" s="52"/>
       <c r="M14" s="3">
         <f ca="1">TODAY()</f>
         <v>45083</v>
@@ -3136,11 +2693,11 @@
       <c r="N14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O14" s="45">
+      <c r="O14" s="51">
         <f ca="1">TODAY()</f>
         <v>45083</v>
       </c>
-      <c r="P14" s="46"/>
+      <c r="P14" s="52"/>
       <c r="Q14" s="3">
         <f ca="1">TODAY()</f>
         <v>45083</v>
@@ -3148,11 +2705,11 @@
       <c r="R14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="S14" s="45">
+      <c r="S14" s="51">
         <f ca="1">TODAY()</f>
         <v>45083</v>
       </c>
-      <c r="T14" s="46"/>
+      <c r="T14" s="52"/>
       <c r="U14" s="3">
         <f ca="1">TODAY()</f>
         <v>45083</v>
@@ -3177,40 +2734,40 @@
       <c r="E15" s="1">
         <v>14000</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="53">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,G13)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="40" t="s">
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="53">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,K13)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="40" t="s">
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="O15" s="38">
+      <c r="O15" s="53">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,O13)</f>
         <v>0</v>
       </c>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="40" t="s">
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="S15" s="38">
+      <c r="S15" s="53">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,S13)</f>
         <v>0</v>
       </c>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="40" t="s">
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="55" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3230,22 +2787,22 @@
       <c r="E16" s="1">
         <v>58000</v>
       </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="40"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="55"/>
     </row>
     <row r="17" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -3263,22 +2820,22 @@
       <c r="E17" s="1">
         <v>12000</v>
       </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="40"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="55"/>
     </row>
     <row r="18" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -3296,22 +2853,22 @@
       <c r="E18" s="1">
         <v>3599</v>
       </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="40"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="55"/>
     </row>
     <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -3329,39 +2886,39 @@
       <c r="E19" s="1">
         <v>9000</v>
       </c>
-      <c r="G19" s="34" t="e">
+      <c r="G19" s="56" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,G13)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,G13)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
       <c r="J19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="34" t="e">
+      <c r="K19" s="56" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,K13)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,K13)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
       <c r="N19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O19" s="34" t="e">
+      <c r="O19" s="56" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,O13)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,O13)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
       <c r="R19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S19" s="34" t="e">
+      <c r="S19" s="56" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,S13)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,S13)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
       <c r="V19" s="4" t="s">
         <v>23</v>
       </c>
@@ -3382,39 +2939,39 @@
       <c r="E20" s="1">
         <v>5999</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="58">
         <f>SUMIFS($E:$E,$B:$B,G13)</f>
         <v>171200</v>
       </c>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
       <c r="J20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="41">
+      <c r="K20" s="58">
         <f>SUMIFS($E:$E,$B:$B,K13)</f>
         <v>135884</v>
       </c>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
       <c r="N20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O20" s="41">
+      <c r="O20" s="58">
         <f>SUMIFS($E:$E,$B:$B,O13)</f>
         <v>200726</v>
       </c>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
       <c r="R20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S20" s="41">
+      <c r="S20" s="58">
         <f>SUMIFS($E:$E,$B:$B,S13)</f>
         <v>155388</v>
       </c>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
       <c r="V20" s="4" t="s">
         <v>17</v>
       </c>
@@ -3435,35 +2992,35 @@
       <c r="E21" s="1">
         <v>9500</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="58">
         <v>240000</v>
       </c>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
       <c r="J21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="41">
+      <c r="K21" s="58">
         <v>210000</v>
       </c>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
       <c r="N21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O21" s="41">
+      <c r="O21" s="58">
         <v>200000</v>
       </c>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
       <c r="R21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S21" s="41">
+      <c r="S21" s="58">
         <v>200000</v>
       </c>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
       <c r="V21" s="4" t="s">
         <v>18</v>
       </c>
@@ -3484,39 +3041,39 @@
       <c r="E22" s="1">
         <v>9698</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="56">
         <f>G20/G21</f>
         <v>0.71333333333333337</v>
       </c>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
       <c r="J22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K22" s="34">
+      <c r="K22" s="56">
         <f>K20/K21</f>
         <v>0.64706666666666668</v>
       </c>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
       <c r="N22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O22" s="34">
+      <c r="O22" s="56">
         <f>O20/O21</f>
         <v>1.00363</v>
       </c>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
       <c r="R22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S22" s="34">
+      <c r="S22" s="56">
         <f>S20/S21</f>
         <v>0.77693999999999996</v>
       </c>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="57"/>
       <c r="V22" s="4" t="s">
         <v>19</v>
       </c>
@@ -3537,39 +3094,39 @@
       <c r="E23" s="1">
         <v>14500</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="60">
         <f>G20-G21</f>
         <v>-68800</v>
       </c>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
       <c r="J23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="36">
+      <c r="K23" s="60">
         <f>K20-K21</f>
         <v>-74116</v>
       </c>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
       <c r="N23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="36">
+      <c r="O23" s="60">
         <f>O20-O21</f>
         <v>726</v>
       </c>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
       <c r="R23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S23" s="36">
+      <c r="S23" s="60">
         <f>S20-S21</f>
         <v>-44612</v>
       </c>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61"/>
       <c r="V23" s="6" t="s">
         <v>20</v>
       </c>
@@ -3590,27 +3147,27 @@
       <c r="E24" s="1">
         <v>12000</v>
       </c>
-      <c r="G24" s="43" t="s">
+      <c r="G24" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
       <c r="J24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K24" s="43" t="s">
+      <c r="K24" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
       <c r="N24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O24" s="43" t="s">
+      <c r="O24" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
       <c r="R24" s="5" t="s">
         <v>2</v>
       </c>
@@ -3631,11 +3188,11 @@
       <c r="E25" s="1">
         <v>5999</v>
       </c>
-      <c r="G25" s="45">
+      <c r="G25" s="51">
         <f ca="1">TODAY()</f>
         <v>45083</v>
       </c>
-      <c r="H25" s="46"/>
+      <c r="H25" s="52"/>
       <c r="I25" s="3">
         <f ca="1">TODAY()</f>
         <v>45083</v>
@@ -3643,11 +3200,11 @@
       <c r="J25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K25" s="45">
+      <c r="K25" s="51">
         <f ca="1">TODAY()</f>
         <v>45083</v>
       </c>
-      <c r="L25" s="46"/>
+      <c r="L25" s="52"/>
       <c r="M25" s="3">
         <f ca="1">TODAY()</f>
         <v>45083</v>
@@ -3655,11 +3212,11 @@
       <c r="N25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O25" s="45">
+      <c r="O25" s="51">
         <f ca="1">TODAY()</f>
         <v>45083</v>
       </c>
-      <c r="P25" s="46"/>
+      <c r="P25" s="52"/>
       <c r="Q25" s="3">
         <f ca="1">TODAY()</f>
         <v>45083</v>
@@ -3684,31 +3241,31 @@
       <c r="E26" s="1">
         <v>15800</v>
       </c>
-      <c r="G26" s="38">
+      <c r="G26" s="53">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,G24)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="40" t="s">
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="38">
+      <c r="K26" s="53">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,K24)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="40" t="s">
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="38">
+      <c r="O26" s="53">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,O24)</f>
         <v>0</v>
       </c>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="40" t="s">
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="55" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3728,18 +3285,18 @@
       <c r="E27" s="1">
         <v>7000</v>
       </c>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="40"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="55"/>
     </row>
     <row r="28" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -3757,18 +3314,18 @@
       <c r="E28" s="1">
         <v>26800</v>
       </c>
-      <c r="G28" s="38"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="40"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="55"/>
     </row>
     <row r="29" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -3786,18 +3343,18 @@
       <c r="E29" s="1">
         <v>11000</v>
       </c>
-      <c r="G29" s="38"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="40"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="55"/>
     </row>
     <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -3815,30 +3372,30 @@
       <c r="E30" s="1">
         <v>11388</v>
       </c>
-      <c r="G30" s="34" t="e">
+      <c r="G30" s="56" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,G24)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,G24)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
       <c r="J30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K30" s="34" t="e">
+      <c r="K30" s="56" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,K24)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,K24)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
       <c r="N30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O30" s="34" t="e">
+      <c r="O30" s="56" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,O24)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,O24)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
       <c r="R30" s="4" t="s">
         <v>23</v>
       </c>
@@ -3859,30 +3416,30 @@
       <c r="E31" s="1">
         <v>24499</v>
       </c>
-      <c r="G31" s="41">
+      <c r="G31" s="58">
         <f>SUMIFS($E:$E,$B:$B,G24)</f>
         <v>167197</v>
       </c>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
       <c r="J31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K31" s="41">
+      <c r="K31" s="58">
         <f>SUMIFS($E:$E,$B:$B,K24)</f>
         <v>128498</v>
       </c>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
       <c r="N31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O31" s="41">
+      <c r="O31" s="58">
         <f>SUMIFS($E:$E,$B:$B,O24)</f>
         <v>219174</v>
       </c>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
       <c r="R31" s="4" t="s">
         <v>17</v>
       </c>
@@ -3903,27 +3460,27 @@
       <c r="E32" s="1">
         <v>6500</v>
       </c>
-      <c r="G32" s="41">
+      <c r="G32" s="58">
         <v>100000</v>
       </c>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
       <c r="J32" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K32" s="41">
+      <c r="K32" s="58">
         <v>100000</v>
       </c>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
       <c r="N32" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O32" s="41">
+      <c r="O32" s="58">
         <v>200000</v>
       </c>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
       <c r="R32" s="4" t="s">
         <v>18</v>
       </c>
@@ -3944,30 +3501,30 @@
       <c r="E33" s="1">
         <v>12800</v>
       </c>
-      <c r="G33" s="34">
+      <c r="G33" s="56">
         <f>G31/G32</f>
         <v>1.67197</v>
       </c>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
       <c r="J33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K33" s="34">
+      <c r="K33" s="56">
         <f>K31/K32</f>
         <v>1.28498</v>
       </c>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
       <c r="N33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O33" s="34">
+      <c r="O33" s="56">
         <f>O31/O32</f>
         <v>1.0958699999999999</v>
       </c>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
       <c r="R33" s="4" t="s">
         <v>19</v>
       </c>
@@ -3988,30 +3545,30 @@
       <c r="E34" s="1">
         <v>8500</v>
       </c>
-      <c r="G34" s="36">
+      <c r="G34" s="60">
         <f>G31-G32</f>
         <v>67197</v>
       </c>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
       <c r="J34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="36">
+      <c r="K34" s="60">
         <f>K31-K32</f>
         <v>28498</v>
       </c>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
       <c r="N34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O34" s="36">
+      <c r="O34" s="60">
         <f>O31-O32</f>
         <v>19174</v>
       </c>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="61"/>
       <c r="R34" s="6" t="s">
         <v>20</v>
       </c>
@@ -4698,11 +4255,77 @@
     <sortCondition ref="C2:C55"/>
   </sortState>
   <mergeCells count="92">
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:Q7"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="AE3:AE6"/>
+    <mergeCell ref="AE7:AE9"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="O26:Q29"/>
+    <mergeCell ref="R26:R29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:Q18"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:U18"/>
+    <mergeCell ref="R15:R18"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:M7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:M18"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:I7"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:I18"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K30:M30"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O11:Q11"/>
     <mergeCell ref="O12:Q12"/>
@@ -4719,106 +4342,40 @@
     <mergeCell ref="G33:I33"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="N26:N29"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:I18"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:I7"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:M7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:M18"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:U18"/>
-    <mergeCell ref="R15:R18"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="AE3:AE6"/>
-    <mergeCell ref="AE7:AE9"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="O26:Q29"/>
-    <mergeCell ref="R26:R29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:Q18"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:Q7"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="O8:Q8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G12:I12 G23:I23 K23:M23 G34:I34 K34:M34">
-    <cfRule type="cellIs" dxfId="91" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:M12">
-    <cfRule type="cellIs" dxfId="90" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S23:U23">
-    <cfRule type="cellIs" dxfId="89" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23:Q23">
-    <cfRule type="cellIs" dxfId="88" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O34:Q34">
-    <cfRule type="cellIs" dxfId="87" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12:Q12">
-    <cfRule type="cellIs" dxfId="86" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4870,7 +4427,7 @@
   <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4900,39 +4457,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="47" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49" t="s">
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="51"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="67"/>
     </row>
     <row r="2" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -4959,61 +4516,61 @@
       <c r="H2" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="75" t="s">
+      <c r="K2" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="76" t="s">
+      <c r="L2" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="76" t="s">
+      <c r="M2" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="76" t="s">
+      <c r="N2" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="O2" s="76" t="s">
+      <c r="O2" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="P2" s="76" t="s">
+      <c r="P2" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" s="54" t="s">
+      <c r="Q2" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="R2" s="54" t="s">
+      <c r="R2" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="54" t="s">
+      <c r="S2" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="T2" s="54" t="s">
+      <c r="T2" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="U2" s="54" t="s">
+      <c r="U2" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="V2" s="54" t="s">
+      <c r="V2" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="W2" s="54" t="s">
+      <c r="W2" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="X2" s="54" t="s">
+      <c r="X2" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="Y2" s="54" t="s">
+      <c r="Y2" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="Z2" s="54" t="s">
+      <c r="Z2" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="AA2" s="55" t="s">
+      <c r="AA2" s="34" t="s">
         <v>75</v>
       </c>
     </row>
@@ -5042,55 +4599,55 @@
       <c r="H3" s="9">
         <v>39009</v>
       </c>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="78">
+      <c r="I3" s="69"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="47">
         <v>0.12740000000000001</v>
       </c>
-      <c r="M3" s="78" t="s">
+      <c r="M3" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="N3" s="78" t="s">
+      <c r="N3" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="O3" s="78">
+      <c r="O3" s="47">
         <v>8.1699999999999995E-2</v>
       </c>
-      <c r="P3" s="78">
+      <c r="P3" s="47">
         <v>0.24809999999999999</v>
       </c>
-      <c r="Q3" s="63">
+      <c r="Q3" s="38">
         <v>7.1499999999999994E-2</v>
       </c>
-      <c r="R3" s="63" t="s">
+      <c r="R3" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="S3" s="63">
+      <c r="S3" s="38">
         <v>9.4200000000000006E-2</v>
       </c>
-      <c r="T3" s="63">
+      <c r="T3" s="38">
         <v>0.28689999999999999</v>
       </c>
-      <c r="U3" s="63" t="s">
+      <c r="U3" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="V3" s="63" t="s">
+      <c r="V3" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="W3" s="63" t="s">
+      <c r="W3" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="X3" s="63" t="s">
+      <c r="X3" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="Y3" s="63" t="s">
+      <c r="Y3" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="Z3" s="63">
+      <c r="Z3" s="38">
         <v>0.1021</v>
       </c>
-      <c r="AA3" s="64">
+      <c r="AA3" s="39">
         <v>0.1482</v>
       </c>
     </row>
@@ -5119,76 +4676,76 @@
       <c r="H4" s="9">
         <v>396562</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="66" t="s">
+      <c r="J4" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="67">
+      <c r="K4" s="41">
         <v>874</v>
       </c>
-      <c r="L4" s="67">
+      <c r="L4" s="41">
         <f>874*L3</f>
         <v>111.34760000000001</v>
       </c>
-      <c r="M4" s="67">
+      <c r="M4" s="41">
         <f t="shared" ref="M4:AA4" si="0">874*M3</f>
         <v>6.2054</v>
       </c>
-      <c r="N4" s="67">
+      <c r="N4" s="41">
         <f t="shared" si="0"/>
         <v>33.736400000000003</v>
       </c>
-      <c r="O4" s="67">
+      <c r="O4" s="41">
         <f t="shared" si="0"/>
         <v>71.405799999999999</v>
       </c>
-      <c r="P4" s="67">
+      <c r="P4" s="41">
         <f t="shared" si="0"/>
         <v>216.83939999999998</v>
       </c>
-      <c r="Q4" s="67">
+      <c r="Q4" s="41">
         <f t="shared" si="0"/>
         <v>62.490999999999993</v>
       </c>
-      <c r="R4" s="67">
+      <c r="R4" s="41">
         <f t="shared" si="0"/>
         <v>72.017600000000002</v>
       </c>
-      <c r="S4" s="67">
+      <c r="S4" s="41">
         <f t="shared" si="0"/>
         <v>82.330800000000011</v>
       </c>
-      <c r="T4" s="67">
+      <c r="T4" s="41">
         <f t="shared" si="0"/>
         <v>250.75059999999999</v>
       </c>
-      <c r="U4" s="67">
+      <c r="U4" s="41">
         <f t="shared" si="0"/>
         <v>73.416000000000011</v>
       </c>
-      <c r="V4" s="67">
+      <c r="V4" s="41">
         <f t="shared" si="0"/>
         <v>74.901799999999994</v>
       </c>
-      <c r="W4" s="67">
+      <c r="W4" s="41">
         <f t="shared" si="0"/>
         <v>102.4328</v>
       </c>
-      <c r="X4" s="67">
+      <c r="X4" s="41">
         <f t="shared" si="0"/>
         <v>295.06240000000003</v>
       </c>
-      <c r="Y4" s="67">
+      <c r="Y4" s="41">
         <f t="shared" si="0"/>
         <v>76.300200000000004</v>
       </c>
-      <c r="Z4" s="67">
+      <c r="Z4" s="41">
         <f t="shared" si="0"/>
         <v>89.235399999999998</v>
       </c>
-      <c r="AA4" s="68">
+      <c r="AA4" s="42">
         <f t="shared" si="0"/>
         <v>129.52680000000001</v>
       </c>
@@ -5218,7 +4775,9 @@
       <c r="H5" s="9">
         <v>33223</v>
       </c>
-      <c r="I5" s="56"/>
+      <c r="I5" s="75" t="s">
+        <v>84</v>
+      </c>
       <c r="J5" s="14" t="s">
         <v>86</v>
       </c>
@@ -5295,75 +4854,77 @@
       <c r="H6" s="9">
         <v>24502</v>
       </c>
-      <c r="I6" s="56"/>
-      <c r="J6" s="79" t="s">
+      <c r="I6" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="59">
+      <c r="K6" s="36">
         <f>K5/K4</f>
         <v>0.37079987986270024</v>
       </c>
-      <c r="L6" s="59">
+      <c r="L6" s="36">
         <f t="shared" ref="L6:AA6" si="1">L5/L4</f>
         <v>1.6401709152240369</v>
       </c>
-      <c r="M6" s="59">
+      <c r="M6" s="36">
         <f t="shared" si="1"/>
         <v>0.80330035130692623</v>
       </c>
-      <c r="N6" s="59">
+      <c r="N6" s="36">
         <f t="shared" si="1"/>
         <v>1.241071809677381</v>
       </c>
-      <c r="O6" s="59">
+      <c r="O6" s="36">
         <f t="shared" si="1"/>
         <v>1.9014561842315332</v>
       </c>
-      <c r="P6" s="59">
+      <c r="P6" s="36">
         <f t="shared" si="1"/>
         <v>0.65232609940813335</v>
       </c>
-      <c r="Q6" s="59">
+      <c r="Q6" s="36">
         <f t="shared" si="1"/>
         <v>0.75930934054503862</v>
       </c>
-      <c r="R6" s="59">
+      <c r="R6" s="36">
         <f t="shared" si="1"/>
         <v>1.3052364977449957</v>
       </c>
-      <c r="S6" s="59">
+      <c r="S6" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T6" s="59">
+      <c r="T6" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U6" s="59">
+      <c r="U6" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V6" s="59">
+      <c r="V6" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W6" s="59">
+      <c r="W6" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X6" s="59">
+      <c r="X6" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="59">
+      <c r="Y6" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="59">
+      <c r="Z6" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA6" s="60">
+      <c r="AA6" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5393,7 +4954,9 @@
       <c r="H7" s="9">
         <v>82186</v>
       </c>
-      <c r="I7" s="56"/>
+      <c r="I7" s="75" t="s">
+        <v>84</v>
+      </c>
       <c r="J7" s="15" t="s">
         <v>87</v>
       </c>
@@ -5497,56 +5060,58 @@
         <f>SUM(H3:H7)</f>
         <v>575482</v>
       </c>
-      <c r="I8" s="69"/>
-      <c r="J8" s="70" t="s">
+      <c r="I8" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="K8" s="71">
+      <c r="K8" s="44">
         <f>L8+P8+T8+X8</f>
         <v>14</v>
       </c>
-      <c r="L8" s="71">
+      <c r="L8" s="44">
         <f>SUM(M8:O8)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="71">
-        <v>0</v>
-      </c>
-      <c r="N8" s="71">
-        <v>0</v>
-      </c>
-      <c r="O8" s="71">
-        <v>0</v>
-      </c>
-      <c r="P8" s="71">
+      <c r="M8" s="44">
+        <v>0</v>
+      </c>
+      <c r="N8" s="44">
+        <v>0</v>
+      </c>
+      <c r="O8" s="44">
+        <v>0</v>
+      </c>
+      <c r="P8" s="44">
         <f>SUM(Q8:S8)</f>
         <v>14</v>
       </c>
-      <c r="Q8" s="71">
-        <v>0</v>
-      </c>
-      <c r="R8" s="71">
+      <c r="Q8" s="44">
+        <v>0</v>
+      </c>
+      <c r="R8" s="44">
         <f>D19</f>
         <v>0</v>
       </c>
-      <c r="S8" s="71">
+      <c r="S8" s="44">
         <f>H19</f>
         <v>14</v>
       </c>
-      <c r="T8" s="71">
+      <c r="T8" s="44">
         <f>SUM(U8:W8)</f>
         <v>0</v>
       </c>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="71">
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44">
         <f>SUM(Y8:AA8)</f>
         <v>0</v>
       </c>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="72"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="45"/>
     </row>
     <row r="9" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
@@ -5579,82 +5144,84 @@
         <f t="array" ref="H9">SUM(SUMIFS(H3:H7,E3:E7,{"嘉兴","海宁","桐乡"}))</f>
         <v>154418</v>
       </c>
-      <c r="I9" s="65" t="s">
+      <c r="I9" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="66" t="s">
+      <c r="J9" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="K9" s="67">
+      <c r="K9" s="41">
         <v>150</v>
       </c>
-      <c r="L9" s="67">
+      <c r="L9" s="41">
         <f>150*L3</f>
         <v>19.110000000000003</v>
       </c>
-      <c r="M9" s="67">
+      <c r="M9" s="41">
         <f t="shared" ref="M9:AA9" si="3">150*M3</f>
         <v>1.0650000000000002</v>
       </c>
-      <c r="N9" s="67">
+      <c r="N9" s="41">
         <f t="shared" si="3"/>
         <v>5.79</v>
       </c>
-      <c r="O9" s="67">
+      <c r="O9" s="41">
         <f t="shared" si="3"/>
         <v>12.254999999999999</v>
       </c>
-      <c r="P9" s="67">
+      <c r="P9" s="41">
         <f t="shared" si="3"/>
         <v>37.214999999999996</v>
       </c>
-      <c r="Q9" s="67">
+      <c r="Q9" s="41">
         <f t="shared" si="3"/>
         <v>10.725</v>
       </c>
-      <c r="R9" s="67">
+      <c r="R9" s="41">
         <f>150*R3</f>
         <v>12.36</v>
       </c>
-      <c r="S9" s="67">
+      <c r="S9" s="41">
         <f t="shared" si="3"/>
         <v>14.13</v>
       </c>
-      <c r="T9" s="67">
+      <c r="T9" s="41">
         <f t="shared" si="3"/>
         <v>43.034999999999997</v>
       </c>
-      <c r="U9" s="67">
+      <c r="U9" s="41">
         <f t="shared" si="3"/>
         <v>12.600000000000001</v>
       </c>
-      <c r="V9" s="67">
+      <c r="V9" s="41">
         <f t="shared" si="3"/>
         <v>12.855</v>
       </c>
-      <c r="W9" s="67">
+      <c r="W9" s="41">
         <f t="shared" si="3"/>
         <v>17.579999999999998</v>
       </c>
-      <c r="X9" s="67">
+      <c r="X9" s="41">
         <f t="shared" si="3"/>
         <v>50.64</v>
       </c>
-      <c r="Y9" s="67">
+      <c r="Y9" s="41">
         <f t="shared" si="3"/>
         <v>13.095000000000001</v>
       </c>
-      <c r="Z9" s="67">
+      <c r="Z9" s="41">
         <f t="shared" si="3"/>
         <v>15.315</v>
       </c>
-      <c r="AA9" s="68">
+      <c r="AA9" s="42">
         <f t="shared" si="3"/>
         <v>22.23</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I10" s="56"/>
+      <c r="I10" s="75" t="s">
+        <v>5</v>
+      </c>
       <c r="J10" s="14" t="s">
         <v>88</v>
       </c>
@@ -5706,87 +5273,89 @@
       <c r="AA10" s="17"/>
     </row>
     <row r="11" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="47" t="s">
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="58" t="s">
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="K11" s="59">
+      <c r="K11" s="36">
         <f>K10/K9</f>
         <v>9.6726533333333323E-2</v>
       </c>
-      <c r="L11" s="59">
+      <c r="L11" s="36">
         <f t="shared" ref="L11:AA11" si="4">L10/L9</f>
         <v>0.69644060701203547</v>
       </c>
-      <c r="M11" s="59">
+      <c r="M11" s="36">
         <f t="shared" si="4"/>
         <v>0.40704225352112672</v>
       </c>
-      <c r="N11" s="59">
+      <c r="N11" s="36">
         <f t="shared" si="4"/>
         <v>0.34997927461139899</v>
       </c>
-      <c r="O11" s="59">
+      <c r="O11" s="36">
         <f t="shared" si="4"/>
         <v>0.88527947776417792</v>
       </c>
-      <c r="P11" s="59">
+      <c r="P11" s="36">
         <f t="shared" si="4"/>
         <v>3.2245062474808545E-2</v>
       </c>
-      <c r="Q11" s="59">
+      <c r="Q11" s="36">
         <f t="shared" si="4"/>
         <v>0.11188811188811189</v>
       </c>
-      <c r="R11" s="59">
+      <c r="R11" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S11" s="59">
+      <c r="S11" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T11" s="59">
+      <c r="T11" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U11" s="59">
+      <c r="U11" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V11" s="59">
+      <c r="V11" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W11" s="59">
+      <c r="W11" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X11" s="59">
+      <c r="X11" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="59">
+      <c r="Y11" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z11" s="59">
+      <c r="Z11" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA11" s="60">
+      <c r="AA11" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5816,7 +5385,9 @@
       <c r="H12" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="I12" s="56"/>
+      <c r="I12" s="75" t="s">
+        <v>5</v>
+      </c>
       <c r="J12" s="14" t="s">
         <v>90</v>
       </c>
@@ -5920,56 +5491,58 @@
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="I13" s="69"/>
-      <c r="J13" s="70" t="s">
+      <c r="I13" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="K13" s="71">
+      <c r="K13" s="44">
         <f>L13+P13+T13+X13</f>
         <v>39</v>
       </c>
-      <c r="L13" s="71">
+      <c r="L13" s="44">
         <f>SUM(M13:O13)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="71">
-        <v>0</v>
-      </c>
-      <c r="N13" s="71">
-        <v>0</v>
-      </c>
-      <c r="O13" s="71">
-        <v>0</v>
-      </c>
-      <c r="P13" s="71">
+      <c r="M13" s="44">
+        <v>0</v>
+      </c>
+      <c r="N13" s="44">
+        <v>0</v>
+      </c>
+      <c r="O13" s="44">
+        <v>0</v>
+      </c>
+      <c r="P13" s="44">
         <f>SUM(Q13:S13)</f>
         <v>39</v>
       </c>
-      <c r="Q13" s="71">
-        <v>0</v>
-      </c>
-      <c r="R13" s="71">
+      <c r="Q13" s="44">
+        <v>0</v>
+      </c>
+      <c r="R13" s="44">
         <f>D14</f>
         <v>0</v>
       </c>
-      <c r="S13" s="71">
+      <c r="S13" s="44">
         <f>H14</f>
         <v>39</v>
       </c>
-      <c r="T13" s="71">
+      <c r="T13" s="44">
         <f>SUM(U13:W13)</f>
         <v>0</v>
       </c>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="71">
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44">
         <f>SUM(Y13:AA13)</f>
         <v>0</v>
       </c>
-      <c r="Y13" s="71"/>
-      <c r="Z13" s="71"/>
-      <c r="AA13" s="72"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="45"/>
     </row>
     <row r="14" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
@@ -6002,76 +5575,76 @@
         <f t="shared" si="9"/>
         <v>39</v>
       </c>
-      <c r="I14" s="65" t="s">
+      <c r="I14" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="66" t="s">
+      <c r="J14" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="K14" s="67">
+      <c r="K14" s="41">
         <v>176</v>
       </c>
-      <c r="L14" s="67">
+      <c r="L14" s="41">
         <f>176*L3</f>
         <v>22.422400000000003</v>
       </c>
-      <c r="M14" s="67">
+      <c r="M14" s="41">
         <f t="shared" ref="M14:AA14" si="10">176*M3</f>
         <v>1.2496</v>
       </c>
-      <c r="N14" s="67">
+      <c r="N14" s="41">
         <f t="shared" si="10"/>
         <v>6.7936000000000005</v>
       </c>
-      <c r="O14" s="67">
+      <c r="O14" s="41">
         <f t="shared" si="10"/>
         <v>14.379199999999999</v>
       </c>
-      <c r="P14" s="67">
+      <c r="P14" s="41">
         <f t="shared" si="10"/>
         <v>43.665599999999998</v>
       </c>
-      <c r="Q14" s="67">
+      <c r="Q14" s="41">
         <f t="shared" si="10"/>
         <v>12.584</v>
       </c>
-      <c r="R14" s="67">
+      <c r="R14" s="41">
         <f t="shared" si="10"/>
         <v>14.5024</v>
       </c>
-      <c r="S14" s="67">
+      <c r="S14" s="41">
         <f>176*S3</f>
         <v>16.5792</v>
       </c>
-      <c r="T14" s="67">
+      <c r="T14" s="41">
         <f t="shared" si="10"/>
         <v>50.494399999999999</v>
       </c>
-      <c r="U14" s="67">
+      <c r="U14" s="41">
         <f t="shared" si="10"/>
         <v>14.784000000000001</v>
       </c>
-      <c r="V14" s="67">
+      <c r="V14" s="41">
         <f t="shared" si="10"/>
         <v>15.0832</v>
       </c>
-      <c r="W14" s="67">
+      <c r="W14" s="41">
         <f t="shared" si="10"/>
         <v>20.627199999999998</v>
       </c>
-      <c r="X14" s="67">
+      <c r="X14" s="41">
         <f t="shared" si="10"/>
         <v>59.4176</v>
       </c>
-      <c r="Y14" s="67">
+      <c r="Y14" s="41">
         <f t="shared" si="10"/>
         <v>15.364800000000001</v>
       </c>
-      <c r="Z14" s="67">
+      <c r="Z14" s="41">
         <f t="shared" si="10"/>
         <v>17.9696</v>
       </c>
-      <c r="AA14" s="68">
+      <c r="AA14" s="42">
         <f t="shared" si="10"/>
         <v>26.083199999999998</v>
       </c>
@@ -6107,7 +5680,9 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="I15" s="56"/>
+      <c r="I15" s="75" t="s">
+        <v>7</v>
+      </c>
       <c r="J15" s="14" t="s">
         <v>88</v>
       </c>
@@ -6189,75 +5764,77 @@
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="I16" s="56"/>
-      <c r="J16" s="58" t="s">
+      <c r="I16" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="K16" s="59">
+      <c r="K16" s="36">
         <f>K15/K14</f>
         <v>0.17924261363636365</v>
       </c>
-      <c r="L16" s="59">
+      <c r="L16" s="36">
         <f t="shared" ref="L16:AA16" si="15">L15/L14</f>
         <v>0.94559012416155264</v>
       </c>
-      <c r="M16" s="59">
+      <c r="M16" s="36">
         <f t="shared" si="15"/>
         <v>0.74983994878361082</v>
       </c>
-      <c r="N16" s="59">
+      <c r="N16" s="36">
         <f t="shared" si="15"/>
         <v>0.28865402731983042</v>
       </c>
-      <c r="O16" s="59">
+      <c r="O16" s="36">
         <f t="shared" si="15"/>
         <v>1.2729776343607435</v>
       </c>
-      <c r="P16" s="59">
+      <c r="P16" s="36">
         <f t="shared" si="15"/>
         <v>0.23689815323733102</v>
       </c>
-      <c r="Q16" s="59">
+      <c r="Q16" s="36">
         <f t="shared" si="15"/>
         <v>0.34522409408773042</v>
       </c>
-      <c r="R16" s="59">
+      <c r="R16" s="36">
         <f t="shared" si="15"/>
         <v>0.41372462488967343</v>
       </c>
-      <c r="S16" s="59">
+      <c r="S16" s="36">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="T16" s="59">
+      <c r="T16" s="36">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="U16" s="59">
+      <c r="U16" s="36">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V16" s="59">
+      <c r="V16" s="36">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="W16" s="59">
+      <c r="W16" s="36">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="X16" s="59">
+      <c r="X16" s="36">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="59">
+      <c r="Y16" s="36">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="59">
+      <c r="Z16" s="36">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AA16" s="60">
+      <c r="AA16" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -6293,7 +5870,9 @@
         <f t="shared" si="17"/>
         <v>8</v>
       </c>
-      <c r="I17" s="56"/>
+      <c r="I17" s="75" t="s">
+        <v>7</v>
+      </c>
       <c r="J17" s="14" t="s">
         <v>90</v>
       </c>
@@ -6397,56 +5976,58 @@
         <f>SUM(H13:H17)</f>
         <v>55</v>
       </c>
-      <c r="I18" s="69"/>
-      <c r="J18" s="70" t="s">
+      <c r="I18" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="K18" s="71">
+      <c r="K18" s="44">
         <f>L18+P18+T18+X18</f>
         <v>2</v>
       </c>
-      <c r="L18" s="71">
+      <c r="L18" s="44">
         <f>SUM(M18:O18)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="71">
-        <v>0</v>
-      </c>
-      <c r="N18" s="71">
-        <v>0</v>
-      </c>
-      <c r="O18" s="71">
-        <v>0</v>
-      </c>
-      <c r="P18" s="71">
+      <c r="M18" s="44">
+        <v>0</v>
+      </c>
+      <c r="N18" s="44">
+        <v>0</v>
+      </c>
+      <c r="O18" s="44">
+        <v>0</v>
+      </c>
+      <c r="P18" s="44">
         <f>SUM(Q18:S18)</f>
         <v>2</v>
       </c>
-      <c r="Q18" s="71">
-        <v>0</v>
-      </c>
-      <c r="R18" s="71">
+      <c r="Q18" s="44">
+        <v>0</v>
+      </c>
+      <c r="R18" s="44">
         <f>D16</f>
         <v>0</v>
       </c>
-      <c r="S18" s="71">
+      <c r="S18" s="44">
         <f>H16</f>
         <v>2</v>
       </c>
-      <c r="T18" s="71">
+      <c r="T18" s="44">
         <f>SUM(U18:W18)</f>
         <v>0</v>
       </c>
-      <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="71">
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44">
         <f>SUM(Y18:AA18)</f>
         <v>0</v>
       </c>
-      <c r="Y18" s="71"/>
-      <c r="Z18" s="71"/>
-      <c r="AA18" s="72"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="45"/>
     </row>
     <row r="19" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
@@ -6479,83 +6060,85 @@
         <f t="array" ref="H19">SUM(SUMIFS(H13:H17,E13:E17,{"嘉兴","海宁","桐乡"}))</f>
         <v>14</v>
       </c>
-      <c r="I19" s="73" t="s">
+      <c r="I19" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="J19" s="66" t="s">
+      <c r="J19" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="K19" s="67">
+      <c r="K19" s="41">
         <f>K14+K9+K4</f>
         <v>1200</v>
       </c>
-      <c r="L19" s="67">
+      <c r="L19" s="41">
         <f t="shared" ref="L19:AA20" si="19">L14+L9+L4</f>
         <v>152.88000000000002</v>
       </c>
-      <c r="M19" s="67">
+      <c r="M19" s="41">
         <f t="shared" si="19"/>
         <v>8.52</v>
       </c>
-      <c r="N19" s="67">
+      <c r="N19" s="41">
         <f t="shared" si="19"/>
         <v>46.320000000000007</v>
       </c>
-      <c r="O19" s="67">
+      <c r="O19" s="41">
         <f t="shared" si="19"/>
         <v>98.039999999999992</v>
       </c>
-      <c r="P19" s="67">
+      <c r="P19" s="41">
         <f t="shared" si="19"/>
         <v>297.71999999999997</v>
       </c>
-      <c r="Q19" s="67">
+      <c r="Q19" s="41">
         <f t="shared" si="19"/>
         <v>85.799999999999983</v>
       </c>
-      <c r="R19" s="67">
+      <c r="R19" s="41">
         <f t="shared" si="19"/>
         <v>98.88</v>
       </c>
-      <c r="S19" s="67">
+      <c r="S19" s="41">
         <f t="shared" si="19"/>
         <v>113.04000000000002</v>
       </c>
-      <c r="T19" s="67">
+      <c r="T19" s="41">
         <f t="shared" si="19"/>
         <v>344.28</v>
       </c>
-      <c r="U19" s="67">
+      <c r="U19" s="41">
         <f t="shared" si="19"/>
         <v>100.80000000000001</v>
       </c>
-      <c r="V19" s="67">
+      <c r="V19" s="41">
         <f t="shared" si="19"/>
         <v>102.84</v>
       </c>
-      <c r="W19" s="67">
+      <c r="W19" s="41">
         <f t="shared" si="19"/>
         <v>140.63999999999999</v>
       </c>
-      <c r="X19" s="67">
+      <c r="X19" s="41">
         <f t="shared" si="19"/>
         <v>405.12</v>
       </c>
-      <c r="Y19" s="67">
+      <c r="Y19" s="41">
         <f t="shared" si="19"/>
         <v>104.76</v>
       </c>
-      <c r="Z19" s="67">
+      <c r="Z19" s="41">
         <f t="shared" si="19"/>
         <v>122.52</v>
       </c>
-      <c r="AA19" s="68">
+      <c r="AA19" s="42">
         <f t="shared" si="19"/>
         <v>177.84</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I20" s="57"/>
+      <c r="I20" s="75" t="s">
+        <v>92</v>
+      </c>
       <c r="J20" s="14" t="s">
         <v>88</v>
       </c>
@@ -6629,81 +6212,85 @@
       </c>
     </row>
     <row r="21" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="57"/>
-      <c r="J21" s="58" t="s">
+      <c r="I21" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="K21" s="59">
+      <c r="K21" s="36">
         <f>K20/K19</f>
         <v>0.30844564583333334</v>
       </c>
-      <c r="L21" s="59">
+      <c r="L21" s="36">
         <f t="shared" ref="L21:AA21" si="20">L20/L19</f>
         <v>1.4203327773417058</v>
       </c>
-      <c r="M21" s="59">
+      <c r="M21" s="36">
         <f t="shared" si="20"/>
         <v>0.74592723004694839</v>
       </c>
-      <c r="N21" s="59">
+      <c r="N21" s="36">
         <f t="shared" si="20"/>
         <v>0.98999730138169251</v>
       </c>
-      <c r="O21" s="59">
+      <c r="O21" s="36">
         <f t="shared" si="20"/>
         <v>1.6822572419420647</v>
       </c>
-      <c r="P21" s="59">
+      <c r="P21" s="36">
         <f t="shared" si="20"/>
         <v>0.51388653768641679</v>
       </c>
-      <c r="Q21" s="59">
+      <c r="Q21" s="36">
         <f t="shared" si="20"/>
         <v>0.61764918414918435</v>
       </c>
-      <c r="R21" s="59">
+      <c r="R21" s="36">
         <f t="shared" si="20"/>
         <v>1.0113268608414241</v>
       </c>
-      <c r="S21" s="59">
+      <c r="S21" s="36">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="T21" s="59">
+      <c r="T21" s="36">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U21" s="59">
+      <c r="U21" s="36">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V21" s="59">
+      <c r="V21" s="36">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="W21" s="59">
+      <c r="W21" s="36">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="X21" s="59">
+      <c r="X21" s="36">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="59">
+      <c r="Y21" s="36">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Z21" s="59">
+      <c r="Z21" s="36">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AA21" s="60">
+      <c r="AA21" s="37">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I22" s="57"/>
+      <c r="I22" s="75" t="s">
+        <v>92</v>
+      </c>
       <c r="J22" s="14" t="s">
         <v>90</v>
       </c>
@@ -6777,90 +6364,88 @@
       </c>
     </row>
     <row r="23" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="I23" s="74"/>
-      <c r="J23" s="70" t="s">
+      <c r="I23" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="K23" s="71">
+      <c r="K23" s="44">
         <f>K8+K13+K18</f>
         <v>55</v>
       </c>
-      <c r="L23" s="71">
+      <c r="L23" s="44">
         <f>SUM(M23:O23)</f>
         <v>0</v>
       </c>
-      <c r="M23" s="71">
+      <c r="M23" s="44">
         <f>M8+M13+M18</f>
         <v>0</v>
       </c>
-      <c r="N23" s="71">
+      <c r="N23" s="44">
         <f t="shared" ref="N23:O23" si="22">N8+N13+N18</f>
         <v>0</v>
       </c>
-      <c r="O23" s="71">
+      <c r="O23" s="44">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="P23" s="71">
+      <c r="P23" s="44">
         <f>SUM(Q23:S23)</f>
         <v>55</v>
       </c>
-      <c r="Q23" s="71">
+      <c r="Q23" s="44">
         <f>Q8+Q13+Q18</f>
         <v>0</v>
       </c>
-      <c r="R23" s="71">
+      <c r="R23" s="44">
         <f t="shared" ref="R23:S23" si="23">R8+R13+R18</f>
         <v>0</v>
       </c>
-      <c r="S23" s="71">
+      <c r="S23" s="44">
         <f t="shared" si="23"/>
         <v>55</v>
       </c>
-      <c r="T23" s="71">
+      <c r="T23" s="44">
         <f>SUM(U23:W23)</f>
         <v>0</v>
       </c>
-      <c r="U23" s="71"/>
-      <c r="V23" s="71"/>
-      <c r="W23" s="71"/>
-      <c r="X23" s="71">
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44">
         <f>SUM(Y23:AA23)</f>
         <v>0</v>
       </c>
-      <c r="Y23" s="71"/>
-      <c r="Z23" s="71"/>
-      <c r="AA23" s="72"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="I19:I23"/>
+  <mergeCells count="8">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="I14:I18"/>
     <mergeCell ref="I1:AA1"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
-    <mergeCell ref="I4:I8"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="E11:H11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J4:J18 Y4:AA18 U4:W18 Q4:S18 M4:O18">
-    <cfRule type="expression" dxfId="36" priority="32">
+    <cfRule type="expression" dxfId="23" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="33">
+    <cfRule type="expression" dxfId="22" priority="33">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:J23 Y19:AA23 U19:W23 Q19:S23 M19:O23">
-    <cfRule type="expression" dxfId="34" priority="30">
+    <cfRule type="expression" dxfId="21" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="31">
+    <cfRule type="expression" dxfId="20" priority="31">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/省联动.xlsx
+++ b/省联动.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D2652\Desktop\workdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40715ADD-70F3-404C-9CAA-211E9D50EF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A366454D-80FB-4122-A5AC-570A0A328C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="390" windowWidth="25820" windowHeight="14990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2140" yWindow="1600" windowWidth="22490" windowHeight="12320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="联动数据" sheetId="1" r:id="rId1"/>
@@ -1232,6 +1232,45 @@
     <xf numFmtId="10" fontId="13" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1244,36 +1283,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1306,15 +1315,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1898,27 +1898,27 @@
       <c r="E2" s="1">
         <v>26000</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
       <c r="J2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="49" t="s">
+      <c r="O2" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
       <c r="R2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1963,11 +1963,11 @@
       <c r="E3" s="1">
         <v>12800</v>
       </c>
-      <c r="G3" s="51">
+      <c r="G3" s="64">
         <f ca="1">TODAY()</f>
         <v>45083</v>
       </c>
-      <c r="H3" s="52"/>
+      <c r="H3" s="65"/>
       <c r="I3" s="3">
         <f ca="1">TODAY()</f>
         <v>45083</v>
@@ -1975,11 +1975,11 @@
       <c r="J3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="51">
+      <c r="K3" s="64">
         <f ca="1">TODAY()</f>
         <v>45083</v>
       </c>
-      <c r="L3" s="52"/>
+      <c r="L3" s="65"/>
       <c r="M3" s="3">
         <f ca="1">TODAY()</f>
         <v>45083</v>
@@ -1987,11 +1987,11 @@
       <c r="N3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="51">
+      <c r="O3" s="64">
         <f ca="1">TODAY()</f>
         <v>45083</v>
       </c>
-      <c r="P3" s="52"/>
+      <c r="P3" s="65"/>
       <c r="Q3" s="3">
         <f ca="1">TODAY()</f>
         <v>45083</v>
@@ -2030,7 +2030,7 @@
         <f>AB3-AA3</f>
         <v>68800</v>
       </c>
-      <c r="AE3" s="62">
+      <c r="AE3" s="52">
         <f>SUM(AA3:AA6)</f>
         <v>602779</v>
       </c>
@@ -2051,31 +2051,31 @@
       <c r="E4" s="1">
         <v>12108</v>
       </c>
-      <c r="G4" s="53" cm="1">
+      <c r="G4" s="57" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">SUM(SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,{"海盐","平湖","海宁","桐乡"}))</f>
         <v>0</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="55" t="s">
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="53" cm="1">
+      <c r="K4" s="57" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">SUM(SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,{"红星","月星","六空"}))</f>
         <v>0</v>
       </c>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="55" t="s">
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="53">
+      <c r="O4" s="57">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY())</f>
         <v>0</v>
       </c>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="55" t="s">
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="59" t="s">
         <v>21</v>
       </c>
       <c r="W4" s="22" t="s">
@@ -2108,7 +2108,7 @@
         <f t="shared" ref="AD4:AD9" si="2">AB4-AA4</f>
         <v>74116</v>
       </c>
-      <c r="AE4" s="62"/>
+      <c r="AE4" s="52"/>
     </row>
     <row r="5" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -2126,18 +2126,18 @@
       <c r="E5" s="1">
         <v>22800</v>
       </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="55"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="59"/>
       <c r="W5" s="22" t="s">
         <v>107</v>
       </c>
@@ -2168,7 +2168,7 @@
         <f t="shared" si="2"/>
         <v>-67197</v>
       </c>
-      <c r="AE5" s="62"/>
+      <c r="AE5" s="52"/>
     </row>
     <row r="6" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -2186,18 +2186,18 @@
       <c r="E6" s="1">
         <v>50000</v>
       </c>
-      <c r="G6" s="53"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="55"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="59"/>
       <c r="W6" s="22" t="s">
         <v>108</v>
       </c>
@@ -2228,7 +2228,7 @@
         <f t="shared" si="2"/>
         <v>-28498</v>
       </c>
-      <c r="AE6" s="62"/>
+      <c r="AE6" s="52"/>
     </row>
     <row r="7" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -2246,18 +2246,18 @@
       <c r="E7" s="1">
         <v>16600</v>
       </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="55"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="59"/>
       <c r="W7" s="22" t="s">
         <v>109</v>
       </c>
@@ -2288,7 +2288,7 @@
         <f t="shared" si="2"/>
         <v>44612</v>
       </c>
-      <c r="AE7" s="62">
+      <c r="AE7" s="52">
         <f>SUM(AA7:AA9)</f>
         <v>575288</v>
       </c>
@@ -2309,30 +2309,30 @@
       <c r="E8" s="1">
         <v>6500</v>
       </c>
-      <c r="G8" s="56" t="e">
+      <c r="G8" s="53" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY())/SUMIFS($E:$E,$C:$C,TODAY()-1)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
       <c r="J8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="56" t="e">
+      <c r="K8" s="53" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,K2)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,K2)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
       <c r="N8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="56" t="e">
+      <c r="O8" s="53" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY())/SUMIFS($E:$E,$C:$C,TODAY()-1)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
       <c r="R8" s="4" t="s">
         <v>23</v>
       </c>
@@ -2366,7 +2366,7 @@
         <f t="shared" si="2"/>
         <v>-726</v>
       </c>
-      <c r="AE8" s="62"/>
+      <c r="AE8" s="52"/>
     </row>
     <row r="9" spans="1:31" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -2381,30 +2381,30 @@
       <c r="E9" s="1">
         <v>22800</v>
       </c>
-      <c r="G9" s="58" cm="1">
+      <c r="G9" s="60" cm="1">
         <f t="array" ref="G9">SUM(SUMIFS($E:$E,$B:$B,{"海盐","平湖","海宁","桐乡"}))</f>
         <v>602779</v>
       </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
       <c r="J9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="58" cm="1">
+      <c r="K9" s="60" cm="1">
         <f t="array" ref="K9">SUM(SUMIFS($E:$E,$B:$B,{"红星","月星","六空"}))</f>
         <v>575288</v>
       </c>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
       <c r="N9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="58">
+      <c r="O9" s="60">
         <f>SUM($E:$E)</f>
         <v>1178067</v>
       </c>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
       <c r="R9" s="4" t="s">
         <v>17</v>
       </c>
@@ -2438,7 +2438,7 @@
         <f t="shared" si="2"/>
         <v>-19174</v>
       </c>
-      <c r="AE9" s="62"/>
+      <c r="AE9" s="52"/>
     </row>
     <row r="10" spans="1:31" ht="17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -2456,27 +2456,27 @@
       <c r="E10" s="1">
         <v>19999</v>
       </c>
-      <c r="G10" s="58">
+      <c r="G10" s="60">
         <v>650000</v>
       </c>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
       <c r="J10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="58">
+      <c r="K10" s="60">
         <v>600000</v>
       </c>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
       <c r="N10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="58">
+      <c r="O10" s="60">
         <v>1250000</v>
       </c>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
       <c r="R10" s="4" t="s">
         <v>18</v>
       </c>
@@ -2532,30 +2532,30 @@
       <c r="E11" s="1">
         <v>45776</v>
       </c>
-      <c r="G11" s="56">
+      <c r="G11" s="53">
         <f>G9/G10</f>
         <v>0.9273523076923077</v>
       </c>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
       <c r="J11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="56">
+      <c r="K11" s="53">
         <f>K9/K10</f>
         <v>0.9588133333333333</v>
       </c>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
       <c r="N11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O11" s="56">
+      <c r="O11" s="53">
         <f>O9/O10</f>
         <v>0.9424536</v>
       </c>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
       <c r="R11" s="4" t="s">
         <v>19</v>
       </c>
@@ -2576,30 +2576,30 @@
       <c r="E12" s="1">
         <v>1600</v>
       </c>
-      <c r="G12" s="60">
+      <c r="G12" s="55">
         <f>G9-G10</f>
         <v>-47221</v>
       </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
       <c r="J12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="60">
+      <c r="K12" s="55">
         <f>K9-K10</f>
         <v>-24712</v>
       </c>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
       <c r="N12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="60">
+      <c r="O12" s="55">
         <f>O9-O10</f>
         <v>-71933</v>
       </c>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
       <c r="R12" s="6" t="s">
         <v>20</v>
       </c>
@@ -2620,35 +2620,35 @@
       <c r="E13" s="1">
         <v>21200</v>
       </c>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
       <c r="J13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K13" s="49" t="s">
+      <c r="K13" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
       <c r="N13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O13" s="49" t="s">
+      <c r="O13" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
       <c r="R13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="S13" s="49" t="s">
+      <c r="S13" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="5" t="s">
         <v>2</v>
       </c>
@@ -2669,11 +2669,11 @@
       <c r="E14" s="1">
         <v>5500</v>
       </c>
-      <c r="G14" s="51">
+      <c r="G14" s="64">
         <f ca="1">TODAY()</f>
         <v>45083</v>
       </c>
-      <c r="H14" s="52"/>
+      <c r="H14" s="65"/>
       <c r="I14" s="3">
         <f ca="1">TODAY()</f>
         <v>45083</v>
@@ -2681,11 +2681,11 @@
       <c r="J14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="51">
+      <c r="K14" s="64">
         <f ca="1">TODAY()</f>
         <v>45083</v>
       </c>
-      <c r="L14" s="52"/>
+      <c r="L14" s="65"/>
       <c r="M14" s="3">
         <f ca="1">TODAY()</f>
         <v>45083</v>
@@ -2693,11 +2693,11 @@
       <c r="N14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O14" s="51">
+      <c r="O14" s="64">
         <f ca="1">TODAY()</f>
         <v>45083</v>
       </c>
-      <c r="P14" s="52"/>
+      <c r="P14" s="65"/>
       <c r="Q14" s="3">
         <f ca="1">TODAY()</f>
         <v>45083</v>
@@ -2705,11 +2705,11 @@
       <c r="R14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="S14" s="51">
+      <c r="S14" s="64">
         <f ca="1">TODAY()</f>
         <v>45083</v>
       </c>
-      <c r="T14" s="52"/>
+      <c r="T14" s="65"/>
       <c r="U14" s="3">
         <f ca="1">TODAY()</f>
         <v>45083</v>
@@ -2734,40 +2734,40 @@
       <c r="E15" s="1">
         <v>14000</v>
       </c>
-      <c r="G15" s="53">
+      <c r="G15" s="57">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,G13)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="55" t="s">
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="53">
+      <c r="K15" s="57">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,K13)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="55" t="s">
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="O15" s="53">
+      <c r="O15" s="57">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,O13)</f>
         <v>0</v>
       </c>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="55" t="s">
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="S15" s="53">
+      <c r="S15" s="57">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,S13)</f>
         <v>0</v>
       </c>
-      <c r="T15" s="54"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="55" t="s">
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="59" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2787,22 +2787,22 @@
       <c r="E16" s="1">
         <v>58000</v>
       </c>
-      <c r="G16" s="53"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="55"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="59"/>
     </row>
     <row r="17" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -2820,22 +2820,22 @@
       <c r="E17" s="1">
         <v>12000</v>
       </c>
-      <c r="G17" s="53"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="55"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="58"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="59"/>
     </row>
     <row r="18" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -2853,22 +2853,22 @@
       <c r="E18" s="1">
         <v>3599</v>
       </c>
-      <c r="G18" s="53"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="55"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="59"/>
     </row>
     <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -2886,39 +2886,39 @@
       <c r="E19" s="1">
         <v>9000</v>
       </c>
-      <c r="G19" s="56" t="e">
+      <c r="G19" s="53" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,G13)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,G13)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
       <c r="J19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="56" t="e">
+      <c r="K19" s="53" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,K13)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,K13)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
       <c r="N19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O19" s="56" t="e">
+      <c r="O19" s="53" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,O13)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,O13)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
       <c r="R19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S19" s="56" t="e">
+      <c r="S19" s="53" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,S13)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,S13)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T19" s="57"/>
-      <c r="U19" s="57"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="54"/>
       <c r="V19" s="4" t="s">
         <v>23</v>
       </c>
@@ -2939,39 +2939,39 @@
       <c r="E20" s="1">
         <v>5999</v>
       </c>
-      <c r="G20" s="58">
+      <c r="G20" s="60">
         <f>SUMIFS($E:$E,$B:$B,G13)</f>
         <v>171200</v>
       </c>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
       <c r="J20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="58">
+      <c r="K20" s="60">
         <f>SUMIFS($E:$E,$B:$B,K13)</f>
         <v>135884</v>
       </c>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
       <c r="N20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O20" s="58">
+      <c r="O20" s="60">
         <f>SUMIFS($E:$E,$B:$B,O13)</f>
         <v>200726</v>
       </c>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
       <c r="R20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S20" s="58">
+      <c r="S20" s="60">
         <f>SUMIFS($E:$E,$B:$B,S13)</f>
         <v>155388</v>
       </c>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="61"/>
       <c r="V20" s="4" t="s">
         <v>17</v>
       </c>
@@ -2992,35 +2992,35 @@
       <c r="E21" s="1">
         <v>9500</v>
       </c>
-      <c r="G21" s="58">
+      <c r="G21" s="60">
         <v>240000</v>
       </c>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
       <c r="J21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="58">
+      <c r="K21" s="60">
         <v>210000</v>
       </c>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
       <c r="N21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O21" s="58">
+      <c r="O21" s="60">
         <v>200000</v>
       </c>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
       <c r="R21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S21" s="58">
+      <c r="S21" s="60">
         <v>200000</v>
       </c>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="61"/>
       <c r="V21" s="4" t="s">
         <v>18</v>
       </c>
@@ -3041,39 +3041,39 @@
       <c r="E22" s="1">
         <v>9698</v>
       </c>
-      <c r="G22" s="56">
+      <c r="G22" s="53">
         <f>G20/G21</f>
         <v>0.71333333333333337</v>
       </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
       <c r="J22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K22" s="56">
+      <c r="K22" s="53">
         <f>K20/K21</f>
         <v>0.64706666666666668</v>
       </c>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
       <c r="N22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O22" s="56">
+      <c r="O22" s="53">
         <f>O20/O21</f>
         <v>1.00363</v>
       </c>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
       <c r="R22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S22" s="56">
+      <c r="S22" s="53">
         <f>S20/S21</f>
         <v>0.77693999999999996</v>
       </c>
-      <c r="T22" s="57"/>
-      <c r="U22" s="57"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
       <c r="V22" s="4" t="s">
         <v>19</v>
       </c>
@@ -3094,39 +3094,39 @@
       <c r="E23" s="1">
         <v>14500</v>
       </c>
-      <c r="G23" s="60">
+      <c r="G23" s="55">
         <f>G20-G21</f>
         <v>-68800</v>
       </c>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
       <c r="J23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="60">
+      <c r="K23" s="55">
         <f>K20-K21</f>
         <v>-74116</v>
       </c>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
       <c r="N23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="60">
+      <c r="O23" s="55">
         <f>O20-O21</f>
         <v>726</v>
       </c>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
       <c r="R23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S23" s="60">
+      <c r="S23" s="55">
         <f>S20-S21</f>
         <v>-44612</v>
       </c>
-      <c r="T23" s="61"/>
-      <c r="U23" s="61"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
       <c r="V23" s="6" t="s">
         <v>20</v>
       </c>
@@ -3147,27 +3147,27 @@
       <c r="E24" s="1">
         <v>12000</v>
       </c>
-      <c r="G24" s="49" t="s">
+      <c r="G24" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
       <c r="J24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K24" s="49" t="s">
+      <c r="K24" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
       <c r="N24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O24" s="49" t="s">
+      <c r="O24" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
       <c r="R24" s="5" t="s">
         <v>2</v>
       </c>
@@ -3188,11 +3188,11 @@
       <c r="E25" s="1">
         <v>5999</v>
       </c>
-      <c r="G25" s="51">
+      <c r="G25" s="64">
         <f ca="1">TODAY()</f>
         <v>45083</v>
       </c>
-      <c r="H25" s="52"/>
+      <c r="H25" s="65"/>
       <c r="I25" s="3">
         <f ca="1">TODAY()</f>
         <v>45083</v>
@@ -3200,11 +3200,11 @@
       <c r="J25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K25" s="51">
+      <c r="K25" s="64">
         <f ca="1">TODAY()</f>
         <v>45083</v>
       </c>
-      <c r="L25" s="52"/>
+      <c r="L25" s="65"/>
       <c r="M25" s="3">
         <f ca="1">TODAY()</f>
         <v>45083</v>
@@ -3212,11 +3212,11 @@
       <c r="N25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O25" s="51">
+      <c r="O25" s="64">
         <f ca="1">TODAY()</f>
         <v>45083</v>
       </c>
-      <c r="P25" s="52"/>
+      <c r="P25" s="65"/>
       <c r="Q25" s="3">
         <f ca="1">TODAY()</f>
         <v>45083</v>
@@ -3241,31 +3241,31 @@
       <c r="E26" s="1">
         <v>15800</v>
       </c>
-      <c r="G26" s="53">
+      <c r="G26" s="57">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,G24)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="55" t="s">
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="53">
+      <c r="K26" s="57">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,K24)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="55" t="s">
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="53">
+      <c r="O26" s="57">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,O24)</f>
         <v>0</v>
       </c>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="55" t="s">
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="59" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3285,18 +3285,18 @@
       <c r="E27" s="1">
         <v>7000</v>
       </c>
-      <c r="G27" s="53"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="55"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="59"/>
     </row>
     <row r="28" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -3314,18 +3314,18 @@
       <c r="E28" s="1">
         <v>26800</v>
       </c>
-      <c r="G28" s="53"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="55"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="59"/>
     </row>
     <row r="29" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -3343,18 +3343,18 @@
       <c r="E29" s="1">
         <v>11000</v>
       </c>
-      <c r="G29" s="53"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="55"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="59"/>
     </row>
     <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -3372,30 +3372,30 @@
       <c r="E30" s="1">
         <v>11388</v>
       </c>
-      <c r="G30" s="56" t="e">
+      <c r="G30" s="53" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,G24)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,G24)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
       <c r="J30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K30" s="56" t="e">
+      <c r="K30" s="53" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,K24)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,K24)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
       <c r="N30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O30" s="56" t="e">
+      <c r="O30" s="53" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,O24)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,O24)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="57"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
       <c r="R30" s="4" t="s">
         <v>23</v>
       </c>
@@ -3416,30 +3416,30 @@
       <c r="E31" s="1">
         <v>24499</v>
       </c>
-      <c r="G31" s="58">
+      <c r="G31" s="60">
         <f>SUMIFS($E:$E,$B:$B,G24)</f>
         <v>167197</v>
       </c>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
       <c r="J31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K31" s="58">
+      <c r="K31" s="60">
         <f>SUMIFS($E:$E,$B:$B,K24)</f>
         <v>128498</v>
       </c>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
       <c r="N31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O31" s="58">
+      <c r="O31" s="60">
         <f>SUMIFS($E:$E,$B:$B,O24)</f>
         <v>219174</v>
       </c>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="61"/>
       <c r="R31" s="4" t="s">
         <v>17</v>
       </c>
@@ -3460,27 +3460,27 @@
       <c r="E32" s="1">
         <v>6500</v>
       </c>
-      <c r="G32" s="58">
+      <c r="G32" s="60">
         <v>100000</v>
       </c>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
       <c r="J32" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K32" s="58">
+      <c r="K32" s="60">
         <v>100000</v>
       </c>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
       <c r="N32" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O32" s="58">
+      <c r="O32" s="60">
         <v>200000</v>
       </c>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="61"/>
       <c r="R32" s="4" t="s">
         <v>18</v>
       </c>
@@ -3501,30 +3501,30 @@
       <c r="E33" s="1">
         <v>12800</v>
       </c>
-      <c r="G33" s="56">
+      <c r="G33" s="53">
         <f>G31/G32</f>
         <v>1.67197</v>
       </c>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
       <c r="J33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K33" s="56">
+      <c r="K33" s="53">
         <f>K31/K32</f>
         <v>1.28498</v>
       </c>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
       <c r="N33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O33" s="56">
+      <c r="O33" s="53">
         <f>O31/O32</f>
         <v>1.0958699999999999</v>
       </c>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="57"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
       <c r="R33" s="4" t="s">
         <v>19</v>
       </c>
@@ -3545,30 +3545,30 @@
       <c r="E34" s="1">
         <v>8500</v>
       </c>
-      <c r="G34" s="60">
+      <c r="G34" s="55">
         <f>G31-G32</f>
         <v>67197</v>
       </c>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
       <c r="J34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="60">
+      <c r="K34" s="55">
         <f>K31-K32</f>
         <v>28498</v>
       </c>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
       <c r="N34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O34" s="60">
+      <c r="O34" s="55">
         <f>O31-O32</f>
         <v>19174</v>
       </c>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="61"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="56"/>
       <c r="R34" s="6" t="s">
         <v>20</v>
       </c>
@@ -4255,6 +4255,82 @@
     <sortCondition ref="C2:C55"/>
   </sortState>
   <mergeCells count="92">
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:Q7"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:M29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:I29"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:I18"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:I7"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:M7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:M18"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:U18"/>
+    <mergeCell ref="R15:R18"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="S21:U21"/>
     <mergeCell ref="AE3:AE6"/>
     <mergeCell ref="AE7:AE9"/>
     <mergeCell ref="O33:Q33"/>
@@ -4271,82 +4347,6 @@
     <mergeCell ref="O25:P25"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="O15:Q18"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:U18"/>
-    <mergeCell ref="R15:R18"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:M7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:M18"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:I7"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:I18"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:M29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:I29"/>
-    <mergeCell ref="J26:J29"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:Q7"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="O8:Q8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G12:I12 G23:I23 K23:M23 G34:I34 K34:M34">
@@ -4427,7 +4427,7 @@
   <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4457,39 +4457,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="63" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65" t="s">
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="67"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="70"/>
     </row>
     <row r="2" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -4516,13 +4516,13 @@
       <c r="H2" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="I2" s="68" t="s">
+      <c r="I2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="70" t="s">
+      <c r="J2" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="72" t="s">
+      <c r="K2" s="75" t="s">
         <v>59</v>
       </c>
       <c r="L2" s="46" t="s">
@@ -4599,9 +4599,9 @@
       <c r="H3" s="9">
         <v>39009</v>
       </c>
-      <c r="I3" s="69"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="73"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="76"/>
       <c r="L3" s="47">
         <v>0.12740000000000001</v>
       </c>
@@ -4676,7 +4676,7 @@
       <c r="H4" s="9">
         <v>396562</v>
       </c>
-      <c r="I4" s="74" t="s">
+      <c r="I4" s="49" t="s">
         <v>84</v>
       </c>
       <c r="J4" s="40" t="s">
@@ -4775,7 +4775,7 @@
       <c r="H5" s="9">
         <v>33223</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="50" t="s">
         <v>84</v>
       </c>
       <c r="J5" s="14" t="s">
@@ -4854,7 +4854,7 @@
       <c r="H6" s="9">
         <v>24502</v>
       </c>
-      <c r="I6" s="75" t="s">
+      <c r="I6" s="50" t="s">
         <v>84</v>
       </c>
       <c r="J6" s="48" t="s">
@@ -4954,7 +4954,7 @@
       <c r="H7" s="9">
         <v>82186</v>
       </c>
-      <c r="I7" s="75" t="s">
+      <c r="I7" s="50" t="s">
         <v>84</v>
       </c>
       <c r="J7" s="15" t="s">
@@ -5060,7 +5060,7 @@
         <f>SUM(H3:H7)</f>
         <v>575482</v>
       </c>
-      <c r="I8" s="76" t="s">
+      <c r="I8" s="51" t="s">
         <v>84</v>
       </c>
       <c r="J8" s="43" t="s">
@@ -5144,7 +5144,7 @@
         <f t="array" ref="H9">SUM(SUMIFS(H3:H7,E3:E7,{"嘉兴","海宁","桐乡"}))</f>
         <v>154418</v>
       </c>
-      <c r="I9" s="74" t="s">
+      <c r="I9" s="49" t="s">
         <v>5</v>
       </c>
       <c r="J9" s="40" t="s">
@@ -5219,7 +5219,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I10" s="75" t="s">
+      <c r="I10" s="50" t="s">
         <v>5</v>
       </c>
       <c r="J10" s="14" t="s">
@@ -5273,19 +5273,19 @@
       <c r="AA10" s="17"/>
     </row>
     <row r="11" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="63" t="s">
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="75" t="s">
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="50" t="s">
         <v>5</v>
       </c>
       <c r="J11" s="35" t="s">
@@ -5385,7 +5385,7 @@
       <c r="H12" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="I12" s="75" t="s">
+      <c r="I12" s="50" t="s">
         <v>5</v>
       </c>
       <c r="J12" s="14" t="s">
@@ -5491,7 +5491,7 @@
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="I13" s="76" t="s">
+      <c r="I13" s="51" t="s">
         <v>5</v>
       </c>
       <c r="J13" s="43" t="s">
@@ -5575,7 +5575,7 @@
         <f t="shared" si="9"/>
         <v>39</v>
       </c>
-      <c r="I14" s="74" t="s">
+      <c r="I14" s="49" t="s">
         <v>7</v>
       </c>
       <c r="J14" s="40" t="s">
@@ -5680,7 +5680,7 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="I15" s="75" t="s">
+      <c r="I15" s="50" t="s">
         <v>7</v>
       </c>
       <c r="J15" s="14" t="s">
@@ -5764,7 +5764,7 @@
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="I16" s="75" t="s">
+      <c r="I16" s="50" t="s">
         <v>7</v>
       </c>
       <c r="J16" s="35" t="s">
@@ -5870,7 +5870,7 @@
         <f t="shared" si="17"/>
         <v>8</v>
       </c>
-      <c r="I17" s="75" t="s">
+      <c r="I17" s="50" t="s">
         <v>7</v>
       </c>
       <c r="J17" s="14" t="s">
@@ -5976,7 +5976,7 @@
         <f>SUM(H13:H17)</f>
         <v>55</v>
       </c>
-      <c r="I18" s="76" t="s">
+      <c r="I18" s="51" t="s">
         <v>7</v>
       </c>
       <c r="J18" s="43" t="s">
@@ -6060,7 +6060,7 @@
         <f t="array" ref="H19">SUM(SUMIFS(H13:H17,E13:E17,{"嘉兴","海宁","桐乡"}))</f>
         <v>14</v>
       </c>
-      <c r="I19" s="74" t="s">
+      <c r="I19" s="49" t="s">
         <v>92</v>
       </c>
       <c r="J19" s="40" t="s">
@@ -6136,7 +6136,7 @@
       </c>
     </row>
     <row r="20" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I20" s="75" t="s">
+      <c r="I20" s="50" t="s">
         <v>92</v>
       </c>
       <c r="J20" s="14" t="s">
@@ -6212,7 +6212,7 @@
       </c>
     </row>
     <row r="21" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="75" t="s">
+      <c r="I21" s="50" t="s">
         <v>92</v>
       </c>
       <c r="J21" s="35" t="s">
@@ -6288,7 +6288,7 @@
       </c>
     </row>
     <row r="22" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I22" s="75" t="s">
+      <c r="I22" s="50" t="s">
         <v>92</v>
       </c>
       <c r="J22" s="14" t="s">
@@ -6364,7 +6364,7 @@
       </c>
     </row>
     <row r="23" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="I23" s="76" t="s">
+      <c r="I23" s="51" t="s">
         <v>92</v>
       </c>
       <c r="J23" s="43" t="s">

--- a/省联动.xlsx
+++ b/省联动.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D2652\Desktop\workdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A366454D-80FB-4122-A5AC-570A0A328C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C23C54D-6657-40E3-ADFF-EA21AFDC9625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="1600" windowWidth="22490" windowHeight="12320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="390" windowWidth="25820" windowHeight="14990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="联动数据" sheetId="1" r:id="rId1"/>
@@ -1241,47 +1241,47 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1898,27 +1898,27 @@
       <c r="E2" s="1">
         <v>26000</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
       <c r="J2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="62" t="s">
+      <c r="K2" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="62" t="s">
+      <c r="O2" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
       <c r="R2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1963,38 +1963,38 @@
       <c r="E3" s="1">
         <v>12800</v>
       </c>
-      <c r="G3" s="64">
+      <c r="G3" s="54">
         <f ca="1">TODAY()</f>
-        <v>45083</v>
-      </c>
-      <c r="H3" s="65"/>
+        <v>45084</v>
+      </c>
+      <c r="H3" s="55"/>
       <c r="I3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="64">
+      <c r="K3" s="54">
         <f ca="1">TODAY()</f>
-        <v>45083</v>
-      </c>
-      <c r="L3" s="65"/>
+        <v>45084</v>
+      </c>
+      <c r="L3" s="55"/>
       <c r="M3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="64">
+      <c r="O3" s="54">
         <f ca="1">TODAY()</f>
-        <v>45083</v>
-      </c>
-      <c r="P3" s="65"/>
+        <v>45084</v>
+      </c>
+      <c r="P3" s="55"/>
       <c r="Q3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>1</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="X3" s="23">
         <f ca="1">TODAY()</f>
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="Y3" s="24">
         <f ca="1">G15</f>
@@ -2030,7 +2030,7 @@
         <f>AB3-AA3</f>
         <v>68800</v>
       </c>
-      <c r="AE3" s="52">
+      <c r="AE3" s="65">
         <f>SUM(AA3:AA6)</f>
         <v>602779</v>
       </c>
@@ -2051,31 +2051,31 @@
       <c r="E4" s="1">
         <v>12108</v>
       </c>
-      <c r="G4" s="57" cm="1">
+      <c r="G4" s="56" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">SUM(SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,{"海盐","平湖","海宁","桐乡"}))</f>
         <v>0</v>
       </c>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59" t="s">
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="57" cm="1">
+      <c r="K4" s="56" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">SUM(SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,{"红星","月星","六空"}))</f>
         <v>0</v>
       </c>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="59" t="s">
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="57">
+      <c r="O4" s="56">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY())</f>
         <v>0</v>
       </c>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="59" t="s">
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="58" t="s">
         <v>21</v>
       </c>
       <c r="W4" s="22" t="s">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="X4" s="23">
         <f t="shared" ref="X4:X10" ca="1" si="0">TODAY()</f>
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="Y4" s="24">
         <f ca="1">K15</f>
@@ -2108,7 +2108,7 @@
         <f t="shared" ref="AD4:AD9" si="2">AB4-AA4</f>
         <v>74116</v>
       </c>
-      <c r="AE4" s="52"/>
+      <c r="AE4" s="65"/>
     </row>
     <row r="5" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -2126,24 +2126,24 @@
       <c r="E5" s="1">
         <v>22800</v>
       </c>
-      <c r="G5" s="57"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="59"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="58"/>
       <c r="W5" s="22" t="s">
         <v>107</v>
       </c>
       <c r="X5" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="Y5" s="24">
         <f ca="1">G26</f>
@@ -2168,7 +2168,7 @@
         <f t="shared" si="2"/>
         <v>-67197</v>
       </c>
-      <c r="AE5" s="52"/>
+      <c r="AE5" s="65"/>
     </row>
     <row r="6" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -2186,24 +2186,24 @@
       <c r="E6" s="1">
         <v>50000</v>
       </c>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="59"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="58"/>
       <c r="W6" s="22" t="s">
         <v>108</v>
       </c>
       <c r="X6" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="Y6" s="24">
         <f ca="1">K26</f>
@@ -2228,7 +2228,7 @@
         <f t="shared" si="2"/>
         <v>-28498</v>
       </c>
-      <c r="AE6" s="52"/>
+      <c r="AE6" s="65"/>
     </row>
     <row r="7" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -2246,24 +2246,24 @@
       <c r="E7" s="1">
         <v>16600</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="59"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="58"/>
       <c r="W7" s="22" t="s">
         <v>109</v>
       </c>
       <c r="X7" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="Y7" s="24">
         <f ca="1">S15</f>
@@ -2288,7 +2288,7 @@
         <f t="shared" si="2"/>
         <v>44612</v>
       </c>
-      <c r="AE7" s="52">
+      <c r="AE7" s="65">
         <f>SUM(AA7:AA9)</f>
         <v>575288</v>
       </c>
@@ -2309,30 +2309,30 @@
       <c r="E8" s="1">
         <v>6500</v>
       </c>
-      <c r="G8" s="53" t="e">
+      <c r="G8" s="59" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY())/SUMIFS($E:$E,$C:$C,TODAY()-1)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
       <c r="J8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="53" t="e">
+      <c r="K8" s="59" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,K2)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,K2)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
       <c r="N8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="53" t="e">
+      <c r="O8" s="59" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY())/SUMIFS($E:$E,$C:$C,TODAY()-1)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
       <c r="R8" s="4" t="s">
         <v>23</v>
       </c>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="X8" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="Y8" s="24">
         <f ca="1">O15</f>
@@ -2366,7 +2366,7 @@
         <f t="shared" si="2"/>
         <v>-726</v>
       </c>
-      <c r="AE8" s="52"/>
+      <c r="AE8" s="65"/>
     </row>
     <row r="9" spans="1:31" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -2381,30 +2381,30 @@
       <c r="E9" s="1">
         <v>22800</v>
       </c>
-      <c r="G9" s="60" cm="1">
+      <c r="G9" s="61" cm="1">
         <f t="array" ref="G9">SUM(SUMIFS($E:$E,$B:$B,{"海盐","平湖","海宁","桐乡"}))</f>
         <v>602779</v>
       </c>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
       <c r="J9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="60" cm="1">
+      <c r="K9" s="61" cm="1">
         <f t="array" ref="K9">SUM(SUMIFS($E:$E,$B:$B,{"红星","月星","六空"}))</f>
         <v>575288</v>
       </c>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
       <c r="N9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="60">
+      <c r="O9" s="61">
         <f>SUM($E:$E)</f>
         <v>1178067</v>
       </c>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
       <c r="R9" s="4" t="s">
         <v>17</v>
       </c>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="X9" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="Y9" s="24">
         <f ca="1">O26</f>
@@ -2438,7 +2438,7 @@
         <f t="shared" si="2"/>
         <v>-19174</v>
       </c>
-      <c r="AE9" s="52"/>
+      <c r="AE9" s="65"/>
     </row>
     <row r="10" spans="1:31" ht="17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -2456,27 +2456,27 @@
       <c r="E10" s="1">
         <v>19999</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G10" s="61">
         <v>650000</v>
       </c>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
       <c r="J10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="60">
+      <c r="K10" s="61">
         <v>600000</v>
       </c>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
       <c r="N10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="60">
+      <c r="O10" s="61">
         <v>1250000</v>
       </c>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
       <c r="R10" s="4" t="s">
         <v>18</v>
       </c>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="X10" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="Y10" s="28">
         <f ca="1">SUM(Y3:Y9)</f>
@@ -2532,30 +2532,30 @@
       <c r="E11" s="1">
         <v>45776</v>
       </c>
-      <c r="G11" s="53">
+      <c r="G11" s="59">
         <f>G9/G10</f>
         <v>0.9273523076923077</v>
       </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
       <c r="J11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="53">
+      <c r="K11" s="59">
         <f>K9/K10</f>
         <v>0.9588133333333333</v>
       </c>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
       <c r="N11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O11" s="53">
+      <c r="O11" s="59">
         <f>O9/O10</f>
         <v>0.9424536</v>
       </c>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
       <c r="R11" s="4" t="s">
         <v>19</v>
       </c>
@@ -2576,30 +2576,30 @@
       <c r="E12" s="1">
         <v>1600</v>
       </c>
-      <c r="G12" s="55">
+      <c r="G12" s="63">
         <f>G9-G10</f>
         <v>-47221</v>
       </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
       <c r="J12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="55">
+      <c r="K12" s="63">
         <f>K9-K10</f>
         <v>-24712</v>
       </c>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
       <c r="N12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="55">
+      <c r="O12" s="63">
         <f>O9-O10</f>
         <v>-71933</v>
       </c>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
       <c r="R12" s="6" t="s">
         <v>20</v>
       </c>
@@ -2620,35 +2620,35 @@
       <c r="E13" s="1">
         <v>21200</v>
       </c>
-      <c r="G13" s="62" t="s">
+      <c r="G13" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
       <c r="J13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K13" s="62" t="s">
+      <c r="K13" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
       <c r="N13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O13" s="62" t="s">
+      <c r="O13" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
       <c r="R13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="S13" s="62" t="s">
+      <c r="S13" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="T13" s="63"/>
-      <c r="U13" s="63"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
       <c r="V13" s="5" t="s">
         <v>2</v>
       </c>
@@ -2669,50 +2669,50 @@
       <c r="E14" s="1">
         <v>5500</v>
       </c>
-      <c r="G14" s="64">
+      <c r="G14" s="54">
         <f ca="1">TODAY()</f>
-        <v>45083</v>
-      </c>
-      <c r="H14" s="65"/>
+        <v>45084</v>
+      </c>
+      <c r="H14" s="55"/>
       <c r="I14" s="3">
         <f ca="1">TODAY()</f>
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="64">
+      <c r="K14" s="54">
         <f ca="1">TODAY()</f>
-        <v>45083</v>
-      </c>
-      <c r="L14" s="65"/>
+        <v>45084</v>
+      </c>
+      <c r="L14" s="55"/>
       <c r="M14" s="3">
         <f ca="1">TODAY()</f>
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O14" s="64">
+      <c r="O14" s="54">
         <f ca="1">TODAY()</f>
-        <v>45083</v>
-      </c>
-      <c r="P14" s="65"/>
+        <v>45084</v>
+      </c>
+      <c r="P14" s="55"/>
       <c r="Q14" s="3">
         <f ca="1">TODAY()</f>
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="R14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="S14" s="64">
+      <c r="S14" s="54">
         <f ca="1">TODAY()</f>
-        <v>45083</v>
-      </c>
-      <c r="T14" s="65"/>
+        <v>45084</v>
+      </c>
+      <c r="T14" s="55"/>
       <c r="U14" s="3">
         <f ca="1">TODAY()</f>
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="V14" s="4" t="s">
         <v>1</v>
@@ -2734,40 +2734,40 @@
       <c r="E15" s="1">
         <v>14000</v>
       </c>
-      <c r="G15" s="57">
+      <c r="G15" s="56">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,G13)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="59" t="s">
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="57">
+      <c r="K15" s="56">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,K13)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="59" t="s">
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="O15" s="57">
+      <c r="O15" s="56">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,O13)</f>
         <v>0</v>
       </c>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="59" t="s">
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="S15" s="57">
+      <c r="S15" s="56">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,S13)</f>
         <v>0</v>
       </c>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="59" t="s">
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="58" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2787,22 +2787,22 @@
       <c r="E16" s="1">
         <v>58000</v>
       </c>
-      <c r="G16" s="57"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="59"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="58"/>
     </row>
     <row r="17" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -2820,22 +2820,22 @@
       <c r="E17" s="1">
         <v>12000</v>
       </c>
-      <c r="G17" s="57"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="58"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="59"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="58"/>
     </row>
     <row r="18" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -2853,22 +2853,22 @@
       <c r="E18" s="1">
         <v>3599</v>
       </c>
-      <c r="G18" s="57"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="59"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="58"/>
     </row>
     <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -2886,39 +2886,39 @@
       <c r="E19" s="1">
         <v>9000</v>
       </c>
-      <c r="G19" s="53" t="e">
+      <c r="G19" s="59" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,G13)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,G13)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
       <c r="J19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="53" t="e">
+      <c r="K19" s="59" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,K13)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,K13)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
       <c r="N19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O19" s="53" t="e">
+      <c r="O19" s="59" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,O13)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,O13)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
       <c r="R19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S19" s="53" t="e">
+      <c r="S19" s="59" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,S13)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,S13)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T19" s="54"/>
-      <c r="U19" s="54"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="60"/>
       <c r="V19" s="4" t="s">
         <v>23</v>
       </c>
@@ -2939,39 +2939,39 @@
       <c r="E20" s="1">
         <v>5999</v>
       </c>
-      <c r="G20" s="60">
+      <c r="G20" s="61">
         <f>SUMIFS($E:$E,$B:$B,G13)</f>
         <v>171200</v>
       </c>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
       <c r="J20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="60">
+      <c r="K20" s="61">
         <f>SUMIFS($E:$E,$B:$B,K13)</f>
         <v>135884</v>
       </c>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
       <c r="N20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O20" s="60">
+      <c r="O20" s="61">
         <f>SUMIFS($E:$E,$B:$B,O13)</f>
         <v>200726</v>
       </c>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="61"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
       <c r="R20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S20" s="60">
+      <c r="S20" s="61">
         <f>SUMIFS($E:$E,$B:$B,S13)</f>
         <v>155388</v>
       </c>
-      <c r="T20" s="61"/>
-      <c r="U20" s="61"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
       <c r="V20" s="4" t="s">
         <v>17</v>
       </c>
@@ -2992,35 +2992,35 @@
       <c r="E21" s="1">
         <v>9500</v>
       </c>
-      <c r="G21" s="60">
+      <c r="G21" s="61">
         <v>240000</v>
       </c>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
       <c r="J21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="60">
+      <c r="K21" s="61">
         <v>210000</v>
       </c>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
       <c r="N21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O21" s="60">
+      <c r="O21" s="61">
         <v>200000</v>
       </c>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
       <c r="R21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S21" s="60">
+      <c r="S21" s="61">
         <v>200000</v>
       </c>
-      <c r="T21" s="61"/>
-      <c r="U21" s="61"/>
+      <c r="T21" s="62"/>
+      <c r="U21" s="62"/>
       <c r="V21" s="4" t="s">
         <v>18</v>
       </c>
@@ -3041,39 +3041,39 @@
       <c r="E22" s="1">
         <v>9698</v>
       </c>
-      <c r="G22" s="53">
+      <c r="G22" s="59">
         <f>G20/G21</f>
         <v>0.71333333333333337</v>
       </c>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
       <c r="J22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K22" s="53">
+      <c r="K22" s="59">
         <f>K20/K21</f>
         <v>0.64706666666666668</v>
       </c>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
       <c r="N22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O22" s="53">
+      <c r="O22" s="59">
         <f>O20/O21</f>
         <v>1.00363</v>
       </c>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="60"/>
       <c r="R22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S22" s="53">
+      <c r="S22" s="59">
         <f>S20/S21</f>
         <v>0.77693999999999996</v>
       </c>
-      <c r="T22" s="54"/>
-      <c r="U22" s="54"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="60"/>
       <c r="V22" s="4" t="s">
         <v>19</v>
       </c>
@@ -3094,39 +3094,39 @@
       <c r="E23" s="1">
         <v>14500</v>
       </c>
-      <c r="G23" s="55">
+      <c r="G23" s="63">
         <f>G20-G21</f>
         <v>-68800</v>
       </c>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
       <c r="J23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="55">
+      <c r="K23" s="63">
         <f>K20-K21</f>
         <v>-74116</v>
       </c>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
       <c r="N23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="55">
+      <c r="O23" s="63">
         <f>O20-O21</f>
         <v>726</v>
       </c>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
       <c r="R23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S23" s="55">
+      <c r="S23" s="63">
         <f>S20-S21</f>
         <v>-44612</v>
       </c>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="64"/>
       <c r="V23" s="6" t="s">
         <v>20</v>
       </c>
@@ -3147,27 +3147,27 @@
       <c r="E24" s="1">
         <v>12000</v>
       </c>
-      <c r="G24" s="62" t="s">
+      <c r="G24" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
       <c r="J24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K24" s="62" t="s">
+      <c r="K24" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
       <c r="N24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O24" s="62" t="s">
+      <c r="O24" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="63"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
       <c r="R24" s="5" t="s">
         <v>2</v>
       </c>
@@ -3188,38 +3188,38 @@
       <c r="E25" s="1">
         <v>5999</v>
       </c>
-      <c r="G25" s="64">
+      <c r="G25" s="54">
         <f ca="1">TODAY()</f>
-        <v>45083</v>
-      </c>
-      <c r="H25" s="65"/>
+        <v>45084</v>
+      </c>
+      <c r="H25" s="55"/>
       <c r="I25" s="3">
         <f ca="1">TODAY()</f>
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K25" s="64">
+      <c r="K25" s="54">
         <f ca="1">TODAY()</f>
-        <v>45083</v>
-      </c>
-      <c r="L25" s="65"/>
+        <v>45084</v>
+      </c>
+      <c r="L25" s="55"/>
       <c r="M25" s="3">
         <f ca="1">TODAY()</f>
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O25" s="64">
+      <c r="O25" s="54">
         <f ca="1">TODAY()</f>
-        <v>45083</v>
-      </c>
-      <c r="P25" s="65"/>
+        <v>45084</v>
+      </c>
+      <c r="P25" s="55"/>
       <c r="Q25" s="3">
         <f ca="1">TODAY()</f>
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="R25" s="4" t="s">
         <v>1</v>
@@ -3241,31 +3241,31 @@
       <c r="E26" s="1">
         <v>15800</v>
       </c>
-      <c r="G26" s="57">
+      <c r="G26" s="56">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,G24)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="59" t="s">
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="57">
+      <c r="K26" s="56">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,K24)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="59" t="s">
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="57">
+      <c r="O26" s="56">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,O24)</f>
         <v>0</v>
       </c>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="59" t="s">
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="58" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3285,18 +3285,18 @@
       <c r="E27" s="1">
         <v>7000</v>
       </c>
-      <c r="G27" s="57"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="59"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="58"/>
     </row>
     <row r="28" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -3314,18 +3314,18 @@
       <c r="E28" s="1">
         <v>26800</v>
       </c>
-      <c r="G28" s="57"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="59"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="58"/>
     </row>
     <row r="29" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -3343,18 +3343,18 @@
       <c r="E29" s="1">
         <v>11000</v>
       </c>
-      <c r="G29" s="57"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="59"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="58"/>
     </row>
     <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -3372,30 +3372,30 @@
       <c r="E30" s="1">
         <v>11388</v>
       </c>
-      <c r="G30" s="53" t="e">
+      <c r="G30" s="59" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,G24)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,G24)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
       <c r="J30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K30" s="53" t="e">
+      <c r="K30" s="59" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,K24)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,K24)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
       <c r="N30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O30" s="53" t="e">
+      <c r="O30" s="59" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,O24)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,O24)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="54"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="60"/>
       <c r="R30" s="4" t="s">
         <v>23</v>
       </c>
@@ -3416,30 +3416,30 @@
       <c r="E31" s="1">
         <v>24499</v>
       </c>
-      <c r="G31" s="60">
+      <c r="G31" s="61">
         <f>SUMIFS($E:$E,$B:$B,G24)</f>
         <v>167197</v>
       </c>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
       <c r="J31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K31" s="60">
+      <c r="K31" s="61">
         <f>SUMIFS($E:$E,$B:$B,K24)</f>
         <v>128498</v>
       </c>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
       <c r="N31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O31" s="60">
+      <c r="O31" s="61">
         <f>SUMIFS($E:$E,$B:$B,O24)</f>
         <v>219174</v>
       </c>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="61"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="62"/>
       <c r="R31" s="4" t="s">
         <v>17</v>
       </c>
@@ -3460,27 +3460,27 @@
       <c r="E32" s="1">
         <v>6500</v>
       </c>
-      <c r="G32" s="60">
+      <c r="G32" s="61">
         <v>100000</v>
       </c>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
       <c r="J32" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K32" s="60">
+      <c r="K32" s="61">
         <v>100000</v>
       </c>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
       <c r="N32" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O32" s="60">
+      <c r="O32" s="61">
         <v>200000</v>
       </c>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="61"/>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="62"/>
       <c r="R32" s="4" t="s">
         <v>18</v>
       </c>
@@ -3501,30 +3501,30 @@
       <c r="E33" s="1">
         <v>12800</v>
       </c>
-      <c r="G33" s="53">
+      <c r="G33" s="59">
         <f>G31/G32</f>
         <v>1.67197</v>
       </c>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
       <c r="J33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K33" s="53">
+      <c r="K33" s="59">
         <f>K31/K32</f>
         <v>1.28498</v>
       </c>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
       <c r="N33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O33" s="53">
+      <c r="O33" s="59">
         <f>O31/O32</f>
         <v>1.0958699999999999</v>
       </c>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="54"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="60"/>
       <c r="R33" s="4" t="s">
         <v>19</v>
       </c>
@@ -3545,30 +3545,30 @@
       <c r="E34" s="1">
         <v>8500</v>
       </c>
-      <c r="G34" s="55">
+      <c r="G34" s="63">
         <f>G31-G32</f>
         <v>67197</v>
       </c>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
       <c r="J34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="55">
+      <c r="K34" s="63">
         <f>K31-K32</f>
         <v>28498</v>
       </c>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
       <c r="N34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O34" s="55">
+      <c r="O34" s="63">
         <f>O31-O32</f>
         <v>19174</v>
       </c>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="56"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="64"/>
       <c r="R34" s="6" t="s">
         <v>20</v>
       </c>
@@ -4255,11 +4255,77 @@
     <sortCondition ref="C2:C55"/>
   </sortState>
   <mergeCells count="92">
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:Q7"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="AE3:AE6"/>
+    <mergeCell ref="AE7:AE9"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="O26:Q29"/>
+    <mergeCell ref="R26:R29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:Q18"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:U18"/>
+    <mergeCell ref="R15:R18"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:M7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:M18"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:I7"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:I18"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K30:M30"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O11:Q11"/>
     <mergeCell ref="O12:Q12"/>
@@ -4276,77 +4342,11 @@
     <mergeCell ref="G33:I33"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="N26:N29"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:I18"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:I7"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:M7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:M18"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:U18"/>
-    <mergeCell ref="R15:R18"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="AE3:AE6"/>
-    <mergeCell ref="AE7:AE9"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="O26:Q29"/>
-    <mergeCell ref="R26:R29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:Q18"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:Q7"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="O8:Q8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G12:I12 G23:I23 K23:M23 G34:I34 K34:M34">
@@ -4427,7 +4427,7 @@
   <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4591,13 +4591,13 @@
         <v>115</v>
       </c>
       <c r="F3" s="9">
-        <v>0</v>
+        <v>135969</v>
       </c>
       <c r="G3" s="9">
-        <v>0</v>
+        <v>2497775.9500000002</v>
       </c>
       <c r="H3" s="9">
-        <v>39009</v>
+        <v>56956</v>
       </c>
       <c r="I3" s="72"/>
       <c r="J3" s="74"/>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="9">
-        <v>0</v>
+        <v>150524.6</v>
       </c>
       <c r="H4" s="9">
         <v>396562</v>
@@ -4770,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="9">
-        <v>0</v>
+        <v>274681</v>
       </c>
       <c r="H5" s="9">
         <v>33223</v>
@@ -4783,7 +4783,7 @@
       </c>
       <c r="K5" s="16">
         <f>L5+P5+T5+X5</f>
-        <v>324.079095</v>
+        <v>348.079095</v>
       </c>
       <c r="L5" s="16">
         <f>SUM(M5:O5)</f>
@@ -4800,7 +4800,7 @@
       </c>
       <c r="P5" s="16">
         <f>SUM(Q5:S5)</f>
-        <v>141.44999999999999</v>
+        <v>165.45</v>
       </c>
       <c r="Q5" s="16">
         <f>28.21+10.94+8.3</f>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="S5" s="16">
         <f>F19</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="T5" s="16">
         <f>SUM(U5:W5)</f>
@@ -4849,7 +4849,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="9">
-        <v>0</v>
+        <v>324495</v>
       </c>
       <c r="H6" s="9">
         <v>24502</v>
@@ -4862,7 +4862,7 @@
       </c>
       <c r="K6" s="36">
         <f>K5/K4</f>
-        <v>0.37079987986270024</v>
+        <v>0.39825983409610982</v>
       </c>
       <c r="L6" s="36">
         <f t="shared" ref="L6:AA6" si="1">L5/L4</f>
@@ -4882,7 +4882,7 @@
       </c>
       <c r="P6" s="36">
         <f t="shared" si="1"/>
-        <v>0.65232609940813335</v>
+        <v>0.76300709188459293</v>
       </c>
       <c r="Q6" s="36">
         <f t="shared" si="1"/>
@@ -4894,7 +4894,7 @@
       </c>
       <c r="S6" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.29150694515296821</v>
       </c>
       <c r="T6" s="36">
         <f t="shared" si="1"/>
@@ -4946,13 +4946,13 @@
         <v>14</v>
       </c>
       <c r="F7" s="9">
-        <v>0</v>
+        <v>116847</v>
       </c>
       <c r="G7" s="9">
-        <v>0</v>
+        <v>739159</v>
       </c>
       <c r="H7" s="9">
-        <v>82186</v>
+        <v>29366</v>
       </c>
       <c r="I7" s="50" t="s">
         <v>84</v>
@@ -4962,7 +4962,7 @@
       </c>
       <c r="K7" s="16">
         <f>K5-K4</f>
-        <v>-549.92090499999995</v>
+        <v>-525.92090499999995</v>
       </c>
       <c r="L7" s="16">
         <f t="shared" ref="L7:AA7" si="2">L5-L4</f>
@@ -4982,7 +4982,7 @@
       </c>
       <c r="P7" s="16">
         <f t="shared" si="2"/>
-        <v>-75.389399999999995</v>
+        <v>-51.389399999999995</v>
       </c>
       <c r="Q7" s="16">
         <f t="shared" si="2"/>
@@ -4994,7 +4994,7 @@
       </c>
       <c r="S7" s="16">
         <f t="shared" si="2"/>
-        <v>-82.330800000000011</v>
+        <v>-58.330800000000011</v>
       </c>
       <c r="T7" s="16">
         <f t="shared" si="2"/>
@@ -5050,15 +5050,15 @@
       </c>
       <c r="F8" s="10">
         <f>SUM(F3:F7)</f>
-        <v>0</v>
+        <v>252816</v>
       </c>
       <c r="G8" s="10">
         <f>SUM(G3:G7)</f>
-        <v>0</v>
+        <v>3986635.5500000003</v>
       </c>
       <c r="H8" s="10">
         <f>SUM(H3:H7)</f>
-        <v>575482</v>
+        <v>540609</v>
       </c>
       <c r="I8" s="51" t="s">
         <v>84</v>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="K8" s="44">
         <f>L8+P8+T8+X8</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L8" s="44">
         <f>SUM(M8:O8)</f>
@@ -5085,7 +5085,7 @@
       </c>
       <c r="P8" s="44">
         <f>SUM(Q8:S8)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Q8" s="44">
         <v>0</v>
@@ -5096,7 +5096,7 @@
       </c>
       <c r="S8" s="44">
         <f>H19</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T8" s="44">
         <f>SUM(U8:W8)</f>
@@ -5134,15 +5134,15 @@
       </c>
       <c r="F9" s="10" cm="1">
         <f t="array" ref="F9">SUM(SUMIFS(F3:F7,E3:E7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>0</v>
+        <v>252816</v>
       </c>
       <c r="G9" s="10" cm="1">
         <f t="array" ref="G9">SUM(SUMIFS(G3:G7,E3:E7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>0</v>
+        <v>3511615.95</v>
       </c>
       <c r="H9" s="10" cm="1">
         <f t="array" ref="H9">SUM(SUMIFS(H3:H7,E3:E7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>154418</v>
+        <v>119545</v>
       </c>
       <c r="I9" s="49" t="s">
         <v>5</v>
@@ -5481,15 +5481,15 @@
       </c>
       <c r="F13" s="9">
         <f>ROUNDDOWN(F3/10000,0)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G13" s="9">
         <f t="shared" ref="G13:H13" si="7">ROUNDDOWN(G3/10000,0)</f>
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="H13" s="9">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I13" s="51" t="s">
         <v>5</v>
@@ -5569,7 +5569,7 @@
       </c>
       <c r="G14" s="10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H14" s="10">
         <f t="shared" si="9"/>
@@ -5674,7 +5674,7 @@
       </c>
       <c r="G15" s="9">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H15" s="9">
         <f t="shared" si="12"/>
@@ -5758,7 +5758,7 @@
       </c>
       <c r="G16" s="10">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H16" s="10">
         <f t="shared" si="14"/>
@@ -5860,15 +5860,15 @@
       </c>
       <c r="F17" s="9">
         <f t="shared" ref="F17:H17" si="17">ROUNDDOWN(F7/10000,0)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G17" s="9">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="H17" s="9">
         <f t="shared" si="17"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I17" s="50" t="s">
         <v>7</v>
@@ -5966,15 +5966,15 @@
       </c>
       <c r="F18" s="13">
         <f>SUM(F13:F17)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G18" s="13">
         <f>SUM(G13:G17)</f>
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="H18" s="13">
         <f>SUM(H13:H17)</f>
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I18" s="51" t="s">
         <v>7</v>
@@ -6050,15 +6050,15 @@
       </c>
       <c r="F19" s="10" cm="1">
         <f t="array" ref="F19">SUM(SUMIFS(F13:F17,E13:E17,{"嘉兴","海宁","桐乡"}))</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G19" s="10" cm="1">
         <f t="array" ref="G19">SUM(SUMIFS(G13:G17,E13:E17,{"嘉兴","海宁","桐乡"}))</f>
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="H19" s="10" cm="1">
         <f t="array" ref="H19">SUM(SUMIFS(H13:H17,E13:E17,{"嘉兴","海宁","桐乡"}))</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I19" s="49" t="s">
         <v>92</v>
@@ -6144,7 +6144,7 @@
       </c>
       <c r="K20" s="16">
         <f>K15+K10+K5</f>
-        <v>370.13477499999999</v>
+        <v>394.13477499999999</v>
       </c>
       <c r="L20" s="16">
         <f t="shared" si="19"/>
@@ -6164,7 +6164,7 @@
       </c>
       <c r="P20" s="16">
         <f t="shared" si="19"/>
-        <v>152.99429999999998</v>
+        <v>176.99429999999998</v>
       </c>
       <c r="Q20" s="16">
         <f t="shared" si="19"/>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="S20" s="16">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="T20" s="16">
         <f t="shared" si="19"/>
@@ -6220,7 +6220,7 @@
       </c>
       <c r="K21" s="36">
         <f>K20/K19</f>
-        <v>0.30844564583333334</v>
+        <v>0.3284456458333333</v>
       </c>
       <c r="L21" s="36">
         <f t="shared" ref="L21:AA21" si="20">L20/L19</f>
@@ -6240,7 +6240,7 @@
       </c>
       <c r="P21" s="36">
         <f t="shared" si="20"/>
-        <v>0.51388653768641679</v>
+        <v>0.59449919387343808</v>
       </c>
       <c r="Q21" s="36">
         <f t="shared" si="20"/>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="S21" s="36">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.21231422505307851</v>
       </c>
       <c r="T21" s="36">
         <f t="shared" si="20"/>
@@ -6296,7 +6296,7 @@
       </c>
       <c r="K22" s="16">
         <f>K20-K19</f>
-        <v>-829.86522500000001</v>
+        <v>-805.86522500000001</v>
       </c>
       <c r="L22" s="16">
         <f t="shared" ref="L22:AA22" si="21">L20-L19</f>
@@ -6316,7 +6316,7 @@
       </c>
       <c r="P22" s="16">
         <f t="shared" si="21"/>
-        <v>-144.72569999999999</v>
+        <v>-120.72569999999999</v>
       </c>
       <c r="Q22" s="16">
         <f t="shared" si="21"/>
@@ -6328,7 +6328,7 @@
       </c>
       <c r="S22" s="16">
         <f t="shared" si="21"/>
-        <v>-113.04000000000002</v>
+        <v>-89.04000000000002</v>
       </c>
       <c r="T22" s="16">
         <f t="shared" si="21"/>
@@ -6372,7 +6372,7 @@
       </c>
       <c r="K23" s="44">
         <f>K8+K13+K18</f>
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L23" s="44">
         <f>SUM(M23:O23)</f>
@@ -6392,7 +6392,7 @@
       </c>
       <c r="P23" s="44">
         <f>SUM(Q23:S23)</f>
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q23" s="44">
         <f>Q8+Q13+Q18</f>
@@ -6404,7 +6404,7 @@
       </c>
       <c r="S23" s="44">
         <f t="shared" si="23"/>
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T23" s="44">
         <f>SUM(U23:W23)</f>

--- a/省联动.xlsx
+++ b/省联动.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D2652\Desktop\workdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C23C54D-6657-40E3-ADFF-EA21AFDC9625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D86314-F28F-48C0-B740-F15289D285CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="390" windowWidth="25820" windowHeight="14990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="610" yWindow="2310" windowWidth="22490" windowHeight="12320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="联动数据" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="130">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -656,6 +656,7 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -680,7 +681,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1079,6 +1080,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1086,7 +1096,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1193,53 +1203,77 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="10" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="14" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="10" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="10" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1253,34 +1287,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1833,7 +1846,7 @@
   <dimension ref="A1:AE75"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8:Q8"/>
+      <selection activeCell="K4" sqref="K4:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1898,27 +1911,27 @@
       <c r="E2" s="1">
         <v>26000</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
       <c r="J2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
       <c r="N2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="52" t="s">
+      <c r="O2" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
       <c r="R2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1963,38 +1976,38 @@
       <c r="E3" s="1">
         <v>12800</v>
       </c>
-      <c r="G3" s="54">
+      <c r="G3" s="62">
         <f ca="1">TODAY()</f>
-        <v>45084</v>
-      </c>
-      <c r="H3" s="55"/>
+        <v>45086</v>
+      </c>
+      <c r="H3" s="63"/>
       <c r="I3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45084</v>
+        <v>45086</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="54">
+      <c r="K3" s="62">
         <f ca="1">TODAY()</f>
-        <v>45084</v>
-      </c>
-      <c r="L3" s="55"/>
+        <v>45086</v>
+      </c>
+      <c r="L3" s="63"/>
       <c r="M3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45084</v>
+        <v>45086</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="54">
+      <c r="O3" s="62">
         <f ca="1">TODAY()</f>
-        <v>45084</v>
-      </c>
-      <c r="P3" s="55"/>
+        <v>45086</v>
+      </c>
+      <c r="P3" s="63"/>
       <c r="Q3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45084</v>
+        <v>45086</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>1</v>
@@ -2004,7 +2017,7 @@
       </c>
       <c r="X3" s="23">
         <f ca="1">TODAY()</f>
-        <v>45084</v>
+        <v>45086</v>
       </c>
       <c r="Y3" s="24">
         <f ca="1">G15</f>
@@ -2030,7 +2043,7 @@
         <f>AB3-AA3</f>
         <v>68800</v>
       </c>
-      <c r="AE3" s="65">
+      <c r="AE3" s="50">
         <f>SUM(AA3:AA6)</f>
         <v>602779</v>
       </c>
@@ -2051,31 +2064,31 @@
       <c r="E4" s="1">
         <v>12108</v>
       </c>
-      <c r="G4" s="56" cm="1">
+      <c r="G4" s="55" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">SUM(SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,{"海盐","平湖","海宁","桐乡"}))</f>
         <v>0</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58" t="s">
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="56" cm="1">
+      <c r="K4" s="55" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">SUM(SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,{"红星","月星","六空"}))</f>
         <v>0</v>
       </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="58" t="s">
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="56">
+      <c r="O4" s="55">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY())</f>
         <v>0</v>
       </c>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="58" t="s">
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="57" t="s">
         <v>21</v>
       </c>
       <c r="W4" s="22" t="s">
@@ -2083,7 +2096,7 @@
       </c>
       <c r="X4" s="23">
         <f t="shared" ref="X4:X10" ca="1" si="0">TODAY()</f>
-        <v>45084</v>
+        <v>45086</v>
       </c>
       <c r="Y4" s="24">
         <f ca="1">K15</f>
@@ -2108,7 +2121,7 @@
         <f t="shared" ref="AD4:AD9" si="2">AB4-AA4</f>
         <v>74116</v>
       </c>
-      <c r="AE4" s="65"/>
+      <c r="AE4" s="50"/>
     </row>
     <row r="5" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -2126,24 +2139,24 @@
       <c r="E5" s="1">
         <v>22800</v>
       </c>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="58"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="57"/>
       <c r="W5" s="22" t="s">
         <v>107</v>
       </c>
       <c r="X5" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45084</v>
+        <v>45086</v>
       </c>
       <c r="Y5" s="24">
         <f ca="1">G26</f>
@@ -2168,7 +2181,7 @@
         <f t="shared" si="2"/>
         <v>-67197</v>
       </c>
-      <c r="AE5" s="65"/>
+      <c r="AE5" s="50"/>
     </row>
     <row r="6" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -2186,24 +2199,24 @@
       <c r="E6" s="1">
         <v>50000</v>
       </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="58"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="57"/>
       <c r="W6" s="22" t="s">
         <v>108</v>
       </c>
       <c r="X6" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45084</v>
+        <v>45086</v>
       </c>
       <c r="Y6" s="24">
         <f ca="1">K26</f>
@@ -2228,7 +2241,7 @@
         <f t="shared" si="2"/>
         <v>-28498</v>
       </c>
-      <c r="AE6" s="65"/>
+      <c r="AE6" s="50"/>
     </row>
     <row r="7" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -2246,24 +2259,24 @@
       <c r="E7" s="1">
         <v>16600</v>
       </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="58"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="57"/>
       <c r="W7" s="22" t="s">
         <v>109</v>
       </c>
       <c r="X7" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45084</v>
+        <v>45086</v>
       </c>
       <c r="Y7" s="24">
         <f ca="1">S15</f>
@@ -2288,7 +2301,7 @@
         <f t="shared" si="2"/>
         <v>44612</v>
       </c>
-      <c r="AE7" s="65">
+      <c r="AE7" s="50">
         <f>SUM(AA7:AA9)</f>
         <v>575288</v>
       </c>
@@ -2309,30 +2322,30 @@
       <c r="E8" s="1">
         <v>6500</v>
       </c>
-      <c r="G8" s="59" t="e">
+      <c r="G8" s="51" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY())/SUMIFS($E:$E,$C:$C,TODAY()-1)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
       <c r="J8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="59" t="e">
+      <c r="K8" s="51" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,K2)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,K2)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
       <c r="N8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="59" t="e">
+      <c r="O8" s="51" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY())/SUMIFS($E:$E,$C:$C,TODAY()-1)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
       <c r="R8" s="4" t="s">
         <v>23</v>
       </c>
@@ -2341,7 +2354,7 @@
       </c>
       <c r="X8" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45084</v>
+        <v>45086</v>
       </c>
       <c r="Y8" s="24">
         <f ca="1">O15</f>
@@ -2366,7 +2379,7 @@
         <f t="shared" si="2"/>
         <v>-726</v>
       </c>
-      <c r="AE8" s="65"/>
+      <c r="AE8" s="50"/>
     </row>
     <row r="9" spans="1:31" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -2381,30 +2394,30 @@
       <c r="E9" s="1">
         <v>22800</v>
       </c>
-      <c r="G9" s="61" cm="1">
+      <c r="G9" s="58" cm="1">
         <f t="array" ref="G9">SUM(SUMIFS($E:$E,$B:$B,{"海盐","平湖","海宁","桐乡"}))</f>
         <v>602779</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
       <c r="J9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="61" cm="1">
+      <c r="K9" s="58" cm="1">
         <f t="array" ref="K9">SUM(SUMIFS($E:$E,$B:$B,{"红星","月星","六空"}))</f>
         <v>575288</v>
       </c>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
       <c r="N9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="61">
+      <c r="O9" s="58">
         <f>SUM($E:$E)</f>
         <v>1178067</v>
       </c>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
       <c r="R9" s="4" t="s">
         <v>17</v>
       </c>
@@ -2413,7 +2426,7 @@
       </c>
       <c r="X9" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45084</v>
+        <v>45086</v>
       </c>
       <c r="Y9" s="24">
         <f ca="1">O26</f>
@@ -2438,7 +2451,7 @@
         <f t="shared" si="2"/>
         <v>-19174</v>
       </c>
-      <c r="AE9" s="65"/>
+      <c r="AE9" s="50"/>
     </row>
     <row r="10" spans="1:31" ht="17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -2456,27 +2469,27 @@
       <c r="E10" s="1">
         <v>19999</v>
       </c>
-      <c r="G10" s="61">
+      <c r="G10" s="58">
         <v>650000</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
       <c r="J10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="61">
+      <c r="K10" s="58">
         <v>600000</v>
       </c>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
       <c r="N10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="61">
+      <c r="O10" s="58">
         <v>1250000</v>
       </c>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
       <c r="R10" s="4" t="s">
         <v>18</v>
       </c>
@@ -2485,7 +2498,7 @@
       </c>
       <c r="X10" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45084</v>
+        <v>45086</v>
       </c>
       <c r="Y10" s="28">
         <f ca="1">SUM(Y3:Y9)</f>
@@ -2532,30 +2545,30 @@
       <c r="E11" s="1">
         <v>45776</v>
       </c>
-      <c r="G11" s="59">
+      <c r="G11" s="51">
         <f>G9/G10</f>
         <v>0.9273523076923077</v>
       </c>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
       <c r="J11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="59">
+      <c r="K11" s="51">
         <f>K9/K10</f>
         <v>0.9588133333333333</v>
       </c>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
       <c r="N11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O11" s="59">
+      <c r="O11" s="51">
         <f>O9/O10</f>
         <v>0.9424536</v>
       </c>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="60"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
       <c r="R11" s="4" t="s">
         <v>19</v>
       </c>
@@ -2576,30 +2589,30 @@
       <c r="E12" s="1">
         <v>1600</v>
       </c>
-      <c r="G12" s="63">
+      <c r="G12" s="53">
         <f>G9-G10</f>
         <v>-47221</v>
       </c>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
       <c r="J12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="63">
+      <c r="K12" s="53">
         <f>K9-K10</f>
         <v>-24712</v>
       </c>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
       <c r="N12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="63">
+      <c r="O12" s="53">
         <f>O9-O10</f>
         <v>-71933</v>
       </c>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
       <c r="R12" s="6" t="s">
         <v>20</v>
       </c>
@@ -2620,35 +2633,35 @@
       <c r="E13" s="1">
         <v>21200</v>
       </c>
-      <c r="G13" s="52" t="s">
+      <c r="G13" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
       <c r="J13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K13" s="52" t="s">
+      <c r="K13" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
       <c r="N13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O13" s="52" t="s">
+      <c r="O13" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
       <c r="R13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="S13" s="52" t="s">
+      <c r="S13" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
       <c r="V13" s="5" t="s">
         <v>2</v>
       </c>
@@ -2669,50 +2682,50 @@
       <c r="E14" s="1">
         <v>5500</v>
       </c>
-      <c r="G14" s="54">
+      <c r="G14" s="62">
         <f ca="1">TODAY()</f>
-        <v>45084</v>
-      </c>
-      <c r="H14" s="55"/>
+        <v>45086</v>
+      </c>
+      <c r="H14" s="63"/>
       <c r="I14" s="3">
         <f ca="1">TODAY()</f>
-        <v>45084</v>
+        <v>45086</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="54">
+      <c r="K14" s="62">
         <f ca="1">TODAY()</f>
-        <v>45084</v>
-      </c>
-      <c r="L14" s="55"/>
+        <v>45086</v>
+      </c>
+      <c r="L14" s="63"/>
       <c r="M14" s="3">
         <f ca="1">TODAY()</f>
-        <v>45084</v>
+        <v>45086</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O14" s="54">
+      <c r="O14" s="62">
         <f ca="1">TODAY()</f>
-        <v>45084</v>
-      </c>
-      <c r="P14" s="55"/>
+        <v>45086</v>
+      </c>
+      <c r="P14" s="63"/>
       <c r="Q14" s="3">
         <f ca="1">TODAY()</f>
-        <v>45084</v>
+        <v>45086</v>
       </c>
       <c r="R14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="S14" s="54">
+      <c r="S14" s="62">
         <f ca="1">TODAY()</f>
-        <v>45084</v>
-      </c>
-      <c r="T14" s="55"/>
+        <v>45086</v>
+      </c>
+      <c r="T14" s="63"/>
       <c r="U14" s="3">
         <f ca="1">TODAY()</f>
-        <v>45084</v>
+        <v>45086</v>
       </c>
       <c r="V14" s="4" t="s">
         <v>1</v>
@@ -2734,40 +2747,40 @@
       <c r="E15" s="1">
         <v>14000</v>
       </c>
-      <c r="G15" s="56">
+      <c r="G15" s="55">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,G13)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="58" t="s">
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="56">
+      <c r="K15" s="55">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,K13)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="58" t="s">
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="O15" s="56">
+      <c r="O15" s="55">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,O13)</f>
         <v>0</v>
       </c>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="58" t="s">
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="S15" s="56">
+      <c r="S15" s="55">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,S13)</f>
         <v>0</v>
       </c>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="58" t="s">
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="57" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2787,22 +2800,22 @@
       <c r="E16" s="1">
         <v>58000</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="58"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="57"/>
     </row>
     <row r="17" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -2820,22 +2833,22 @@
       <c r="E17" s="1">
         <v>12000</v>
       </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="58"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="58"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="57"/>
     </row>
     <row r="18" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -2853,22 +2866,22 @@
       <c r="E18" s="1">
         <v>3599</v>
       </c>
-      <c r="G18" s="56"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="58"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="57"/>
     </row>
     <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -2886,39 +2899,39 @@
       <c r="E19" s="1">
         <v>9000</v>
       </c>
-      <c r="G19" s="59" t="e">
+      <c r="G19" s="51" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,G13)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,G13)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
       <c r="J19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="59" t="e">
+      <c r="K19" s="51" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,K13)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,K13)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
       <c r="N19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O19" s="59" t="e">
+      <c r="O19" s="51" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,O13)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,O13)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
       <c r="R19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S19" s="59" t="e">
+      <c r="S19" s="51" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,S13)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,S13)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T19" s="60"/>
-      <c r="U19" s="60"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
       <c r="V19" s="4" t="s">
         <v>23</v>
       </c>
@@ -2939,39 +2952,39 @@
       <c r="E20" s="1">
         <v>5999</v>
       </c>
-      <c r="G20" s="61">
+      <c r="G20" s="58">
         <f>SUMIFS($E:$E,$B:$B,G13)</f>
         <v>171200</v>
       </c>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
       <c r="J20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="61">
+      <c r="K20" s="58">
         <f>SUMIFS($E:$E,$B:$B,K13)</f>
         <v>135884</v>
       </c>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
       <c r="N20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O20" s="61">
+      <c r="O20" s="58">
         <f>SUMIFS($E:$E,$B:$B,O13)</f>
         <v>200726</v>
       </c>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
       <c r="R20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S20" s="61">
+      <c r="S20" s="58">
         <f>SUMIFS($E:$E,$B:$B,S13)</f>
         <v>155388</v>
       </c>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
       <c r="V20" s="4" t="s">
         <v>17</v>
       </c>
@@ -2992,35 +3005,35 @@
       <c r="E21" s="1">
         <v>9500</v>
       </c>
-      <c r="G21" s="61">
+      <c r="G21" s="58">
         <v>240000</v>
       </c>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
       <c r="J21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="61">
+      <c r="K21" s="58">
         <v>210000</v>
       </c>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
       <c r="N21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O21" s="61">
+      <c r="O21" s="58">
         <v>200000</v>
       </c>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
       <c r="R21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S21" s="61">
+      <c r="S21" s="58">
         <v>200000</v>
       </c>
-      <c r="T21" s="62"/>
-      <c r="U21" s="62"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
       <c r="V21" s="4" t="s">
         <v>18</v>
       </c>
@@ -3041,39 +3054,39 @@
       <c r="E22" s="1">
         <v>9698</v>
       </c>
-      <c r="G22" s="59">
+      <c r="G22" s="51">
         <f>G20/G21</f>
         <v>0.71333333333333337</v>
       </c>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
       <c r="J22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K22" s="59">
+      <c r="K22" s="51">
         <f>K20/K21</f>
         <v>0.64706666666666668</v>
       </c>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
       <c r="N22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O22" s="59">
+      <c r="O22" s="51">
         <f>O20/O21</f>
         <v>1.00363</v>
       </c>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="60"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
       <c r="R22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S22" s="59">
+      <c r="S22" s="51">
         <f>S20/S21</f>
         <v>0.77693999999999996</v>
       </c>
-      <c r="T22" s="60"/>
-      <c r="U22" s="60"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
       <c r="V22" s="4" t="s">
         <v>19</v>
       </c>
@@ -3094,39 +3107,39 @@
       <c r="E23" s="1">
         <v>14500</v>
       </c>
-      <c r="G23" s="63">
+      <c r="G23" s="53">
         <f>G20-G21</f>
         <v>-68800</v>
       </c>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
       <c r="J23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="63">
+      <c r="K23" s="53">
         <f>K20-K21</f>
         <v>-74116</v>
       </c>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
       <c r="N23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="63">
+      <c r="O23" s="53">
         <f>O20-O21</f>
         <v>726</v>
       </c>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
       <c r="R23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S23" s="63">
+      <c r="S23" s="53">
         <f>S20-S21</f>
         <v>-44612</v>
       </c>
-      <c r="T23" s="64"/>
-      <c r="U23" s="64"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="54"/>
       <c r="V23" s="6" t="s">
         <v>20</v>
       </c>
@@ -3147,27 +3160,27 @@
       <c r="E24" s="1">
         <v>12000</v>
       </c>
-      <c r="G24" s="52" t="s">
+      <c r="G24" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
       <c r="J24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K24" s="52" t="s">
+      <c r="K24" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
       <c r="N24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O24" s="52" t="s">
+      <c r="O24" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
       <c r="R24" s="5" t="s">
         <v>2</v>
       </c>
@@ -3188,38 +3201,38 @@
       <c r="E25" s="1">
         <v>5999</v>
       </c>
-      <c r="G25" s="54">
+      <c r="G25" s="62">
         <f ca="1">TODAY()</f>
-        <v>45084</v>
-      </c>
-      <c r="H25" s="55"/>
+        <v>45086</v>
+      </c>
+      <c r="H25" s="63"/>
       <c r="I25" s="3">
         <f ca="1">TODAY()</f>
-        <v>45084</v>
+        <v>45086</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K25" s="54">
+      <c r="K25" s="62">
         <f ca="1">TODAY()</f>
-        <v>45084</v>
-      </c>
-      <c r="L25" s="55"/>
+        <v>45086</v>
+      </c>
+      <c r="L25" s="63"/>
       <c r="M25" s="3">
         <f ca="1">TODAY()</f>
-        <v>45084</v>
+        <v>45086</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O25" s="54">
+      <c r="O25" s="62">
         <f ca="1">TODAY()</f>
-        <v>45084</v>
-      </c>
-      <c r="P25" s="55"/>
+        <v>45086</v>
+      </c>
+      <c r="P25" s="63"/>
       <c r="Q25" s="3">
         <f ca="1">TODAY()</f>
-        <v>45084</v>
+        <v>45086</v>
       </c>
       <c r="R25" s="4" t="s">
         <v>1</v>
@@ -3241,31 +3254,31 @@
       <c r="E26" s="1">
         <v>15800</v>
       </c>
-      <c r="G26" s="56">
+      <c r="G26" s="55">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,G24)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="58" t="s">
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="56">
+      <c r="K26" s="55">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,K24)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="58" t="s">
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="56">
+      <c r="O26" s="55">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,O24)</f>
         <v>0</v>
       </c>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="58" t="s">
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="57" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3285,18 +3298,18 @@
       <c r="E27" s="1">
         <v>7000</v>
       </c>
-      <c r="G27" s="56"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="58"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="57"/>
     </row>
     <row r="28" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -3314,18 +3327,18 @@
       <c r="E28" s="1">
         <v>26800</v>
       </c>
-      <c r="G28" s="56"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="58"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="57"/>
     </row>
     <row r="29" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -3343,18 +3356,18 @@
       <c r="E29" s="1">
         <v>11000</v>
       </c>
-      <c r="G29" s="56"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="58"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="57"/>
     </row>
     <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -3372,30 +3385,30 @@
       <c r="E30" s="1">
         <v>11388</v>
       </c>
-      <c r="G30" s="59" t="e">
+      <c r="G30" s="51" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,G24)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,G24)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
       <c r="J30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K30" s="59" t="e">
+      <c r="K30" s="51" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,K24)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,K24)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
       <c r="N30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O30" s="59" t="e">
+      <c r="O30" s="51" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,O24)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,O24)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="60"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
       <c r="R30" s="4" t="s">
         <v>23</v>
       </c>
@@ -3416,30 +3429,30 @@
       <c r="E31" s="1">
         <v>24499</v>
       </c>
-      <c r="G31" s="61">
+      <c r="G31" s="58">
         <f>SUMIFS($E:$E,$B:$B,G24)</f>
         <v>167197</v>
       </c>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
       <c r="J31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K31" s="61">
+      <c r="K31" s="58">
         <f>SUMIFS($E:$E,$B:$B,K24)</f>
         <v>128498</v>
       </c>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
       <c r="N31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O31" s="61">
+      <c r="O31" s="58">
         <f>SUMIFS($E:$E,$B:$B,O24)</f>
         <v>219174</v>
       </c>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="62"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
       <c r="R31" s="4" t="s">
         <v>17</v>
       </c>
@@ -3460,27 +3473,27 @@
       <c r="E32" s="1">
         <v>6500</v>
       </c>
-      <c r="G32" s="61">
+      <c r="G32" s="58">
         <v>100000</v>
       </c>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
       <c r="J32" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K32" s="61">
+      <c r="K32" s="58">
         <v>100000</v>
       </c>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
       <c r="N32" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O32" s="61">
+      <c r="O32" s="58">
         <v>200000</v>
       </c>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="62"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
       <c r="R32" s="4" t="s">
         <v>18</v>
       </c>
@@ -3501,30 +3514,30 @@
       <c r="E33" s="1">
         <v>12800</v>
       </c>
-      <c r="G33" s="59">
+      <c r="G33" s="51">
         <f>G31/G32</f>
         <v>1.67197</v>
       </c>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
       <c r="J33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K33" s="59">
+      <c r="K33" s="51">
         <f>K31/K32</f>
         <v>1.28498</v>
       </c>
-      <c r="L33" s="60"/>
-      <c r="M33" s="60"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
       <c r="N33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O33" s="59">
+      <c r="O33" s="51">
         <f>O31/O32</f>
         <v>1.0958699999999999</v>
       </c>
-      <c r="P33" s="60"/>
-      <c r="Q33" s="60"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
       <c r="R33" s="4" t="s">
         <v>19</v>
       </c>
@@ -3545,30 +3558,30 @@
       <c r="E34" s="1">
         <v>8500</v>
       </c>
-      <c r="G34" s="63">
+      <c r="G34" s="53">
         <f>G31-G32</f>
         <v>67197</v>
       </c>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
       <c r="J34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="63">
+      <c r="K34" s="53">
         <f>K31-K32</f>
         <v>28498</v>
       </c>
-      <c r="L34" s="64"/>
-      <c r="M34" s="64"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
       <c r="N34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O34" s="63">
+      <c r="O34" s="53">
         <f>O31-O32</f>
         <v>19174</v>
       </c>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="64"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
       <c r="R34" s="6" t="s">
         <v>20</v>
       </c>
@@ -4255,6 +4268,82 @@
     <sortCondition ref="C2:C55"/>
   </sortState>
   <mergeCells count="92">
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:Q7"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:M29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:I29"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:I18"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:I7"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:M7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:M18"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:U18"/>
+    <mergeCell ref="R15:R18"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="S21:U21"/>
     <mergeCell ref="AE3:AE6"/>
     <mergeCell ref="AE7:AE9"/>
     <mergeCell ref="O33:Q33"/>
@@ -4271,82 +4360,6 @@
     <mergeCell ref="O25:P25"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="O15:Q18"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:U18"/>
-    <mergeCell ref="R15:R18"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:M7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:M18"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:I7"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:I18"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:M29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:I29"/>
-    <mergeCell ref="J26:J29"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:Q7"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="O8:Q8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G12:I12 G23:I23 K23:M23 G34:I34 K34:M34">
@@ -4424,10 +4437,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCAD01F-4348-441A-949C-AA34FE4B5371}">
-  <dimension ref="A1:AA23"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4442,11 +4455,11 @@
     <col min="8" max="8" width="7.75" style="7" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="13.58203125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="8.25" style="7" hidden="1" customWidth="1"/>
-    <col min="13" max="15" width="7.08203125" style="7" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.25" style="7" customWidth="1"/>
+    <col min="13" max="14" width="7.08203125" style="7" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5" style="7" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="8.25" style="7" customWidth="1"/>
-    <col min="17" max="18" width="7.08203125" style="7" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="7.08203125" style="7" customWidth="1"/>
+    <col min="17" max="19" width="7.08203125" style="7" customWidth="1"/>
     <col min="20" max="20" width="8.25" style="7" customWidth="1"/>
     <col min="21" max="21" width="5.9140625" style="7" customWidth="1"/>
     <col min="22" max="22" width="7.08203125" style="7" customWidth="1"/>
@@ -4457,39 +4470,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="66" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="68" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="71"/>
     </row>
     <row r="2" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -4516,28 +4529,28 @@
       <c r="H2" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="73" t="s">
+      <c r="J2" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="75" t="s">
+      <c r="K2" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="M2" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="46" t="s">
+      <c r="N2" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="O2" s="46" t="s">
+      <c r="O2" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="P2" s="46" t="s">
+      <c r="P2" s="44" t="s">
         <v>64</v>
       </c>
       <c r="Q2" s="33" t="s">
@@ -4599,55 +4612,55 @@
       <c r="H3" s="9">
         <v>56956</v>
       </c>
-      <c r="I3" s="72"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="47">
+      <c r="I3" s="73"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="45">
         <v>0.12740000000000001</v>
       </c>
-      <c r="M3" s="47" t="s">
+      <c r="M3" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="N3" s="47" t="s">
+      <c r="N3" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="O3" s="47">
+      <c r="O3" s="36">
         <v>8.1699999999999995E-2</v>
       </c>
-      <c r="P3" s="47">
+      <c r="P3" s="45">
         <v>0.24809999999999999</v>
       </c>
-      <c r="Q3" s="38">
+      <c r="Q3" s="36">
         <v>7.1499999999999994E-2</v>
       </c>
-      <c r="R3" s="38" t="s">
+      <c r="R3" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="S3" s="38">
+      <c r="S3" s="36">
         <v>9.4200000000000006E-2</v>
       </c>
-      <c r="T3" s="38">
+      <c r="T3" s="36">
         <v>0.28689999999999999</v>
       </c>
-      <c r="U3" s="38" t="s">
+      <c r="U3" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="V3" s="38" t="s">
+      <c r="V3" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="W3" s="38" t="s">
+      <c r="W3" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="X3" s="38" t="s">
+      <c r="X3" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="Y3" s="38" t="s">
+      <c r="Y3" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="Z3" s="38">
+      <c r="Z3" s="36">
         <v>0.1021</v>
       </c>
-      <c r="AA3" s="39">
+      <c r="AA3" s="37">
         <v>0.1482</v>
       </c>
     </row>
@@ -4676,76 +4689,76 @@
       <c r="H4" s="9">
         <v>396562</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="41">
+      <c r="K4" s="39">
         <v>874</v>
       </c>
-      <c r="L4" s="41">
+      <c r="L4" s="39">
         <f>874*L3</f>
         <v>111.34760000000001</v>
       </c>
-      <c r="M4" s="41">
+      <c r="M4" s="39">
         <f t="shared" ref="M4:AA4" si="0">874*M3</f>
         <v>6.2054</v>
       </c>
-      <c r="N4" s="41">
+      <c r="N4" s="39">
         <f t="shared" si="0"/>
         <v>33.736400000000003</v>
       </c>
-      <c r="O4" s="41">
+      <c r="O4" s="39">
         <f t="shared" si="0"/>
         <v>71.405799999999999</v>
       </c>
-      <c r="P4" s="41">
+      <c r="P4" s="39">
         <f t="shared" si="0"/>
         <v>216.83939999999998</v>
       </c>
-      <c r="Q4" s="41">
+      <c r="Q4" s="39">
         <f t="shared" si="0"/>
         <v>62.490999999999993</v>
       </c>
-      <c r="R4" s="41">
+      <c r="R4" s="39">
         <f t="shared" si="0"/>
         <v>72.017600000000002</v>
       </c>
-      <c r="S4" s="41">
+      <c r="S4" s="39">
         <f t="shared" si="0"/>
         <v>82.330800000000011</v>
       </c>
-      <c r="T4" s="41">
+      <c r="T4" s="39">
         <f t="shared" si="0"/>
         <v>250.75059999999999</v>
       </c>
-      <c r="U4" s="41">
+      <c r="U4" s="39">
         <f t="shared" si="0"/>
         <v>73.416000000000011</v>
       </c>
-      <c r="V4" s="41">
+      <c r="V4" s="39">
         <f t="shared" si="0"/>
         <v>74.901799999999994</v>
       </c>
-      <c r="W4" s="41">
+      <c r="W4" s="39">
         <f t="shared" si="0"/>
         <v>102.4328</v>
       </c>
-      <c r="X4" s="41">
+      <c r="X4" s="39">
         <f t="shared" si="0"/>
         <v>295.06240000000003</v>
       </c>
-      <c r="Y4" s="41">
+      <c r="Y4" s="39">
         <f t="shared" si="0"/>
         <v>76.300200000000004</v>
       </c>
-      <c r="Z4" s="41">
+      <c r="Z4" s="39">
         <f t="shared" si="0"/>
         <v>89.235399999999998</v>
       </c>
-      <c r="AA4" s="42">
+      <c r="AA4" s="40">
         <f t="shared" si="0"/>
         <v>129.52680000000001</v>
       </c>
@@ -4775,9 +4788,7 @@
       <c r="H5" s="9">
         <v>33223</v>
       </c>
-      <c r="I5" s="50" t="s">
-        <v>84</v>
-      </c>
+      <c r="I5" s="65"/>
       <c r="J5" s="14" t="s">
         <v>86</v>
       </c>
@@ -4854,77 +4865,75 @@
       <c r="H6" s="9">
         <v>24502</v>
       </c>
-      <c r="I6" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" s="48" t="s">
+      <c r="I6" s="65"/>
+      <c r="J6" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="47">
         <f>K5/K4</f>
         <v>0.39825983409610982</v>
       </c>
-      <c r="L6" s="36">
+      <c r="L6" s="47">
         <f t="shared" ref="L6:AA6" si="1">L5/L4</f>
         <v>1.6401709152240369</v>
       </c>
-      <c r="M6" s="36">
+      <c r="M6" s="47">
         <f t="shared" si="1"/>
         <v>0.80330035130692623</v>
       </c>
-      <c r="N6" s="36">
+      <c r="N6" s="47">
         <f t="shared" si="1"/>
         <v>1.241071809677381</v>
       </c>
-      <c r="O6" s="36">
+      <c r="O6" s="47">
         <f t="shared" si="1"/>
         <v>1.9014561842315332</v>
       </c>
-      <c r="P6" s="36">
+      <c r="P6" s="47">
         <f t="shared" si="1"/>
         <v>0.76300709188459293</v>
       </c>
-      <c r="Q6" s="36">
+      <c r="Q6" s="47">
         <f t="shared" si="1"/>
         <v>0.75930934054503862</v>
       </c>
-      <c r="R6" s="36">
+      <c r="R6" s="47">
         <f t="shared" si="1"/>
         <v>1.3052364977449957</v>
       </c>
-      <c r="S6" s="36">
+      <c r="S6" s="47">
         <f t="shared" si="1"/>
         <v>0.29150694515296821</v>
       </c>
-      <c r="T6" s="36">
+      <c r="T6" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U6" s="36">
+      <c r="U6" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V6" s="36">
+      <c r="V6" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W6" s="36">
+      <c r="W6" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X6" s="36">
+      <c r="X6" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="36">
+      <c r="Y6" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="36">
+      <c r="Z6" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA6" s="37">
+      <c r="AA6" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4954,79 +4963,77 @@
       <c r="H7" s="9">
         <v>29366</v>
       </c>
-      <c r="I7" s="50" t="s">
-        <v>84</v>
-      </c>
+      <c r="I7" s="65"/>
       <c r="J7" s="15" t="s">
         <v>87</v>
       </c>
       <c r="K7" s="16">
-        <f>K5-K4</f>
-        <v>-525.92090499999995</v>
+        <f>ROUNDUP(K4-K5,0)</f>
+        <v>526</v>
       </c>
       <c r="L7" s="16">
-        <f t="shared" ref="L7:AA7" si="2">L5-L4</f>
-        <v>71.281494999999993</v>
+        <f t="shared" ref="L7:AA7" si="2">ROUNDUP(L4-L5,0)</f>
+        <v>-72</v>
       </c>
       <c r="M7" s="16">
         <f t="shared" si="2"/>
-        <v>-1.2206000000000001</v>
+        <v>2</v>
       </c>
       <c r="N7" s="16">
         <f t="shared" si="2"/>
-        <v>8.1328949999999978</v>
+        <v>-9</v>
       </c>
       <c r="O7" s="16">
         <f t="shared" si="2"/>
-        <v>64.369200000000006</v>
+        <v>-65</v>
       </c>
       <c r="P7" s="16">
         <f t="shared" si="2"/>
-        <v>-51.389399999999995</v>
+        <v>52</v>
       </c>
       <c r="Q7" s="16">
         <f t="shared" si="2"/>
-        <v>-15.04099999999999</v>
+        <v>16</v>
       </c>
       <c r="R7" s="16">
         <f t="shared" si="2"/>
-        <v>21.982399999999998</v>
+        <v>-22</v>
       </c>
       <c r="S7" s="16">
         <f t="shared" si="2"/>
-        <v>-58.330800000000011</v>
+        <v>59</v>
       </c>
       <c r="T7" s="16">
         <f t="shared" si="2"/>
-        <v>-250.75059999999999</v>
+        <v>251</v>
       </c>
       <c r="U7" s="16">
         <f t="shared" si="2"/>
-        <v>-73.416000000000011</v>
+        <v>74</v>
       </c>
       <c r="V7" s="16">
         <f t="shared" si="2"/>
-        <v>-74.901799999999994</v>
+        <v>75</v>
       </c>
       <c r="W7" s="16">
         <f t="shared" si="2"/>
-        <v>-102.4328</v>
+        <v>103</v>
       </c>
       <c r="X7" s="16">
         <f t="shared" si="2"/>
-        <v>-295.06240000000003</v>
+        <v>296</v>
       </c>
       <c r="Y7" s="16">
         <f t="shared" si="2"/>
-        <v>-76.300200000000004</v>
+        <v>77</v>
       </c>
       <c r="Z7" s="16">
         <f t="shared" si="2"/>
-        <v>-89.235399999999998</v>
-      </c>
-      <c r="AA7" s="17">
+        <v>90</v>
+      </c>
+      <c r="AA7" s="16">
         <f t="shared" si="2"/>
-        <v>-129.52680000000001</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -5060,58 +5067,56 @@
         <f>SUM(H3:H7)</f>
         <v>540609</v>
       </c>
-      <c r="I8" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="J8" s="43" t="s">
+      <c r="I8" s="66"/>
+      <c r="J8" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="K8" s="44">
+      <c r="K8" s="42">
         <f>L8+P8+T8+X8</f>
         <v>10</v>
       </c>
-      <c r="L8" s="44">
+      <c r="L8" s="42">
         <f>SUM(M8:O8)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="44">
-        <v>0</v>
-      </c>
-      <c r="N8" s="44">
-        <v>0</v>
-      </c>
-      <c r="O8" s="44">
-        <v>0</v>
-      </c>
-      <c r="P8" s="44">
+      <c r="M8" s="42">
+        <v>0</v>
+      </c>
+      <c r="N8" s="42">
+        <v>0</v>
+      </c>
+      <c r="O8" s="42">
+        <v>0</v>
+      </c>
+      <c r="P8" s="42">
         <f>SUM(Q8:S8)</f>
         <v>10</v>
       </c>
-      <c r="Q8" s="44">
-        <v>0</v>
-      </c>
-      <c r="R8" s="44">
+      <c r="Q8" s="42">
+        <v>0</v>
+      </c>
+      <c r="R8" s="42">
         <f>D19</f>
         <v>0</v>
       </c>
-      <c r="S8" s="44">
+      <c r="S8" s="42">
         <f>H19</f>
         <v>10</v>
       </c>
-      <c r="T8" s="44">
+      <c r="T8" s="42">
         <f>SUM(U8:W8)</f>
         <v>0</v>
       </c>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44">
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42">
         <f>SUM(Y8:AA8)</f>
         <v>0</v>
       </c>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="45"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="43"/>
     </row>
     <row r="9" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
@@ -5144,84 +5149,82 @@
         <f t="array" ref="H9">SUM(SUMIFS(H3:H7,E3:E7,{"嘉兴","海宁","桐乡"}))</f>
         <v>119545</v>
       </c>
-      <c r="I9" s="49" t="s">
+      <c r="I9" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="K9" s="41">
+      <c r="K9" s="39">
         <v>150</v>
       </c>
-      <c r="L9" s="41">
+      <c r="L9" s="39">
         <f>150*L3</f>
         <v>19.110000000000003</v>
       </c>
-      <c r="M9" s="41">
+      <c r="M9" s="39">
         <f t="shared" ref="M9:AA9" si="3">150*M3</f>
         <v>1.0650000000000002</v>
       </c>
-      <c r="N9" s="41">
+      <c r="N9" s="39">
         <f t="shared" si="3"/>
         <v>5.79</v>
       </c>
-      <c r="O9" s="41">
+      <c r="O9" s="39">
         <f t="shared" si="3"/>
         <v>12.254999999999999</v>
       </c>
-      <c r="P9" s="41">
+      <c r="P9" s="39">
         <f t="shared" si="3"/>
         <v>37.214999999999996</v>
       </c>
-      <c r="Q9" s="41">
+      <c r="Q9" s="39">
         <f t="shared" si="3"/>
         <v>10.725</v>
       </c>
-      <c r="R9" s="41">
+      <c r="R9" s="39">
         <f>150*R3</f>
         <v>12.36</v>
       </c>
-      <c r="S9" s="41">
+      <c r="S9" s="39">
         <f t="shared" si="3"/>
         <v>14.13</v>
       </c>
-      <c r="T9" s="41">
+      <c r="T9" s="39">
         <f t="shared" si="3"/>
         <v>43.034999999999997</v>
       </c>
-      <c r="U9" s="41">
+      <c r="U9" s="39">
         <f t="shared" si="3"/>
         <v>12.600000000000001</v>
       </c>
-      <c r="V9" s="41">
+      <c r="V9" s="39">
         <f t="shared" si="3"/>
         <v>12.855</v>
       </c>
-      <c r="W9" s="41">
+      <c r="W9" s="39">
         <f t="shared" si="3"/>
         <v>17.579999999999998</v>
       </c>
-      <c r="X9" s="41">
+      <c r="X9" s="39">
         <f t="shared" si="3"/>
         <v>50.64</v>
       </c>
-      <c r="Y9" s="41">
+      <c r="Y9" s="39">
         <f t="shared" si="3"/>
         <v>13.095000000000001</v>
       </c>
-      <c r="Z9" s="41">
+      <c r="Z9" s="39">
         <f t="shared" si="3"/>
         <v>15.315</v>
       </c>
-      <c r="AA9" s="42">
+      <c r="AA9" s="40">
         <f t="shared" si="3"/>
         <v>22.23</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I10" s="50" t="s">
-        <v>5</v>
-      </c>
+      <c r="I10" s="65"/>
       <c r="J10" s="14" t="s">
         <v>88</v>
       </c>
@@ -5273,89 +5276,87 @@
       <c r="AA10" s="17"/>
     </row>
     <row r="11" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="66" t="s">
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="50" t="s">
-        <v>5</v>
-      </c>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="65"/>
       <c r="J11" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="47">
         <f>K10/K9</f>
         <v>9.6726533333333323E-2</v>
       </c>
-      <c r="L11" s="36">
+      <c r="L11" s="47">
         <f t="shared" ref="L11:AA11" si="4">L10/L9</f>
         <v>0.69644060701203547</v>
       </c>
-      <c r="M11" s="36">
+      <c r="M11" s="47">
         <f t="shared" si="4"/>
         <v>0.40704225352112672</v>
       </c>
-      <c r="N11" s="36">
+      <c r="N11" s="47">
         <f t="shared" si="4"/>
         <v>0.34997927461139899</v>
       </c>
-      <c r="O11" s="36">
+      <c r="O11" s="47">
         <f t="shared" si="4"/>
         <v>0.88527947776417792</v>
       </c>
-      <c r="P11" s="36">
+      <c r="P11" s="47">
         <f t="shared" si="4"/>
         <v>3.2245062474808545E-2</v>
       </c>
-      <c r="Q11" s="36">
+      <c r="Q11" s="47">
         <f t="shared" si="4"/>
         <v>0.11188811188811189</v>
       </c>
-      <c r="R11" s="36">
+      <c r="R11" s="47">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S11" s="36">
+      <c r="S11" s="47">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T11" s="36">
+      <c r="T11" s="47">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U11" s="36">
+      <c r="U11" s="47">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V11" s="36">
+      <c r="V11" s="47">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W11" s="36">
+      <c r="W11" s="47">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X11" s="36">
+      <c r="X11" s="47">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="36">
+      <c r="Y11" s="47">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z11" s="36">
+      <c r="Z11" s="47">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA11" s="37">
+      <c r="AA11" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5385,79 +5386,77 @@
       <c r="H12" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="I12" s="50" t="s">
-        <v>5</v>
-      </c>
+      <c r="I12" s="65"/>
       <c r="J12" s="14" t="s">
         <v>90</v>
       </c>
       <c r="K12" s="16">
-        <f>K10-K9</f>
-        <v>-135.49101999999999</v>
+        <f>ROUNDUP(K9-K10,0)</f>
+        <v>136</v>
       </c>
       <c r="L12" s="16">
-        <f t="shared" ref="L12:AA12" si="5">L10-L9</f>
-        <v>-5.801020000000003</v>
+        <f t="shared" ref="L12:AA12" si="5">ROUNDUP(L9-L10,0)</f>
+        <v>6</v>
       </c>
       <c r="M12" s="16">
         <f t="shared" si="5"/>
-        <v>-0.63150000000000017</v>
+        <v>1</v>
       </c>
       <c r="N12" s="16">
         <f t="shared" si="5"/>
-        <v>-3.76362</v>
+        <v>4</v>
       </c>
       <c r="O12" s="16">
         <f t="shared" si="5"/>
-        <v>-1.405899999999999</v>
+        <v>2</v>
       </c>
       <c r="P12" s="16">
         <f t="shared" si="5"/>
-        <v>-36.014999999999993</v>
+        <v>37</v>
       </c>
       <c r="Q12" s="16">
         <f t="shared" si="5"/>
-        <v>-9.5250000000000004</v>
+        <v>10</v>
       </c>
       <c r="R12" s="16">
         <f t="shared" si="5"/>
-        <v>-12.36</v>
+        <v>13</v>
       </c>
       <c r="S12" s="16">
         <f t="shared" si="5"/>
-        <v>-14.13</v>
+        <v>15</v>
       </c>
       <c r="T12" s="16">
         <f t="shared" si="5"/>
-        <v>-43.034999999999997</v>
+        <v>44</v>
       </c>
       <c r="U12" s="16">
         <f t="shared" si="5"/>
-        <v>-12.600000000000001</v>
+        <v>13</v>
       </c>
       <c r="V12" s="16">
         <f t="shared" si="5"/>
-        <v>-12.855</v>
+        <v>13</v>
       </c>
       <c r="W12" s="16">
         <f t="shared" si="5"/>
-        <v>-17.579999999999998</v>
+        <v>18</v>
       </c>
       <c r="X12" s="16">
         <f t="shared" si="5"/>
-        <v>-50.64</v>
+        <v>51</v>
       </c>
       <c r="Y12" s="16">
         <f t="shared" si="5"/>
-        <v>-13.095000000000001</v>
+        <v>14</v>
       </c>
       <c r="Z12" s="16">
         <f t="shared" si="5"/>
-        <v>-15.315</v>
-      </c>
-      <c r="AA12" s="17">
+        <v>16</v>
+      </c>
+      <c r="AA12" s="16">
         <f t="shared" si="5"/>
-        <v>-22.23</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -5491,58 +5490,56 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="I13" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" s="43" t="s">
+      <c r="I13" s="66"/>
+      <c r="J13" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="K13" s="44">
+      <c r="K13" s="42">
         <f>L13+P13+T13+X13</f>
         <v>39</v>
       </c>
-      <c r="L13" s="44">
+      <c r="L13" s="42">
         <f>SUM(M13:O13)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="44">
-        <v>0</v>
-      </c>
-      <c r="N13" s="44">
-        <v>0</v>
-      </c>
-      <c r="O13" s="44">
-        <v>0</v>
-      </c>
-      <c r="P13" s="44">
+      <c r="M13" s="42">
+        <v>0</v>
+      </c>
+      <c r="N13" s="42">
+        <v>0</v>
+      </c>
+      <c r="O13" s="42">
+        <v>0</v>
+      </c>
+      <c r="P13" s="42">
         <f>SUM(Q13:S13)</f>
         <v>39</v>
       </c>
-      <c r="Q13" s="44">
-        <v>0</v>
-      </c>
-      <c r="R13" s="44">
+      <c r="Q13" s="42">
+        <v>0</v>
+      </c>
+      <c r="R13" s="42">
         <f>D14</f>
         <v>0</v>
       </c>
-      <c r="S13" s="44">
+      <c r="S13" s="42">
         <f>H14</f>
         <v>39</v>
       </c>
-      <c r="T13" s="44">
+      <c r="T13" s="42">
         <f>SUM(U13:W13)</f>
         <v>0</v>
       </c>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44">
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42">
         <f>SUM(Y13:AA13)</f>
         <v>0</v>
       </c>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="44"/>
-      <c r="AA13" s="45"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="43"/>
     </row>
     <row r="14" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
@@ -5575,76 +5572,76 @@
         <f t="shared" si="9"/>
         <v>39</v>
       </c>
-      <c r="I14" s="49" t="s">
+      <c r="I14" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="40" t="s">
+      <c r="J14" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K14" s="39">
         <v>176</v>
       </c>
-      <c r="L14" s="41">
+      <c r="L14" s="39">
         <f>176*L3</f>
         <v>22.422400000000003</v>
       </c>
-      <c r="M14" s="41">
+      <c r="M14" s="39">
         <f t="shared" ref="M14:AA14" si="10">176*M3</f>
         <v>1.2496</v>
       </c>
-      <c r="N14" s="41">
+      <c r="N14" s="39">
         <f t="shared" si="10"/>
         <v>6.7936000000000005</v>
       </c>
-      <c r="O14" s="41">
+      <c r="O14" s="39">
         <f t="shared" si="10"/>
         <v>14.379199999999999</v>
       </c>
-      <c r="P14" s="41">
+      <c r="P14" s="39">
         <f t="shared" si="10"/>
         <v>43.665599999999998</v>
       </c>
-      <c r="Q14" s="41">
+      <c r="Q14" s="39">
         <f t="shared" si="10"/>
         <v>12.584</v>
       </c>
-      <c r="R14" s="41">
+      <c r="R14" s="39">
         <f t="shared" si="10"/>
         <v>14.5024</v>
       </c>
-      <c r="S14" s="41">
+      <c r="S14" s="39">
         <f>176*S3</f>
         <v>16.5792</v>
       </c>
-      <c r="T14" s="41">
+      <c r="T14" s="39">
         <f t="shared" si="10"/>
         <v>50.494399999999999</v>
       </c>
-      <c r="U14" s="41">
+      <c r="U14" s="39">
         <f t="shared" si="10"/>
         <v>14.784000000000001</v>
       </c>
-      <c r="V14" s="41">
+      <c r="V14" s="39">
         <f t="shared" si="10"/>
         <v>15.0832</v>
       </c>
-      <c r="W14" s="41">
+      <c r="W14" s="39">
         <f t="shared" si="10"/>
         <v>20.627199999999998</v>
       </c>
-      <c r="X14" s="41">
+      <c r="X14" s="39">
         <f t="shared" si="10"/>
         <v>59.4176</v>
       </c>
-      <c r="Y14" s="41">
+      <c r="Y14" s="39">
         <f t="shared" si="10"/>
         <v>15.364800000000001</v>
       </c>
-      <c r="Z14" s="41">
+      <c r="Z14" s="39">
         <f t="shared" si="10"/>
         <v>17.9696</v>
       </c>
-      <c r="AA14" s="42">
+      <c r="AA14" s="40">
         <f t="shared" si="10"/>
         <v>26.083199999999998</v>
       </c>
@@ -5680,9 +5677,7 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="I15" s="50" t="s">
-        <v>7</v>
-      </c>
+      <c r="I15" s="65"/>
       <c r="J15" s="14" t="s">
         <v>88</v>
       </c>
@@ -5764,77 +5759,75 @@
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="I16" s="50" t="s">
-        <v>7</v>
-      </c>
+      <c r="I16" s="65"/>
       <c r="J16" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="K16" s="36">
+      <c r="K16" s="47">
         <f>K15/K14</f>
         <v>0.17924261363636365</v>
       </c>
-      <c r="L16" s="36">
+      <c r="L16" s="47">
         <f t="shared" ref="L16:AA16" si="15">L15/L14</f>
         <v>0.94559012416155264</v>
       </c>
-      <c r="M16" s="36">
+      <c r="M16" s="47">
         <f t="shared" si="15"/>
         <v>0.74983994878361082</v>
       </c>
-      <c r="N16" s="36">
+      <c r="N16" s="47">
         <f t="shared" si="15"/>
         <v>0.28865402731983042</v>
       </c>
-      <c r="O16" s="36">
+      <c r="O16" s="47">
         <f t="shared" si="15"/>
         <v>1.2729776343607435</v>
       </c>
-      <c r="P16" s="36">
+      <c r="P16" s="47">
         <f t="shared" si="15"/>
         <v>0.23689815323733102</v>
       </c>
-      <c r="Q16" s="36">
+      <c r="Q16" s="47">
         <f t="shared" si="15"/>
         <v>0.34522409408773042</v>
       </c>
-      <c r="R16" s="36">
+      <c r="R16" s="47">
         <f t="shared" si="15"/>
         <v>0.41372462488967343</v>
       </c>
-      <c r="S16" s="36">
+      <c r="S16" s="47">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="T16" s="36">
+      <c r="T16" s="47">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="U16" s="36">
+      <c r="U16" s="47">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V16" s="36">
+      <c r="V16" s="47">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="W16" s="36">
+      <c r="W16" s="47">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="X16" s="36">
+      <c r="X16" s="47">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="36">
+      <c r="Y16" s="47">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="36">
+      <c r="Z16" s="47">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AA16" s="37">
+      <c r="AA16" s="48">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -5870,79 +5863,77 @@
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="I17" s="50" t="s">
-        <v>7</v>
-      </c>
+      <c r="I17" s="65"/>
       <c r="J17" s="14" t="s">
         <v>90</v>
       </c>
       <c r="K17" s="16">
-        <f>K15-K14</f>
-        <v>-144.45330000000001</v>
+        <f>ROUNDUP(K14-K15,0)</f>
+        <v>145</v>
       </c>
       <c r="L17" s="16">
-        <f t="shared" ref="L17:AA17" si="18">L15-L14</f>
-        <v>-1.2200000000000024</v>
+        <f t="shared" ref="L17:AA17" si="18">ROUNDUP(L14-L15,0)</f>
+        <v>2</v>
       </c>
       <c r="M17" s="16">
         <f t="shared" si="18"/>
-        <v>-0.31259999999999999</v>
+        <v>1</v>
       </c>
       <c r="N17" s="16">
         <f t="shared" si="18"/>
-        <v>-4.8326000000000002</v>
+        <v>5</v>
       </c>
       <c r="O17" s="16">
         <f t="shared" si="18"/>
-        <v>3.925200000000002</v>
+        <v>-4</v>
       </c>
       <c r="P17" s="16">
         <f t="shared" si="18"/>
-        <v>-33.321299999999994</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="16">
         <f t="shared" si="18"/>
-        <v>-8.2396999999999991</v>
+        <v>9</v>
       </c>
       <c r="R17" s="16">
         <f t="shared" si="18"/>
-        <v>-8.5023999999999997</v>
+        <v>9</v>
       </c>
       <c r="S17" s="16">
         <f t="shared" si="18"/>
-        <v>-16.5792</v>
+        <v>17</v>
       </c>
       <c r="T17" s="16">
         <f t="shared" si="18"/>
-        <v>-50.494399999999999</v>
+        <v>51</v>
       </c>
       <c r="U17" s="16">
         <f t="shared" si="18"/>
-        <v>-14.784000000000001</v>
+        <v>15</v>
       </c>
       <c r="V17" s="16">
         <f t="shared" si="18"/>
-        <v>-15.0832</v>
+        <v>16</v>
       </c>
       <c r="W17" s="16">
         <f t="shared" si="18"/>
-        <v>-20.627199999999998</v>
+        <v>21</v>
       </c>
       <c r="X17" s="16">
         <f t="shared" si="18"/>
-        <v>-59.4176</v>
+        <v>60</v>
       </c>
       <c r="Y17" s="16">
         <f t="shared" si="18"/>
-        <v>-15.364800000000001</v>
+        <v>16</v>
       </c>
       <c r="Z17" s="16">
         <f t="shared" si="18"/>
-        <v>-17.9696</v>
-      </c>
-      <c r="AA17" s="17">
+        <v>18</v>
+      </c>
+      <c r="AA17" s="16">
         <f t="shared" si="18"/>
-        <v>-26.083199999999998</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -5976,58 +5967,56 @@
         <f>SUM(H13:H17)</f>
         <v>51</v>
       </c>
-      <c r="I18" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="43" t="s">
+      <c r="I18" s="66"/>
+      <c r="J18" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="K18" s="44">
+      <c r="K18" s="42">
         <f>L18+P18+T18+X18</f>
         <v>2</v>
       </c>
-      <c r="L18" s="44">
+      <c r="L18" s="42">
         <f>SUM(M18:O18)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="44">
-        <v>0</v>
-      </c>
-      <c r="N18" s="44">
-        <v>0</v>
-      </c>
-      <c r="O18" s="44">
-        <v>0</v>
-      </c>
-      <c r="P18" s="44">
+      <c r="M18" s="42">
+        <v>0</v>
+      </c>
+      <c r="N18" s="42">
+        <v>0</v>
+      </c>
+      <c r="O18" s="42">
+        <v>0</v>
+      </c>
+      <c r="P18" s="42">
         <f>SUM(Q18:S18)</f>
         <v>2</v>
       </c>
-      <c r="Q18" s="44">
-        <v>0</v>
-      </c>
-      <c r="R18" s="44">
+      <c r="Q18" s="42">
+        <v>0</v>
+      </c>
+      <c r="R18" s="42">
         <f>D16</f>
         <v>0</v>
       </c>
-      <c r="S18" s="44">
+      <c r="S18" s="42">
         <f>H16</f>
         <v>2</v>
       </c>
-      <c r="T18" s="44">
+      <c r="T18" s="42">
         <f>SUM(U18:W18)</f>
         <v>0</v>
       </c>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44">
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42">
         <f>SUM(Y18:AA18)</f>
         <v>0</v>
       </c>
-      <c r="Y18" s="44"/>
-      <c r="Z18" s="44"/>
-      <c r="AA18" s="45"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="43"/>
     </row>
     <row r="19" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
@@ -6060,85 +6049,83 @@
         <f t="array" ref="H19">SUM(SUMIFS(H13:H17,E13:E17,{"嘉兴","海宁","桐乡"}))</f>
         <v>10</v>
       </c>
-      <c r="I19" s="49" t="s">
+      <c r="I19" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="J19" s="40" t="s">
+      <c r="J19" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="K19" s="41">
+      <c r="K19" s="39">
         <f>K14+K9+K4</f>
         <v>1200</v>
       </c>
-      <c r="L19" s="41">
+      <c r="L19" s="39">
         <f t="shared" ref="L19:AA20" si="19">L14+L9+L4</f>
         <v>152.88000000000002</v>
       </c>
-      <c r="M19" s="41">
+      <c r="M19" s="39">
         <f t="shared" si="19"/>
         <v>8.52</v>
       </c>
-      <c r="N19" s="41">
+      <c r="N19" s="39">
         <f t="shared" si="19"/>
         <v>46.320000000000007</v>
       </c>
-      <c r="O19" s="41">
+      <c r="O19" s="39">
         <f t="shared" si="19"/>
         <v>98.039999999999992</v>
       </c>
-      <c r="P19" s="41">
+      <c r="P19" s="39">
         <f t="shared" si="19"/>
         <v>297.71999999999997</v>
       </c>
-      <c r="Q19" s="41">
+      <c r="Q19" s="39">
         <f t="shared" si="19"/>
         <v>85.799999999999983</v>
       </c>
-      <c r="R19" s="41">
+      <c r="R19" s="39">
         <f t="shared" si="19"/>
         <v>98.88</v>
       </c>
-      <c r="S19" s="41">
+      <c r="S19" s="39">
         <f t="shared" si="19"/>
         <v>113.04000000000002</v>
       </c>
-      <c r="T19" s="41">
+      <c r="T19" s="39">
         <f t="shared" si="19"/>
         <v>344.28</v>
       </c>
-      <c r="U19" s="41">
+      <c r="U19" s="39">
         <f t="shared" si="19"/>
         <v>100.80000000000001</v>
       </c>
-      <c r="V19" s="41">
+      <c r="V19" s="39">
         <f t="shared" si="19"/>
         <v>102.84</v>
       </c>
-      <c r="W19" s="41">
+      <c r="W19" s="39">
         <f t="shared" si="19"/>
         <v>140.63999999999999</v>
       </c>
-      <c r="X19" s="41">
+      <c r="X19" s="39">
         <f t="shared" si="19"/>
         <v>405.12</v>
       </c>
-      <c r="Y19" s="41">
+      <c r="Y19" s="39">
         <f t="shared" si="19"/>
         <v>104.76</v>
       </c>
-      <c r="Z19" s="41">
+      <c r="Z19" s="39">
         <f t="shared" si="19"/>
         <v>122.52</v>
       </c>
-      <c r="AA19" s="42">
+      <c r="AA19" s="40">
         <f t="shared" si="19"/>
         <v>177.84</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I20" s="50" t="s">
-        <v>92</v>
-      </c>
+      <c r="I20" s="65"/>
       <c r="J20" s="14" t="s">
         <v>88</v>
       </c>
@@ -6212,217 +6199,234 @@
       </c>
     </row>
     <row r="21" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="50" t="s">
-        <v>92</v>
-      </c>
+      <c r="I21" s="65"/>
       <c r="J21" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="K21" s="36">
+      <c r="K21" s="47">
         <f>K20/K19</f>
         <v>0.3284456458333333</v>
       </c>
-      <c r="L21" s="36">
+      <c r="L21" s="47">
         <f t="shared" ref="L21:AA21" si="20">L20/L19</f>
         <v>1.4203327773417058</v>
       </c>
-      <c r="M21" s="36">
+      <c r="M21" s="47">
         <f t="shared" si="20"/>
         <v>0.74592723004694839</v>
       </c>
-      <c r="N21" s="36">
+      <c r="N21" s="47">
         <f t="shared" si="20"/>
         <v>0.98999730138169251</v>
       </c>
-      <c r="O21" s="36">
+      <c r="O21" s="47">
         <f t="shared" si="20"/>
         <v>1.6822572419420647</v>
       </c>
-      <c r="P21" s="36">
+      <c r="P21" s="47">
         <f t="shared" si="20"/>
         <v>0.59449919387343808</v>
       </c>
-      <c r="Q21" s="36">
+      <c r="Q21" s="47">
         <f t="shared" si="20"/>
         <v>0.61764918414918435</v>
       </c>
-      <c r="R21" s="36">
+      <c r="R21" s="47">
         <f t="shared" si="20"/>
         <v>1.0113268608414241</v>
       </c>
-      <c r="S21" s="36">
+      <c r="S21" s="47">
         <f t="shared" si="20"/>
         <v>0.21231422505307851</v>
       </c>
-      <c r="T21" s="36">
+      <c r="T21" s="47">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U21" s="36">
+      <c r="U21" s="47">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V21" s="36">
+      <c r="V21" s="47">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="W21" s="36">
+      <c r="W21" s="47">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="X21" s="36">
+      <c r="X21" s="47">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="36">
+      <c r="Y21" s="47">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Z21" s="36">
+      <c r="Z21" s="47">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AA21" s="37">
+      <c r="AA21" s="48">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I22" s="50" t="s">
-        <v>92</v>
-      </c>
+      <c r="I22" s="65"/>
       <c r="J22" s="14" t="s">
         <v>90</v>
       </c>
       <c r="K22" s="16">
-        <f>K20-K19</f>
-        <v>-805.86522500000001</v>
+        <f>ROUNDUP(K19-K20,0)</f>
+        <v>806</v>
       </c>
       <c r="L22" s="16">
-        <f t="shared" ref="L22:AA22" si="21">L20-L19</f>
-        <v>64.260474999999985</v>
+        <f t="shared" ref="L22:AA22" si="21">ROUNDUP(L19-L20,0)</f>
+        <v>-65</v>
       </c>
       <c r="M22" s="16">
         <f t="shared" si="21"/>
-        <v>-2.1646999999999998</v>
+        <v>3</v>
       </c>
       <c r="N22" s="16">
         <f t="shared" si="21"/>
-        <v>-0.46332500000000465</v>
+        <v>1</v>
       </c>
       <c r="O22" s="16">
         <f t="shared" si="21"/>
-        <v>66.888500000000022</v>
+        <v>-67</v>
       </c>
       <c r="P22" s="16">
         <f t="shared" si="21"/>
-        <v>-120.72569999999999</v>
+        <v>121</v>
       </c>
       <c r="Q22" s="16">
         <f t="shared" si="21"/>
-        <v>-32.80569999999998</v>
+        <v>33</v>
       </c>
       <c r="R22" s="16">
         <f t="shared" si="21"/>
-        <v>1.1200000000000045</v>
+        <v>-2</v>
       </c>
       <c r="S22" s="16">
         <f t="shared" si="21"/>
-        <v>-89.04000000000002</v>
+        <v>90</v>
       </c>
       <c r="T22" s="16">
         <f t="shared" si="21"/>
-        <v>-344.28</v>
+        <v>345</v>
       </c>
       <c r="U22" s="16">
         <f t="shared" si="21"/>
-        <v>-100.80000000000001</v>
+        <v>101</v>
       </c>
       <c r="V22" s="16">
         <f t="shared" si="21"/>
-        <v>-102.84</v>
+        <v>103</v>
       </c>
       <c r="W22" s="16">
         <f t="shared" si="21"/>
-        <v>-140.63999999999999</v>
+        <v>141</v>
       </c>
       <c r="X22" s="16">
         <f t="shared" si="21"/>
-        <v>-405.12</v>
+        <v>406</v>
       </c>
       <c r="Y22" s="16">
         <f t="shared" si="21"/>
-        <v>-104.76</v>
+        <v>105</v>
       </c>
       <c r="Z22" s="16">
         <f t="shared" si="21"/>
-        <v>-122.52</v>
-      </c>
-      <c r="AA22" s="17">
+        <v>123</v>
+      </c>
+      <c r="AA22" s="16">
         <f t="shared" si="21"/>
-        <v>-177.84</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="I23" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="J23" s="43" t="s">
+      <c r="I23" s="66"/>
+      <c r="J23" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="K23" s="44">
+      <c r="K23" s="42">
         <f>K8+K13+K18</f>
         <v>51</v>
       </c>
-      <c r="L23" s="44">
+      <c r="L23" s="42">
         <f>SUM(M23:O23)</f>
         <v>0</v>
       </c>
-      <c r="M23" s="44">
+      <c r="M23" s="42">
         <f>M8+M13+M18</f>
         <v>0</v>
       </c>
-      <c r="N23" s="44">
+      <c r="N23" s="42">
         <f t="shared" ref="N23:O23" si="22">N8+N13+N18</f>
         <v>0</v>
       </c>
-      <c r="O23" s="44">
+      <c r="O23" s="42">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="P23" s="44">
+      <c r="P23" s="42">
         <f>SUM(Q23:S23)</f>
         <v>51</v>
       </c>
-      <c r="Q23" s="44">
+      <c r="Q23" s="42">
         <f>Q8+Q13+Q18</f>
         <v>0</v>
       </c>
-      <c r="R23" s="44">
+      <c r="R23" s="42">
         <f t="shared" ref="R23:S23" si="23">R8+R13+R18</f>
         <v>0</v>
       </c>
-      <c r="S23" s="44">
+      <c r="S23" s="42">
         <f t="shared" si="23"/>
         <v>51</v>
       </c>
-      <c r="T23" s="44">
+      <c r="T23" s="42">
         <f>SUM(U23:W23)</f>
         <v>0</v>
       </c>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="44">
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42">
         <f>SUM(Y23:AA23)</f>
         <v>0</v>
       </c>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="44"/>
-      <c r="AA23" s="45"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42"/>
+      <c r="AA23" s="43"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="49"/>
+      <c r="AA24" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="I1:AA1"/>
@@ -6431,9 +6435,11 @@
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J4:J18 Y4:AA18 U4:W18 Q4:S18 M4:O18">
+  <conditionalFormatting sqref="J4:J18 Y4:AA6 U4:W6 Q4:S6 M4:O6 M8:O11 Q8:S11 U8:W11 Y8:AA11 Y13:AA16 U13:W16 Q13:S16 M13:O16 M18:O18 Q18:S18 U18:W18 Y18:AA18">
     <cfRule type="expression" dxfId="23" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -6441,7 +6447,7 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J19:J23 Y19:AA23 U19:W23 Q19:S23 M19:O23">
+  <conditionalFormatting sqref="J19:J23 Y19:AA21 U19:W21 Q19:S21 M19:O21 M23:O23 Q23:S23 U23:W23 Y23:AA23">
     <cfRule type="expression" dxfId="21" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -6449,7 +6455,7 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L18">
+  <conditionalFormatting sqref="L4:L6 L8:L11 L13:L16 L18">
     <cfRule type="expression" dxfId="19" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -6457,7 +6463,7 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L19:L23">
+  <conditionalFormatting sqref="L19:L21 L23">
     <cfRule type="expression" dxfId="17" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -6465,7 +6471,7 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K18">
+  <conditionalFormatting sqref="K4:K18 L7:AA7 L12:AA12 L17:AA17">
     <cfRule type="expression" dxfId="15" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -6473,7 +6479,7 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:K23">
+  <conditionalFormatting sqref="K19:K23 L22:AA22">
     <cfRule type="expression" dxfId="13" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -6481,7 +6487,7 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P4:P18">
+  <conditionalFormatting sqref="P4:P6 P8:P11 P13:P16 P18">
     <cfRule type="expression" dxfId="11" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -6489,7 +6495,7 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P19:P23">
+  <conditionalFormatting sqref="P19:P21 P23">
     <cfRule type="expression" dxfId="9" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -6497,7 +6503,7 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T4:T18">
+  <conditionalFormatting sqref="T4:T6 T8:T11 T13:T16 T18">
     <cfRule type="expression" dxfId="7" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -6505,7 +6511,7 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T19:T23">
+  <conditionalFormatting sqref="T19:T21 T23">
     <cfRule type="expression" dxfId="5" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -6513,7 +6519,7 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X4:X18">
+  <conditionalFormatting sqref="X4:X6 X8:X11 X13:X16 X18">
     <cfRule type="expression" dxfId="3" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -6521,7 +6527,7 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X19:X23">
+  <conditionalFormatting sqref="X19:X21 X23">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>

--- a/省联动.xlsx
+++ b/省联动.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D2652\Desktop\workdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D86314-F28F-48C0-B740-F15289D285CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2436FCBD-2560-4784-84D1-C106FFDB27D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="610" yWindow="2310" windowWidth="22490" windowHeight="12320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1245,47 +1245,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1334,161 +1334,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{9EA95E99-C423-45BD-B946-364681CF80E9}"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -1911,27 +1757,27 @@
       <c r="E2" s="1">
         <v>26000</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
       <c r="J2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="60" t="s">
+      <c r="K2" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
       <c r="N2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="60" t="s">
+      <c r="O2" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
       <c r="R2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1976,11 +1822,11 @@
       <c r="E3" s="1">
         <v>12800</v>
       </c>
-      <c r="G3" s="62">
+      <c r="G3" s="52">
         <f ca="1">TODAY()</f>
         <v>45086</v>
       </c>
-      <c r="H3" s="63"/>
+      <c r="H3" s="53"/>
       <c r="I3" s="3">
         <f ca="1">TODAY()</f>
         <v>45086</v>
@@ -1988,11 +1834,11 @@
       <c r="J3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="62">
+      <c r="K3" s="52">
         <f ca="1">TODAY()</f>
         <v>45086</v>
       </c>
-      <c r="L3" s="63"/>
+      <c r="L3" s="53"/>
       <c r="M3" s="3">
         <f ca="1">TODAY()</f>
         <v>45086</v>
@@ -2000,11 +1846,11 @@
       <c r="N3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="62">
+      <c r="O3" s="52">
         <f ca="1">TODAY()</f>
         <v>45086</v>
       </c>
-      <c r="P3" s="63"/>
+      <c r="P3" s="53"/>
       <c r="Q3" s="3">
         <f ca="1">TODAY()</f>
         <v>45086</v>
@@ -2043,7 +1889,7 @@
         <f>AB3-AA3</f>
         <v>68800</v>
       </c>
-      <c r="AE3" s="50">
+      <c r="AE3" s="63">
         <f>SUM(AA3:AA6)</f>
         <v>602779</v>
       </c>
@@ -2064,31 +1910,31 @@
       <c r="E4" s="1">
         <v>12108</v>
       </c>
-      <c r="G4" s="55" cm="1">
+      <c r="G4" s="54" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">SUM(SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,{"海盐","平湖","海宁","桐乡"}))</f>
         <v>0</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="57" t="s">
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="55" cm="1">
+      <c r="K4" s="54" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">SUM(SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,{"红星","月星","六空"}))</f>
         <v>0</v>
       </c>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="57" t="s">
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="55">
+      <c r="O4" s="54">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY())</f>
         <v>0</v>
       </c>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="57" t="s">
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="56" t="s">
         <v>21</v>
       </c>
       <c r="W4" s="22" t="s">
@@ -2121,7 +1967,7 @@
         <f t="shared" ref="AD4:AD9" si="2">AB4-AA4</f>
         <v>74116</v>
       </c>
-      <c r="AE4" s="50"/>
+      <c r="AE4" s="63"/>
     </row>
     <row r="5" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -2139,18 +1985,18 @@
       <c r="E5" s="1">
         <v>22800</v>
       </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="57"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="56"/>
       <c r="W5" s="22" t="s">
         <v>107</v>
       </c>
@@ -2181,7 +2027,7 @@
         <f t="shared" si="2"/>
         <v>-67197</v>
       </c>
-      <c r="AE5" s="50"/>
+      <c r="AE5" s="63"/>
     </row>
     <row r="6" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -2199,18 +2045,18 @@
       <c r="E6" s="1">
         <v>50000</v>
       </c>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="57"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="56"/>
       <c r="W6" s="22" t="s">
         <v>108</v>
       </c>
@@ -2241,7 +2087,7 @@
         <f t="shared" si="2"/>
         <v>-28498</v>
       </c>
-      <c r="AE6" s="50"/>
+      <c r="AE6" s="63"/>
     </row>
     <row r="7" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -2259,18 +2105,18 @@
       <c r="E7" s="1">
         <v>16600</v>
       </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="57"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="56"/>
       <c r="W7" s="22" t="s">
         <v>109</v>
       </c>
@@ -2301,7 +2147,7 @@
         <f t="shared" si="2"/>
         <v>44612</v>
       </c>
-      <c r="AE7" s="50">
+      <c r="AE7" s="63">
         <f>SUM(AA7:AA9)</f>
         <v>575288</v>
       </c>
@@ -2322,30 +2168,30 @@
       <c r="E8" s="1">
         <v>6500</v>
       </c>
-      <c r="G8" s="51" t="e">
+      <c r="G8" s="57" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY())/SUMIFS($E:$E,$C:$C,TODAY()-1)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
       <c r="J8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="51" t="e">
+      <c r="K8" s="57" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,K2)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,K2)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
       <c r="N8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="51" t="e">
+      <c r="O8" s="57" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY())/SUMIFS($E:$E,$C:$C,TODAY()-1)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
       <c r="R8" s="4" t="s">
         <v>23</v>
       </c>
@@ -2379,7 +2225,7 @@
         <f t="shared" si="2"/>
         <v>-726</v>
       </c>
-      <c r="AE8" s="50"/>
+      <c r="AE8" s="63"/>
     </row>
     <row r="9" spans="1:31" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -2394,30 +2240,30 @@
       <c r="E9" s="1">
         <v>22800</v>
       </c>
-      <c r="G9" s="58" cm="1">
+      <c r="G9" s="59" cm="1">
         <f t="array" ref="G9">SUM(SUMIFS($E:$E,$B:$B,{"海盐","平湖","海宁","桐乡"}))</f>
         <v>602779</v>
       </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
       <c r="J9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="58" cm="1">
+      <c r="K9" s="59" cm="1">
         <f t="array" ref="K9">SUM(SUMIFS($E:$E,$B:$B,{"红星","月星","六空"}))</f>
         <v>575288</v>
       </c>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
       <c r="N9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="58">
+      <c r="O9" s="59">
         <f>SUM($E:$E)</f>
         <v>1178067</v>
       </c>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
       <c r="R9" s="4" t="s">
         <v>17</v>
       </c>
@@ -2451,7 +2297,7 @@
         <f t="shared" si="2"/>
         <v>-19174</v>
       </c>
-      <c r="AE9" s="50"/>
+      <c r="AE9" s="63"/>
     </row>
     <row r="10" spans="1:31" ht="17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -2469,27 +2315,27 @@
       <c r="E10" s="1">
         <v>19999</v>
       </c>
-      <c r="G10" s="58">
+      <c r="G10" s="59">
         <v>650000</v>
       </c>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
       <c r="J10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="58">
+      <c r="K10" s="59">
         <v>600000</v>
       </c>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
       <c r="N10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="58">
+      <c r="O10" s="59">
         <v>1250000</v>
       </c>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
       <c r="R10" s="4" t="s">
         <v>18</v>
       </c>
@@ -2545,30 +2391,30 @@
       <c r="E11" s="1">
         <v>45776</v>
       </c>
-      <c r="G11" s="51">
+      <c r="G11" s="57">
         <f>G9/G10</f>
         <v>0.9273523076923077</v>
       </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
       <c r="J11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="51">
+      <c r="K11" s="57">
         <f>K9/K10</f>
         <v>0.9588133333333333</v>
       </c>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
       <c r="N11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O11" s="51">
+      <c r="O11" s="57">
         <f>O9/O10</f>
         <v>0.9424536</v>
       </c>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
       <c r="R11" s="4" t="s">
         <v>19</v>
       </c>
@@ -2589,30 +2435,30 @@
       <c r="E12" s="1">
         <v>1600</v>
       </c>
-      <c r="G12" s="53">
+      <c r="G12" s="61">
         <f>G9-G10</f>
         <v>-47221</v>
       </c>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
       <c r="J12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="53">
+      <c r="K12" s="61">
         <f>K9-K10</f>
         <v>-24712</v>
       </c>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
       <c r="N12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="53">
+      <c r="O12" s="61">
         <f>O9-O10</f>
         <v>-71933</v>
       </c>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
       <c r="R12" s="6" t="s">
         <v>20</v>
       </c>
@@ -2633,35 +2479,35 @@
       <c r="E13" s="1">
         <v>21200</v>
       </c>
-      <c r="G13" s="60" t="s">
+      <c r="G13" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
       <c r="J13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K13" s="60" t="s">
+      <c r="K13" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
       <c r="N13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O13" s="60" t="s">
+      <c r="O13" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
       <c r="R13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="S13" s="60" t="s">
+      <c r="S13" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="T13" s="61"/>
-      <c r="U13" s="61"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
       <c r="V13" s="5" t="s">
         <v>2</v>
       </c>
@@ -2682,11 +2528,11 @@
       <c r="E14" s="1">
         <v>5500</v>
       </c>
-      <c r="G14" s="62">
+      <c r="G14" s="52">
         <f ca="1">TODAY()</f>
         <v>45086</v>
       </c>
-      <c r="H14" s="63"/>
+      <c r="H14" s="53"/>
       <c r="I14" s="3">
         <f ca="1">TODAY()</f>
         <v>45086</v>
@@ -2694,11 +2540,11 @@
       <c r="J14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="62">
+      <c r="K14" s="52">
         <f ca="1">TODAY()</f>
         <v>45086</v>
       </c>
-      <c r="L14" s="63"/>
+      <c r="L14" s="53"/>
       <c r="M14" s="3">
         <f ca="1">TODAY()</f>
         <v>45086</v>
@@ -2706,11 +2552,11 @@
       <c r="N14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O14" s="62">
+      <c r="O14" s="52">
         <f ca="1">TODAY()</f>
         <v>45086</v>
       </c>
-      <c r="P14" s="63"/>
+      <c r="P14" s="53"/>
       <c r="Q14" s="3">
         <f ca="1">TODAY()</f>
         <v>45086</v>
@@ -2718,11 +2564,11 @@
       <c r="R14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="S14" s="62">
+      <c r="S14" s="52">
         <f ca="1">TODAY()</f>
         <v>45086</v>
       </c>
-      <c r="T14" s="63"/>
+      <c r="T14" s="53"/>
       <c r="U14" s="3">
         <f ca="1">TODAY()</f>
         <v>45086</v>
@@ -2747,40 +2593,40 @@
       <c r="E15" s="1">
         <v>14000</v>
       </c>
-      <c r="G15" s="55">
+      <c r="G15" s="54">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,G13)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="57" t="s">
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="55">
+      <c r="K15" s="54">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,K13)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="57" t="s">
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="O15" s="55">
+      <c r="O15" s="54">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,O13)</f>
         <v>0</v>
       </c>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="57" t="s">
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="S15" s="55">
+      <c r="S15" s="54">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,S13)</f>
         <v>0</v>
       </c>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="57" t="s">
+      <c r="T15" s="55"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="56" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2800,22 +2646,22 @@
       <c r="E16" s="1">
         <v>58000</v>
       </c>
-      <c r="G16" s="55"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="57"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="56"/>
     </row>
     <row r="17" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -2833,22 +2679,22 @@
       <c r="E17" s="1">
         <v>12000</v>
       </c>
-      <c r="G17" s="55"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="57"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="56"/>
     </row>
     <row r="18" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -2866,22 +2712,22 @@
       <c r="E18" s="1">
         <v>3599</v>
       </c>
-      <c r="G18" s="55"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="57"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="56"/>
     </row>
     <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -2899,39 +2745,39 @@
       <c r="E19" s="1">
         <v>9000</v>
       </c>
-      <c r="G19" s="51" t="e">
+      <c r="G19" s="57" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,G13)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,G13)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
       <c r="J19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="51" t="e">
+      <c r="K19" s="57" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,K13)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,K13)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
       <c r="N19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O19" s="51" t="e">
+      <c r="O19" s="57" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,O13)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,O13)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
       <c r="R19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S19" s="51" t="e">
+      <c r="S19" s="57" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,S13)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,S13)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T19" s="52"/>
-      <c r="U19" s="52"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="58"/>
       <c r="V19" s="4" t="s">
         <v>23</v>
       </c>
@@ -2952,39 +2798,39 @@
       <c r="E20" s="1">
         <v>5999</v>
       </c>
-      <c r="G20" s="58">
+      <c r="G20" s="59">
         <f>SUMIFS($E:$E,$B:$B,G13)</f>
         <v>171200</v>
       </c>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
       <c r="J20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="58">
+      <c r="K20" s="59">
         <f>SUMIFS($E:$E,$B:$B,K13)</f>
         <v>135884</v>
       </c>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
       <c r="N20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O20" s="58">
+      <c r="O20" s="59">
         <f>SUMIFS($E:$E,$B:$B,O13)</f>
         <v>200726</v>
       </c>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="60"/>
       <c r="R20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S20" s="58">
+      <c r="S20" s="59">
         <f>SUMIFS($E:$E,$B:$B,S13)</f>
         <v>155388</v>
       </c>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
+      <c r="T20" s="60"/>
+      <c r="U20" s="60"/>
       <c r="V20" s="4" t="s">
         <v>17</v>
       </c>
@@ -3005,35 +2851,35 @@
       <c r="E21" s="1">
         <v>9500</v>
       </c>
-      <c r="G21" s="58">
+      <c r="G21" s="59">
         <v>240000</v>
       </c>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
       <c r="J21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="58">
+      <c r="K21" s="59">
         <v>210000</v>
       </c>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
       <c r="N21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O21" s="58">
+      <c r="O21" s="59">
         <v>200000</v>
       </c>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="60"/>
       <c r="R21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S21" s="58">
+      <c r="S21" s="59">
         <v>200000</v>
       </c>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="60"/>
       <c r="V21" s="4" t="s">
         <v>18</v>
       </c>
@@ -3054,39 +2900,39 @@
       <c r="E22" s="1">
         <v>9698</v>
       </c>
-      <c r="G22" s="51">
+      <c r="G22" s="57">
         <f>G20/G21</f>
         <v>0.71333333333333337</v>
       </c>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
       <c r="J22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K22" s="51">
+      <c r="K22" s="57">
         <f>K20/K21</f>
         <v>0.64706666666666668</v>
       </c>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
       <c r="N22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O22" s="51">
+      <c r="O22" s="57">
         <f>O20/O21</f>
         <v>1.00363</v>
       </c>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
       <c r="R22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S22" s="51">
+      <c r="S22" s="57">
         <f>S20/S21</f>
         <v>0.77693999999999996</v>
       </c>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
       <c r="V22" s="4" t="s">
         <v>19</v>
       </c>
@@ -3107,39 +2953,39 @@
       <c r="E23" s="1">
         <v>14500</v>
       </c>
-      <c r="G23" s="53">
+      <c r="G23" s="61">
         <f>G20-G21</f>
         <v>-68800</v>
       </c>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
       <c r="J23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="53">
+      <c r="K23" s="61">
         <f>K20-K21</f>
         <v>-74116</v>
       </c>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
       <c r="N23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="53">
+      <c r="O23" s="61">
         <f>O20-O21</f>
         <v>726</v>
       </c>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
       <c r="R23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S23" s="53">
+      <c r="S23" s="61">
         <f>S20-S21</f>
         <v>-44612</v>
       </c>
-      <c r="T23" s="54"/>
-      <c r="U23" s="54"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="62"/>
       <c r="V23" s="6" t="s">
         <v>20</v>
       </c>
@@ -3160,27 +3006,27 @@
       <c r="E24" s="1">
         <v>12000</v>
       </c>
-      <c r="G24" s="60" t="s">
+      <c r="G24" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
       <c r="J24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K24" s="60" t="s">
+      <c r="K24" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
       <c r="N24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O24" s="60" t="s">
+      <c r="O24" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="61"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
       <c r="R24" s="5" t="s">
         <v>2</v>
       </c>
@@ -3201,11 +3047,11 @@
       <c r="E25" s="1">
         <v>5999</v>
       </c>
-      <c r="G25" s="62">
+      <c r="G25" s="52">
         <f ca="1">TODAY()</f>
         <v>45086</v>
       </c>
-      <c r="H25" s="63"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="3">
         <f ca="1">TODAY()</f>
         <v>45086</v>
@@ -3213,11 +3059,11 @@
       <c r="J25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K25" s="62">
+      <c r="K25" s="52">
         <f ca="1">TODAY()</f>
         <v>45086</v>
       </c>
-      <c r="L25" s="63"/>
+      <c r="L25" s="53"/>
       <c r="M25" s="3">
         <f ca="1">TODAY()</f>
         <v>45086</v>
@@ -3225,11 +3071,11 @@
       <c r="N25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O25" s="62">
+      <c r="O25" s="52">
         <f ca="1">TODAY()</f>
         <v>45086</v>
       </c>
-      <c r="P25" s="63"/>
+      <c r="P25" s="53"/>
       <c r="Q25" s="3">
         <f ca="1">TODAY()</f>
         <v>45086</v>
@@ -3254,31 +3100,31 @@
       <c r="E26" s="1">
         <v>15800</v>
       </c>
-      <c r="G26" s="55">
+      <c r="G26" s="54">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,G24)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="57" t="s">
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="55">
+      <c r="K26" s="54">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,K24)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="57" t="s">
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="55">
+      <c r="O26" s="54">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,O24)</f>
         <v>0</v>
       </c>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="57" t="s">
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="56" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3298,18 +3144,18 @@
       <c r="E27" s="1">
         <v>7000</v>
       </c>
-      <c r="G27" s="55"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="57"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="56"/>
     </row>
     <row r="28" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -3327,18 +3173,18 @@
       <c r="E28" s="1">
         <v>26800</v>
       </c>
-      <c r="G28" s="55"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="57"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="56"/>
     </row>
     <row r="29" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -3356,18 +3202,18 @@
       <c r="E29" s="1">
         <v>11000</v>
       </c>
-      <c r="G29" s="55"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="56"/>
-      <c r="R29" s="57"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="56"/>
     </row>
     <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -3385,30 +3231,30 @@
       <c r="E30" s="1">
         <v>11388</v>
       </c>
-      <c r="G30" s="51" t="e">
+      <c r="G30" s="57" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,G24)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,G24)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
       <c r="J30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K30" s="51" t="e">
+      <c r="K30" s="57" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,K24)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,K24)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
       <c r="N30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O30" s="51" t="e">
+      <c r="O30" s="57" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,O24)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,O24)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58"/>
       <c r="R30" s="4" t="s">
         <v>23</v>
       </c>
@@ -3429,30 +3275,30 @@
       <c r="E31" s="1">
         <v>24499</v>
       </c>
-      <c r="G31" s="58">
+      <c r="G31" s="59">
         <f>SUMIFS($E:$E,$B:$B,G24)</f>
         <v>167197</v>
       </c>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
       <c r="J31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K31" s="58">
+      <c r="K31" s="59">
         <f>SUMIFS($E:$E,$B:$B,K24)</f>
         <v>128498</v>
       </c>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
       <c r="N31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O31" s="58">
+      <c r="O31" s="59">
         <f>SUMIFS($E:$E,$B:$B,O24)</f>
         <v>219174</v>
       </c>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="60"/>
       <c r="R31" s="4" t="s">
         <v>17</v>
       </c>
@@ -3473,27 +3319,27 @@
       <c r="E32" s="1">
         <v>6500</v>
       </c>
-      <c r="G32" s="58">
+      <c r="G32" s="59">
         <v>100000</v>
       </c>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
       <c r="J32" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K32" s="58">
+      <c r="K32" s="59">
         <v>100000</v>
       </c>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
       <c r="N32" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O32" s="58">
+      <c r="O32" s="59">
         <v>200000</v>
       </c>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="60"/>
       <c r="R32" s="4" t="s">
         <v>18</v>
       </c>
@@ -3514,30 +3360,30 @@
       <c r="E33" s="1">
         <v>12800</v>
       </c>
-      <c r="G33" s="51">
+      <c r="G33" s="57">
         <f>G31/G32</f>
         <v>1.67197</v>
       </c>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
       <c r="J33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K33" s="51">
+      <c r="K33" s="57">
         <f>K31/K32</f>
         <v>1.28498</v>
       </c>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
       <c r="N33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O33" s="51">
+      <c r="O33" s="57">
         <f>O31/O32</f>
         <v>1.0958699999999999</v>
       </c>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="58"/>
       <c r="R33" s="4" t="s">
         <v>19</v>
       </c>
@@ -3558,30 +3404,30 @@
       <c r="E34" s="1">
         <v>8500</v>
       </c>
-      <c r="G34" s="53">
+      <c r="G34" s="61">
         <f>G31-G32</f>
         <v>67197</v>
       </c>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
       <c r="J34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="53">
+      <c r="K34" s="61">
         <f>K31-K32</f>
         <v>28498</v>
       </c>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
       <c r="N34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O34" s="53">
+      <c r="O34" s="61">
         <f>O31-O32</f>
         <v>19174</v>
       </c>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="54"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
       <c r="R34" s="6" t="s">
         <v>20</v>
       </c>
@@ -4268,11 +4114,77 @@
     <sortCondition ref="C2:C55"/>
   </sortState>
   <mergeCells count="92">
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:Q7"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="AE3:AE6"/>
+    <mergeCell ref="AE7:AE9"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="O26:Q29"/>
+    <mergeCell ref="R26:R29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:Q18"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:U18"/>
+    <mergeCell ref="R15:R18"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:M7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:M18"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:I7"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:I18"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K30:M30"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O11:Q11"/>
     <mergeCell ref="O12:Q12"/>
@@ -4289,106 +4201,40 @@
     <mergeCell ref="G33:I33"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="N26:N29"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:I18"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:I7"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:M7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:M18"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:U18"/>
-    <mergeCell ref="R15:R18"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="AE3:AE6"/>
-    <mergeCell ref="AE7:AE9"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="O26:Q29"/>
-    <mergeCell ref="R26:R29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:Q18"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:Q7"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="O8:Q8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G12:I12 G23:I23 K23:M23 G34:I34 K34:M34">
-    <cfRule type="cellIs" dxfId="29" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:M12">
-    <cfRule type="cellIs" dxfId="28" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O12:Q12">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O23:Q23">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O34:Q34">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S23:U23">
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O23:Q23">
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O34:Q34">
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O12:Q12">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4439,8 +4285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCAD01F-4348-441A-949C-AA34FE4B5371}">
   <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4610,7 +4456,7 @@
         <v>2497775.9500000002</v>
       </c>
       <c r="H3" s="9">
-        <v>56956</v>
+        <v>62290</v>
       </c>
       <c r="I3" s="73"/>
       <c r="J3" s="75"/>
@@ -4687,7 +4533,7 @@
         <v>150524.6</v>
       </c>
       <c r="H4" s="9">
-        <v>396562</v>
+        <v>401431.9</v>
       </c>
       <c r="I4" s="64" t="s">
         <v>84</v>
@@ -4794,7 +4640,7 @@
       </c>
       <c r="K5" s="16">
         <f>L5+P5+T5+X5</f>
-        <v>348.079095</v>
+        <v>349.079095</v>
       </c>
       <c r="L5" s="16">
         <f>SUM(M5:O5)</f>
@@ -4811,7 +4657,7 @@
       </c>
       <c r="P5" s="16">
         <f>SUM(Q5:S5)</f>
-        <v>165.45</v>
+        <v>166.45</v>
       </c>
       <c r="Q5" s="16">
         <f>28.21+10.94+8.3</f>
@@ -4823,7 +4669,7 @@
       </c>
       <c r="S5" s="16">
         <f>F19</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T5" s="16">
         <f>SUM(U5:W5)</f>
@@ -4871,7 +4717,7 @@
       </c>
       <c r="K6" s="47">
         <f>K5/K4</f>
-        <v>0.39825983409610982</v>
+        <v>0.39940399885583522</v>
       </c>
       <c r="L6" s="47">
         <f t="shared" ref="L6:AA6" si="1">L5/L4</f>
@@ -4891,7 +4737,7 @@
       </c>
       <c r="P6" s="47">
         <f t="shared" si="1"/>
-        <v>0.76300709188459293</v>
+        <v>0.76761879990444537</v>
       </c>
       <c r="Q6" s="47">
         <f t="shared" si="1"/>
@@ -4903,7 +4749,7 @@
       </c>
       <c r="S6" s="47">
         <f t="shared" si="1"/>
-        <v>0.29150694515296821</v>
+        <v>0.30365306786767526</v>
       </c>
       <c r="T6" s="47">
         <f t="shared" si="1"/>
@@ -4969,7 +4815,7 @@
       </c>
       <c r="K7" s="16">
         <f>ROUNDUP(K4-K5,0)</f>
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L7" s="16">
         <f t="shared" ref="L7:AA7" si="2">ROUNDUP(L4-L5,0)</f>
@@ -4989,7 +4835,7 @@
       </c>
       <c r="P7" s="16">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q7" s="16">
         <f t="shared" si="2"/>
@@ -5001,7 +4847,7 @@
       </c>
       <c r="S7" s="16">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T7" s="16">
         <f t="shared" si="2"/>
@@ -5065,7 +4911,7 @@
       </c>
       <c r="H8" s="10">
         <f>SUM(H3:H7)</f>
-        <v>540609</v>
+        <v>550812.9</v>
       </c>
       <c r="I8" s="66"/>
       <c r="J8" s="41" t="s">
@@ -5073,7 +4919,7 @@
       </c>
       <c r="K8" s="42">
         <f>L8+P8+T8+X8</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L8" s="42">
         <f>SUM(M8:O8)</f>
@@ -5090,7 +4936,7 @@
       </c>
       <c r="P8" s="42">
         <f>SUM(Q8:S8)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="42">
         <v>0</v>
@@ -5101,7 +4947,7 @@
       </c>
       <c r="S8" s="42">
         <f>H19</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T8" s="42">
         <f>SUM(U8:W8)</f>
@@ -5147,7 +4993,7 @@
       </c>
       <c r="H9" s="10" cm="1">
         <f t="array" ref="H9">SUM(SUMIFS(H3:H7,E3:E7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>119545</v>
+        <v>124879</v>
       </c>
       <c r="I9" s="64" t="s">
         <v>5</v>
@@ -5488,7 +5334,7 @@
       </c>
       <c r="H13" s="9">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I13" s="66"/>
       <c r="J13" s="41" t="s">
@@ -5496,7 +5342,7 @@
       </c>
       <c r="K13" s="42">
         <f>L13+P13+T13+X13</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L13" s="42">
         <f>SUM(M13:O13)</f>
@@ -5513,7 +5359,7 @@
       </c>
       <c r="P13" s="42">
         <f>SUM(Q13:S13)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="42">
         <v>0</v>
@@ -5524,7 +5370,7 @@
       </c>
       <c r="S13" s="42">
         <f>H14</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T13" s="42">
         <f>SUM(U13:W13)</f>
@@ -5570,7 +5416,7 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" si="9"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I14" s="64" t="s">
         <v>7</v>
@@ -5956,16 +5802,16 @@
         <v>92</v>
       </c>
       <c r="F18" s="13">
-        <f>SUM(F13:F17)</f>
-        <v>24</v>
+        <f>ROUNDDOWN(F8/10000,0)</f>
+        <v>25</v>
       </c>
       <c r="G18" s="13">
-        <f>SUM(G13:G17)</f>
-        <v>396</v>
+        <f t="shared" ref="G18:H18" si="19">ROUNDDOWN(G8/10000,0)</f>
+        <v>398</v>
       </c>
       <c r="H18" s="13">
-        <f>SUM(H13:H17)</f>
-        <v>51</v>
+        <f t="shared" si="19"/>
+        <v>55</v>
       </c>
       <c r="I18" s="66"/>
       <c r="J18" s="41" t="s">
@@ -6037,17 +5883,17 @@
       <c r="E19" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="10" cm="1">
-        <f t="array" ref="F19">SUM(SUMIFS(F13:F17,E13:E17,{"嘉兴","海宁","桐乡"}))</f>
-        <v>24</v>
-      </c>
-      <c r="G19" s="10" cm="1">
-        <f t="array" ref="G19">SUM(SUMIFS(G13:G17,E13:E17,{"嘉兴","海宁","桐乡"}))</f>
-        <v>349</v>
-      </c>
-      <c r="H19" s="10" cm="1">
-        <f t="array" ref="H19">SUM(SUMIFS(H13:H17,E13:E17,{"嘉兴","海宁","桐乡"}))</f>
-        <v>10</v>
+      <c r="F19" s="10">
+        <f>ROUNDDOWN(F9/10000,0)</f>
+        <v>25</v>
+      </c>
+      <c r="G19" s="10">
+        <f t="shared" ref="G19:H19" si="20">ROUNDDOWN(G9/10000,0)</f>
+        <v>351</v>
+      </c>
+      <c r="H19" s="10">
+        <f t="shared" si="20"/>
+        <v>12</v>
       </c>
       <c r="I19" s="64" t="s">
         <v>92</v>
@@ -6060,67 +5906,67 @@
         <v>1200</v>
       </c>
       <c r="L19" s="39">
-        <f t="shared" ref="L19:AA20" si="19">L14+L9+L4</f>
+        <f t="shared" ref="L19:AA20" si="21">L14+L9+L4</f>
         <v>152.88000000000002</v>
       </c>
       <c r="M19" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>8.52</v>
       </c>
       <c r="N19" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>46.320000000000007</v>
       </c>
       <c r="O19" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>98.039999999999992</v>
       </c>
       <c r="P19" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>297.71999999999997</v>
       </c>
       <c r="Q19" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>85.799999999999983</v>
       </c>
       <c r="R19" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>98.88</v>
       </c>
       <c r="S19" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>113.04000000000002</v>
       </c>
       <c r="T19" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>344.28</v>
       </c>
       <c r="U19" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100.80000000000001</v>
       </c>
       <c r="V19" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>102.84</v>
       </c>
       <c r="W19" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>140.63999999999999</v>
       </c>
       <c r="X19" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>405.12</v>
       </c>
       <c r="Y19" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>104.76</v>
       </c>
       <c r="Z19" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>122.52</v>
       </c>
       <c r="AA19" s="40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>177.84</v>
       </c>
     </row>
@@ -6131,70 +5977,70 @@
       </c>
       <c r="K20" s="16">
         <f>K15+K10+K5</f>
-        <v>394.13477499999999</v>
+        <v>395.13477499999999</v>
       </c>
       <c r="L20" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>217.14047500000001</v>
       </c>
       <c r="M20" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>6.3552999999999997</v>
       </c>
       <c r="N20" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>45.856675000000003</v>
       </c>
       <c r="O20" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>164.92850000000001</v>
       </c>
       <c r="P20" s="16">
-        <f t="shared" si="19"/>
-        <v>176.99429999999998</v>
+        <f t="shared" si="21"/>
+        <v>177.99429999999998</v>
       </c>
       <c r="Q20" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>52.994300000000003</v>
       </c>
       <c r="R20" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="S20" s="16">
-        <f t="shared" si="19"/>
-        <v>24</v>
+        <f t="shared" si="21"/>
+        <v>25</v>
       </c>
       <c r="T20" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="U20" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="V20" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="W20" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X20" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Y20" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z20" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AA20" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -6205,70 +6051,70 @@
       </c>
       <c r="K21" s="47">
         <f>K20/K19</f>
-        <v>0.3284456458333333</v>
+        <v>0.32927897916666665</v>
       </c>
       <c r="L21" s="47">
-        <f t="shared" ref="L21:AA21" si="20">L20/L19</f>
+        <f t="shared" ref="L21:AA21" si="22">L20/L19</f>
         <v>1.4203327773417058</v>
       </c>
       <c r="M21" s="47">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.74592723004694839</v>
       </c>
       <c r="N21" s="47">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.98999730138169251</v>
       </c>
       <c r="O21" s="47">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.6822572419420647</v>
       </c>
       <c r="P21" s="47">
-        <f t="shared" si="20"/>
-        <v>0.59449919387343808</v>
+        <f t="shared" si="22"/>
+        <v>0.59785805454789731</v>
       </c>
       <c r="Q21" s="47">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.61764918414918435</v>
       </c>
       <c r="R21" s="47">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.0113268608414241</v>
       </c>
       <c r="S21" s="47">
-        <f t="shared" si="20"/>
-        <v>0.21231422505307851</v>
+        <f t="shared" si="22"/>
+        <v>0.22116065109695679</v>
       </c>
       <c r="T21" s="47">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U21" s="47">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V21" s="47">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="W21" s="47">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="X21" s="47">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y21" s="47">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z21" s="47">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AA21" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -6279,70 +6125,70 @@
       </c>
       <c r="K22" s="16">
         <f>ROUNDUP(K19-K20,0)</f>
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L22" s="16">
-        <f t="shared" ref="L22:AA22" si="21">ROUNDUP(L19-L20,0)</f>
+        <f t="shared" ref="L22:AA22" si="23">ROUNDUP(L19-L20,0)</f>
         <v>-65</v>
       </c>
       <c r="M22" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="N22" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="O22" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-67</v>
       </c>
       <c r="P22" s="16">
-        <f t="shared" si="21"/>
-        <v>121</v>
+        <f t="shared" si="23"/>
+        <v>120</v>
       </c>
       <c r="Q22" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>33</v>
       </c>
       <c r="R22" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-2</v>
       </c>
       <c r="S22" s="16">
-        <f t="shared" si="21"/>
-        <v>90</v>
+        <f t="shared" si="23"/>
+        <v>89</v>
       </c>
       <c r="T22" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>345</v>
       </c>
       <c r="U22" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>101</v>
       </c>
       <c r="V22" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>103</v>
       </c>
       <c r="W22" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>141</v>
       </c>
       <c r="X22" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>406</v>
       </c>
       <c r="Y22" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>105</v>
       </c>
       <c r="Z22" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>123</v>
       </c>
       <c r="AA22" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>178</v>
       </c>
     </row>
@@ -6353,7 +6199,7 @@
       </c>
       <c r="K23" s="42">
         <f>K8+K13+K18</f>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L23" s="42">
         <f>SUM(M23:O23)</f>
@@ -6364,28 +6210,28 @@
         <v>0</v>
       </c>
       <c r="N23" s="42">
-        <f t="shared" ref="N23:O23" si="22">N8+N13+N18</f>
+        <f t="shared" ref="N23:O23" si="24">N8+N13+N18</f>
         <v>0</v>
       </c>
       <c r="O23" s="42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P23" s="42">
         <f>SUM(Q23:S23)</f>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q23" s="42">
         <f>Q8+Q13+Q18</f>
         <v>0</v>
       </c>
       <c r="R23" s="42">
-        <f t="shared" ref="R23:S23" si="23">R8+R13+R18</f>
+        <f t="shared" ref="R23:S23" si="25">R8+R13+R18</f>
         <v>0</v>
       </c>
       <c r="S23" s="42">
-        <f t="shared" si="23"/>
-        <v>51</v>
+        <f t="shared" si="25"/>
+        <v>54</v>
       </c>
       <c r="T23" s="42">
         <f>SUM(U23:W23)</f>
@@ -6439,95 +6285,7 @@
     <mergeCell ref="I9:I13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J4:J18 Y4:AA6 U4:W6 Q4:S6 M4:O6 M8:O11 Q8:S11 U8:W11 Y8:AA11 Y13:AA16 U13:W16 Q13:S16 M13:O16 M18:O18 Q18:S18 U18:W18 Y18:AA18">
-    <cfRule type="expression" dxfId="23" priority="32">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="33">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19:J23 Y19:AA21 U19:W21 Q19:S21 M19:O21 M23:O23 Q23:S23 U23:W23 Y23:AA23">
-    <cfRule type="expression" dxfId="21" priority="30">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="31">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L6 L8:L11 L13:L16 L18">
-    <cfRule type="expression" dxfId="19" priority="19">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L19:L21 L23">
-    <cfRule type="expression" dxfId="17" priority="17">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K18 L7:AA7 L12:AA12 L17:AA17">
-    <cfRule type="expression" dxfId="15" priority="15">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19:K23 L22:AA22">
-    <cfRule type="expression" dxfId="13" priority="13">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4:P6 P8:P11 P13:P16 P18">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P19:P21 P23">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T4:T6 T8:T11 T13:T16 T18">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T19:T21 T23">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X4:X6 X8:X11 X13:X16 X18">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X19:X21 X23">
+  <conditionalFormatting sqref="J4:AA23">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>

--- a/省联动.xlsx
+++ b/省联动.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D2652\Desktop\workdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2436FCBD-2560-4784-84D1-C106FFDB27D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732733CD-86D2-4D11-B3D0-1FA11C172F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="610" yWindow="2310" windowWidth="22490" windowHeight="12320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="390" windowWidth="25820" windowHeight="14990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="联动数据" sheetId="1" r:id="rId1"/>
@@ -1824,36 +1824,36 @@
       </c>
       <c r="G3" s="52">
         <f ca="1">TODAY()</f>
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="H3" s="53"/>
       <c r="I3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="52">
         <f ca="1">TODAY()</f>
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="L3" s="53"/>
       <c r="M3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="O3" s="52">
         <f ca="1">TODAY()</f>
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="P3" s="53"/>
       <c r="Q3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>1</v>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="X3" s="23">
         <f ca="1">TODAY()</f>
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="Y3" s="24">
         <f ca="1">G15</f>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="X4" s="23">
         <f t="shared" ref="X4:X10" ca="1" si="0">TODAY()</f>
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="Y4" s="24">
         <f ca="1">K15</f>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="X5" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="Y5" s="24">
         <f ca="1">G26</f>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="X6" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="Y6" s="24">
         <f ca="1">K26</f>
@@ -2122,7 +2122,7 @@
       </c>
       <c r="X7" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="Y7" s="24">
         <f ca="1">S15</f>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="X8" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="Y8" s="24">
         <f ca="1">O15</f>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="X9" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="Y9" s="24">
         <f ca="1">O26</f>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="X10" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="Y10" s="28">
         <f ca="1">SUM(Y3:Y9)</f>
@@ -2530,48 +2530,48 @@
       </c>
       <c r="G14" s="52">
         <f ca="1">TODAY()</f>
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="H14" s="53"/>
       <c r="I14" s="3">
         <f ca="1">TODAY()</f>
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K14" s="52">
         <f ca="1">TODAY()</f>
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="L14" s="53"/>
       <c r="M14" s="3">
         <f ca="1">TODAY()</f>
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>1</v>
       </c>
       <c r="O14" s="52">
         <f ca="1">TODAY()</f>
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="P14" s="53"/>
       <c r="Q14" s="3">
         <f ca="1">TODAY()</f>
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="R14" s="4" t="s">
         <v>1</v>
       </c>
       <c r="S14" s="52">
         <f ca="1">TODAY()</f>
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="T14" s="53"/>
       <c r="U14" s="3">
         <f ca="1">TODAY()</f>
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="V14" s="4" t="s">
         <v>1</v>
@@ -3049,36 +3049,36 @@
       </c>
       <c r="G25" s="52">
         <f ca="1">TODAY()</f>
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="H25" s="53"/>
       <c r="I25" s="3">
         <f ca="1">TODAY()</f>
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K25" s="52">
         <f ca="1">TODAY()</f>
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="L25" s="53"/>
       <c r="M25" s="3">
         <f ca="1">TODAY()</f>
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>1</v>
       </c>
       <c r="O25" s="52">
         <f ca="1">TODAY()</f>
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="P25" s="53"/>
       <c r="Q25" s="3">
         <f ca="1">TODAY()</f>
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="R25" s="4" t="s">
         <v>1</v>
@@ -4285,8 +4285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCAD01F-4348-441A-949C-AA34FE4B5371}">
   <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4533,7 +4533,7 @@
         <v>150524.6</v>
       </c>
       <c r="H4" s="9">
-        <v>401431.9</v>
+        <v>437659</v>
       </c>
       <c r="I4" s="64" t="s">
         <v>84</v>
@@ -4709,7 +4709,7 @@
         <v>324495</v>
       </c>
       <c r="H6" s="9">
-        <v>24502</v>
+        <v>160752</v>
       </c>
       <c r="I6" s="65"/>
       <c r="J6" s="46" t="s">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="H8" s="10">
         <f>SUM(H3:H7)</f>
-        <v>550812.9</v>
+        <v>723290</v>
       </c>
       <c r="I8" s="66"/>
       <c r="J8" s="41" t="s">
@@ -5342,7 +5342,7 @@
       </c>
       <c r="K13" s="42">
         <f>L13+P13+T13+X13</f>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L13" s="42">
         <f>SUM(M13:O13)</f>
@@ -5359,7 +5359,7 @@
       </c>
       <c r="P13" s="42">
         <f>SUM(Q13:S13)</f>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q13" s="42">
         <v>0</v>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="S13" s="42">
         <f>H14</f>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T13" s="42">
         <f>SUM(U13:W13)</f>
@@ -5416,7 +5416,7 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I14" s="64" t="s">
         <v>7</v>
@@ -5603,7 +5603,7 @@
       </c>
       <c r="H16" s="10">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I16" s="65"/>
       <c r="J16" s="35" t="s">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="H18" s="13">
         <f t="shared" si="19"/>
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="I18" s="66"/>
       <c r="J18" s="41" t="s">
@@ -5819,7 +5819,7 @@
       </c>
       <c r="K18" s="42">
         <f>L18+P18+T18+X18</f>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="L18" s="42">
         <f>SUM(M18:O18)</f>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="P18" s="42">
         <f>SUM(Q18:S18)</f>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="Q18" s="42">
         <v>0</v>
@@ -5847,7 +5847,7 @@
       </c>
       <c r="S18" s="42">
         <f>H16</f>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="T18" s="42">
         <f>SUM(U18:W18)</f>
@@ -6199,7 +6199,7 @@
       </c>
       <c r="K23" s="42">
         <f>K8+K13+K18</f>
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="L23" s="42">
         <f>SUM(M23:O23)</f>
@@ -6219,7 +6219,7 @@
       </c>
       <c r="P23" s="42">
         <f>SUM(Q23:S23)</f>
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="Q23" s="42">
         <f>Q8+Q13+Q18</f>
@@ -6231,7 +6231,7 @@
       </c>
       <c r="S23" s="42">
         <f t="shared" si="25"/>
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="T23" s="42">
         <f>SUM(U23:W23)</f>

--- a/省联动.xlsx
+++ b/省联动.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D2652\Desktop\workdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732733CD-86D2-4D11-B3D0-1FA11C172F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA21775-86C3-4DF7-B024-209A149724DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="390" windowWidth="25820" windowHeight="14990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,30 +24,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -1824,36 +1813,36 @@
       </c>
       <c r="G3" s="52">
         <f ca="1">TODAY()</f>
-        <v>45088</v>
+        <v>45091</v>
       </c>
       <c r="H3" s="53"/>
       <c r="I3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45088</v>
+        <v>45091</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="52">
         <f ca="1">TODAY()</f>
-        <v>45088</v>
+        <v>45091</v>
       </c>
       <c r="L3" s="53"/>
       <c r="M3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45088</v>
+        <v>45091</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="O3" s="52">
         <f ca="1">TODAY()</f>
-        <v>45088</v>
+        <v>45091</v>
       </c>
       <c r="P3" s="53"/>
       <c r="Q3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45088</v>
+        <v>45091</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>1</v>
@@ -1863,7 +1852,7 @@
       </c>
       <c r="X3" s="23">
         <f ca="1">TODAY()</f>
-        <v>45088</v>
+        <v>45091</v>
       </c>
       <c r="Y3" s="24">
         <f ca="1">G15</f>
@@ -1942,7 +1931,7 @@
       </c>
       <c r="X4" s="23">
         <f t="shared" ref="X4:X10" ca="1" si="0">TODAY()</f>
-        <v>45088</v>
+        <v>45091</v>
       </c>
       <c r="Y4" s="24">
         <f ca="1">K15</f>
@@ -2002,7 +1991,7 @@
       </c>
       <c r="X5" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45088</v>
+        <v>45091</v>
       </c>
       <c r="Y5" s="24">
         <f ca="1">G26</f>
@@ -2062,7 +2051,7 @@
       </c>
       <c r="X6" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45088</v>
+        <v>45091</v>
       </c>
       <c r="Y6" s="24">
         <f ca="1">K26</f>
@@ -2122,7 +2111,7 @@
       </c>
       <c r="X7" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45088</v>
+        <v>45091</v>
       </c>
       <c r="Y7" s="24">
         <f ca="1">S15</f>
@@ -2200,7 +2189,7 @@
       </c>
       <c r="X8" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45088</v>
+        <v>45091</v>
       </c>
       <c r="Y8" s="24">
         <f ca="1">O15</f>
@@ -2272,7 +2261,7 @@
       </c>
       <c r="X9" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45088</v>
+        <v>45091</v>
       </c>
       <c r="Y9" s="24">
         <f ca="1">O26</f>
@@ -2344,7 +2333,7 @@
       </c>
       <c r="X10" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45088</v>
+        <v>45091</v>
       </c>
       <c r="Y10" s="28">
         <f ca="1">SUM(Y3:Y9)</f>
@@ -2530,48 +2519,48 @@
       </c>
       <c r="G14" s="52">
         <f ca="1">TODAY()</f>
-        <v>45088</v>
+        <v>45091</v>
       </c>
       <c r="H14" s="53"/>
       <c r="I14" s="3">
         <f ca="1">TODAY()</f>
-        <v>45088</v>
+        <v>45091</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K14" s="52">
         <f ca="1">TODAY()</f>
-        <v>45088</v>
+        <v>45091</v>
       </c>
       <c r="L14" s="53"/>
       <c r="M14" s="3">
         <f ca="1">TODAY()</f>
-        <v>45088</v>
+        <v>45091</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>1</v>
       </c>
       <c r="O14" s="52">
         <f ca="1">TODAY()</f>
-        <v>45088</v>
+        <v>45091</v>
       </c>
       <c r="P14" s="53"/>
       <c r="Q14" s="3">
         <f ca="1">TODAY()</f>
-        <v>45088</v>
+        <v>45091</v>
       </c>
       <c r="R14" s="4" t="s">
         <v>1</v>
       </c>
       <c r="S14" s="52">
         <f ca="1">TODAY()</f>
-        <v>45088</v>
+        <v>45091</v>
       </c>
       <c r="T14" s="53"/>
       <c r="U14" s="3">
         <f ca="1">TODAY()</f>
-        <v>45088</v>
+        <v>45091</v>
       </c>
       <c r="V14" s="4" t="s">
         <v>1</v>
@@ -3049,36 +3038,36 @@
       </c>
       <c r="G25" s="52">
         <f ca="1">TODAY()</f>
-        <v>45088</v>
+        <v>45091</v>
       </c>
       <c r="H25" s="53"/>
       <c r="I25" s="3">
         <f ca="1">TODAY()</f>
-        <v>45088</v>
+        <v>45091</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K25" s="52">
         <f ca="1">TODAY()</f>
-        <v>45088</v>
+        <v>45091</v>
       </c>
       <c r="L25" s="53"/>
       <c r="M25" s="3">
         <f ca="1">TODAY()</f>
-        <v>45088</v>
+        <v>45091</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>1</v>
       </c>
       <c r="O25" s="52">
         <f ca="1">TODAY()</f>
-        <v>45088</v>
+        <v>45091</v>
       </c>
       <c r="P25" s="53"/>
       <c r="Q25" s="3">
         <f ca="1">TODAY()</f>
-        <v>45088</v>
+        <v>45091</v>
       </c>
       <c r="R25" s="4" t="s">
         <v>1</v>
@@ -4286,7 +4275,7 @@
   <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4301,10 +4290,9 @@
     <col min="8" max="8" width="7.75" style="7" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="13.58203125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="8.25" style="7" customWidth="1"/>
-    <col min="13" max="14" width="7.08203125" style="7" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5" style="7" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8.25" style="7" customWidth="1"/>
+    <col min="12" max="12" width="8.25" style="7" hidden="1" customWidth="1"/>
+    <col min="13" max="15" width="7.08203125" style="7" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="8.75" style="7" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="7.08203125" style="7" customWidth="1"/>
     <col min="20" max="20" width="8.25" style="7" customWidth="1"/>
     <col min="21" max="21" width="5.9140625" style="7" customWidth="1"/>
@@ -4456,7 +4444,7 @@
         <v>2497775.9500000002</v>
       </c>
       <c r="H3" s="9">
-        <v>62290</v>
+        <v>68417</v>
       </c>
       <c r="I3" s="73"/>
       <c r="J3" s="75"/>
@@ -4533,7 +4521,7 @@
         <v>150524.6</v>
       </c>
       <c r="H4" s="9">
-        <v>437659</v>
+        <v>438061.15</v>
       </c>
       <c r="I4" s="64" t="s">
         <v>84</v>
@@ -4626,13 +4614,13 @@
         <v>22</v>
       </c>
       <c r="F5" s="9">
-        <v>0</v>
+        <v>33223</v>
       </c>
       <c r="G5" s="9">
-        <v>274681</v>
+        <v>307904</v>
       </c>
       <c r="H5" s="9">
-        <v>33223</v>
+        <v>0</v>
       </c>
       <c r="I5" s="65"/>
       <c r="J5" s="14" t="s">
@@ -4640,7 +4628,7 @@
       </c>
       <c r="K5" s="16">
         <f>L5+P5+T5+X5</f>
-        <v>349.079095</v>
+        <v>352.079095</v>
       </c>
       <c r="L5" s="16">
         <f>SUM(M5:O5)</f>
@@ -4657,7 +4645,7 @@
       </c>
       <c r="P5" s="16">
         <f>SUM(Q5:S5)</f>
-        <v>166.45</v>
+        <v>169.45</v>
       </c>
       <c r="Q5" s="16">
         <f>28.21+10.94+8.3</f>
@@ -4669,7 +4657,7 @@
       </c>
       <c r="S5" s="16">
         <f>F19</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="T5" s="16">
         <f>SUM(U5:W5)</f>
@@ -4709,7 +4697,7 @@
         <v>324495</v>
       </c>
       <c r="H6" s="9">
-        <v>160752</v>
+        <v>163445</v>
       </c>
       <c r="I6" s="65"/>
       <c r="J6" s="46" t="s">
@@ -4717,7 +4705,7 @@
       </c>
       <c r="K6" s="47">
         <f>K5/K4</f>
-        <v>0.39940399885583522</v>
+        <v>0.40283649313501141</v>
       </c>
       <c r="L6" s="47">
         <f t="shared" ref="L6:AA6" si="1">L5/L4</f>
@@ -4737,7 +4725,7 @@
       </c>
       <c r="P6" s="47">
         <f t="shared" si="1"/>
-        <v>0.76761879990444537</v>
+        <v>0.78145392396400282</v>
       </c>
       <c r="Q6" s="47">
         <f t="shared" si="1"/>
@@ -4749,7 +4737,7 @@
       </c>
       <c r="S6" s="47">
         <f t="shared" si="1"/>
-        <v>0.30365306786767526</v>
+        <v>0.34009143601179626</v>
       </c>
       <c r="T6" s="47">
         <f t="shared" si="1"/>
@@ -4807,7 +4795,7 @@
         <v>739159</v>
       </c>
       <c r="H7" s="9">
-        <v>29366</v>
+        <v>40970</v>
       </c>
       <c r="I7" s="65"/>
       <c r="J7" s="15" t="s">
@@ -4815,7 +4803,7 @@
       </c>
       <c r="K7" s="16">
         <f>ROUNDUP(K4-K5,0)</f>
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="L7" s="16">
         <f t="shared" ref="L7:AA7" si="2">ROUNDUP(L4-L5,0)</f>
@@ -4835,7 +4823,7 @@
       </c>
       <c r="P7" s="16">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="16">
         <f t="shared" si="2"/>
@@ -4847,7 +4835,7 @@
       </c>
       <c r="S7" s="16">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="T7" s="16">
         <f t="shared" si="2"/>
@@ -4903,15 +4891,15 @@
       </c>
       <c r="F8" s="10">
         <f>SUM(F3:F7)</f>
-        <v>252816</v>
+        <v>286039</v>
       </c>
       <c r="G8" s="10">
         <f>SUM(G3:G7)</f>
-        <v>3986635.5500000003</v>
+        <v>4019858.5500000003</v>
       </c>
       <c r="H8" s="10">
         <f>SUM(H3:H7)</f>
-        <v>723290</v>
+        <v>710893.15</v>
       </c>
       <c r="I8" s="66"/>
       <c r="J8" s="41" t="s">
@@ -4919,7 +4907,7 @@
       </c>
       <c r="K8" s="42">
         <f>L8+P8+T8+X8</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L8" s="42">
         <f>SUM(M8:O8)</f>
@@ -4936,7 +4924,7 @@
       </c>
       <c r="P8" s="42">
         <f>SUM(Q8:S8)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q8" s="42">
         <v>0</v>
@@ -4947,7 +4935,7 @@
       </c>
       <c r="S8" s="42">
         <f>H19</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T8" s="42">
         <f>SUM(U8:W8)</f>
@@ -4985,15 +4973,15 @@
       </c>
       <c r="F9" s="10" cm="1">
         <f t="array" ref="F9">SUM(SUMIFS(F3:F7,E3:E7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>252816</v>
+        <v>286039</v>
       </c>
       <c r="G9" s="10" cm="1">
         <f t="array" ref="G9">SUM(SUMIFS(G3:G7,E3:E7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>3511615.95</v>
+        <v>3544838.95</v>
       </c>
       <c r="H9" s="10" cm="1">
         <f t="array" ref="H9">SUM(SUMIFS(H3:H7,E3:E7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>124879</v>
+        <v>109387</v>
       </c>
       <c r="I9" s="64" t="s">
         <v>5</v>
@@ -5125,15 +5113,15 @@
       <c r="A11" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
       <c r="E11" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
       <c r="I11" s="65"/>
       <c r="J11" s="35" t="s">
         <v>89</v>
@@ -5513,15 +5501,15 @@
       </c>
       <c r="F15" s="9">
         <f t="shared" ref="F15:H15" si="12">ROUNDDOWN(F5/10000,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" s="9">
         <f t="shared" si="12"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H15" s="9">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" s="65"/>
       <c r="J15" s="14" t="s">
@@ -5707,7 +5695,7 @@
       </c>
       <c r="H17" s="9">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I17" s="65"/>
       <c r="J17" s="14" t="s">
@@ -5803,15 +5791,15 @@
       </c>
       <c r="F18" s="13">
         <f>ROUNDDOWN(F8/10000,0)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G18" s="13">
         <f t="shared" ref="G18:H18" si="19">ROUNDDOWN(G8/10000,0)</f>
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H18" s="13">
         <f t="shared" si="19"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I18" s="66"/>
       <c r="J18" s="41" t="s">
@@ -5885,15 +5873,15 @@
       </c>
       <c r="F19" s="10">
         <f>ROUNDDOWN(F9/10000,0)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G19" s="10">
         <f t="shared" ref="G19:H19" si="20">ROUNDDOWN(G9/10000,0)</f>
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H19" s="10">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I19" s="64" t="s">
         <v>92</v>
@@ -5977,7 +5965,7 @@
       </c>
       <c r="K20" s="16">
         <f>K15+K10+K5</f>
-        <v>395.13477499999999</v>
+        <v>398.13477499999999</v>
       </c>
       <c r="L20" s="16">
         <f t="shared" si="21"/>
@@ -5997,7 +5985,7 @@
       </c>
       <c r="P20" s="16">
         <f t="shared" si="21"/>
-        <v>177.99429999999998</v>
+        <v>180.99429999999998</v>
       </c>
       <c r="Q20" s="16">
         <f t="shared" si="21"/>
@@ -6009,7 +5997,7 @@
       </c>
       <c r="S20" s="16">
         <f t="shared" si="21"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="T20" s="16">
         <f t="shared" si="21"/>
@@ -6051,7 +6039,7 @@
       </c>
       <c r="K21" s="47">
         <f>K20/K19</f>
-        <v>0.32927897916666665</v>
+        <v>0.33177897916666665</v>
       </c>
       <c r="L21" s="47">
         <f t="shared" ref="L21:AA21" si="22">L20/L19</f>
@@ -6071,7 +6059,7 @@
       </c>
       <c r="P21" s="47">
         <f t="shared" si="22"/>
-        <v>0.59785805454789731</v>
+        <v>0.607934636571275</v>
       </c>
       <c r="Q21" s="47">
         <f t="shared" si="22"/>
@@ -6083,7 +6071,7 @@
       </c>
       <c r="S21" s="47">
         <f t="shared" si="22"/>
-        <v>0.22116065109695679</v>
+        <v>0.2476999292285916</v>
       </c>
       <c r="T21" s="47">
         <f t="shared" si="22"/>
@@ -6125,7 +6113,7 @@
       </c>
       <c r="K22" s="16">
         <f>ROUNDUP(K19-K20,0)</f>
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="L22" s="16">
         <f t="shared" ref="L22:AA22" si="23">ROUNDUP(L19-L20,0)</f>
@@ -6145,7 +6133,7 @@
       </c>
       <c r="P22" s="16">
         <f t="shared" si="23"/>
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="16">
         <f t="shared" si="23"/>
@@ -6157,7 +6145,7 @@
       </c>
       <c r="S22" s="16">
         <f t="shared" si="23"/>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="T22" s="16">
         <f t="shared" si="23"/>
@@ -6199,7 +6187,7 @@
       </c>
       <c r="K23" s="42">
         <f>K8+K13+K18</f>
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L23" s="42">
         <f>SUM(M23:O23)</f>
@@ -6219,7 +6207,7 @@
       </c>
       <c r="P23" s="42">
         <f>SUM(Q23:S23)</f>
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q23" s="42">
         <f>Q8+Q13+Q18</f>
@@ -6231,7 +6219,7 @@
       </c>
       <c r="S23" s="42">
         <f t="shared" si="25"/>
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="T23" s="42">
         <f>SUM(U23:W23)</f>

--- a/省联动.xlsx
+++ b/省联动.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D2652\Desktop\workdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA21775-86C3-4DF7-B024-209A149724DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6039F23F-346D-4AA2-8256-FE87A26DDFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="390" windowWidth="25820" windowHeight="14990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="390" windowWidth="25820" windowHeight="14990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="联动数据" sheetId="1" r:id="rId1"/>
     <sheet name="出货数据" sheetId="3" r:id="rId2"/>
+    <sheet name="杭嘉湖出货数据 " sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">联动数据!$A$1:$E$75</definedName>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="152">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -530,6 +531,93 @@
   <si>
     <t>6月</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭嘉湖合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萧山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桐庐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南浔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安吉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭湖合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭湖5月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭湖6月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭湖4月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -540,7 +628,7 @@
     <numFmt numFmtId="176" formatCode="[$-804]aaaa;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,6 +736,15 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1085,7 +1182,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1234,6 +1331,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1245,36 +1372,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1318,12 +1415,46 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{9EA95E99-C423-45BD-B946-364681CF80E9}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1746,27 +1877,27 @@
       <c r="E2" s="1">
         <v>26000</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
       <c r="J2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
       <c r="N2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="50" t="s">
+      <c r="O2" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
       <c r="R2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1811,38 +1942,38 @@
       <c r="E3" s="1">
         <v>12800</v>
       </c>
-      <c r="G3" s="52">
+      <c r="G3" s="62">
         <f ca="1">TODAY()</f>
-        <v>45091</v>
-      </c>
-      <c r="H3" s="53"/>
+        <v>45092</v>
+      </c>
+      <c r="H3" s="63"/>
       <c r="I3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="52">
+      <c r="K3" s="62">
         <f ca="1">TODAY()</f>
-        <v>45091</v>
-      </c>
-      <c r="L3" s="53"/>
+        <v>45092</v>
+      </c>
+      <c r="L3" s="63"/>
       <c r="M3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="52">
+      <c r="O3" s="62">
         <f ca="1">TODAY()</f>
-        <v>45091</v>
-      </c>
-      <c r="P3" s="53"/>
+        <v>45092</v>
+      </c>
+      <c r="P3" s="63"/>
       <c r="Q3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>1</v>
@@ -1852,7 +1983,7 @@
       </c>
       <c r="X3" s="23">
         <f ca="1">TODAY()</f>
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="Y3" s="24">
         <f ca="1">G15</f>
@@ -1878,7 +2009,7 @@
         <f>AB3-AA3</f>
         <v>68800</v>
       </c>
-      <c r="AE3" s="63">
+      <c r="AE3" s="50">
         <f>SUM(AA3:AA6)</f>
         <v>602779</v>
       </c>
@@ -1899,31 +2030,31 @@
       <c r="E4" s="1">
         <v>12108</v>
       </c>
-      <c r="G4" s="54" cm="1">
+      <c r="G4" s="55" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">SUM(SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,{"海盐","平湖","海宁","桐乡"}))</f>
         <v>0</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56" t="s">
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="54" cm="1">
+      <c r="K4" s="55" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">SUM(SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,{"红星","月星","六空"}))</f>
         <v>0</v>
       </c>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="56" t="s">
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="54">
+      <c r="O4" s="55">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY())</f>
         <v>0</v>
       </c>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="56" t="s">
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="57" t="s">
         <v>21</v>
       </c>
       <c r="W4" s="22" t="s">
@@ -1931,7 +2062,7 @@
       </c>
       <c r="X4" s="23">
         <f t="shared" ref="X4:X10" ca="1" si="0">TODAY()</f>
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="Y4" s="24">
         <f ca="1">K15</f>
@@ -1956,7 +2087,7 @@
         <f t="shared" ref="AD4:AD9" si="2">AB4-AA4</f>
         <v>74116</v>
       </c>
-      <c r="AE4" s="63"/>
+      <c r="AE4" s="50"/>
     </row>
     <row r="5" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -1974,24 +2105,24 @@
       <c r="E5" s="1">
         <v>22800</v>
       </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="56"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="57"/>
       <c r="W5" s="22" t="s">
         <v>107</v>
       </c>
       <c r="X5" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="Y5" s="24">
         <f ca="1">G26</f>
@@ -2016,7 +2147,7 @@
         <f t="shared" si="2"/>
         <v>-67197</v>
       </c>
-      <c r="AE5" s="63"/>
+      <c r="AE5" s="50"/>
     </row>
     <row r="6" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -2034,24 +2165,24 @@
       <c r="E6" s="1">
         <v>50000</v>
       </c>
-      <c r="G6" s="54"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="56"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="57"/>
       <c r="W6" s="22" t="s">
         <v>108</v>
       </c>
       <c r="X6" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="Y6" s="24">
         <f ca="1">K26</f>
@@ -2076,7 +2207,7 @@
         <f t="shared" si="2"/>
         <v>-28498</v>
       </c>
-      <c r="AE6" s="63"/>
+      <c r="AE6" s="50"/>
     </row>
     <row r="7" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -2094,24 +2225,24 @@
       <c r="E7" s="1">
         <v>16600</v>
       </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="56"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="57"/>
       <c r="W7" s="22" t="s">
         <v>109</v>
       </c>
       <c r="X7" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="Y7" s="24">
         <f ca="1">S15</f>
@@ -2136,7 +2267,7 @@
         <f t="shared" si="2"/>
         <v>44612</v>
       </c>
-      <c r="AE7" s="63">
+      <c r="AE7" s="50">
         <f>SUM(AA7:AA9)</f>
         <v>575288</v>
       </c>
@@ -2157,30 +2288,30 @@
       <c r="E8" s="1">
         <v>6500</v>
       </c>
-      <c r="G8" s="57" t="e">
+      <c r="G8" s="51" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY())/SUMIFS($E:$E,$C:$C,TODAY()-1)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
       <c r="J8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="57" t="e">
+      <c r="K8" s="51" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,K2)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,K2)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
       <c r="N8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="57" t="e">
+      <c r="O8" s="51" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY())/SUMIFS($E:$E,$C:$C,TODAY()-1)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
       <c r="R8" s="4" t="s">
         <v>23</v>
       </c>
@@ -2189,7 +2320,7 @@
       </c>
       <c r="X8" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="Y8" s="24">
         <f ca="1">O15</f>
@@ -2214,7 +2345,7 @@
         <f t="shared" si="2"/>
         <v>-726</v>
       </c>
-      <c r="AE8" s="63"/>
+      <c r="AE8" s="50"/>
     </row>
     <row r="9" spans="1:31" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -2229,30 +2360,30 @@
       <c r="E9" s="1">
         <v>22800</v>
       </c>
-      <c r="G9" s="59" cm="1">
+      <c r="G9" s="58" cm="1">
         <f t="array" ref="G9">SUM(SUMIFS($E:$E,$B:$B,{"海盐","平湖","海宁","桐乡"}))</f>
         <v>602779</v>
       </c>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
       <c r="J9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="59" cm="1">
+      <c r="K9" s="58" cm="1">
         <f t="array" ref="K9">SUM(SUMIFS($E:$E,$B:$B,{"红星","月星","六空"}))</f>
         <v>575288</v>
       </c>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
       <c r="N9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="59">
+      <c r="O9" s="58">
         <f>SUM($E:$E)</f>
         <v>1178067</v>
       </c>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
       <c r="R9" s="4" t="s">
         <v>17</v>
       </c>
@@ -2261,7 +2392,7 @@
       </c>
       <c r="X9" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="Y9" s="24">
         <f ca="1">O26</f>
@@ -2286,7 +2417,7 @@
         <f t="shared" si="2"/>
         <v>-19174</v>
       </c>
-      <c r="AE9" s="63"/>
+      <c r="AE9" s="50"/>
     </row>
     <row r="10" spans="1:31" ht="17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -2304,27 +2435,27 @@
       <c r="E10" s="1">
         <v>19999</v>
       </c>
-      <c r="G10" s="59">
+      <c r="G10" s="58">
         <v>650000</v>
       </c>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
       <c r="J10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="59">
+      <c r="K10" s="58">
         <v>600000</v>
       </c>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
       <c r="N10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="59">
+      <c r="O10" s="58">
         <v>1250000</v>
       </c>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
       <c r="R10" s="4" t="s">
         <v>18</v>
       </c>
@@ -2333,7 +2464,7 @@
       </c>
       <c r="X10" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="Y10" s="28">
         <f ca="1">SUM(Y3:Y9)</f>
@@ -2380,30 +2511,30 @@
       <c r="E11" s="1">
         <v>45776</v>
       </c>
-      <c r="G11" s="57">
+      <c r="G11" s="51">
         <f>G9/G10</f>
         <v>0.9273523076923077</v>
       </c>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
       <c r="J11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="57">
+      <c r="K11" s="51">
         <f>K9/K10</f>
         <v>0.9588133333333333</v>
       </c>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
       <c r="N11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O11" s="57">
+      <c r="O11" s="51">
         <f>O9/O10</f>
         <v>0.9424536</v>
       </c>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
       <c r="R11" s="4" t="s">
         <v>19</v>
       </c>
@@ -2424,30 +2555,30 @@
       <c r="E12" s="1">
         <v>1600</v>
       </c>
-      <c r="G12" s="61">
+      <c r="G12" s="53">
         <f>G9-G10</f>
         <v>-47221</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
       <c r="J12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="61">
+      <c r="K12" s="53">
         <f>K9-K10</f>
         <v>-24712</v>
       </c>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
       <c r="N12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="61">
+      <c r="O12" s="53">
         <f>O9-O10</f>
         <v>-71933</v>
       </c>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
       <c r="R12" s="6" t="s">
         <v>20</v>
       </c>
@@ -2468,35 +2599,35 @@
       <c r="E13" s="1">
         <v>21200</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
       <c r="J13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K13" s="50" t="s">
+      <c r="K13" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
       <c r="N13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O13" s="50" t="s">
+      <c r="O13" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
       <c r="R13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="S13" s="50" t="s">
+      <c r="S13" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
       <c r="V13" s="5" t="s">
         <v>2</v>
       </c>
@@ -2517,50 +2648,50 @@
       <c r="E14" s="1">
         <v>5500</v>
       </c>
-      <c r="G14" s="52">
+      <c r="G14" s="62">
         <f ca="1">TODAY()</f>
-        <v>45091</v>
-      </c>
-      <c r="H14" s="53"/>
+        <v>45092</v>
+      </c>
+      <c r="H14" s="63"/>
       <c r="I14" s="3">
         <f ca="1">TODAY()</f>
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="52">
+      <c r="K14" s="62">
         <f ca="1">TODAY()</f>
-        <v>45091</v>
-      </c>
-      <c r="L14" s="53"/>
+        <v>45092</v>
+      </c>
+      <c r="L14" s="63"/>
       <c r="M14" s="3">
         <f ca="1">TODAY()</f>
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O14" s="52">
+      <c r="O14" s="62">
         <f ca="1">TODAY()</f>
-        <v>45091</v>
-      </c>
-      <c r="P14" s="53"/>
+        <v>45092</v>
+      </c>
+      <c r="P14" s="63"/>
       <c r="Q14" s="3">
         <f ca="1">TODAY()</f>
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="R14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="S14" s="52">
+      <c r="S14" s="62">
         <f ca="1">TODAY()</f>
-        <v>45091</v>
-      </c>
-      <c r="T14" s="53"/>
+        <v>45092</v>
+      </c>
+      <c r="T14" s="63"/>
       <c r="U14" s="3">
         <f ca="1">TODAY()</f>
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="V14" s="4" t="s">
         <v>1</v>
@@ -2582,40 +2713,40 @@
       <c r="E15" s="1">
         <v>14000</v>
       </c>
-      <c r="G15" s="54">
+      <c r="G15" s="55">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,G13)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="56" t="s">
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="54">
+      <c r="K15" s="55">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,K13)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="56" t="s">
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="O15" s="54">
+      <c r="O15" s="55">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,O13)</f>
         <v>0</v>
       </c>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="56" t="s">
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="S15" s="54">
+      <c r="S15" s="55">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,S13)</f>
         <v>0</v>
       </c>
-      <c r="T15" s="55"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="56" t="s">
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="57" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2635,22 +2766,22 @@
       <c r="E16" s="1">
         <v>58000</v>
       </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="56"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="57"/>
     </row>
     <row r="17" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -2668,22 +2799,22 @@
       <c r="E17" s="1">
         <v>12000</v>
       </c>
-      <c r="G17" s="54"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="56"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="57"/>
     </row>
     <row r="18" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -2701,22 +2832,22 @@
       <c r="E18" s="1">
         <v>3599</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="56"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="57"/>
     </row>
     <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -2734,39 +2865,39 @@
       <c r="E19" s="1">
         <v>9000</v>
       </c>
-      <c r="G19" s="57" t="e">
+      <c r="G19" s="51" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,G13)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,G13)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
       <c r="J19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="57" t="e">
+      <c r="K19" s="51" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,K13)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,K13)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
       <c r="N19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O19" s="57" t="e">
+      <c r="O19" s="51" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,O13)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,O13)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
       <c r="R19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S19" s="57" t="e">
+      <c r="S19" s="51" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,S13)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,S13)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
       <c r="V19" s="4" t="s">
         <v>23</v>
       </c>
@@ -2787,39 +2918,39 @@
       <c r="E20" s="1">
         <v>5999</v>
       </c>
-      <c r="G20" s="59">
+      <c r="G20" s="58">
         <f>SUMIFS($E:$E,$B:$B,G13)</f>
         <v>171200</v>
       </c>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
       <c r="J20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="59">
+      <c r="K20" s="58">
         <f>SUMIFS($E:$E,$B:$B,K13)</f>
         <v>135884</v>
       </c>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
       <c r="N20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O20" s="59">
+      <c r="O20" s="58">
         <f>SUMIFS($E:$E,$B:$B,O13)</f>
         <v>200726</v>
       </c>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="60"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
       <c r="R20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S20" s="59">
+      <c r="S20" s="58">
         <f>SUMIFS($E:$E,$B:$B,S13)</f>
         <v>155388</v>
       </c>
-      <c r="T20" s="60"/>
-      <c r="U20" s="60"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
       <c r="V20" s="4" t="s">
         <v>17</v>
       </c>
@@ -2840,35 +2971,35 @@
       <c r="E21" s="1">
         <v>9500</v>
       </c>
-      <c r="G21" s="59">
+      <c r="G21" s="58">
         <v>240000</v>
       </c>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
       <c r="J21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="59">
+      <c r="K21" s="58">
         <v>210000</v>
       </c>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
       <c r="N21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O21" s="59">
+      <c r="O21" s="58">
         <v>200000</v>
       </c>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
       <c r="R21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S21" s="59">
+      <c r="S21" s="58">
         <v>200000</v>
       </c>
-      <c r="T21" s="60"/>
-      <c r="U21" s="60"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
       <c r="V21" s="4" t="s">
         <v>18</v>
       </c>
@@ -2889,39 +3020,39 @@
       <c r="E22" s="1">
         <v>9698</v>
       </c>
-      <c r="G22" s="57">
+      <c r="G22" s="51">
         <f>G20/G21</f>
         <v>0.71333333333333337</v>
       </c>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
       <c r="J22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K22" s="57">
+      <c r="K22" s="51">
         <f>K20/K21</f>
         <v>0.64706666666666668</v>
       </c>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
       <c r="N22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O22" s="57">
+      <c r="O22" s="51">
         <f>O20/O21</f>
         <v>1.00363</v>
       </c>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
       <c r="R22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S22" s="57">
+      <c r="S22" s="51">
         <f>S20/S21</f>
         <v>0.77693999999999996</v>
       </c>
-      <c r="T22" s="58"/>
-      <c r="U22" s="58"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
       <c r="V22" s="4" t="s">
         <v>19</v>
       </c>
@@ -2942,39 +3073,39 @@
       <c r="E23" s="1">
         <v>14500</v>
       </c>
-      <c r="G23" s="61">
+      <c r="G23" s="53">
         <f>G20-G21</f>
         <v>-68800</v>
       </c>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
       <c r="J23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="61">
+      <c r="K23" s="53">
         <f>K20-K21</f>
         <v>-74116</v>
       </c>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
       <c r="N23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="61">
+      <c r="O23" s="53">
         <f>O20-O21</f>
         <v>726</v>
       </c>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
       <c r="R23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S23" s="61">
+      <c r="S23" s="53">
         <f>S20-S21</f>
         <v>-44612</v>
       </c>
-      <c r="T23" s="62"/>
-      <c r="U23" s="62"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="54"/>
       <c r="V23" s="6" t="s">
         <v>20</v>
       </c>
@@ -2995,27 +3126,27 @@
       <c r="E24" s="1">
         <v>12000</v>
       </c>
-      <c r="G24" s="50" t="s">
+      <c r="G24" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
       <c r="J24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K24" s="50" t="s">
+      <c r="K24" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
       <c r="N24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O24" s="50" t="s">
+      <c r="O24" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
       <c r="R24" s="5" t="s">
         <v>2</v>
       </c>
@@ -3036,38 +3167,38 @@
       <c r="E25" s="1">
         <v>5999</v>
       </c>
-      <c r="G25" s="52">
+      <c r="G25" s="62">
         <f ca="1">TODAY()</f>
-        <v>45091</v>
-      </c>
-      <c r="H25" s="53"/>
+        <v>45092</v>
+      </c>
+      <c r="H25" s="63"/>
       <c r="I25" s="3">
         <f ca="1">TODAY()</f>
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K25" s="52">
+      <c r="K25" s="62">
         <f ca="1">TODAY()</f>
-        <v>45091</v>
-      </c>
-      <c r="L25" s="53"/>
+        <v>45092</v>
+      </c>
+      <c r="L25" s="63"/>
       <c r="M25" s="3">
         <f ca="1">TODAY()</f>
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O25" s="52">
+      <c r="O25" s="62">
         <f ca="1">TODAY()</f>
-        <v>45091</v>
-      </c>
-      <c r="P25" s="53"/>
+        <v>45092</v>
+      </c>
+      <c r="P25" s="63"/>
       <c r="Q25" s="3">
         <f ca="1">TODAY()</f>
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="R25" s="4" t="s">
         <v>1</v>
@@ -3089,31 +3220,31 @@
       <c r="E26" s="1">
         <v>15800</v>
       </c>
-      <c r="G26" s="54">
+      <c r="G26" s="55">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,G24)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="56" t="s">
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="54">
+      <c r="K26" s="55">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,K24)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="56" t="s">
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="54">
+      <c r="O26" s="55">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,O24)</f>
         <v>0</v>
       </c>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="56" t="s">
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="57" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3133,18 +3264,18 @@
       <c r="E27" s="1">
         <v>7000</v>
       </c>
-      <c r="G27" s="54"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="56"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="57"/>
     </row>
     <row r="28" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -3162,18 +3293,18 @@
       <c r="E28" s="1">
         <v>26800</v>
       </c>
-      <c r="G28" s="54"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="56"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="57"/>
     </row>
     <row r="29" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -3191,18 +3322,18 @@
       <c r="E29" s="1">
         <v>11000</v>
       </c>
-      <c r="G29" s="54"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="56"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="57"/>
     </row>
     <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -3220,30 +3351,30 @@
       <c r="E30" s="1">
         <v>11388</v>
       </c>
-      <c r="G30" s="57" t="e">
+      <c r="G30" s="51" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,G24)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,G24)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
       <c r="J30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K30" s="57" t="e">
+      <c r="K30" s="51" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,K24)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,K24)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
       <c r="N30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O30" s="57" t="e">
+      <c r="O30" s="51" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,O24)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,O24)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
       <c r="R30" s="4" t="s">
         <v>23</v>
       </c>
@@ -3264,30 +3395,30 @@
       <c r="E31" s="1">
         <v>24499</v>
       </c>
-      <c r="G31" s="59">
+      <c r="G31" s="58">
         <f>SUMIFS($E:$E,$B:$B,G24)</f>
         <v>167197</v>
       </c>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
       <c r="J31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K31" s="59">
+      <c r="K31" s="58">
         <f>SUMIFS($E:$E,$B:$B,K24)</f>
         <v>128498</v>
       </c>
-      <c r="L31" s="60"/>
-      <c r="M31" s="60"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
       <c r="N31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O31" s="59">
+      <c r="O31" s="58">
         <f>SUMIFS($E:$E,$B:$B,O24)</f>
         <v>219174</v>
       </c>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="60"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
       <c r="R31" s="4" t="s">
         <v>17</v>
       </c>
@@ -3308,27 +3439,27 @@
       <c r="E32" s="1">
         <v>6500</v>
       </c>
-      <c r="G32" s="59">
+      <c r="G32" s="58">
         <v>100000</v>
       </c>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
       <c r="J32" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K32" s="59">
+      <c r="K32" s="58">
         <v>100000</v>
       </c>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
       <c r="N32" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O32" s="59">
+      <c r="O32" s="58">
         <v>200000</v>
       </c>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="60"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
       <c r="R32" s="4" t="s">
         <v>18</v>
       </c>
@@ -3349,30 +3480,30 @@
       <c r="E33" s="1">
         <v>12800</v>
       </c>
-      <c r="G33" s="57">
+      <c r="G33" s="51">
         <f>G31/G32</f>
         <v>1.67197</v>
       </c>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
       <c r="J33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K33" s="57">
+      <c r="K33" s="51">
         <f>K31/K32</f>
         <v>1.28498</v>
       </c>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
       <c r="N33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O33" s="57">
+      <c r="O33" s="51">
         <f>O31/O32</f>
         <v>1.0958699999999999</v>
       </c>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="58"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
       <c r="R33" s="4" t="s">
         <v>19</v>
       </c>
@@ -3393,30 +3524,30 @@
       <c r="E34" s="1">
         <v>8500</v>
       </c>
-      <c r="G34" s="61">
+      <c r="G34" s="53">
         <f>G31-G32</f>
         <v>67197</v>
       </c>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
       <c r="J34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="61">
+      <c r="K34" s="53">
         <f>K31-K32</f>
         <v>28498</v>
       </c>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
       <c r="N34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O34" s="61">
+      <c r="O34" s="53">
         <f>O31-O32</f>
         <v>19174</v>
       </c>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="62"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
       <c r="R34" s="6" t="s">
         <v>20</v>
       </c>
@@ -4103,6 +4234,82 @@
     <sortCondition ref="C2:C55"/>
   </sortState>
   <mergeCells count="92">
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:Q7"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:M29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:I29"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:I18"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:I7"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:M7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:M18"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:U18"/>
+    <mergeCell ref="R15:R18"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="S21:U21"/>
     <mergeCell ref="AE3:AE6"/>
     <mergeCell ref="AE7:AE9"/>
     <mergeCell ref="O33:Q33"/>
@@ -4119,111 +4326,35 @@
     <mergeCell ref="O25:P25"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="O15:Q18"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:U18"/>
-    <mergeCell ref="R15:R18"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:M7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:M18"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:I7"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:I18"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:M29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:I29"/>
-    <mergeCell ref="J26:J29"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:Q7"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="O8:Q8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G12:I12 G23:I23 K23:M23 G34:I34 K34:M34">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:M12">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12:Q12">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23:Q23">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O34:Q34">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S23:U23">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4274,8 +4405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCAD01F-4348-441A-949C-AA34FE4B5371}">
   <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView showGridLines="0" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6274,6 +6405,4076 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J4:AA23">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B3AD32-B690-4526-AF2B-18B5F85DF99E}">
+  <dimension ref="A1:AG48"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K6" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:AG28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="6" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="8.6640625" style="7" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="7" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.75" style="7" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.4140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.75" style="7" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.58203125" style="7" customWidth="1"/>
+    <col min="18" max="18" width="8.25" style="7" customWidth="1"/>
+    <col min="19" max="21" width="7.08203125" style="7" customWidth="1"/>
+    <col min="22" max="22" width="8.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="7.08203125" style="7" customWidth="1"/>
+    <col min="26" max="26" width="8.25" style="7" customWidth="1"/>
+    <col min="27" max="27" width="5.9140625" style="7" customWidth="1"/>
+    <col min="28" max="28" width="7.08203125" style="7" customWidth="1"/>
+    <col min="29" max="30" width="8.25" style="7" customWidth="1"/>
+    <col min="31" max="31" width="7.08203125" style="7" customWidth="1"/>
+    <col min="32" max="33" width="8.25" style="7" customWidth="1"/>
+    <col min="34" max="16384" width="8.6640625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="68"/>
+      <c r="E1" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="68"/>
+      <c r="G1" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="68"/>
+      <c r="I1" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="68"/>
+      <c r="K1" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="71"/>
+    </row>
+    <row r="2" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="O2" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="V2" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y2" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z2" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA2" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB2" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC2" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD2" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE2" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" s="34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="9">
+        <v>49848</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="9">
+        <v>373344.95</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1098924</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="9">
+        <v>282127</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="9">
+        <v>557563</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L3" s="9">
+        <v>135969</v>
+      </c>
+      <c r="M3" s="9">
+        <v>2497775.9500000002</v>
+      </c>
+      <c r="N3" s="9">
+        <v>68417</v>
+      </c>
+      <c r="O3" s="73"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="45">
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="S3" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="T3" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="U3" s="36">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="V3" s="45">
+        <v>0.24809999999999999</v>
+      </c>
+      <c r="W3" s="36">
+        <v>7.1499999999999994E-2</v>
+      </c>
+      <c r="X3" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y3" s="36">
+        <v>9.4200000000000006E-2</v>
+      </c>
+      <c r="Z3" s="36">
+        <v>0.28689999999999999</v>
+      </c>
+      <c r="AA3" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB3" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC3" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD3" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE3" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF3" s="36">
+        <v>0.1021</v>
+      </c>
+      <c r="AG3" s="37">
+        <v>0.1482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9">
+        <v>4335</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9">
+        <v>20263.8</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="9">
+        <v>108491</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="9">
+        <v>12564.9</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="9">
+        <v>4869.8999999999996</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>150524.6</v>
+      </c>
+      <c r="N4" s="9">
+        <v>438061.15</v>
+      </c>
+      <c r="O4" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="39">
+        <v>874</v>
+      </c>
+      <c r="R4" s="39">
+        <f>874*R3</f>
+        <v>111.34760000000001</v>
+      </c>
+      <c r="S4" s="39">
+        <f t="shared" ref="S4:AG4" si="0">874*S3</f>
+        <v>6.2054</v>
+      </c>
+      <c r="T4" s="39">
+        <f t="shared" si="0"/>
+        <v>33.736400000000003</v>
+      </c>
+      <c r="U4" s="39">
+        <f t="shared" si="0"/>
+        <v>71.405799999999999</v>
+      </c>
+      <c r="V4" s="39">
+        <f t="shared" si="0"/>
+        <v>216.83939999999998</v>
+      </c>
+      <c r="W4" s="39">
+        <f t="shared" si="0"/>
+        <v>62.490999999999993</v>
+      </c>
+      <c r="X4" s="39">
+        <f t="shared" si="0"/>
+        <v>72.017600000000002</v>
+      </c>
+      <c r="Y4" s="39">
+        <f t="shared" si="0"/>
+        <v>82.330800000000011</v>
+      </c>
+      <c r="Z4" s="39">
+        <f t="shared" si="0"/>
+        <v>250.75059999999999</v>
+      </c>
+      <c r="AA4" s="39">
+        <f t="shared" si="0"/>
+        <v>73.416000000000011</v>
+      </c>
+      <c r="AB4" s="39">
+        <f t="shared" si="0"/>
+        <v>74.901799999999994</v>
+      </c>
+      <c r="AC4" s="39">
+        <f t="shared" si="0"/>
+        <v>102.4328</v>
+      </c>
+      <c r="AD4" s="39">
+        <f t="shared" si="0"/>
+        <v>295.06240000000003</v>
+      </c>
+      <c r="AE4" s="39">
+        <f t="shared" si="0"/>
+        <v>76.300200000000004</v>
+      </c>
+      <c r="AF4" s="39">
+        <f t="shared" si="0"/>
+        <v>89.235399999999998</v>
+      </c>
+      <c r="AG4" s="40">
+        <f t="shared" si="0"/>
+        <v>129.52680000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="9">
+        <v>71245</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="9">
+        <v>109418</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="9">
+        <v>94018</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="9">
+        <v>33223</v>
+      </c>
+      <c r="M5" s="9">
+        <v>307904</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0</v>
+      </c>
+      <c r="O5" s="65"/>
+      <c r="P5" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" s="16">
+        <f>R5+V5+Z5+AD5</f>
+        <v>353.079095</v>
+      </c>
+      <c r="R5" s="16">
+        <f>SUM(S5:U5)</f>
+        <v>182.62909500000001</v>
+      </c>
+      <c r="S5" s="16">
+        <v>4.9847999999999999</v>
+      </c>
+      <c r="T5" s="16">
+        <v>41.869295000000001</v>
+      </c>
+      <c r="U5" s="16">
+        <v>135.77500000000001</v>
+      </c>
+      <c r="V5" s="16">
+        <f>SUM(W5:Y5)</f>
+        <v>170.45</v>
+      </c>
+      <c r="W5" s="16">
+        <f>28.21+10.94+8.3</f>
+        <v>47.45</v>
+      </c>
+      <c r="X5" s="16">
+        <f>J18</f>
+        <v>95</v>
+      </c>
+      <c r="Y5" s="16">
+        <f>L18</f>
+        <v>28</v>
+      </c>
+      <c r="Z5" s="16">
+        <f>SUM(AA5:AC5)</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16">
+        <f>SUM(AE5:AG5)</f>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="17"/>
+    </row>
+    <row r="6" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9">
+        <v>9370</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9">
+        <v>19610</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="9">
+        <v>183044</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="9">
+        <v>43443</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="9">
+        <v>69028</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>324495</v>
+      </c>
+      <c r="N6" s="9">
+        <v>163445</v>
+      </c>
+      <c r="O6" s="65"/>
+      <c r="P6" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="47">
+        <f>Q5/Q4</f>
+        <v>0.40398065789473686</v>
+      </c>
+      <c r="R6" s="47">
+        <f t="shared" ref="R6:AG6" si="1">R5/R4</f>
+        <v>1.6401709152240369</v>
+      </c>
+      <c r="S6" s="47">
+        <f t="shared" si="1"/>
+        <v>0.80330035130692623</v>
+      </c>
+      <c r="T6" s="47">
+        <f t="shared" si="1"/>
+        <v>1.241071809677381</v>
+      </c>
+      <c r="U6" s="47">
+        <f t="shared" si="1"/>
+        <v>1.9014561842315332</v>
+      </c>
+      <c r="V6" s="47">
+        <f t="shared" si="1"/>
+        <v>0.78606563198385537</v>
+      </c>
+      <c r="W6" s="47">
+        <f t="shared" si="1"/>
+        <v>0.75930934054503862</v>
+      </c>
+      <c r="X6" s="47">
+        <f t="shared" si="1"/>
+        <v>1.3191219924018573</v>
+      </c>
+      <c r="Y6" s="47">
+        <f t="shared" si="1"/>
+        <v>0.34009143601179626</v>
+      </c>
+      <c r="Z6" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="9">
+        <v>45348</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="9">
+        <v>187581</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="9">
+        <v>83042</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="9">
+        <v>306341</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="9">
+        <v>116847</v>
+      </c>
+      <c r="M7" s="9">
+        <v>739159</v>
+      </c>
+      <c r="N7" s="9">
+        <v>40970</v>
+      </c>
+      <c r="O7" s="65"/>
+      <c r="P7" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q7" s="16">
+        <f>ROUNDUP(Q4-Q5,0)</f>
+        <v>521</v>
+      </c>
+      <c r="R7" s="16">
+        <f t="shared" ref="R7:AG7" si="2">ROUNDUP(R4-R5,0)</f>
+        <v>-72</v>
+      </c>
+      <c r="S7" s="16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T7" s="16">
+        <f t="shared" si="2"/>
+        <v>-9</v>
+      </c>
+      <c r="U7" s="16">
+        <f t="shared" si="2"/>
+        <v>-65</v>
+      </c>
+      <c r="V7" s="16">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="W7" s="16">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="X7" s="16">
+        <f t="shared" si="2"/>
+        <v>-23</v>
+      </c>
+      <c r="Y7" s="16">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="Z7" s="16">
+        <f t="shared" si="2"/>
+        <v>251</v>
+      </c>
+      <c r="AA7" s="16">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB7" s="16">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC7" s="16">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="AD7" s="16">
+        <f t="shared" si="2"/>
+        <v>296</v>
+      </c>
+      <c r="AE7" s="16">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="AF7" s="16">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="AG7" s="16">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="10">
+        <f>SUM(B3:B7)</f>
+        <v>63553</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="10">
+        <f>SUM(D3:D7)</f>
+        <v>458566.75</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="10">
+        <f>SUM(F3:F7)</f>
+        <v>1649285</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="10">
+        <f>SUM(H3:H7)</f>
+        <v>530594.9</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" s="10">
+        <f>SUM(J3:J7)</f>
+        <v>1031819.9</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="10">
+        <f>SUM(L3:L7)</f>
+        <v>286039</v>
+      </c>
+      <c r="M8" s="10">
+        <f>SUM(M3:M7)</f>
+        <v>4019858.5500000003</v>
+      </c>
+      <c r="N8" s="10">
+        <f>SUM(N3:N7)</f>
+        <v>710893.15</v>
+      </c>
+      <c r="O8" s="66"/>
+      <c r="P8" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q8" s="42">
+        <f>R8+V8+Z8+AD8</f>
+        <v>10</v>
+      </c>
+      <c r="R8" s="42">
+        <f>SUM(S8:U8)</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="42">
+        <v>0</v>
+      </c>
+      <c r="T8" s="42">
+        <v>0</v>
+      </c>
+      <c r="U8" s="42">
+        <v>0</v>
+      </c>
+      <c r="V8" s="42">
+        <f>SUM(W8:Y8)</f>
+        <v>10</v>
+      </c>
+      <c r="W8" s="42">
+        <v>0</v>
+      </c>
+      <c r="X8" s="42">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="42">
+        <f>N18</f>
+        <v>10</v>
+      </c>
+      <c r="Z8" s="42">
+        <f>SUM(AA8:AC8)</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="42">
+        <f>SUM(AE8:AG8)</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="43"/>
+    </row>
+    <row r="9" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="10" cm="1">
+        <f t="array" ref="B9">SUM(SUMIFS(B3:B7,A3:A7,{"嘉兴","海宁","桐乡"}))</f>
+        <v>49848</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="10" cm="1">
+        <f t="array" ref="D9">SUM(SUMIFS(D3:D7,C3:C7,{"嘉兴","海宁","桐乡"}))</f>
+        <v>418692.95</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="10" cm="1">
+        <f t="array" ref="F9">SUM(SUMIFS(F3:F7,E3:E7,{"嘉兴","海宁","桐乡"}))</f>
+        <v>1357750</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="10" cm="1">
+        <f t="array" ref="H9">SUM(SUMIFS(H3:H7,G3:G7,{"嘉兴","海宁","桐乡"}))</f>
+        <v>474587</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="10" cm="1">
+        <f t="array" ref="J9">SUM(SUMIFS(J3:J7,I3:I7,{"嘉兴","海宁","桐乡"}))</f>
+        <v>957922</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="10" cm="1">
+        <f t="array" ref="L9">SUM(SUMIFS(L3:L7,K3:K7,{"嘉兴","海宁","桐乡"}))</f>
+        <v>286039</v>
+      </c>
+      <c r="M9" s="10" cm="1">
+        <f t="array" ref="M9">SUM(SUMIFS(M3:M7,K3:K7,{"嘉兴","海宁","桐乡"}))</f>
+        <v>3544838.95</v>
+      </c>
+      <c r="N9" s="10" cm="1">
+        <f t="array" ref="N9">SUM(SUMIFS(N3:N7,K3:K7,{"嘉兴","海宁","桐乡"}))</f>
+        <v>109387</v>
+      </c>
+      <c r="O9" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q9" s="39">
+        <v>150</v>
+      </c>
+      <c r="R9" s="39">
+        <f>150*R3</f>
+        <v>19.110000000000003</v>
+      </c>
+      <c r="S9" s="39">
+        <f t="shared" ref="S9:AG9" si="3">150*S3</f>
+        <v>1.0650000000000002</v>
+      </c>
+      <c r="T9" s="39">
+        <f t="shared" si="3"/>
+        <v>5.79</v>
+      </c>
+      <c r="U9" s="39">
+        <f t="shared" si="3"/>
+        <v>12.254999999999999</v>
+      </c>
+      <c r="V9" s="39">
+        <f t="shared" si="3"/>
+        <v>37.214999999999996</v>
+      </c>
+      <c r="W9" s="39">
+        <f t="shared" si="3"/>
+        <v>10.725</v>
+      </c>
+      <c r="X9" s="39">
+        <f>150*X3</f>
+        <v>12.36</v>
+      </c>
+      <c r="Y9" s="39">
+        <f t="shared" si="3"/>
+        <v>14.13</v>
+      </c>
+      <c r="Z9" s="39">
+        <f t="shared" si="3"/>
+        <v>43.034999999999997</v>
+      </c>
+      <c r="AA9" s="39">
+        <f t="shared" si="3"/>
+        <v>12.600000000000001</v>
+      </c>
+      <c r="AB9" s="39">
+        <f t="shared" si="3"/>
+        <v>12.855</v>
+      </c>
+      <c r="AC9" s="39">
+        <f t="shared" si="3"/>
+        <v>17.579999999999998</v>
+      </c>
+      <c r="AD9" s="39">
+        <f t="shared" si="3"/>
+        <v>50.64</v>
+      </c>
+      <c r="AE9" s="39">
+        <f t="shared" si="3"/>
+        <v>13.095000000000001</v>
+      </c>
+      <c r="AF9" s="39">
+        <f t="shared" si="3"/>
+        <v>15.315</v>
+      </c>
+      <c r="AG9" s="40">
+        <f t="shared" si="3"/>
+        <v>22.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q10" s="16">
+        <f>R10+V10+Z10+AD10</f>
+        <v>14.508979999999999</v>
+      </c>
+      <c r="R10" s="16">
+        <f>SUM(S10:U10)</f>
+        <v>13.30898</v>
+      </c>
+      <c r="S10" s="16">
+        <v>0.4335</v>
+      </c>
+      <c r="T10" s="16">
+        <v>2.0263800000000001</v>
+      </c>
+      <c r="U10" s="16">
+        <v>10.8491</v>
+      </c>
+      <c r="V10" s="16">
+        <f>SUM(W10:Y10)</f>
+        <v>1.2</v>
+      </c>
+      <c r="W10" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="X10" s="16">
+        <f>J13</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="16">
+        <f>L13</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="16">
+        <f>SUM(AA10:AC10)</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16">
+        <f>SUM(AE10:AG10)</f>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="17"/>
+    </row>
+    <row r="11" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" s="65"/>
+      <c r="P11" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q11" s="47">
+        <f>Q10/Q9</f>
+        <v>9.6726533333333323E-2</v>
+      </c>
+      <c r="R11" s="47">
+        <f t="shared" ref="R11:AG11" si="4">R10/R9</f>
+        <v>0.69644060701203547</v>
+      </c>
+      <c r="S11" s="47">
+        <f t="shared" si="4"/>
+        <v>0.40704225352112672</v>
+      </c>
+      <c r="T11" s="47">
+        <f t="shared" si="4"/>
+        <v>0.34997927461139899</v>
+      </c>
+      <c r="U11" s="47">
+        <f t="shared" si="4"/>
+        <v>0.88527947776417792</v>
+      </c>
+      <c r="V11" s="47">
+        <f t="shared" si="4"/>
+        <v>3.2245062474808545E-2</v>
+      </c>
+      <c r="W11" s="47">
+        <f t="shared" si="4"/>
+        <v>0.11188811188811189</v>
+      </c>
+      <c r="X11" s="47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="9">
+        <f>ROUNDDOWN(B3/10000,0)</f>
+        <v>4</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="9">
+        <f>ROUNDDOWN(D3/10000,0)</f>
+        <v>37</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="9">
+        <f>ROUNDDOWN(F3/10000,0)</f>
+        <v>109</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="9">
+        <f>ROUNDDOWN(H3/10000,0)</f>
+        <v>28</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" s="9">
+        <f>ROUNDDOWN(J3/10000,0)</f>
+        <v>55</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" s="9">
+        <f>ROUNDDOWN(L3/10000,0)</f>
+        <v>13</v>
+      </c>
+      <c r="M12" s="9">
+        <f>ROUNDDOWN(M3/10000,0)</f>
+        <v>249</v>
+      </c>
+      <c r="N12" s="9">
+        <f>ROUNDDOWN(N3/10000,0)</f>
+        <v>6</v>
+      </c>
+      <c r="O12" s="65"/>
+      <c r="P12" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q12" s="16">
+        <f>ROUNDUP(Q9-Q10,0)</f>
+        <v>136</v>
+      </c>
+      <c r="R12" s="16">
+        <f t="shared" ref="R12:AG12" si="5">ROUNDUP(R9-R10,0)</f>
+        <v>6</v>
+      </c>
+      <c r="S12" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T12" s="16">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="U12" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="V12" s="16">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="W12" s="16">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="X12" s="16">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="Y12" s="16">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="Z12" s="16">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="AA12" s="16">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="AB12" s="16">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="AC12" s="16">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="AD12" s="16">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="AE12" s="16">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="AF12" s="16">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="AG12" s="16">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="10">
+        <f t="shared" ref="B13" si="6">ROUNDDOWN(B4/10000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" ref="D13" si="7">ROUNDDOWN(D4/10000,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="10">
+        <f>ROUNDDOWN(F4/10000,0)</f>
+        <v>10</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="10">
+        <f>ROUNDDOWN(H4/10000,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="10">
+        <f>ROUNDDOWN(J4/10000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="10">
+        <f>ROUNDDOWN(L4/10000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="10">
+        <f>ROUNDDOWN(M4/10000,0)</f>
+        <v>15</v>
+      </c>
+      <c r="N13" s="10">
+        <f>ROUNDDOWN(N4/10000,0)</f>
+        <v>43</v>
+      </c>
+      <c r="O13" s="66"/>
+      <c r="P13" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q13" s="42">
+        <f>R13+V13+Z13+AD13</f>
+        <v>43</v>
+      </c>
+      <c r="R13" s="42">
+        <f>SUM(S13:U13)</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="42">
+        <v>0</v>
+      </c>
+      <c r="T13" s="42">
+        <v>0</v>
+      </c>
+      <c r="U13" s="42">
+        <v>0</v>
+      </c>
+      <c r="V13" s="42">
+        <f>SUM(W13:Y13)</f>
+        <v>43</v>
+      </c>
+      <c r="W13" s="42">
+        <v>0</v>
+      </c>
+      <c r="X13" s="42">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="42">
+        <f>N13</f>
+        <v>43</v>
+      </c>
+      <c r="Z13" s="42">
+        <f>SUM(AA13:AC13)</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="42">
+        <f>SUM(AE13:AG13)</f>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42"/>
+      <c r="AG13" s="43"/>
+    </row>
+    <row r="14" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="9">
+        <f t="shared" ref="B14" si="8">ROUNDDOWN(B5/10000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="9">
+        <f t="shared" ref="D14" si="9">ROUNDDOWN(D5/10000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="9">
+        <f>ROUNDDOWN(F5/10000,0)</f>
+        <v>7</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="9">
+        <f>ROUNDDOWN(H5/10000,0)</f>
+        <v>10</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="9">
+        <f>ROUNDDOWN(J5/10000,0)</f>
+        <v>9</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="9">
+        <f>ROUNDDOWN(L5/10000,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M14" s="9">
+        <f>ROUNDDOWN(M5/10000,0)</f>
+        <v>30</v>
+      </c>
+      <c r="N14" s="9">
+        <f>ROUNDDOWN(N5/10000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="P14" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q14" s="39">
+        <v>176</v>
+      </c>
+      <c r="R14" s="39">
+        <f>176*R3</f>
+        <v>22.422400000000003</v>
+      </c>
+      <c r="S14" s="39">
+        <f t="shared" ref="S14:AG14" si="10">176*S3</f>
+        <v>1.2496</v>
+      </c>
+      <c r="T14" s="39">
+        <f t="shared" si="10"/>
+        <v>6.7936000000000005</v>
+      </c>
+      <c r="U14" s="39">
+        <f t="shared" si="10"/>
+        <v>14.379199999999999</v>
+      </c>
+      <c r="V14" s="39">
+        <f t="shared" si="10"/>
+        <v>43.665599999999998</v>
+      </c>
+      <c r="W14" s="39">
+        <f t="shared" si="10"/>
+        <v>12.584</v>
+      </c>
+      <c r="X14" s="39">
+        <f t="shared" si="10"/>
+        <v>14.5024</v>
+      </c>
+      <c r="Y14" s="39">
+        <f>176*Y3</f>
+        <v>16.5792</v>
+      </c>
+      <c r="Z14" s="39">
+        <f t="shared" si="10"/>
+        <v>50.494399999999999</v>
+      </c>
+      <c r="AA14" s="39">
+        <f t="shared" si="10"/>
+        <v>14.784000000000001</v>
+      </c>
+      <c r="AB14" s="39">
+        <f t="shared" si="10"/>
+        <v>15.0832</v>
+      </c>
+      <c r="AC14" s="39">
+        <f t="shared" si="10"/>
+        <v>20.627199999999998</v>
+      </c>
+      <c r="AD14" s="39">
+        <f t="shared" si="10"/>
+        <v>59.4176</v>
+      </c>
+      <c r="AE14" s="39">
+        <f t="shared" si="10"/>
+        <v>15.364800000000001</v>
+      </c>
+      <c r="AF14" s="39">
+        <f t="shared" si="10"/>
+        <v>17.9696</v>
+      </c>
+      <c r="AG14" s="40">
+        <f t="shared" si="10"/>
+        <v>26.083199999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="10">
+        <f t="shared" ref="B15" si="11">ROUNDDOWN(B6/10000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="10">
+        <f t="shared" ref="D15" si="12">ROUNDDOWN(D6/10000,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="10">
+        <f>ROUNDDOWN(F6/10000,0)</f>
+        <v>18</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="10">
+        <f>ROUNDDOWN(H6/10000,0)</f>
+        <v>4</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="10">
+        <f>ROUNDDOWN(J6/10000,0)</f>
+        <v>6</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="10">
+        <f>ROUNDDOWN(L6/10000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="10">
+        <f>ROUNDDOWN(M6/10000,0)</f>
+        <v>32</v>
+      </c>
+      <c r="N15" s="10">
+        <f>ROUNDDOWN(N6/10000,0)</f>
+        <v>16</v>
+      </c>
+      <c r="O15" s="65"/>
+      <c r="P15" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q15" s="16">
+        <f>R15+V15+Z15+AD15</f>
+        <v>31.546700000000001</v>
+      </c>
+      <c r="R15" s="16">
+        <f>SUM(S15:U15)</f>
+        <v>21.202400000000001</v>
+      </c>
+      <c r="S15" s="16">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="T15" s="16">
+        <v>1.9610000000000001</v>
+      </c>
+      <c r="U15" s="16">
+        <v>18.304400000000001</v>
+      </c>
+      <c r="V15" s="16">
+        <f>SUM(W15:Y15)</f>
+        <v>10.3443</v>
+      </c>
+      <c r="W15" s="16">
+        <v>4.3442999999999996</v>
+      </c>
+      <c r="X15" s="16">
+        <f>J15</f>
+        <v>6</v>
+      </c>
+      <c r="Y15" s="16">
+        <f>L15</f>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="16">
+        <f>SUM(AA15:AC15)</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16">
+        <f>SUM(AE15:AG15)</f>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="16"/>
+      <c r="AG15" s="17"/>
+    </row>
+    <row r="16" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9">
+        <f t="shared" ref="B16" si="13">ROUNDDOWN(B7/10000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="9">
+        <f t="shared" ref="D16" si="14">ROUNDDOWN(D7/10000,0)</f>
+        <v>4</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="9">
+        <f>ROUNDDOWN(F7/10000,0)</f>
+        <v>18</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="9">
+        <f>ROUNDDOWN(H7/10000,0)</f>
+        <v>8</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="9">
+        <f>ROUNDDOWN(J7/10000,0)</f>
+        <v>30</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="9">
+        <f>ROUNDDOWN(L7/10000,0)</f>
+        <v>11</v>
+      </c>
+      <c r="M16" s="9">
+        <f>ROUNDDOWN(M7/10000,0)</f>
+        <v>73</v>
+      </c>
+      <c r="N16" s="9">
+        <f>ROUNDDOWN(N7/10000,0)</f>
+        <v>4</v>
+      </c>
+      <c r="O16" s="65"/>
+      <c r="P16" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q16" s="47">
+        <f>Q15/Q14</f>
+        <v>0.17924261363636365</v>
+      </c>
+      <c r="R16" s="47">
+        <f t="shared" ref="R16:AG16" si="15">R15/R14</f>
+        <v>0.94559012416155264</v>
+      </c>
+      <c r="S16" s="47">
+        <f t="shared" si="15"/>
+        <v>0.74983994878361082</v>
+      </c>
+      <c r="T16" s="47">
+        <f t="shared" si="15"/>
+        <v>0.28865402731983042</v>
+      </c>
+      <c r="U16" s="47">
+        <f t="shared" si="15"/>
+        <v>1.2729776343607435</v>
+      </c>
+      <c r="V16" s="47">
+        <f t="shared" si="15"/>
+        <v>0.23689815323733102</v>
+      </c>
+      <c r="W16" s="47">
+        <f t="shared" si="15"/>
+        <v>0.34522409408773042</v>
+      </c>
+      <c r="X16" s="47">
+        <f t="shared" si="15"/>
+        <v>0.41372462488967343</v>
+      </c>
+      <c r="Y16" s="47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="48">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="9">
+        <f t="shared" ref="B17" si="16">ROUNDDOWN(B8/10000,0)</f>
+        <v>6</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="9">
+        <f t="shared" ref="D17" si="17">ROUNDDOWN(D8/10000,0)</f>
+        <v>45</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="9">
+        <f>ROUNDDOWN(F8/10000,0)</f>
+        <v>164</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="9">
+        <f>ROUNDDOWN(H8/10000,0)</f>
+        <v>53</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J17" s="9">
+        <f>ROUNDDOWN(J8/10000,0)</f>
+        <v>103</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="13">
+        <f>ROUNDDOWN(L8/10000,0)</f>
+        <v>28</v>
+      </c>
+      <c r="M17" s="13">
+        <f>ROUNDDOWN(M8/10000,0)</f>
+        <v>401</v>
+      </c>
+      <c r="N17" s="13">
+        <f>ROUNDDOWN(N8/10000,0)</f>
+        <v>71</v>
+      </c>
+      <c r="O17" s="65"/>
+      <c r="P17" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q17" s="16">
+        <f>ROUNDUP(Q14-Q15,0)</f>
+        <v>145</v>
+      </c>
+      <c r="R17" s="16">
+        <f t="shared" ref="R17:AG17" si="18">ROUNDUP(R14-R15,0)</f>
+        <v>2</v>
+      </c>
+      <c r="S17" s="16">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="T17" s="16">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="U17" s="16">
+        <f t="shared" si="18"/>
+        <v>-4</v>
+      </c>
+      <c r="V17" s="16">
+        <f t="shared" si="18"/>
+        <v>34</v>
+      </c>
+      <c r="W17" s="16">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="X17" s="16">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="Y17" s="16">
+        <f t="shared" si="18"/>
+        <v>17</v>
+      </c>
+      <c r="Z17" s="16">
+        <f t="shared" si="18"/>
+        <v>51</v>
+      </c>
+      <c r="AA17" s="16">
+        <f t="shared" si="18"/>
+        <v>15</v>
+      </c>
+      <c r="AB17" s="16">
+        <f t="shared" si="18"/>
+        <v>16</v>
+      </c>
+      <c r="AC17" s="16">
+        <f t="shared" si="18"/>
+        <v>21</v>
+      </c>
+      <c r="AD17" s="16">
+        <f t="shared" si="18"/>
+        <v>60</v>
+      </c>
+      <c r="AE17" s="16">
+        <f t="shared" si="18"/>
+        <v>16</v>
+      </c>
+      <c r="AF17" s="16">
+        <f t="shared" si="18"/>
+        <v>18</v>
+      </c>
+      <c r="AG17" s="16">
+        <f t="shared" si="18"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="10">
+        <f t="shared" ref="B18" si="19">ROUNDDOWN(B9/10000,0)</f>
+        <v>4</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="10">
+        <f t="shared" ref="D18" si="20">ROUNDDOWN(D9/10000,0)</f>
+        <v>41</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="10">
+        <f>ROUNDDOWN(F9/10000,0)</f>
+        <v>135</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="10">
+        <f>ROUNDDOWN(H9/10000,0)</f>
+        <v>47</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="10">
+        <f>ROUNDDOWN(J9/10000,0)</f>
+        <v>95</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="L18" s="10">
+        <f>ROUNDDOWN(L9/10000,0)</f>
+        <v>28</v>
+      </c>
+      <c r="M18" s="10">
+        <f>ROUNDDOWN(M9/10000,0)</f>
+        <v>354</v>
+      </c>
+      <c r="N18" s="10">
+        <f>ROUNDDOWN(N9/10000,0)</f>
+        <v>10</v>
+      </c>
+      <c r="O18" s="66"/>
+      <c r="P18" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q18" s="42">
+        <f>R18+V18+Z18+AD18</f>
+        <v>16</v>
+      </c>
+      <c r="R18" s="42">
+        <f>SUM(S18:U18)</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="42">
+        <v>0</v>
+      </c>
+      <c r="T18" s="42">
+        <v>0</v>
+      </c>
+      <c r="U18" s="42">
+        <v>0</v>
+      </c>
+      <c r="V18" s="42">
+        <f>SUM(W18:Y18)</f>
+        <v>16</v>
+      </c>
+      <c r="W18" s="42">
+        <v>0</v>
+      </c>
+      <c r="X18" s="42">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="42">
+        <f>N15</f>
+        <v>16</v>
+      </c>
+      <c r="Z18" s="42">
+        <f>SUM(AA18:AC18)</f>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="42"/>
+      <c r="AD18" s="42">
+        <f>SUM(AE18:AG18)</f>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="42"/>
+      <c r="AF18" s="42"/>
+      <c r="AG18" s="43"/>
+    </row>
+    <row r="19" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="J19" s="78"/>
+      <c r="K19" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q19" s="39">
+        <f>Q14+Q9+Q4</f>
+        <v>1200</v>
+      </c>
+      <c r="R19" s="39">
+        <f t="shared" ref="R19:AG20" si="21">R14+R9+R4</f>
+        <v>152.88000000000002</v>
+      </c>
+      <c r="S19" s="39">
+        <f t="shared" si="21"/>
+        <v>8.52</v>
+      </c>
+      <c r="T19" s="39">
+        <f t="shared" si="21"/>
+        <v>46.320000000000007</v>
+      </c>
+      <c r="U19" s="39">
+        <f t="shared" si="21"/>
+        <v>98.039999999999992</v>
+      </c>
+      <c r="V19" s="39">
+        <f t="shared" si="21"/>
+        <v>297.71999999999997</v>
+      </c>
+      <c r="W19" s="39">
+        <f t="shared" si="21"/>
+        <v>85.799999999999983</v>
+      </c>
+      <c r="X19" s="39">
+        <f t="shared" si="21"/>
+        <v>98.88</v>
+      </c>
+      <c r="Y19" s="39">
+        <f t="shared" si="21"/>
+        <v>113.04000000000002</v>
+      </c>
+      <c r="Z19" s="39">
+        <f t="shared" si="21"/>
+        <v>344.28</v>
+      </c>
+      <c r="AA19" s="39">
+        <f t="shared" si="21"/>
+        <v>100.80000000000001</v>
+      </c>
+      <c r="AB19" s="39">
+        <f t="shared" si="21"/>
+        <v>102.84</v>
+      </c>
+      <c r="AC19" s="39">
+        <f t="shared" si="21"/>
+        <v>140.63999999999999</v>
+      </c>
+      <c r="AD19" s="39">
+        <f t="shared" si="21"/>
+        <v>405.12</v>
+      </c>
+      <c r="AE19" s="39">
+        <f t="shared" si="21"/>
+        <v>104.76</v>
+      </c>
+      <c r="AF19" s="39">
+        <f t="shared" si="21"/>
+        <v>122.52</v>
+      </c>
+      <c r="AG19" s="40">
+        <f t="shared" si="21"/>
+        <v>177.84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="O20" s="65"/>
+      <c r="P20" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q20" s="16">
+        <f>Q15+Q10+Q5</f>
+        <v>399.13477499999999</v>
+      </c>
+      <c r="R20" s="16">
+        <f t="shared" si="21"/>
+        <v>217.14047500000001</v>
+      </c>
+      <c r="S20" s="16">
+        <f t="shared" si="21"/>
+        <v>6.3552999999999997</v>
+      </c>
+      <c r="T20" s="16">
+        <f t="shared" si="21"/>
+        <v>45.856675000000003</v>
+      </c>
+      <c r="U20" s="16">
+        <f t="shared" si="21"/>
+        <v>164.92850000000001</v>
+      </c>
+      <c r="V20" s="16">
+        <f t="shared" si="21"/>
+        <v>181.99429999999998</v>
+      </c>
+      <c r="W20" s="16">
+        <f t="shared" si="21"/>
+        <v>52.994300000000003</v>
+      </c>
+      <c r="X20" s="16">
+        <f t="shared" si="21"/>
+        <v>101</v>
+      </c>
+      <c r="Y20" s="16">
+        <f t="shared" si="21"/>
+        <v>28</v>
+      </c>
+      <c r="Z20" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="7">
+        <v>514715</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="7">
+        <v>782078.6</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="7">
+        <v>3529031.4</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1770526.3</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J21" s="7">
+        <v>1571225</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L21" s="7">
+        <v>1058317</v>
+      </c>
+      <c r="M21" s="7">
+        <v>9225893.3000000007</v>
+      </c>
+      <c r="N21" s="7">
+        <v>3822251</v>
+      </c>
+      <c r="O21" s="65"/>
+      <c r="P21" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q21" s="47">
+        <f>Q20/Q19</f>
+        <v>0.33261231250000001</v>
+      </c>
+      <c r="R21" s="47">
+        <f t="shared" ref="R21:AG21" si="22">R20/R19</f>
+        <v>1.4203327773417058</v>
+      </c>
+      <c r="S21" s="47">
+        <f t="shared" si="22"/>
+        <v>0.74592723004694839</v>
+      </c>
+      <c r="T21" s="47">
+        <f t="shared" si="22"/>
+        <v>0.98999730138169251</v>
+      </c>
+      <c r="U21" s="47">
+        <f t="shared" si="22"/>
+        <v>1.6822572419420647</v>
+      </c>
+      <c r="V21" s="47">
+        <f t="shared" si="22"/>
+        <v>0.61129349724573423</v>
+      </c>
+      <c r="W21" s="47">
+        <f t="shared" si="22"/>
+        <v>0.61764918414918435</v>
+      </c>
+      <c r="X21" s="47">
+        <f t="shared" si="22"/>
+        <v>1.0214401294498383</v>
+      </c>
+      <c r="Y21" s="47">
+        <f t="shared" si="22"/>
+        <v>0.2476999292285916</v>
+      </c>
+      <c r="Z21" s="47">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="47">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="47">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="47">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="47">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="47">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="47">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="48">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="7">
+        <v>7688.4699999999975</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="7">
+        <v>62299</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="7">
+        <v>213008</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" s="7">
+        <v>82589</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J22" s="7">
+        <v>85072</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L22" s="7">
+        <v>49510</v>
+      </c>
+      <c r="M22" s="7">
+        <v>500166.47</v>
+      </c>
+      <c r="N22" s="7">
+        <v>16182</v>
+      </c>
+      <c r="O22" s="65"/>
+      <c r="P22" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q22" s="16">
+        <f>ROUNDUP(Q19-Q20,0)</f>
+        <v>801</v>
+      </c>
+      <c r="R22" s="16">
+        <f t="shared" ref="R22:AG22" si="23">ROUNDUP(R19-R20,0)</f>
+        <v>-65</v>
+      </c>
+      <c r="S22" s="16">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="T22" s="16">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="U22" s="16">
+        <f t="shared" si="23"/>
+        <v>-67</v>
+      </c>
+      <c r="V22" s="16">
+        <f t="shared" si="23"/>
+        <v>116</v>
+      </c>
+      <c r="W22" s="16">
+        <f t="shared" si="23"/>
+        <v>33</v>
+      </c>
+      <c r="X22" s="16">
+        <f t="shared" si="23"/>
+        <v>-3</v>
+      </c>
+      <c r="Y22" s="16">
+        <f t="shared" si="23"/>
+        <v>86</v>
+      </c>
+      <c r="Z22" s="16">
+        <f t="shared" si="23"/>
+        <v>345</v>
+      </c>
+      <c r="AA22" s="16">
+        <f t="shared" si="23"/>
+        <v>101</v>
+      </c>
+      <c r="AB22" s="16">
+        <f t="shared" si="23"/>
+        <v>103</v>
+      </c>
+      <c r="AC22" s="16">
+        <f t="shared" si="23"/>
+        <v>141</v>
+      </c>
+      <c r="AD22" s="16">
+        <f t="shared" si="23"/>
+        <v>406</v>
+      </c>
+      <c r="AE22" s="16">
+        <f t="shared" si="23"/>
+        <v>105</v>
+      </c>
+      <c r="AF22" s="16">
+        <f t="shared" si="23"/>
+        <v>123</v>
+      </c>
+      <c r="AG22" s="16">
+        <f t="shared" si="23"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1677.2</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="7">
+        <v>25891</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7">
+        <v>8305</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" s="7">
+        <v>10379.700000000001</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0</v>
+      </c>
+      <c r="M23" s="7">
+        <v>46252.9</v>
+      </c>
+      <c r="N23" s="7">
+        <v>16831.5</v>
+      </c>
+      <c r="O23" s="66"/>
+      <c r="P23" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q23" s="42">
+        <f>Q8+Q13+Q18</f>
+        <v>69</v>
+      </c>
+      <c r="R23" s="42">
+        <f>SUM(S23:U23)</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="42">
+        <f>S8+S13+S18</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="42">
+        <f t="shared" ref="T23:U23" si="24">T8+T13+T18</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="42">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="42">
+        <f>SUM(W23:Y23)</f>
+        <v>69</v>
+      </c>
+      <c r="W23" s="42">
+        <f>W8+W13+W18</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="42">
+        <f t="shared" ref="X23:Y23" si="25">X8+X13+X18</f>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="42">
+        <f t="shared" si="25"/>
+        <v>69</v>
+      </c>
+      <c r="Z23" s="42">
+        <f>SUM(AA23:AC23)</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="42"/>
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="42"/>
+      <c r="AD23" s="42">
+        <f>SUM(AE23:AG23)</f>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="42"/>
+      <c r="AF23" s="42"/>
+      <c r="AG23" s="43"/>
+    </row>
+    <row r="24" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="7">
+        <v>134003</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H24" s="7">
+        <v>10</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="J24" s="7">
+        <v>0</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0</v>
+      </c>
+      <c r="M24" s="7">
+        <v>134013</v>
+      </c>
+      <c r="N24" s="7">
+        <v>2928</v>
+      </c>
+      <c r="O24" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="P24" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q24" s="39">
+        <v>7050</v>
+      </c>
+      <c r="R24" s="39">
+        <f>7050*R3</f>
+        <v>898.17000000000007</v>
+      </c>
+      <c r="S24" s="39">
+        <f t="shared" ref="S24:AG24" si="26">7050*S3</f>
+        <v>50.055</v>
+      </c>
+      <c r="T24" s="39">
+        <f t="shared" si="26"/>
+        <v>272.13</v>
+      </c>
+      <c r="U24" s="39">
+        <f t="shared" si="26"/>
+        <v>575.98500000000001</v>
+      </c>
+      <c r="V24" s="39">
+        <f t="shared" si="26"/>
+        <v>1749.105</v>
+      </c>
+      <c r="W24" s="39">
+        <f t="shared" si="26"/>
+        <v>504.07499999999993</v>
+      </c>
+      <c r="X24" s="39">
+        <f t="shared" si="26"/>
+        <v>580.91999999999996</v>
+      </c>
+      <c r="Y24" s="39">
+        <f t="shared" si="26"/>
+        <v>664.11</v>
+      </c>
+      <c r="Z24" s="39">
+        <f t="shared" si="26"/>
+        <v>2022.645</v>
+      </c>
+      <c r="AA24" s="39">
+        <f t="shared" si="26"/>
+        <v>592.20000000000005</v>
+      </c>
+      <c r="AB24" s="39">
+        <f t="shared" si="26"/>
+        <v>604.18499999999995</v>
+      </c>
+      <c r="AC24" s="39">
+        <f t="shared" si="26"/>
+        <v>826.26</v>
+      </c>
+      <c r="AD24" s="39">
+        <f t="shared" si="26"/>
+        <v>2380.08</v>
+      </c>
+      <c r="AE24" s="39">
+        <f t="shared" si="26"/>
+        <v>615.46500000000003</v>
+      </c>
+      <c r="AF24" s="39">
+        <f t="shared" si="26"/>
+        <v>719.80499999999995</v>
+      </c>
+      <c r="AG24" s="39">
+        <f t="shared" si="26"/>
+        <v>1044.81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="7">
+        <v>55221</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="7">
+        <v>128941</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="7">
+        <v>201036</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" s="7">
+        <v>76753.5</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="J25" s="7">
+        <v>217795.1</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L25" s="7">
+        <v>112045.5</v>
+      </c>
+      <c r="M25" s="7">
+        <v>791792.1</v>
+      </c>
+      <c r="N25" s="7">
+        <v>112220.85</v>
+      </c>
+      <c r="O25" s="65"/>
+      <c r="P25" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q25" s="16">
+        <f>R25+V25+Z25+AD25</f>
+        <v>1872</v>
+      </c>
+      <c r="R25" s="16">
+        <f>SUM(S25:U25)</f>
+        <v>1011</v>
+      </c>
+      <c r="S25" s="16">
+        <f>B48+B17</f>
+        <v>64</v>
+      </c>
+      <c r="T25" s="16">
+        <f>D48+D17</f>
+        <v>266</v>
+      </c>
+      <c r="U25" s="16">
+        <f>F48+F17</f>
+        <v>681</v>
+      </c>
+      <c r="V25" s="16">
+        <f>SUM(W25:Y25)</f>
+        <v>861</v>
+      </c>
+      <c r="W25" s="16">
+        <f>H48+H17</f>
+        <v>341</v>
+      </c>
+      <c r="X25" s="16">
+        <f>J48+J17</f>
+        <v>355</v>
+      </c>
+      <c r="Y25" s="16">
+        <f>L48+L17</f>
+        <v>165</v>
+      </c>
+      <c r="Z25" s="16">
+        <f>SUM(AA25:AC25)</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="16">
+        <f>SUM(AE25:AG25)</f>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="16"/>
+      <c r="AF25" s="16"/>
+      <c r="AG25" s="17"/>
+    </row>
+    <row r="26" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="7">
+        <v>182148.5</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="7">
+        <v>434610</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H26" s="7">
+        <v>72085</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J26" s="7">
+        <v>159212</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L26" s="7">
+        <v>21462</v>
+      </c>
+      <c r="M26" s="7">
+        <v>869517.5</v>
+      </c>
+      <c r="N26" s="7">
+        <v>200340</v>
+      </c>
+      <c r="O26" s="65"/>
+      <c r="P26" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q26" s="47">
+        <f>Q25/Q24</f>
+        <v>0.26553191489361699</v>
+      </c>
+      <c r="R26" s="47">
+        <f t="shared" ref="R26:AG26" si="27">R25/R24</f>
+        <v>1.1256220982664751</v>
+      </c>
+      <c r="S26" s="47">
+        <f t="shared" si="27"/>
+        <v>1.278593547098192</v>
+      </c>
+      <c r="T26" s="47">
+        <f t="shared" si="27"/>
+        <v>0.9774740013963914</v>
+      </c>
+      <c r="U26" s="47">
+        <f t="shared" si="27"/>
+        <v>1.1823224563139665</v>
+      </c>
+      <c r="V26" s="47">
+        <f t="shared" si="27"/>
+        <v>0.49225175161010915</v>
+      </c>
+      <c r="W26" s="47">
+        <f t="shared" si="27"/>
+        <v>0.67648663393344255</v>
+      </c>
+      <c r="X26" s="47">
+        <f t="shared" si="27"/>
+        <v>0.61109963506162646</v>
+      </c>
+      <c r="Y26" s="47">
+        <f t="shared" si="27"/>
+        <v>0.24845281655147491</v>
+      </c>
+      <c r="Z26" s="47">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="47">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="47">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="47">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="47">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="47">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="47">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="48">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="7">
+        <v>124402.85</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" s="7">
+        <v>215168.95</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H27" s="7">
+        <v>160103</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J27" s="7">
+        <v>177805</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0</v>
+      </c>
+      <c r="M27" s="7">
+        <v>677479.8</v>
+      </c>
+      <c r="N27" s="7">
+        <v>294272</v>
+      </c>
+      <c r="O27" s="65"/>
+      <c r="P27" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q27" s="16">
+        <f>ROUNDUP(Q24-Q25,0)</f>
+        <v>5178</v>
+      </c>
+      <c r="R27" s="16">
+        <f t="shared" ref="R27:AG27" si="28">ROUNDUP(R24-R25,0)</f>
+        <v>-113</v>
+      </c>
+      <c r="S27" s="16">
+        <f t="shared" si="28"/>
+        <v>-14</v>
+      </c>
+      <c r="T27" s="16">
+        <f t="shared" si="28"/>
+        <v>7</v>
+      </c>
+      <c r="U27" s="16">
+        <f t="shared" si="28"/>
+        <v>-106</v>
+      </c>
+      <c r="V27" s="16">
+        <f t="shared" si="28"/>
+        <v>889</v>
+      </c>
+      <c r="W27" s="16">
+        <f t="shared" si="28"/>
+        <v>164</v>
+      </c>
+      <c r="X27" s="16">
+        <f t="shared" si="28"/>
+        <v>226</v>
+      </c>
+      <c r="Y27" s="16">
+        <f t="shared" si="28"/>
+        <v>500</v>
+      </c>
+      <c r="Z27" s="16">
+        <f t="shared" si="28"/>
+        <v>2023</v>
+      </c>
+      <c r="AA27" s="16">
+        <f t="shared" si="28"/>
+        <v>593</v>
+      </c>
+      <c r="AB27" s="16">
+        <f t="shared" si="28"/>
+        <v>605</v>
+      </c>
+      <c r="AC27" s="16">
+        <f t="shared" si="28"/>
+        <v>827</v>
+      </c>
+      <c r="AD27" s="16">
+        <f t="shared" si="28"/>
+        <v>2381</v>
+      </c>
+      <c r="AE27" s="16">
+        <f t="shared" si="28"/>
+        <v>616</v>
+      </c>
+      <c r="AF27" s="16">
+        <f t="shared" si="28"/>
+        <v>720</v>
+      </c>
+      <c r="AG27" s="16">
+        <f t="shared" si="28"/>
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="7">
+        <v>338226</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="7">
+        <v>280420</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H28" s="7">
+        <v>372227</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0</v>
+      </c>
+      <c r="M28" s="7">
+        <v>990873</v>
+      </c>
+      <c r="N28" s="7">
+        <v>194405</v>
+      </c>
+      <c r="O28" s="66"/>
+      <c r="P28" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q28" s="42">
+        <f>R28+V28+Z28+AD28</f>
+        <v>551</v>
+      </c>
+      <c r="R28" s="42">
+        <f>SUM(S28:U28)</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="42">
+        <f>S13+S18+S23</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="42">
+        <f t="shared" ref="T28:U28" si="29">T13+T18+T23</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="42">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="42">
+        <f>SUM(W28:Y28)</f>
+        <v>551</v>
+      </c>
+      <c r="W28" s="42">
+        <f>W13+W18+W23</f>
+        <v>0</v>
+      </c>
+      <c r="X28" s="42">
+        <f t="shared" ref="X28" si="30">X13+X18+X23</f>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="42">
+        <f>N48+N17</f>
+        <v>551</v>
+      </c>
+      <c r="Z28" s="42">
+        <f>SUM(AA28:AC28)</f>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="42"/>
+      <c r="AB28" s="42"/>
+      <c r="AC28" s="42"/>
+      <c r="AD28" s="42">
+        <f>SUM(AE28:AG28)</f>
+        <v>0</v>
+      </c>
+      <c r="AE28" s="42"/>
+      <c r="AF28" s="42"/>
+      <c r="AG28" s="43"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="7">
+        <v>8275</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="7">
+        <v>48963</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H29" s="7">
+        <v>252909</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="J29" s="7">
+        <v>132449</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0</v>
+      </c>
+      <c r="M29" s="7">
+        <v>442596</v>
+      </c>
+      <c r="N29" s="7">
+        <v>49504</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="7">
+        <v>347406.04</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" s="7">
+        <v>23356.16</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H30" s="7">
+        <v>85526</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J30" s="7">
+        <v>56209</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L30" s="7">
+        <v>93302</v>
+      </c>
+      <c r="M30" s="7">
+        <v>605799.19999999995</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="7">
+        <v>28875</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F31" s="7">
+        <v>203356</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J31" s="7">
+        <v>20830</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L31" s="7">
+        <v>42792</v>
+      </c>
+      <c r="M31" s="7">
+        <v>295853</v>
+      </c>
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="7">
+        <v>60137</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" s="7">
+        <v>17659</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J32" s="7">
+        <v>101585</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0</v>
+      </c>
+      <c r="M32" s="7">
+        <v>179381</v>
+      </c>
+      <c r="N32" s="7">
+        <v>93140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="8">
+        <f>SUM(B21:B32)</f>
+        <v>587576.66999999993</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="8">
+        <f>SUM(D21:D32)</f>
+        <v>2214407.9900000002</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="8">
+        <f>SUM(F21:F32)</f>
+        <v>5174913.5100000007</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H33" s="8">
+        <f>SUM(H21:H32)</f>
+        <v>2883108.5</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="J33" s="8">
+        <f>SUM(J21:J32)</f>
+        <v>2522182.1</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L33" s="8">
+        <f>SUM(L21:L32)</f>
+        <v>1377428.5</v>
+      </c>
+      <c r="M33" s="8">
+        <f>SUM(M21:M32)</f>
+        <v>14759617.270000001</v>
+      </c>
+      <c r="N33" s="8">
+        <f>SUM(N21:N32)</f>
+        <v>4802074.3499999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="J34" s="78"/>
+      <c r="K34" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="7">
+        <f>ROUNDDOWN(B21/10000,0)</f>
+        <v>51</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="7">
+        <f>ROUNDDOWN(D21/10000,0)</f>
+        <v>78</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="7">
+        <f>ROUNDDOWN(F21/10000,0)</f>
+        <v>352</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H36" s="7">
+        <f>ROUNDDOWN(H21/10000,0)</f>
+        <v>177</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J36" s="7">
+        <f>ROUNDDOWN(J21/10000,0)</f>
+        <v>157</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L36" s="7">
+        <f>ROUNDDOWN(L21/10000,0)</f>
+        <v>105</v>
+      </c>
+      <c r="M36" s="7">
+        <f t="shared" ref="M36:N36" si="31">ROUNDDOWN(M21/10000,0)</f>
+        <v>922</v>
+      </c>
+      <c r="N36" s="7">
+        <f t="shared" si="31"/>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="7">
+        <f t="shared" ref="B37" si="32">ROUNDDOWN(B22/10000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="7">
+        <f t="shared" ref="D37" si="33">ROUNDDOWN(D22/10000,0)</f>
+        <v>6</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="7">
+        <f t="shared" ref="F37:H37" si="34">ROUNDDOWN(F22/10000,0)</f>
+        <v>21</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H37" s="7">
+        <f t="shared" si="34"/>
+        <v>8</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J37" s="7">
+        <f t="shared" ref="J37:J48" si="35">ROUNDDOWN(J22/10000,0)</f>
+        <v>8</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L37" s="7">
+        <f t="shared" ref="L37:N37" si="36">ROUNDDOWN(L22/10000,0)</f>
+        <v>4</v>
+      </c>
+      <c r="M37" s="7">
+        <f t="shared" si="36"/>
+        <v>50</v>
+      </c>
+      <c r="N37" s="7">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="7">
+        <f t="shared" ref="B38" si="37">ROUNDDOWN(B23/10000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" s="7">
+        <f t="shared" ref="D38" si="38">ROUNDDOWN(D23/10000,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F38" s="7">
+        <f t="shared" ref="F38:H38" si="39">ROUNDDOWN(F23/10000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H38" s="7">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J38" s="7">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L38" s="7">
+        <f t="shared" ref="L38:N38" si="40">ROUNDDOWN(L23/10000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="7">
+        <f t="shared" si="40"/>
+        <v>4</v>
+      </c>
+      <c r="N38" s="7">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" s="7">
+        <f t="shared" ref="B39" si="41">ROUNDDOWN(B24/10000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="7">
+        <f t="shared" ref="D39" si="42">ROUNDDOWN(D24/10000,0)</f>
+        <v>13</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F39" s="7">
+        <f t="shared" ref="F39:H39" si="43">ROUNDDOWN(F24/10000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H39" s="7">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="J39" s="7">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L39" s="7">
+        <f t="shared" ref="L39:N39" si="44">ROUNDDOWN(L24/10000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="7">
+        <f t="shared" si="44"/>
+        <v>13</v>
+      </c>
+      <c r="N39" s="7">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="7">
+        <f t="shared" ref="B40" si="45">ROUNDDOWN(B25/10000,0)</f>
+        <v>5</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="7">
+        <f t="shared" ref="D40" si="46">ROUNDDOWN(D25/10000,0)</f>
+        <v>12</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F40" s="7">
+        <f t="shared" ref="F40:H40" si="47">ROUNDDOWN(F25/10000,0)</f>
+        <v>20</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H40" s="7">
+        <f t="shared" si="47"/>
+        <v>7</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="J40" s="7">
+        <f t="shared" si="35"/>
+        <v>21</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L40" s="7">
+        <f t="shared" ref="L40:N40" si="48">ROUNDDOWN(L25/10000,0)</f>
+        <v>11</v>
+      </c>
+      <c r="M40" s="7">
+        <f t="shared" si="48"/>
+        <v>79</v>
+      </c>
+      <c r="N40" s="7">
+        <f t="shared" si="48"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" s="7">
+        <f t="shared" ref="B41" si="49">ROUNDDOWN(B26/10000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="7">
+        <f t="shared" ref="D41" si="50">ROUNDDOWN(D26/10000,0)</f>
+        <v>18</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F41" s="7">
+        <f t="shared" ref="F41:H41" si="51">ROUNDDOWN(F26/10000,0)</f>
+        <v>43</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H41" s="7">
+        <f t="shared" si="51"/>
+        <v>7</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J41" s="7">
+        <f t="shared" si="35"/>
+        <v>15</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L41" s="7">
+        <f t="shared" ref="L41:N41" si="52">ROUNDDOWN(L26/10000,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M41" s="7">
+        <f t="shared" si="52"/>
+        <v>86</v>
+      </c>
+      <c r="N41" s="7">
+        <f t="shared" si="52"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" s="7">
+        <f t="shared" ref="B42" si="53">ROUNDDOWN(B27/10000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="7">
+        <f t="shared" ref="D42" si="54">ROUNDDOWN(D27/10000,0)</f>
+        <v>12</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F42" s="7">
+        <f t="shared" ref="F42:H42" si="55">ROUNDDOWN(F27/10000,0)</f>
+        <v>21</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H42" s="7">
+        <f t="shared" si="55"/>
+        <v>16</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J42" s="7">
+        <f t="shared" si="35"/>
+        <v>17</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L42" s="7">
+        <f t="shared" ref="L42:N42" si="56">ROUNDDOWN(L27/10000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="7">
+        <f t="shared" si="56"/>
+        <v>67</v>
+      </c>
+      <c r="N42" s="7">
+        <f t="shared" si="56"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="7">
+        <f t="shared" ref="B43" si="57">ROUNDDOWN(B28/10000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="7">
+        <f t="shared" ref="D43" si="58">ROUNDDOWN(D28/10000,0)</f>
+        <v>33</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" s="7">
+        <f t="shared" ref="F43:H43" si="59">ROUNDDOWN(F28/10000,0)</f>
+        <v>28</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H43" s="7">
+        <f t="shared" si="59"/>
+        <v>37</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="J43" s="7">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L43" s="7">
+        <f t="shared" ref="L43:N43" si="60">ROUNDDOWN(L28/10000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="7">
+        <f t="shared" si="60"/>
+        <v>99</v>
+      </c>
+      <c r="N43" s="7">
+        <f t="shared" si="60"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" s="7">
+        <f t="shared" ref="B44" si="61">ROUNDDOWN(B29/10000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" s="7">
+        <f t="shared" ref="D44" si="62">ROUNDDOWN(D29/10000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="7">
+        <f t="shared" ref="F44:H44" si="63">ROUNDDOWN(F29/10000,0)</f>
+        <v>4</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H44" s="7">
+        <f t="shared" si="63"/>
+        <v>25</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="J44" s="7">
+        <f t="shared" si="35"/>
+        <v>13</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L44" s="7">
+        <f t="shared" ref="L44:N44" si="64">ROUNDDOWN(L29/10000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="7">
+        <f t="shared" si="64"/>
+        <v>44</v>
+      </c>
+      <c r="N44" s="7">
+        <f t="shared" si="64"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" s="7">
+        <f t="shared" ref="B45" si="65">ROUNDDOWN(B30/10000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" s="7">
+        <f t="shared" ref="D45" si="66">ROUNDDOWN(D30/10000,0)</f>
+        <v>34</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F45" s="7">
+        <f t="shared" ref="F45:H45" si="67">ROUNDDOWN(F30/10000,0)</f>
+        <v>2</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H45" s="7">
+        <f t="shared" si="67"/>
+        <v>8</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J45" s="7">
+        <f t="shared" si="35"/>
+        <v>5</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L45" s="7">
+        <f t="shared" ref="L45:N45" si="68">ROUNDDOWN(L30/10000,0)</f>
+        <v>9</v>
+      </c>
+      <c r="M45" s="7">
+        <f t="shared" si="68"/>
+        <v>60</v>
+      </c>
+      <c r="N45" s="7">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B46" s="7">
+        <f t="shared" ref="B46" si="69">ROUNDDOWN(B31/10000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" s="7">
+        <f t="shared" ref="D46" si="70">ROUNDDOWN(D31/10000,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F46" s="7">
+        <f t="shared" ref="F46:H46" si="71">ROUNDDOWN(F31/10000,0)</f>
+        <v>20</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H46" s="7">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J46" s="7">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L46" s="7">
+        <f t="shared" ref="L46:N46" si="72">ROUNDDOWN(L31/10000,0)</f>
+        <v>4</v>
+      </c>
+      <c r="M46" s="7">
+        <f t="shared" si="72"/>
+        <v>29</v>
+      </c>
+      <c r="N46" s="7">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="7">
+        <f t="shared" ref="B47" si="73">ROUNDDOWN(B32/10000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" s="7">
+        <f t="shared" ref="D47" si="74">ROUNDDOWN(D32/10000,0)</f>
+        <v>6</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F47" s="7">
+        <f t="shared" ref="F47:H47" si="75">ROUNDDOWN(F32/10000,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H47" s="7">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J47" s="7">
+        <f t="shared" si="35"/>
+        <v>10</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L47" s="7">
+        <f t="shared" ref="L47:N47" si="76">ROUNDDOWN(L32/10000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="7">
+        <f t="shared" si="76"/>
+        <v>17</v>
+      </c>
+      <c r="N47" s="7">
+        <f t="shared" si="76"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" s="8">
+        <f t="shared" ref="B48" si="77">ROUNDDOWN(B33/10000,0)</f>
+        <v>58</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="8">
+        <f t="shared" ref="D48" si="78">ROUNDDOWN(D33/10000,0)</f>
+        <v>221</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="8">
+        <f t="shared" ref="F48:H48" si="79">ROUNDDOWN(F33/10000,0)</f>
+        <v>517</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H48" s="8">
+        <f t="shared" si="79"/>
+        <v>288</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="J48" s="8">
+        <f t="shared" si="35"/>
+        <v>252</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L48" s="8">
+        <f t="shared" ref="L48:N48" si="80">ROUNDDOWN(L33/10000,0)</f>
+        <v>137</v>
+      </c>
+      <c r="M48" s="8">
+        <f t="shared" si="80"/>
+        <v>1475</v>
+      </c>
+      <c r="N48" s="8">
+        <f t="shared" si="80"/>
+        <v>480</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:AG1"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="P4:AG23">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P24:AG28">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>

--- a/省联动.xlsx
+++ b/省联动.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D2652\Desktop\workdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6039F23F-346D-4AA2-8256-FE87A26DDFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A675D5F4-260E-4CF3-9F23-7E654A6FE995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="390" windowWidth="25820" windowHeight="14990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="390" windowWidth="25820" windowHeight="14990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="联动数据" sheetId="1" r:id="rId1"/>
-    <sheet name="出货数据" sheetId="3" r:id="rId2"/>
-    <sheet name="杭嘉湖出货数据 " sheetId="5" r:id="rId3"/>
+    <sheet name="出货数据 " sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">联动数据!$A$1:$E$75</definedName>
@@ -52,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="153">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -618,6 +617,9 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>54952 15</t>
   </si>
 </sst>
 </file>
@@ -767,7 +769,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1166,15 +1168,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1182,7 +1175,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1328,22 +1321,16 @@
     <xf numFmtId="9" fontId="14" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1355,23 +1342,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1415,10 +1405,10 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1426,35 +1416,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{9EA95E99-C423-45BD-B946-364681CF80E9}"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -1877,27 +1839,27 @@
       <c r="E2" s="1">
         <v>26000</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
       <c r="J2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="60" t="s">
+      <c r="K2" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
       <c r="N2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="60" t="s">
+      <c r="O2" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
       <c r="R2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1942,38 +1904,38 @@
       <c r="E3" s="1">
         <v>12800</v>
       </c>
-      <c r="G3" s="62">
+      <c r="G3" s="51">
         <f ca="1">TODAY()</f>
-        <v>45092</v>
-      </c>
-      <c r="H3" s="63"/>
+        <v>45093</v>
+      </c>
+      <c r="H3" s="52"/>
       <c r="I3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="62">
+      <c r="K3" s="51">
         <f ca="1">TODAY()</f>
-        <v>45092</v>
-      </c>
-      <c r="L3" s="63"/>
+        <v>45093</v>
+      </c>
+      <c r="L3" s="52"/>
       <c r="M3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="62">
+      <c r="O3" s="51">
         <f ca="1">TODAY()</f>
-        <v>45092</v>
-      </c>
-      <c r="P3" s="63"/>
+        <v>45093</v>
+      </c>
+      <c r="P3" s="52"/>
       <c r="Q3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>1</v>
@@ -1983,7 +1945,7 @@
       </c>
       <c r="X3" s="23">
         <f ca="1">TODAY()</f>
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="Y3" s="24">
         <f ca="1">G15</f>
@@ -2009,7 +1971,7 @@
         <f>AB3-AA3</f>
         <v>68800</v>
       </c>
-      <c r="AE3" s="50">
+      <c r="AE3" s="62">
         <f>SUM(AA3:AA6)</f>
         <v>602779</v>
       </c>
@@ -2030,31 +1992,31 @@
       <c r="E4" s="1">
         <v>12108</v>
       </c>
-      <c r="G4" s="55" cm="1">
+      <c r="G4" s="53" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">SUM(SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,{"海盐","平湖","海宁","桐乡"}))</f>
         <v>0</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="57" t="s">
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="55" cm="1">
+      <c r="K4" s="53" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">SUM(SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,{"红星","月星","六空"}))</f>
         <v>0</v>
       </c>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="57" t="s">
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="55">
+      <c r="O4" s="53">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY())</f>
         <v>0</v>
       </c>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="57" t="s">
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="55" t="s">
         <v>21</v>
       </c>
       <c r="W4" s="22" t="s">
@@ -2062,7 +2024,7 @@
       </c>
       <c r="X4" s="23">
         <f t="shared" ref="X4:X10" ca="1" si="0">TODAY()</f>
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="Y4" s="24">
         <f ca="1">K15</f>
@@ -2087,7 +2049,7 @@
         <f t="shared" ref="AD4:AD9" si="2">AB4-AA4</f>
         <v>74116</v>
       </c>
-      <c r="AE4" s="50"/>
+      <c r="AE4" s="62"/>
     </row>
     <row r="5" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -2105,24 +2067,24 @@
       <c r="E5" s="1">
         <v>22800</v>
       </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="57"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="55"/>
       <c r="W5" s="22" t="s">
         <v>107</v>
       </c>
       <c r="X5" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="Y5" s="24">
         <f ca="1">G26</f>
@@ -2147,7 +2109,7 @@
         <f t="shared" si="2"/>
         <v>-67197</v>
       </c>
-      <c r="AE5" s="50"/>
+      <c r="AE5" s="62"/>
     </row>
     <row r="6" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -2165,24 +2127,24 @@
       <c r="E6" s="1">
         <v>50000</v>
       </c>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="57"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="55"/>
       <c r="W6" s="22" t="s">
         <v>108</v>
       </c>
       <c r="X6" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="Y6" s="24">
         <f ca="1">K26</f>
@@ -2207,7 +2169,7 @@
         <f t="shared" si="2"/>
         <v>-28498</v>
       </c>
-      <c r="AE6" s="50"/>
+      <c r="AE6" s="62"/>
     </row>
     <row r="7" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -2225,24 +2187,24 @@
       <c r="E7" s="1">
         <v>16600</v>
       </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="57"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="55"/>
       <c r="W7" s="22" t="s">
         <v>109</v>
       </c>
       <c r="X7" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="Y7" s="24">
         <f ca="1">S15</f>
@@ -2267,7 +2229,7 @@
         <f t="shared" si="2"/>
         <v>44612</v>
       </c>
-      <c r="AE7" s="50">
+      <c r="AE7" s="62">
         <f>SUM(AA7:AA9)</f>
         <v>575288</v>
       </c>
@@ -2288,30 +2250,30 @@
       <c r="E8" s="1">
         <v>6500</v>
       </c>
-      <c r="G8" s="51" t="e">
+      <c r="G8" s="56" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY())/SUMIFS($E:$E,$C:$C,TODAY()-1)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
       <c r="J8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="51" t="e">
+      <c r="K8" s="56" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,K2)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,K2)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
       <c r="N8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="51" t="e">
+      <c r="O8" s="56" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY())/SUMIFS($E:$E,$C:$C,TODAY()-1)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
       <c r="R8" s="4" t="s">
         <v>23</v>
       </c>
@@ -2320,7 +2282,7 @@
       </c>
       <c r="X8" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="Y8" s="24">
         <f ca="1">O15</f>
@@ -2345,7 +2307,7 @@
         <f t="shared" si="2"/>
         <v>-726</v>
       </c>
-      <c r="AE8" s="50"/>
+      <c r="AE8" s="62"/>
     </row>
     <row r="9" spans="1:31" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -2392,7 +2354,7 @@
       </c>
       <c r="X9" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="Y9" s="24">
         <f ca="1">O26</f>
@@ -2417,7 +2379,7 @@
         <f t="shared" si="2"/>
         <v>-19174</v>
       </c>
-      <c r="AE9" s="50"/>
+      <c r="AE9" s="62"/>
     </row>
     <row r="10" spans="1:31" ht="17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -2464,7 +2426,7 @@
       </c>
       <c r="X10" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="Y10" s="28">
         <f ca="1">SUM(Y3:Y9)</f>
@@ -2511,30 +2473,30 @@
       <c r="E11" s="1">
         <v>45776</v>
       </c>
-      <c r="G11" s="51">
+      <c r="G11" s="56">
         <f>G9/G10</f>
         <v>0.9273523076923077</v>
       </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
       <c r="J11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="51">
+      <c r="K11" s="56">
         <f>K9/K10</f>
         <v>0.9588133333333333</v>
       </c>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
       <c r="N11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O11" s="51">
+      <c r="O11" s="56">
         <f>O9/O10</f>
         <v>0.9424536</v>
       </c>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
       <c r="R11" s="4" t="s">
         <v>19</v>
       </c>
@@ -2555,30 +2517,30 @@
       <c r="E12" s="1">
         <v>1600</v>
       </c>
-      <c r="G12" s="53">
+      <c r="G12" s="60">
         <f>G9-G10</f>
         <v>-47221</v>
       </c>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
       <c r="J12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="53">
+      <c r="K12" s="60">
         <f>K9-K10</f>
         <v>-24712</v>
       </c>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
       <c r="N12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="53">
+      <c r="O12" s="60">
         <f>O9-O10</f>
         <v>-71933</v>
       </c>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
       <c r="R12" s="6" t="s">
         <v>20</v>
       </c>
@@ -2599,35 +2561,35 @@
       <c r="E13" s="1">
         <v>21200</v>
       </c>
-      <c r="G13" s="60" t="s">
+      <c r="G13" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
       <c r="J13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K13" s="60" t="s">
+      <c r="K13" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
       <c r="N13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O13" s="60" t="s">
+      <c r="O13" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
       <c r="R13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="S13" s="60" t="s">
+      <c r="S13" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="T13" s="61"/>
-      <c r="U13" s="61"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
       <c r="V13" s="5" t="s">
         <v>2</v>
       </c>
@@ -2648,50 +2610,50 @@
       <c r="E14" s="1">
         <v>5500</v>
       </c>
-      <c r="G14" s="62">
+      <c r="G14" s="51">
         <f ca="1">TODAY()</f>
-        <v>45092</v>
-      </c>
-      <c r="H14" s="63"/>
+        <v>45093</v>
+      </c>
+      <c r="H14" s="52"/>
       <c r="I14" s="3">
         <f ca="1">TODAY()</f>
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="62">
+      <c r="K14" s="51">
         <f ca="1">TODAY()</f>
-        <v>45092</v>
-      </c>
-      <c r="L14" s="63"/>
+        <v>45093</v>
+      </c>
+      <c r="L14" s="52"/>
       <c r="M14" s="3">
         <f ca="1">TODAY()</f>
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O14" s="62">
+      <c r="O14" s="51">
         <f ca="1">TODAY()</f>
-        <v>45092</v>
-      </c>
-      <c r="P14" s="63"/>
+        <v>45093</v>
+      </c>
+      <c r="P14" s="52"/>
       <c r="Q14" s="3">
         <f ca="1">TODAY()</f>
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="R14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="S14" s="62">
+      <c r="S14" s="51">
         <f ca="1">TODAY()</f>
-        <v>45092</v>
-      </c>
-      <c r="T14" s="63"/>
+        <v>45093</v>
+      </c>
+      <c r="T14" s="52"/>
       <c r="U14" s="3">
         <f ca="1">TODAY()</f>
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="V14" s="4" t="s">
         <v>1</v>
@@ -2713,40 +2675,40 @@
       <c r="E15" s="1">
         <v>14000</v>
       </c>
-      <c r="G15" s="55">
+      <c r="G15" s="53">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,G13)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="57" t="s">
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="55">
+      <c r="K15" s="53">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,K13)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="57" t="s">
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="O15" s="55">
+      <c r="O15" s="53">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,O13)</f>
         <v>0</v>
       </c>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="57" t="s">
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="S15" s="55">
+      <c r="S15" s="53">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,S13)</f>
         <v>0</v>
       </c>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="57" t="s">
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="55" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2766,22 +2728,22 @@
       <c r="E16" s="1">
         <v>58000</v>
       </c>
-      <c r="G16" s="55"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="57"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="55"/>
     </row>
     <row r="17" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -2799,22 +2761,22 @@
       <c r="E17" s="1">
         <v>12000</v>
       </c>
-      <c r="G17" s="55"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="57"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="55"/>
     </row>
     <row r="18" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -2832,22 +2794,22 @@
       <c r="E18" s="1">
         <v>3599</v>
       </c>
-      <c r="G18" s="55"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="57"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="55"/>
     </row>
     <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -2865,39 +2827,39 @@
       <c r="E19" s="1">
         <v>9000</v>
       </c>
-      <c r="G19" s="51" t="e">
+      <c r="G19" s="56" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,G13)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,G13)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
       <c r="J19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="51" t="e">
+      <c r="K19" s="56" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,K13)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,K13)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
       <c r="N19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O19" s="51" t="e">
+      <c r="O19" s="56" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,O13)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,O13)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
       <c r="R19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S19" s="51" t="e">
+      <c r="S19" s="56" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,S13)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,S13)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T19" s="52"/>
-      <c r="U19" s="52"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
       <c r="V19" s="4" t="s">
         <v>23</v>
       </c>
@@ -3020,39 +2982,39 @@
       <c r="E22" s="1">
         <v>9698</v>
       </c>
-      <c r="G22" s="51">
+      <c r="G22" s="56">
         <f>G20/G21</f>
         <v>0.71333333333333337</v>
       </c>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
       <c r="J22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K22" s="51">
+      <c r="K22" s="56">
         <f>K20/K21</f>
         <v>0.64706666666666668</v>
       </c>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
       <c r="N22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O22" s="51">
+      <c r="O22" s="56">
         <f>O20/O21</f>
         <v>1.00363</v>
       </c>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
       <c r="R22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S22" s="51">
+      <c r="S22" s="56">
         <f>S20/S21</f>
         <v>0.77693999999999996</v>
       </c>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="57"/>
       <c r="V22" s="4" t="s">
         <v>19</v>
       </c>
@@ -3073,39 +3035,39 @@
       <c r="E23" s="1">
         <v>14500</v>
       </c>
-      <c r="G23" s="53">
+      <c r="G23" s="60">
         <f>G20-G21</f>
         <v>-68800</v>
       </c>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
       <c r="J23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="53">
+      <c r="K23" s="60">
         <f>K20-K21</f>
         <v>-74116</v>
       </c>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
       <c r="N23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="53">
+      <c r="O23" s="60">
         <f>O20-O21</f>
         <v>726</v>
       </c>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
       <c r="R23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S23" s="53">
+      <c r="S23" s="60">
         <f>S20-S21</f>
         <v>-44612</v>
       </c>
-      <c r="T23" s="54"/>
-      <c r="U23" s="54"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61"/>
       <c r="V23" s="6" t="s">
         <v>20</v>
       </c>
@@ -3126,27 +3088,27 @@
       <c r="E24" s="1">
         <v>12000</v>
       </c>
-      <c r="G24" s="60" t="s">
+      <c r="G24" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
       <c r="J24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K24" s="60" t="s">
+      <c r="K24" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
       <c r="N24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O24" s="60" t="s">
+      <c r="O24" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="61"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
       <c r="R24" s="5" t="s">
         <v>2</v>
       </c>
@@ -3167,38 +3129,38 @@
       <c r="E25" s="1">
         <v>5999</v>
       </c>
-      <c r="G25" s="62">
+      <c r="G25" s="51">
         <f ca="1">TODAY()</f>
-        <v>45092</v>
-      </c>
-      <c r="H25" s="63"/>
+        <v>45093</v>
+      </c>
+      <c r="H25" s="52"/>
       <c r="I25" s="3">
         <f ca="1">TODAY()</f>
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K25" s="62">
+      <c r="K25" s="51">
         <f ca="1">TODAY()</f>
-        <v>45092</v>
-      </c>
-      <c r="L25" s="63"/>
+        <v>45093</v>
+      </c>
+      <c r="L25" s="52"/>
       <c r="M25" s="3">
         <f ca="1">TODAY()</f>
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O25" s="62">
+      <c r="O25" s="51">
         <f ca="1">TODAY()</f>
-        <v>45092</v>
-      </c>
-      <c r="P25" s="63"/>
+        <v>45093</v>
+      </c>
+      <c r="P25" s="52"/>
       <c r="Q25" s="3">
         <f ca="1">TODAY()</f>
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="R25" s="4" t="s">
         <v>1</v>
@@ -3220,31 +3182,31 @@
       <c r="E26" s="1">
         <v>15800</v>
       </c>
-      <c r="G26" s="55">
+      <c r="G26" s="53">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,G24)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="57" t="s">
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="55">
+      <c r="K26" s="53">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,K24)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="57" t="s">
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="55">
+      <c r="O26" s="53">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,O24)</f>
         <v>0</v>
       </c>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="57" t="s">
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="55" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3264,18 +3226,18 @@
       <c r="E27" s="1">
         <v>7000</v>
       </c>
-      <c r="G27" s="55"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="57"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="55"/>
     </row>
     <row r="28" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -3293,18 +3255,18 @@
       <c r="E28" s="1">
         <v>26800</v>
       </c>
-      <c r="G28" s="55"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="57"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="55"/>
     </row>
     <row r="29" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -3322,18 +3284,18 @@
       <c r="E29" s="1">
         <v>11000</v>
       </c>
-      <c r="G29" s="55"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="56"/>
-      <c r="R29" s="57"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="55"/>
     </row>
     <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -3351,30 +3313,30 @@
       <c r="E30" s="1">
         <v>11388</v>
       </c>
-      <c r="G30" s="51" t="e">
+      <c r="G30" s="56" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,G24)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,G24)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
       <c r="J30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K30" s="51" t="e">
+      <c r="K30" s="56" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,K24)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,K24)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
       <c r="N30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O30" s="51" t="e">
+      <c r="O30" s="56" t="e">
         <f ca="1">SUMIFS($E:$E,$C:$C,TODAY(),$B:$B,O24)/SUMIFS($E:$E,$C:$C,TODAY()-1,$B:$B,O24)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
       <c r="R30" s="4" t="s">
         <v>23</v>
       </c>
@@ -3480,30 +3442,30 @@
       <c r="E33" s="1">
         <v>12800</v>
       </c>
-      <c r="G33" s="51">
+      <c r="G33" s="56">
         <f>G31/G32</f>
         <v>1.67197</v>
       </c>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
       <c r="J33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K33" s="51">
+      <c r="K33" s="56">
         <f>K31/K32</f>
         <v>1.28498</v>
       </c>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
       <c r="N33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O33" s="51">
+      <c r="O33" s="56">
         <f>O31/O32</f>
         <v>1.0958699999999999</v>
       </c>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
       <c r="R33" s="4" t="s">
         <v>19</v>
       </c>
@@ -3524,30 +3486,30 @@
       <c r="E34" s="1">
         <v>8500</v>
       </c>
-      <c r="G34" s="53">
+      <c r="G34" s="60">
         <f>G31-G32</f>
         <v>67197</v>
       </c>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
       <c r="J34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="53">
+      <c r="K34" s="60">
         <f>K31-K32</f>
         <v>28498</v>
       </c>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
       <c r="N34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O34" s="53">
+      <c r="O34" s="60">
         <f>O31-O32</f>
         <v>19174</v>
       </c>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="54"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="61"/>
       <c r="R34" s="6" t="s">
         <v>20</v>
       </c>
@@ -4234,11 +4196,77 @@
     <sortCondition ref="C2:C55"/>
   </sortState>
   <mergeCells count="92">
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:Q7"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="AE3:AE6"/>
+    <mergeCell ref="AE7:AE9"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="O26:Q29"/>
+    <mergeCell ref="R26:R29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:Q18"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:U18"/>
+    <mergeCell ref="R15:R18"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:M7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:M18"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:I7"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:I18"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K30:M30"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O11:Q11"/>
     <mergeCell ref="O12:Q12"/>
@@ -4255,106 +4283,40 @@
     <mergeCell ref="G33:I33"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="N26:N29"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:I18"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:I7"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:M7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:M18"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:U18"/>
-    <mergeCell ref="R15:R18"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="AE3:AE6"/>
-    <mergeCell ref="AE7:AE9"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="O26:Q29"/>
-    <mergeCell ref="R26:R29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:Q18"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:Q7"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="O8:Q8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G12:I12 G23:I23 K23:M23 G34:I34 K34:M34">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:M12">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12:Q12">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23:Q23">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O34:Q34">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S23:U23">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4402,2027 +4364,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCAD01F-4348-441A-949C-AA34FE4B5371}">
-  <dimension ref="A1:AA24"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.5" style="7" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="7" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="10.4140625" style="7" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="7.75" style="7" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.4140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.75" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.58203125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="8.25" style="7" hidden="1" customWidth="1"/>
-    <col min="13" max="15" width="7.08203125" style="7" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="7.08203125" style="7" customWidth="1"/>
-    <col min="20" max="20" width="8.25" style="7" customWidth="1"/>
-    <col min="21" max="21" width="5.9140625" style="7" customWidth="1"/>
-    <col min="22" max="22" width="7.08203125" style="7" customWidth="1"/>
-    <col min="23" max="24" width="8.25" style="7" customWidth="1"/>
-    <col min="25" max="25" width="7.08203125" style="7" customWidth="1"/>
-    <col min="26" max="27" width="8.25" style="7" customWidth="1"/>
-    <col min="28" max="16384" width="8.6640625" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="71"/>
-    </row>
-    <row r="2" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I2" s="72" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="P2" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q2" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="R2" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="S2" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="T2" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="U2" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="V2" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="W2" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="X2" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y2" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z2" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA2" s="34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="9">
-        <v>557563</v>
-      </c>
-      <c r="C3" s="9">
-        <v>2361806.9500000002</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="9">
-        <v>135969</v>
-      </c>
-      <c r="G3" s="9">
-        <v>2497775.9500000002</v>
-      </c>
-      <c r="H3" s="9">
-        <v>68417</v>
-      </c>
-      <c r="I3" s="73"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="45">
-        <v>0.12740000000000001</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" s="36">
-        <v>8.1699999999999995E-2</v>
-      </c>
-      <c r="P3" s="45">
-        <v>0.24809999999999999</v>
-      </c>
-      <c r="Q3" s="36">
-        <v>7.1499999999999994E-2</v>
-      </c>
-      <c r="R3" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="S3" s="36">
-        <v>9.4200000000000006E-2</v>
-      </c>
-      <c r="T3" s="36">
-        <v>0.28689999999999999</v>
-      </c>
-      <c r="U3" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="V3" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="W3" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="X3" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y3" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z3" s="36">
-        <v>0.1021</v>
-      </c>
-      <c r="AA3" s="37">
-        <v>0.1482</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="9">
-        <v>4869.8999999999996</v>
-      </c>
-      <c r="C4" s="9">
-        <v>150524.6</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>150524.6</v>
-      </c>
-      <c r="H4" s="9">
-        <v>438061.15</v>
-      </c>
-      <c r="I4" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4" s="39">
-        <v>874</v>
-      </c>
-      <c r="L4" s="39">
-        <f>874*L3</f>
-        <v>111.34760000000001</v>
-      </c>
-      <c r="M4" s="39">
-        <f t="shared" ref="M4:AA4" si="0">874*M3</f>
-        <v>6.2054</v>
-      </c>
-      <c r="N4" s="39">
-        <f t="shared" si="0"/>
-        <v>33.736400000000003</v>
-      </c>
-      <c r="O4" s="39">
-        <f t="shared" si="0"/>
-        <v>71.405799999999999</v>
-      </c>
-      <c r="P4" s="39">
-        <f t="shared" si="0"/>
-        <v>216.83939999999998</v>
-      </c>
-      <c r="Q4" s="39">
-        <f t="shared" si="0"/>
-        <v>62.490999999999993</v>
-      </c>
-      <c r="R4" s="39">
-        <f t="shared" si="0"/>
-        <v>72.017600000000002</v>
-      </c>
-      <c r="S4" s="39">
-        <f t="shared" si="0"/>
-        <v>82.330800000000011</v>
-      </c>
-      <c r="T4" s="39">
-        <f t="shared" si="0"/>
-        <v>250.75059999999999</v>
-      </c>
-      <c r="U4" s="39">
-        <f t="shared" si="0"/>
-        <v>73.416000000000011</v>
-      </c>
-      <c r="V4" s="39">
-        <f t="shared" si="0"/>
-        <v>74.901799999999994</v>
-      </c>
-      <c r="W4" s="39">
-        <f t="shared" si="0"/>
-        <v>102.4328</v>
-      </c>
-      <c r="X4" s="39">
-        <f t="shared" si="0"/>
-        <v>295.06240000000003</v>
-      </c>
-      <c r="Y4" s="39">
-        <f t="shared" si="0"/>
-        <v>76.300200000000004</v>
-      </c>
-      <c r="Z4" s="39">
-        <f t="shared" si="0"/>
-        <v>89.235399999999998</v>
-      </c>
-      <c r="AA4" s="40">
-        <f t="shared" si="0"/>
-        <v>129.52680000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="9">
-        <v>94018</v>
-      </c>
-      <c r="C5" s="9">
-        <v>274681</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="9">
-        <v>33223</v>
-      </c>
-      <c r="G5" s="9">
-        <v>307904</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0</v>
-      </c>
-      <c r="I5" s="65"/>
-      <c r="J5" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="16">
-        <f>L5+P5+T5+X5</f>
-        <v>352.079095</v>
-      </c>
-      <c r="L5" s="16">
-        <f>SUM(M5:O5)</f>
-        <v>182.62909500000001</v>
-      </c>
-      <c r="M5" s="16">
-        <v>4.9847999999999999</v>
-      </c>
-      <c r="N5" s="16">
-        <v>41.869295000000001</v>
-      </c>
-      <c r="O5" s="16">
-        <v>135.77500000000001</v>
-      </c>
-      <c r="P5" s="16">
-        <f>SUM(Q5:S5)</f>
-        <v>169.45</v>
-      </c>
-      <c r="Q5" s="16">
-        <f>28.21+10.94+8.3</f>
-        <v>47.45</v>
-      </c>
-      <c r="R5" s="16">
-        <f>B19</f>
-        <v>94</v>
-      </c>
-      <c r="S5" s="16">
-        <f>F19</f>
-        <v>28</v>
-      </c>
-      <c r="T5" s="16">
-        <f>SUM(U5:W5)</f>
-        <v>0</v>
-      </c>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16">
-        <f>SUM(Y5:AA5)</f>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="17"/>
-    </row>
-    <row r="6" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="9">
-        <v>69028</v>
-      </c>
-      <c r="C6" s="9">
-        <v>324495</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>324495</v>
-      </c>
-      <c r="H6" s="9">
-        <v>163445</v>
-      </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="47">
-        <f>K5/K4</f>
-        <v>0.40283649313501141</v>
-      </c>
-      <c r="L6" s="47">
-        <f t="shared" ref="L6:AA6" si="1">L5/L4</f>
-        <v>1.6401709152240369</v>
-      </c>
-      <c r="M6" s="47">
-        <f t="shared" si="1"/>
-        <v>0.80330035130692623</v>
-      </c>
-      <c r="N6" s="47">
-        <f t="shared" si="1"/>
-        <v>1.241071809677381</v>
-      </c>
-      <c r="O6" s="47">
-        <f t="shared" si="1"/>
-        <v>1.9014561842315332</v>
-      </c>
-      <c r="P6" s="47">
-        <f t="shared" si="1"/>
-        <v>0.78145392396400282</v>
-      </c>
-      <c r="Q6" s="47">
-        <f t="shared" si="1"/>
-        <v>0.75930934054503862</v>
-      </c>
-      <c r="R6" s="47">
-        <f t="shared" si="1"/>
-        <v>1.3052364977449957</v>
-      </c>
-      <c r="S6" s="47">
-        <f t="shared" si="1"/>
-        <v>0.34009143601179626</v>
-      </c>
-      <c r="T6" s="47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X6" s="47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="9">
-        <v>306341</v>
-      </c>
-      <c r="C7" s="9">
-        <v>622312</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="9">
-        <v>116847</v>
-      </c>
-      <c r="G7" s="9">
-        <v>739159</v>
-      </c>
-      <c r="H7" s="9">
-        <v>40970</v>
-      </c>
-      <c r="I7" s="65"/>
-      <c r="J7" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="K7" s="16">
-        <f>ROUNDUP(K4-K5,0)</f>
-        <v>522</v>
-      </c>
-      <c r="L7" s="16">
-        <f t="shared" ref="L7:AA7" si="2">ROUNDUP(L4-L5,0)</f>
-        <v>-72</v>
-      </c>
-      <c r="M7" s="16">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="N7" s="16">
-        <f t="shared" si="2"/>
-        <v>-9</v>
-      </c>
-      <c r="O7" s="16">
-        <f t="shared" si="2"/>
-        <v>-65</v>
-      </c>
-      <c r="P7" s="16">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="Q7" s="16">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="R7" s="16">
-        <f t="shared" si="2"/>
-        <v>-22</v>
-      </c>
-      <c r="S7" s="16">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="T7" s="16">
-        <f t="shared" si="2"/>
-        <v>251</v>
-      </c>
-      <c r="U7" s="16">
-        <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
-      <c r="V7" s="16">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="W7" s="16">
-        <f t="shared" si="2"/>
-        <v>103</v>
-      </c>
-      <c r="X7" s="16">
-        <f t="shared" si="2"/>
-        <v>296</v>
-      </c>
-      <c r="Y7" s="16">
-        <f t="shared" si="2"/>
-        <v>77</v>
-      </c>
-      <c r="Z7" s="16">
-        <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="AA7" s="16">
-        <f t="shared" si="2"/>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="10">
-        <f>SUM(B3:B7)</f>
-        <v>1031819.9</v>
-      </c>
-      <c r="C8" s="10">
-        <f>SUM(C3:C7)</f>
-        <v>3733819.5500000003</v>
-      </c>
-      <c r="D8" s="10">
-        <f>SUM(D3:D7)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="10">
-        <f>SUM(F3:F7)</f>
-        <v>286039</v>
-      </c>
-      <c r="G8" s="10">
-        <f>SUM(G3:G7)</f>
-        <v>4019858.5500000003</v>
-      </c>
-      <c r="H8" s="10">
-        <f>SUM(H3:H7)</f>
-        <v>710893.15</v>
-      </c>
-      <c r="I8" s="66"/>
-      <c r="J8" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="K8" s="42">
-        <f>L8+P8+T8+X8</f>
-        <v>10</v>
-      </c>
-      <c r="L8" s="42">
-        <f>SUM(M8:O8)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="42">
-        <v>0</v>
-      </c>
-      <c r="N8" s="42">
-        <v>0</v>
-      </c>
-      <c r="O8" s="42">
-        <v>0</v>
-      </c>
-      <c r="P8" s="42">
-        <f>SUM(Q8:S8)</f>
-        <v>10</v>
-      </c>
-      <c r="Q8" s="42">
-        <v>0</v>
-      </c>
-      <c r="R8" s="42">
-        <f>D19</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="42">
-        <f>H19</f>
-        <v>10</v>
-      </c>
-      <c r="T8" s="42">
-        <f>SUM(U8:W8)</f>
-        <v>0</v>
-      </c>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42">
-        <f>SUM(Y8:AA8)</f>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="43"/>
-    </row>
-    <row r="9" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="10" cm="1">
-        <f t="array" ref="B9">SUM(SUMIFS(B3:B7,A3:A7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>957922</v>
-      </c>
-      <c r="C9" s="10" cm="1">
-        <f t="array" ref="C9">SUM(SUMIFS(C3:C7,A3:A7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>3258799.95</v>
-      </c>
-      <c r="D9" s="10" cm="1">
-        <f t="array" ref="D9">SUM(SUMIFS(D3:D7,A3:A7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="10" cm="1">
-        <f t="array" ref="F9">SUM(SUMIFS(F3:F7,E3:E7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>286039</v>
-      </c>
-      <c r="G9" s="10" cm="1">
-        <f t="array" ref="G9">SUM(SUMIFS(G3:G7,E3:E7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>3544838.95</v>
-      </c>
-      <c r="H9" s="10" cm="1">
-        <f t="array" ref="H9">SUM(SUMIFS(H3:H7,E3:E7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>109387</v>
-      </c>
-      <c r="I9" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="K9" s="39">
-        <v>150</v>
-      </c>
-      <c r="L9" s="39">
-        <f>150*L3</f>
-        <v>19.110000000000003</v>
-      </c>
-      <c r="M9" s="39">
-        <f t="shared" ref="M9:AA9" si="3">150*M3</f>
-        <v>1.0650000000000002</v>
-      </c>
-      <c r="N9" s="39">
-        <f t="shared" si="3"/>
-        <v>5.79</v>
-      </c>
-      <c r="O9" s="39">
-        <f t="shared" si="3"/>
-        <v>12.254999999999999</v>
-      </c>
-      <c r="P9" s="39">
-        <f t="shared" si="3"/>
-        <v>37.214999999999996</v>
-      </c>
-      <c r="Q9" s="39">
-        <f t="shared" si="3"/>
-        <v>10.725</v>
-      </c>
-      <c r="R9" s="39">
-        <f>150*R3</f>
-        <v>12.36</v>
-      </c>
-      <c r="S9" s="39">
-        <f t="shared" si="3"/>
-        <v>14.13</v>
-      </c>
-      <c r="T9" s="39">
-        <f t="shared" si="3"/>
-        <v>43.034999999999997</v>
-      </c>
-      <c r="U9" s="39">
-        <f t="shared" si="3"/>
-        <v>12.600000000000001</v>
-      </c>
-      <c r="V9" s="39">
-        <f t="shared" si="3"/>
-        <v>12.855</v>
-      </c>
-      <c r="W9" s="39">
-        <f t="shared" si="3"/>
-        <v>17.579999999999998</v>
-      </c>
-      <c r="X9" s="39">
-        <f t="shared" si="3"/>
-        <v>50.64</v>
-      </c>
-      <c r="Y9" s="39">
-        <f t="shared" si="3"/>
-        <v>13.095000000000001</v>
-      </c>
-      <c r="Z9" s="39">
-        <f t="shared" si="3"/>
-        <v>15.315</v>
-      </c>
-      <c r="AA9" s="40">
-        <f t="shared" si="3"/>
-        <v>22.23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I10" s="65"/>
-      <c r="J10" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="K10" s="16">
-        <f>L10+P10+T10+X10</f>
-        <v>14.508979999999999</v>
-      </c>
-      <c r="L10" s="16">
-        <f>SUM(M10:O10)</f>
-        <v>13.30898</v>
-      </c>
-      <c r="M10" s="16">
-        <v>0.4335</v>
-      </c>
-      <c r="N10" s="16">
-        <v>2.0263800000000001</v>
-      </c>
-      <c r="O10" s="16">
-        <v>10.8491</v>
-      </c>
-      <c r="P10" s="16">
-        <f>SUM(Q10:S10)</f>
-        <v>1.2</v>
-      </c>
-      <c r="Q10" s="16">
-        <v>1.2</v>
-      </c>
-      <c r="R10" s="16">
-        <f>B14</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="16">
-        <f>F14</f>
-        <v>0</v>
-      </c>
-      <c r="T10" s="16">
-        <f>SUM(U10:W10)</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16">
-        <f>SUM(Y10:AA10)</f>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="17"/>
-    </row>
-    <row r="11" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="K11" s="47">
-        <f>K10/K9</f>
-        <v>9.6726533333333323E-2</v>
-      </c>
-      <c r="L11" s="47">
-        <f t="shared" ref="L11:AA11" si="4">L10/L9</f>
-        <v>0.69644060701203547</v>
-      </c>
-      <c r="M11" s="47">
-        <f t="shared" si="4"/>
-        <v>0.40704225352112672</v>
-      </c>
-      <c r="N11" s="47">
-        <f t="shared" si="4"/>
-        <v>0.34997927461139899</v>
-      </c>
-      <c r="O11" s="47">
-        <f t="shared" si="4"/>
-        <v>0.88527947776417792</v>
-      </c>
-      <c r="P11" s="47">
-        <f t="shared" si="4"/>
-        <v>3.2245062474808545E-2</v>
-      </c>
-      <c r="Q11" s="47">
-        <f t="shared" si="4"/>
-        <v>0.11188811188811189</v>
-      </c>
-      <c r="R11" s="47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U11" s="47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X11" s="47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I12" s="65"/>
-      <c r="J12" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="K12" s="16">
-        <f>ROUNDUP(K9-K10,0)</f>
-        <v>136</v>
-      </c>
-      <c r="L12" s="16">
-        <f t="shared" ref="L12:AA12" si="5">ROUNDUP(L9-L10,0)</f>
-        <v>6</v>
-      </c>
-      <c r="M12" s="16">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N12" s="16">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="O12" s="16">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="P12" s="16">
-        <f t="shared" si="5"/>
-        <v>37</v>
-      </c>
-      <c r="Q12" s="16">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="R12" s="16">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="S12" s="16">
-        <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="T12" s="16">
-        <f t="shared" si="5"/>
-        <v>44</v>
-      </c>
-      <c r="U12" s="16">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="V12" s="16">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="W12" s="16">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="X12" s="16">
-        <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-      <c r="Y12" s="16">
-        <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="Z12" s="16">
-        <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="AA12" s="16">
-        <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="9">
-        <f>ROUNDDOWN(B3/10000,0)</f>
-        <v>55</v>
-      </c>
-      <c r="C13" s="9">
-        <f t="shared" ref="C13:D13" si="6">ROUNDDOWN(C3/10000,0)</f>
-        <v>236</v>
-      </c>
-      <c r="D13" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" s="9">
-        <f>ROUNDDOWN(F3/10000,0)</f>
-        <v>13</v>
-      </c>
-      <c r="G13" s="9">
-        <f t="shared" ref="G13:H13" si="7">ROUNDDOWN(G3/10000,0)</f>
-        <v>249</v>
-      </c>
-      <c r="H13" s="9">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="I13" s="66"/>
-      <c r="J13" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="K13" s="42">
-        <f>L13+P13+T13+X13</f>
-        <v>43</v>
-      </c>
-      <c r="L13" s="42">
-        <f>SUM(M13:O13)</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="42">
-        <v>0</v>
-      </c>
-      <c r="N13" s="42">
-        <v>0</v>
-      </c>
-      <c r="O13" s="42">
-        <v>0</v>
-      </c>
-      <c r="P13" s="42">
-        <f>SUM(Q13:S13)</f>
-        <v>43</v>
-      </c>
-      <c r="Q13" s="42">
-        <v>0</v>
-      </c>
-      <c r="R13" s="42">
-        <f>D14</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="42">
-        <f>H14</f>
-        <v>43</v>
-      </c>
-      <c r="T13" s="42">
-        <f>SUM(U13:W13)</f>
-        <v>0</v>
-      </c>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42">
-        <f>SUM(Y13:AA13)</f>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="43"/>
-    </row>
-    <row r="14" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="10">
-        <f t="shared" ref="B14:D14" si="8">ROUNDDOWN(B4/10000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="10">
-        <f t="shared" si="8"/>
-        <v>15</v>
-      </c>
-      <c r="D14" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="10">
-        <f t="shared" ref="F14:H14" si="9">ROUNDDOWN(F4/10000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="10">
-        <f t="shared" si="9"/>
-        <v>15</v>
-      </c>
-      <c r="H14" s="10">
-        <f t="shared" si="9"/>
-        <v>43</v>
-      </c>
-      <c r="I14" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="K14" s="39">
-        <v>176</v>
-      </c>
-      <c r="L14" s="39">
-        <f>176*L3</f>
-        <v>22.422400000000003</v>
-      </c>
-      <c r="M14" s="39">
-        <f t="shared" ref="M14:AA14" si="10">176*M3</f>
-        <v>1.2496</v>
-      </c>
-      <c r="N14" s="39">
-        <f t="shared" si="10"/>
-        <v>6.7936000000000005</v>
-      </c>
-      <c r="O14" s="39">
-        <f t="shared" si="10"/>
-        <v>14.379199999999999</v>
-      </c>
-      <c r="P14" s="39">
-        <f t="shared" si="10"/>
-        <v>43.665599999999998</v>
-      </c>
-      <c r="Q14" s="39">
-        <f t="shared" si="10"/>
-        <v>12.584</v>
-      </c>
-      <c r="R14" s="39">
-        <f t="shared" si="10"/>
-        <v>14.5024</v>
-      </c>
-      <c r="S14" s="39">
-        <f>176*S3</f>
-        <v>16.5792</v>
-      </c>
-      <c r="T14" s="39">
-        <f t="shared" si="10"/>
-        <v>50.494399999999999</v>
-      </c>
-      <c r="U14" s="39">
-        <f t="shared" si="10"/>
-        <v>14.784000000000001</v>
-      </c>
-      <c r="V14" s="39">
-        <f t="shared" si="10"/>
-        <v>15.0832</v>
-      </c>
-      <c r="W14" s="39">
-        <f t="shared" si="10"/>
-        <v>20.627199999999998</v>
-      </c>
-      <c r="X14" s="39">
-        <f t="shared" si="10"/>
-        <v>59.4176</v>
-      </c>
-      <c r="Y14" s="39">
-        <f t="shared" si="10"/>
-        <v>15.364800000000001</v>
-      </c>
-      <c r="Z14" s="39">
-        <f t="shared" si="10"/>
-        <v>17.9696</v>
-      </c>
-      <c r="AA14" s="40">
-        <f t="shared" si="10"/>
-        <v>26.083199999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="9">
-        <f t="shared" ref="B15:D15" si="11">ROUNDDOWN(B5/10000,0)</f>
-        <v>9</v>
-      </c>
-      <c r="C15" s="9">
-        <f t="shared" si="11"/>
-        <v>27</v>
-      </c>
-      <c r="D15" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="9">
-        <f t="shared" ref="F15:H15" si="12">ROUNDDOWN(F5/10000,0)</f>
-        <v>3</v>
-      </c>
-      <c r="G15" s="9">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="H15" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="65"/>
-      <c r="J15" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="K15" s="16">
-        <f>L15+P15+T15+X15</f>
-        <v>31.546700000000001</v>
-      </c>
-      <c r="L15" s="16">
-        <f>SUM(M15:O15)</f>
-        <v>21.202400000000001</v>
-      </c>
-      <c r="M15" s="16">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="N15" s="16">
-        <v>1.9610000000000001</v>
-      </c>
-      <c r="O15" s="16">
-        <v>18.304400000000001</v>
-      </c>
-      <c r="P15" s="16">
-        <f>SUM(Q15:S15)</f>
-        <v>10.3443</v>
-      </c>
-      <c r="Q15" s="16">
-        <v>4.3442999999999996</v>
-      </c>
-      <c r="R15" s="16">
-        <f>B16</f>
-        <v>6</v>
-      </c>
-      <c r="S15" s="16">
-        <f>F16</f>
-        <v>0</v>
-      </c>
-      <c r="T15" s="16">
-        <f>SUM(U15:W15)</f>
-        <v>0</v>
-      </c>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16">
-        <f>SUM(Y15:AA15)</f>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="17"/>
-    </row>
-    <row r="16" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="10">
-        <f t="shared" ref="B16:D16" si="13">ROUNDDOWN(B6/10000,0)</f>
-        <v>6</v>
-      </c>
-      <c r="C16" s="10">
-        <f t="shared" si="13"/>
-        <v>32</v>
-      </c>
-      <c r="D16" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="10">
-        <f t="shared" ref="F16:H16" si="14">ROUNDDOWN(F6/10000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="10">
-        <f t="shared" si="14"/>
-        <v>32</v>
-      </c>
-      <c r="H16" s="10">
-        <f t="shared" si="14"/>
-        <v>16</v>
-      </c>
-      <c r="I16" s="65"/>
-      <c r="J16" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="K16" s="47">
-        <f>K15/K14</f>
-        <v>0.17924261363636365</v>
-      </c>
-      <c r="L16" s="47">
-        <f t="shared" ref="L16:AA16" si="15">L15/L14</f>
-        <v>0.94559012416155264</v>
-      </c>
-      <c r="M16" s="47">
-        <f t="shared" si="15"/>
-        <v>0.74983994878361082</v>
-      </c>
-      <c r="N16" s="47">
-        <f t="shared" si="15"/>
-        <v>0.28865402731983042</v>
-      </c>
-      <c r="O16" s="47">
-        <f t="shared" si="15"/>
-        <v>1.2729776343607435</v>
-      </c>
-      <c r="P16" s="47">
-        <f t="shared" si="15"/>
-        <v>0.23689815323733102</v>
-      </c>
-      <c r="Q16" s="47">
-        <f t="shared" si="15"/>
-        <v>0.34522409408773042</v>
-      </c>
-      <c r="R16" s="47">
-        <f t="shared" si="15"/>
-        <v>0.41372462488967343</v>
-      </c>
-      <c r="S16" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U16" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V16" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X16" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="48">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="9">
-        <f t="shared" ref="B17:D17" si="16">ROUNDDOWN(B7/10000,0)</f>
-        <v>30</v>
-      </c>
-      <c r="C17" s="9">
-        <f t="shared" si="16"/>
-        <v>62</v>
-      </c>
-      <c r="D17" s="9">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="9">
-        <f t="shared" ref="F17:H17" si="17">ROUNDDOWN(F7/10000,0)</f>
-        <v>11</v>
-      </c>
-      <c r="G17" s="9">
-        <f t="shared" si="17"/>
-        <v>73</v>
-      </c>
-      <c r="H17" s="9">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="I17" s="65"/>
-      <c r="J17" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="K17" s="16">
-        <f>ROUNDUP(K14-K15,0)</f>
-        <v>145</v>
-      </c>
-      <c r="L17" s="16">
-        <f t="shared" ref="L17:AA17" si="18">ROUNDUP(L14-L15,0)</f>
-        <v>2</v>
-      </c>
-      <c r="M17" s="16">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="N17" s="16">
-        <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="O17" s="16">
-        <f t="shared" si="18"/>
-        <v>-4</v>
-      </c>
-      <c r="P17" s="16">
-        <f t="shared" si="18"/>
-        <v>34</v>
-      </c>
-      <c r="Q17" s="16">
-        <f t="shared" si="18"/>
-        <v>9</v>
-      </c>
-      <c r="R17" s="16">
-        <f t="shared" si="18"/>
-        <v>9</v>
-      </c>
-      <c r="S17" s="16">
-        <f t="shared" si="18"/>
-        <v>17</v>
-      </c>
-      <c r="T17" s="16">
-        <f t="shared" si="18"/>
-        <v>51</v>
-      </c>
-      <c r="U17" s="16">
-        <f t="shared" si="18"/>
-        <v>15</v>
-      </c>
-      <c r="V17" s="16">
-        <f t="shared" si="18"/>
-        <v>16</v>
-      </c>
-      <c r="W17" s="16">
-        <f t="shared" si="18"/>
-        <v>21</v>
-      </c>
-      <c r="X17" s="16">
-        <f t="shared" si="18"/>
-        <v>60</v>
-      </c>
-      <c r="Y17" s="16">
-        <f t="shared" si="18"/>
-        <v>16</v>
-      </c>
-      <c r="Z17" s="16">
-        <f t="shared" si="18"/>
-        <v>18</v>
-      </c>
-      <c r="AA17" s="16">
-        <f t="shared" si="18"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="13">
-        <f>SUM(B13:B17)</f>
-        <v>100</v>
-      </c>
-      <c r="C18" s="13">
-        <f>SUM(C13:C17)</f>
-        <v>372</v>
-      </c>
-      <c r="D18" s="13">
-        <f>SUM(D13:D17)</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="13">
-        <f>ROUNDDOWN(F8/10000,0)</f>
-        <v>28</v>
-      </c>
-      <c r="G18" s="13">
-        <f t="shared" ref="G18:H18" si="19">ROUNDDOWN(G8/10000,0)</f>
-        <v>401</v>
-      </c>
-      <c r="H18" s="13">
-        <f t="shared" si="19"/>
-        <v>71</v>
-      </c>
-      <c r="I18" s="66"/>
-      <c r="J18" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="K18" s="42">
-        <f>L18+P18+T18+X18</f>
-        <v>16</v>
-      </c>
-      <c r="L18" s="42">
-        <f>SUM(M18:O18)</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="42">
-        <v>0</v>
-      </c>
-      <c r="N18" s="42">
-        <v>0</v>
-      </c>
-      <c r="O18" s="42">
-        <v>0</v>
-      </c>
-      <c r="P18" s="42">
-        <f>SUM(Q18:S18)</f>
-        <v>16</v>
-      </c>
-      <c r="Q18" s="42">
-        <v>0</v>
-      </c>
-      <c r="R18" s="42">
-        <f>D16</f>
-        <v>0</v>
-      </c>
-      <c r="S18" s="42">
-        <f>H16</f>
-        <v>16</v>
-      </c>
-      <c r="T18" s="42">
-        <f>SUM(U18:W18)</f>
-        <v>0</v>
-      </c>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42">
-        <f>SUM(Y18:AA18)</f>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="43"/>
-    </row>
-    <row r="19" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="10" cm="1">
-        <f t="array" ref="B19">SUM(SUMIFS(B13:B17,A13:A17,{"嘉兴","海宁","桐乡"}))</f>
-        <v>94</v>
-      </c>
-      <c r="C19" s="10" cm="1">
-        <f t="array" ref="C19">SUM(SUMIFS(C13:C17,A13:A17,{"嘉兴","海宁","桐乡"}))</f>
-        <v>325</v>
-      </c>
-      <c r="D19" s="10" cm="1">
-        <f t="array" ref="D19">SUM(SUMIFS(D13:D17,A13:A17,{"嘉兴","海宁","桐乡"}))</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="10">
-        <f>ROUNDDOWN(F9/10000,0)</f>
-        <v>28</v>
-      </c>
-      <c r="G19" s="10">
-        <f t="shared" ref="G19:H19" si="20">ROUNDDOWN(G9/10000,0)</f>
-        <v>354</v>
-      </c>
-      <c r="H19" s="10">
-        <f t="shared" si="20"/>
-        <v>10</v>
-      </c>
-      <c r="I19" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="J19" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="K19" s="39">
-        <f>K14+K9+K4</f>
-        <v>1200</v>
-      </c>
-      <c r="L19" s="39">
-        <f t="shared" ref="L19:AA20" si="21">L14+L9+L4</f>
-        <v>152.88000000000002</v>
-      </c>
-      <c r="M19" s="39">
-        <f t="shared" si="21"/>
-        <v>8.52</v>
-      </c>
-      <c r="N19" s="39">
-        <f t="shared" si="21"/>
-        <v>46.320000000000007</v>
-      </c>
-      <c r="O19" s="39">
-        <f t="shared" si="21"/>
-        <v>98.039999999999992</v>
-      </c>
-      <c r="P19" s="39">
-        <f t="shared" si="21"/>
-        <v>297.71999999999997</v>
-      </c>
-      <c r="Q19" s="39">
-        <f t="shared" si="21"/>
-        <v>85.799999999999983</v>
-      </c>
-      <c r="R19" s="39">
-        <f t="shared" si="21"/>
-        <v>98.88</v>
-      </c>
-      <c r="S19" s="39">
-        <f t="shared" si="21"/>
-        <v>113.04000000000002</v>
-      </c>
-      <c r="T19" s="39">
-        <f t="shared" si="21"/>
-        <v>344.28</v>
-      </c>
-      <c r="U19" s="39">
-        <f t="shared" si="21"/>
-        <v>100.80000000000001</v>
-      </c>
-      <c r="V19" s="39">
-        <f t="shared" si="21"/>
-        <v>102.84</v>
-      </c>
-      <c r="W19" s="39">
-        <f t="shared" si="21"/>
-        <v>140.63999999999999</v>
-      </c>
-      <c r="X19" s="39">
-        <f t="shared" si="21"/>
-        <v>405.12</v>
-      </c>
-      <c r="Y19" s="39">
-        <f t="shared" si="21"/>
-        <v>104.76</v>
-      </c>
-      <c r="Z19" s="39">
-        <f t="shared" si="21"/>
-        <v>122.52</v>
-      </c>
-      <c r="AA19" s="40">
-        <f t="shared" si="21"/>
-        <v>177.84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I20" s="65"/>
-      <c r="J20" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="K20" s="16">
-        <f>K15+K10+K5</f>
-        <v>398.13477499999999</v>
-      </c>
-      <c r="L20" s="16">
-        <f t="shared" si="21"/>
-        <v>217.14047500000001</v>
-      </c>
-      <c r="M20" s="16">
-        <f t="shared" si="21"/>
-        <v>6.3552999999999997</v>
-      </c>
-      <c r="N20" s="16">
-        <f t="shared" si="21"/>
-        <v>45.856675000000003</v>
-      </c>
-      <c r="O20" s="16">
-        <f t="shared" si="21"/>
-        <v>164.92850000000001</v>
-      </c>
-      <c r="P20" s="16">
-        <f t="shared" si="21"/>
-        <v>180.99429999999998</v>
-      </c>
-      <c r="Q20" s="16">
-        <f t="shared" si="21"/>
-        <v>52.994300000000003</v>
-      </c>
-      <c r="R20" s="16">
-        <f t="shared" si="21"/>
-        <v>100</v>
-      </c>
-      <c r="S20" s="16">
-        <f t="shared" si="21"/>
-        <v>28</v>
-      </c>
-      <c r="T20" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="U20" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="W20" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="X20" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="17">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="65"/>
-      <c r="J21" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="K21" s="47">
-        <f>K20/K19</f>
-        <v>0.33177897916666665</v>
-      </c>
-      <c r="L21" s="47">
-        <f t="shared" ref="L21:AA21" si="22">L20/L19</f>
-        <v>1.4203327773417058</v>
-      </c>
-      <c r="M21" s="47">
-        <f t="shared" si="22"/>
-        <v>0.74592723004694839</v>
-      </c>
-      <c r="N21" s="47">
-        <f t="shared" si="22"/>
-        <v>0.98999730138169251</v>
-      </c>
-      <c r="O21" s="47">
-        <f t="shared" si="22"/>
-        <v>1.6822572419420647</v>
-      </c>
-      <c r="P21" s="47">
-        <f t="shared" si="22"/>
-        <v>0.607934636571275</v>
-      </c>
-      <c r="Q21" s="47">
-        <f t="shared" si="22"/>
-        <v>0.61764918414918435</v>
-      </c>
-      <c r="R21" s="47">
-        <f t="shared" si="22"/>
-        <v>1.0113268608414241</v>
-      </c>
-      <c r="S21" s="47">
-        <f t="shared" si="22"/>
-        <v>0.2476999292285916</v>
-      </c>
-      <c r="T21" s="47">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="U21" s="47">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V21" s="47">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="W21" s="47">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="X21" s="47">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="47">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="47">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I22" s="65"/>
-      <c r="J22" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="K22" s="16">
-        <f>ROUNDUP(K19-K20,0)</f>
-        <v>802</v>
-      </c>
-      <c r="L22" s="16">
-        <f t="shared" ref="L22:AA22" si="23">ROUNDUP(L19-L20,0)</f>
-        <v>-65</v>
-      </c>
-      <c r="M22" s="16">
-        <f t="shared" si="23"/>
-        <v>3</v>
-      </c>
-      <c r="N22" s="16">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="O22" s="16">
-        <f t="shared" si="23"/>
-        <v>-67</v>
-      </c>
-      <c r="P22" s="16">
-        <f t="shared" si="23"/>
-        <v>117</v>
-      </c>
-      <c r="Q22" s="16">
-        <f t="shared" si="23"/>
-        <v>33</v>
-      </c>
-      <c r="R22" s="16">
-        <f t="shared" si="23"/>
-        <v>-2</v>
-      </c>
-      <c r="S22" s="16">
-        <f t="shared" si="23"/>
-        <v>86</v>
-      </c>
-      <c r="T22" s="16">
-        <f t="shared" si="23"/>
-        <v>345</v>
-      </c>
-      <c r="U22" s="16">
-        <f t="shared" si="23"/>
-        <v>101</v>
-      </c>
-      <c r="V22" s="16">
-        <f t="shared" si="23"/>
-        <v>103</v>
-      </c>
-      <c r="W22" s="16">
-        <f t="shared" si="23"/>
-        <v>141</v>
-      </c>
-      <c r="X22" s="16">
-        <f t="shared" si="23"/>
-        <v>406</v>
-      </c>
-      <c r="Y22" s="16">
-        <f t="shared" si="23"/>
-        <v>105</v>
-      </c>
-      <c r="Z22" s="16">
-        <f t="shared" si="23"/>
-        <v>123</v>
-      </c>
-      <c r="AA22" s="16">
-        <f t="shared" si="23"/>
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="I23" s="66"/>
-      <c r="J23" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="K23" s="42">
-        <f>K8+K13+K18</f>
-        <v>69</v>
-      </c>
-      <c r="L23" s="42">
-        <f>SUM(M23:O23)</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="42">
-        <f>M8+M13+M18</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="42">
-        <f t="shared" ref="N23:O23" si="24">N8+N13+N18</f>
-        <v>0</v>
-      </c>
-      <c r="O23" s="42">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="42">
-        <f>SUM(Q23:S23)</f>
-        <v>69</v>
-      </c>
-      <c r="Q23" s="42">
-        <f>Q8+Q13+Q18</f>
-        <v>0</v>
-      </c>
-      <c r="R23" s="42">
-        <f t="shared" ref="R23:S23" si="25">R8+R13+R18</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="42">
-        <f t="shared" si="25"/>
-        <v>69</v>
-      </c>
-      <c r="T23" s="42">
-        <f>SUM(U23:W23)</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="42">
-        <f>SUM(Y23:AA23)</f>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="42"/>
-      <c r="AA23" s="43"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="49"/>
-      <c r="W24" s="49"/>
-      <c r="X24" s="49"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="49"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="I1:AA1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J4:AA23">
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B3AD32-B690-4526-AF2B-18B5F85DF99E}">
   <dimension ref="A1:AG48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K6" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:AG28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6451,53 +4397,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="67" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="67" t="s">
+      <c r="D1" s="67"/>
+      <c r="E1" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="67" t="s">
+      <c r="F1" s="67"/>
+      <c r="G1" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="H1" s="68"/>
-      <c r="I1" s="67" t="s">
+      <c r="H1" s="67"/>
+      <c r="I1" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="68"/>
-      <c r="K1" s="67" t="s">
+      <c r="J1" s="67"/>
+      <c r="K1" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="69" t="s">
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="71"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="70"/>
     </row>
     <row r="2" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -6542,13 +4488,13 @@
       <c r="N2" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="O2" s="72" t="s">
+      <c r="O2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="74" t="s">
+      <c r="P2" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="76" t="s">
+      <c r="Q2" s="75" t="s">
         <v>59</v>
       </c>
       <c r="R2" s="44" t="s">
@@ -6635,17 +4581,17 @@
         <v>115</v>
       </c>
       <c r="L3" s="9">
-        <v>135969</v>
+        <v>154610</v>
       </c>
       <c r="M3" s="9">
-        <v>2497775.9500000002</v>
+        <v>2516416.9500000002</v>
       </c>
       <c r="N3" s="9">
-        <v>68417</v>
-      </c>
-      <c r="O3" s="73"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="77"/>
+        <v>53803</v>
+      </c>
+      <c r="O3" s="72"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="76"/>
       <c r="R3" s="45">
         <v>0.12740000000000001</v>
       </c>
@@ -6730,15 +4676,15 @@
         <v>5</v>
       </c>
       <c r="L4" s="9">
-        <v>0</v>
+        <v>11172</v>
       </c>
       <c r="M4" s="9">
-        <v>150524.6</v>
+        <v>161696.6</v>
       </c>
       <c r="N4" s="9">
-        <v>438061.15</v>
-      </c>
-      <c r="O4" s="64" t="s">
+        <v>435288.1</v>
+      </c>
+      <c r="O4" s="63" t="s">
         <v>84</v>
       </c>
       <c r="P4" s="38" t="s">
@@ -6855,13 +4801,13 @@
       <c r="N5" s="9">
         <v>0</v>
       </c>
-      <c r="O5" s="65"/>
+      <c r="O5" s="64"/>
       <c r="P5" s="14" t="s">
         <v>86</v>
       </c>
       <c r="Q5" s="16">
         <f>R5+V5+Z5+AD5</f>
-        <v>353.079095</v>
+        <v>355.079095</v>
       </c>
       <c r="R5" s="16">
         <f>SUM(S5:U5)</f>
@@ -6878,7 +4824,7 @@
       </c>
       <c r="V5" s="16">
         <f>SUM(W5:Y5)</f>
-        <v>170.45</v>
+        <v>172.45</v>
       </c>
       <c r="W5" s="16">
         <f>28.21+10.94+8.3</f>
@@ -6890,7 +4836,7 @@
       </c>
       <c r="Y5" s="16">
         <f>L18</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z5" s="16">
         <f>SUM(AA5:AC5)</f>
@@ -6942,21 +4888,21 @@
         <v>7</v>
       </c>
       <c r="L6" s="9">
-        <v>0</v>
+        <v>138943</v>
       </c>
       <c r="M6" s="9">
-        <v>324495</v>
+        <v>463438</v>
       </c>
       <c r="N6" s="9">
-        <v>163445</v>
-      </c>
-      <c r="O6" s="65"/>
+        <v>33785</v>
+      </c>
+      <c r="O6" s="64"/>
       <c r="P6" s="46" t="s">
         <v>19</v>
       </c>
       <c r="Q6" s="47">
         <f>Q5/Q4</f>
-        <v>0.40398065789473686</v>
+        <v>0.40626898741418765</v>
       </c>
       <c r="R6" s="47">
         <f t="shared" ref="R6:AG6" si="1">R5/R4</f>
@@ -6976,7 +4922,7 @@
       </c>
       <c r="V6" s="47">
         <f t="shared" si="1"/>
-        <v>0.78606563198385537</v>
+        <v>0.79528904802356026</v>
       </c>
       <c r="W6" s="47">
         <f t="shared" si="1"/>
@@ -6988,7 +4934,7 @@
       </c>
       <c r="Y6" s="47">
         <f t="shared" si="1"/>
-        <v>0.34009143601179626</v>
+        <v>0.36438368144121031</v>
       </c>
       <c r="Z6" s="47">
         <f t="shared" si="1"/>
@@ -7064,15 +5010,15 @@
         <v>739159</v>
       </c>
       <c r="N7" s="9">
-        <v>40970</v>
-      </c>
-      <c r="O7" s="65"/>
+        <v>65970</v>
+      </c>
+      <c r="O7" s="64"/>
       <c r="P7" s="15" t="s">
         <v>87</v>
       </c>
       <c r="Q7" s="16">
         <f>ROUNDUP(Q4-Q5,0)</f>
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="R7" s="16">
         <f t="shared" ref="R7:AG7" si="2">ROUNDUP(R4-R5,0)</f>
@@ -7092,7 +5038,7 @@
       </c>
       <c r="V7" s="16">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W7" s="16">
         <f t="shared" si="2"/>
@@ -7104,7 +5050,7 @@
       </c>
       <c r="Y7" s="16">
         <f t="shared" si="2"/>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Z7" s="16">
         <f t="shared" si="2"/>
@@ -7180,23 +5126,23 @@
       </c>
       <c r="L8" s="10">
         <f>SUM(L3:L7)</f>
-        <v>286039</v>
+        <v>454795</v>
       </c>
       <c r="M8" s="10">
         <f>SUM(M3:M7)</f>
-        <v>4019858.5500000003</v>
+        <v>4188614.5500000003</v>
       </c>
       <c r="N8" s="10">
         <f>SUM(N3:N7)</f>
-        <v>710893.15</v>
-      </c>
-      <c r="O8" s="66"/>
+        <v>588846.1</v>
+      </c>
+      <c r="O8" s="65"/>
       <c r="P8" s="41" t="s">
         <v>117</v>
       </c>
       <c r="Q8" s="42">
         <f>R8+V8+Z8+AD8</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R8" s="42">
         <f>SUM(S8:U8)</f>
@@ -7213,7 +5159,7 @@
       </c>
       <c r="V8" s="42">
         <f>SUM(W8:Y8)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W8" s="42">
         <v>0</v>
@@ -7223,7 +5169,7 @@
       </c>
       <c r="Y8" s="42">
         <f>N18</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z8" s="42">
         <f>SUM(AA8:AC8)</f>
@@ -7281,17 +5227,17 @@
       </c>
       <c r="L9" s="10" cm="1">
         <f t="array" ref="L9">SUM(SUMIFS(L3:L7,K3:K7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>286039</v>
+        <v>304680</v>
       </c>
       <c r="M9" s="10" cm="1">
         <f t="array" ref="M9">SUM(SUMIFS(M3:M7,K3:K7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>3544838.95</v>
+        <v>3563479.95</v>
       </c>
       <c r="N9" s="10" cm="1">
         <f t="array" ref="N9">SUM(SUMIFS(N3:N7,K3:K7,{"嘉兴","海宁","桐乡"}))</f>
-        <v>109387</v>
-      </c>
-      <c r="O9" s="64" t="s">
+        <v>119773</v>
+      </c>
+      <c r="O9" s="63" t="s">
         <v>5</v>
       </c>
       <c r="P9" s="38" t="s">
@@ -7366,39 +5312,39 @@
       </c>
     </row>
     <row r="10" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79" t="s">
+      <c r="B10" s="77"/>
+      <c r="C10" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79" t="s">
+      <c r="D10" s="77"/>
+      <c r="E10" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79" t="s">
+      <c r="F10" s="77"/>
+      <c r="G10" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79" t="s">
+      <c r="H10" s="77"/>
+      <c r="I10" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79" t="s">
+      <c r="J10" s="77"/>
+      <c r="K10" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="65"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="64"/>
       <c r="P10" s="14" t="s">
         <v>88</v>
       </c>
       <c r="Q10" s="16">
         <f>R10+V10+Z10+AD10</f>
-        <v>14.508979999999999</v>
+        <v>15.508980000000001</v>
       </c>
       <c r="R10" s="16">
         <f>SUM(S10:U10)</f>
@@ -7415,7 +5361,7 @@
       </c>
       <c r="V10" s="16">
         <f>SUM(W10:Y10)</f>
-        <v>1.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="W10" s="16">
         <v>1.2</v>
@@ -7426,7 +5372,7 @@
       </c>
       <c r="Y10" s="16">
         <f>L13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10" s="16">
         <f>SUM(AA10:AC10)</f>
@@ -7486,13 +5432,13 @@
       <c r="N11" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="O11" s="65"/>
+      <c r="O11" s="64"/>
       <c r="P11" s="35" t="s">
         <v>89</v>
       </c>
       <c r="Q11" s="47">
         <f>Q10/Q9</f>
-        <v>9.6726533333333323E-2</v>
+        <v>0.1033932</v>
       </c>
       <c r="R11" s="47">
         <f t="shared" ref="R11:AG11" si="4">R10/R9</f>
@@ -7512,7 +5458,7 @@
       </c>
       <c r="V11" s="47">
         <f t="shared" si="4"/>
-        <v>3.2245062474808545E-2</v>
+        <v>5.9115947870482341E-2</v>
       </c>
       <c r="W11" s="47">
         <f t="shared" si="4"/>
@@ -7524,7 +5470,7 @@
       </c>
       <c r="Y11" s="47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7.0771408351026188E-2</v>
       </c>
       <c r="Z11" s="47">
         <f t="shared" si="4"/>
@@ -7578,108 +5524,108 @@
         <v>115</v>
       </c>
       <c r="F12" s="9">
-        <f>ROUNDDOWN(F3/10000,0)</f>
+        <f t="shared" ref="F12:F18" si="5">ROUNDDOWN(F3/10000,0)</f>
         <v>109</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>115</v>
       </c>
       <c r="H12" s="9">
-        <f>ROUNDDOWN(H3/10000,0)</f>
+        <f t="shared" ref="H12:H18" si="6">ROUNDDOWN(H3/10000,0)</f>
         <v>28</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>115</v>
       </c>
       <c r="J12" s="9">
-        <f>ROUNDDOWN(J3/10000,0)</f>
+        <f t="shared" ref="J12:J18" si="7">ROUNDDOWN(J3/10000,0)</f>
         <v>55</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>115</v>
       </c>
       <c r="L12" s="9">
-        <f>ROUNDDOWN(L3/10000,0)</f>
-        <v>13</v>
+        <f t="shared" ref="L12:N18" si="8">ROUNDDOWN(L3/10000,0)</f>
+        <v>15</v>
       </c>
       <c r="M12" s="9">
-        <f>ROUNDDOWN(M3/10000,0)</f>
-        <v>249</v>
+        <f t="shared" si="8"/>
+        <v>251</v>
       </c>
       <c r="N12" s="9">
-        <f>ROUNDDOWN(N3/10000,0)</f>
-        <v>6</v>
-      </c>
-      <c r="O12" s="65"/>
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="O12" s="64"/>
       <c r="P12" s="14" t="s">
         <v>90</v>
       </c>
       <c r="Q12" s="16">
         <f>ROUNDUP(Q9-Q10,0)</f>
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R12" s="16">
-        <f t="shared" ref="R12:AG12" si="5">ROUNDUP(R9-R10,0)</f>
+        <f t="shared" ref="R12:AG12" si="9">ROUNDUP(R9-R10,0)</f>
         <v>6</v>
       </c>
       <c r="S12" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="T12" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="U12" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="V12" s="16">
-        <f t="shared" si="5"/>
-        <v>37</v>
+        <f t="shared" si="9"/>
+        <v>36</v>
       </c>
       <c r="W12" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="X12" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="Y12" s="16">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <f t="shared" si="9"/>
+        <v>14</v>
       </c>
       <c r="Z12" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="AA12" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="AB12" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="AC12" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="AD12" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
       <c r="AE12" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="AF12" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="AG12" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
     </row>
@@ -7688,53 +5634,53 @@
         <v>5</v>
       </c>
       <c r="B13" s="10">
-        <f t="shared" ref="B13" si="6">ROUNDDOWN(B4/10000,0)</f>
+        <f t="shared" ref="B13" si="10">ROUNDDOWN(B4/10000,0)</f>
         <v>0</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="10">
-        <f t="shared" ref="D13" si="7">ROUNDDOWN(D4/10000,0)</f>
+        <f t="shared" ref="D13" si="11">ROUNDDOWN(D4/10000,0)</f>
         <v>2</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F13" s="10">
-        <f>ROUNDDOWN(F4/10000,0)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="10">
-        <f>ROUNDDOWN(H4/10000,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>5</v>
       </c>
       <c r="J13" s="10">
-        <f>ROUNDDOWN(J4/10000,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>5</v>
       </c>
       <c r="L13" s="10">
-        <f>ROUNDDOWN(L4/10000,0)</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="M13" s="10">
-        <f>ROUNDDOWN(M4/10000,0)</f>
-        <v>15</v>
+        <f t="shared" si="8"/>
+        <v>16</v>
       </c>
       <c r="N13" s="10">
-        <f>ROUNDDOWN(N4/10000,0)</f>
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
-      <c r="O13" s="66"/>
+      <c r="O13" s="65"/>
       <c r="P13" s="41" t="s">
         <v>117</v>
       </c>
@@ -7789,53 +5735,53 @@
         <v>22</v>
       </c>
       <c r="B14" s="9">
-        <f t="shared" ref="B14" si="8">ROUNDDOWN(B5/10000,0)</f>
+        <f t="shared" ref="B14" si="12">ROUNDDOWN(B5/10000,0)</f>
         <v>0</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="9">
-        <f t="shared" ref="D14" si="9">ROUNDDOWN(D5/10000,0)</f>
+        <f t="shared" ref="D14" si="13">ROUNDDOWN(D5/10000,0)</f>
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="9">
-        <f>ROUNDDOWN(F5/10000,0)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H14" s="9">
-        <f>ROUNDDOWN(H5/10000,0)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="J14" s="9">
-        <f>ROUNDDOWN(J5/10000,0)</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="9">
-        <f>ROUNDDOWN(L5/10000,0)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="M14" s="9">
-        <f>ROUNDDOWN(M5/10000,0)</f>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="N14" s="9">
-        <f>ROUNDDOWN(N5/10000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="64" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="63" t="s">
         <v>7</v>
       </c>
       <c r="P14" s="38" t="s">
@@ -7849,27 +5795,27 @@
         <v>22.422400000000003</v>
       </c>
       <c r="S14" s="39">
-        <f t="shared" ref="S14:AG14" si="10">176*S3</f>
+        <f t="shared" ref="S14:AG14" si="14">176*S3</f>
         <v>1.2496</v>
       </c>
       <c r="T14" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.7936000000000005</v>
       </c>
       <c r="U14" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>14.379199999999999</v>
       </c>
       <c r="V14" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>43.665599999999998</v>
       </c>
       <c r="W14" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>12.584</v>
       </c>
       <c r="X14" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>14.5024</v>
       </c>
       <c r="Y14" s="39">
@@ -7877,35 +5823,35 @@
         <v>16.5792</v>
       </c>
       <c r="Z14" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>50.494399999999999</v>
       </c>
       <c r="AA14" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>14.784000000000001</v>
       </c>
       <c r="AB14" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15.0832</v>
       </c>
       <c r="AC14" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>20.627199999999998</v>
       </c>
       <c r="AD14" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>59.4176</v>
       </c>
       <c r="AE14" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15.364800000000001</v>
       </c>
       <c r="AF14" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>17.9696</v>
       </c>
       <c r="AG14" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>26.083199999999998</v>
       </c>
     </row>
@@ -7914,59 +5860,59 @@
         <v>7</v>
       </c>
       <c r="B15" s="10">
-        <f t="shared" ref="B15" si="11">ROUNDDOWN(B6/10000,0)</f>
+        <f t="shared" ref="B15" si="15">ROUNDDOWN(B6/10000,0)</f>
         <v>0</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="10">
-        <f t="shared" ref="D15" si="12">ROUNDDOWN(D6/10000,0)</f>
+        <f t="shared" ref="D15" si="16">ROUNDDOWN(D6/10000,0)</f>
         <v>1</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="10">
-        <f>ROUNDDOWN(F6/10000,0)</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="10">
-        <f>ROUNDDOWN(H6/10000,0)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>7</v>
       </c>
       <c r="J15" s="10">
-        <f>ROUNDDOWN(J6/10000,0)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>7</v>
       </c>
       <c r="L15" s="10">
-        <f>ROUNDDOWN(L6/10000,0)</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>13</v>
       </c>
       <c r="M15" s="10">
-        <f>ROUNDDOWN(M6/10000,0)</f>
-        <v>32</v>
+        <f t="shared" si="8"/>
+        <v>46</v>
       </c>
       <c r="N15" s="10">
-        <f>ROUNDDOWN(N6/10000,0)</f>
-        <v>16</v>
-      </c>
-      <c r="O15" s="65"/>
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="O15" s="64"/>
       <c r="P15" s="14" t="s">
         <v>88</v>
       </c>
       <c r="Q15" s="16">
         <f>R15+V15+Z15+AD15</f>
-        <v>31.546700000000001</v>
+        <v>44.546700000000001</v>
       </c>
       <c r="R15" s="16">
         <f>SUM(S15:U15)</f>
@@ -7983,7 +5929,7 @@
       </c>
       <c r="V15" s="16">
         <f>SUM(W15:Y15)</f>
-        <v>10.3443</v>
+        <v>23.3443</v>
       </c>
       <c r="W15" s="16">
         <v>4.3442999999999996</v>
@@ -7994,7 +5940,7 @@
       </c>
       <c r="Y15" s="16">
         <f>L15</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z15" s="16">
         <f>SUM(AA15:AC15)</f>
@@ -8016,122 +5962,122 @@
         <v>14</v>
       </c>
       <c r="B16" s="9">
-        <f t="shared" ref="B16" si="13">ROUNDDOWN(B7/10000,0)</f>
+        <f t="shared" ref="B16" si="17">ROUNDDOWN(B7/10000,0)</f>
         <v>0</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="9">
-        <f t="shared" ref="D16" si="14">ROUNDDOWN(D7/10000,0)</f>
+        <f t="shared" ref="D16" si="18">ROUNDDOWN(D7/10000,0)</f>
         <v>4</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="9">
-        <f>ROUNDDOWN(F7/10000,0)</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="9">
-        <f>ROUNDDOWN(H7/10000,0)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J16" s="9">
-        <f>ROUNDDOWN(J7/10000,0)</f>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="9">
-        <f>ROUNDDOWN(L7/10000,0)</f>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="M16" s="9">
-        <f>ROUNDDOWN(M7/10000,0)</f>
+        <f t="shared" si="8"/>
         <v>73</v>
       </c>
       <c r="N16" s="9">
-        <f>ROUNDDOWN(N7/10000,0)</f>
-        <v>4</v>
-      </c>
-      <c r="O16" s="65"/>
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="O16" s="64"/>
       <c r="P16" s="35" t="s">
         <v>89</v>
       </c>
       <c r="Q16" s="47">
         <f>Q15/Q14</f>
-        <v>0.17924261363636365</v>
+        <v>0.25310625000000003</v>
       </c>
       <c r="R16" s="47">
-        <f t="shared" ref="R16:AG16" si="15">R15/R14</f>
+        <f t="shared" ref="R16:AG16" si="19">R15/R14</f>
         <v>0.94559012416155264</v>
       </c>
       <c r="S16" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.74983994878361082</v>
       </c>
       <c r="T16" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.28865402731983042</v>
       </c>
       <c r="U16" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1.2729776343607435</v>
       </c>
       <c r="V16" s="47">
-        <f t="shared" si="15"/>
-        <v>0.23689815323733102</v>
+        <f t="shared" si="19"/>
+        <v>0.53461534938258037</v>
       </c>
       <c r="W16" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.34522409408773042</v>
       </c>
       <c r="X16" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.41372462488967343</v>
       </c>
       <c r="Y16" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>0.78411503570739238</v>
       </c>
       <c r="Z16" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AA16" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AB16" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AC16" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AD16" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AE16" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AF16" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AG16" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -8140,122 +6086,122 @@
         <v>92</v>
       </c>
       <c r="B17" s="9">
-        <f t="shared" ref="B17" si="16">ROUNDDOWN(B8/10000,0)</f>
+        <f t="shared" ref="B17" si="20">ROUNDDOWN(B8/10000,0)</f>
         <v>6</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>92</v>
       </c>
       <c r="D17" s="9">
-        <f t="shared" ref="D17" si="17">ROUNDDOWN(D8/10000,0)</f>
+        <f t="shared" ref="D17" si="21">ROUNDDOWN(D8/10000,0)</f>
         <v>45</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>92</v>
       </c>
       <c r="F17" s="9">
-        <f>ROUNDDOWN(F8/10000,0)</f>
+        <f t="shared" si="5"/>
         <v>164</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>92</v>
       </c>
       <c r="H17" s="9">
-        <f>ROUNDDOWN(H8/10000,0)</f>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>92</v>
       </c>
       <c r="J17" s="9">
-        <f>ROUNDDOWN(J8/10000,0)</f>
+        <f t="shared" si="7"/>
         <v>103</v>
       </c>
       <c r="K17" s="12" t="s">
         <v>92</v>
       </c>
       <c r="L17" s="13">
-        <f>ROUNDDOWN(L8/10000,0)</f>
-        <v>28</v>
+        <f t="shared" si="8"/>
+        <v>45</v>
       </c>
       <c r="M17" s="13">
-        <f>ROUNDDOWN(M8/10000,0)</f>
-        <v>401</v>
+        <f t="shared" si="8"/>
+        <v>418</v>
       </c>
       <c r="N17" s="13">
-        <f>ROUNDDOWN(N8/10000,0)</f>
-        <v>71</v>
-      </c>
-      <c r="O17" s="65"/>
+        <f t="shared" si="8"/>
+        <v>58</v>
+      </c>
+      <c r="O17" s="64"/>
       <c r="P17" s="14" t="s">
         <v>90</v>
       </c>
       <c r="Q17" s="16">
         <f>ROUNDUP(Q14-Q15,0)</f>
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="R17" s="16">
-        <f t="shared" ref="R17:AG17" si="18">ROUNDUP(R14-R15,0)</f>
+        <f t="shared" ref="R17:AG17" si="22">ROUNDUP(R14-R15,0)</f>
         <v>2</v>
       </c>
       <c r="S17" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="T17" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="U17" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-4</v>
       </c>
       <c r="V17" s="16">
-        <f t="shared" si="18"/>
-        <v>34</v>
+        <f t="shared" si="22"/>
+        <v>21</v>
       </c>
       <c r="W17" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="X17" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="Y17" s="16">
-        <f t="shared" si="18"/>
-        <v>17</v>
+        <f t="shared" si="22"/>
+        <v>4</v>
       </c>
       <c r="Z17" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>51</v>
       </c>
       <c r="AA17" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>15</v>
       </c>
       <c r="AB17" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
       <c r="AC17" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="AD17" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>60</v>
       </c>
       <c r="AE17" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
       <c r="AF17" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>18</v>
       </c>
       <c r="AG17" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>27</v>
       </c>
     </row>
@@ -8264,59 +6210,59 @@
         <v>91</v>
       </c>
       <c r="B18" s="10">
-        <f t="shared" ref="B18" si="19">ROUNDDOWN(B9/10000,0)</f>
+        <f t="shared" ref="B18" si="23">ROUNDDOWN(B9/10000,0)</f>
         <v>4</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>91</v>
       </c>
       <c r="D18" s="10">
-        <f t="shared" ref="D18" si="20">ROUNDDOWN(D9/10000,0)</f>
+        <f t="shared" ref="D18" si="24">ROUNDDOWN(D9/10000,0)</f>
         <v>41</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>91</v>
       </c>
       <c r="F18" s="10">
-        <f>ROUNDDOWN(F9/10000,0)</f>
+        <f t="shared" si="5"/>
         <v>135</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>91</v>
       </c>
       <c r="H18" s="10">
-        <f>ROUNDDOWN(H9/10000,0)</f>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>91</v>
       </c>
       <c r="J18" s="10">
-        <f>ROUNDDOWN(J9/10000,0)</f>
+        <f t="shared" si="7"/>
         <v>95</v>
       </c>
       <c r="K18" s="11" t="s">
         <v>91</v>
       </c>
       <c r="L18" s="10">
-        <f>ROUNDDOWN(L9/10000,0)</f>
-        <v>28</v>
+        <f t="shared" si="8"/>
+        <v>30</v>
       </c>
       <c r="M18" s="10">
-        <f>ROUNDDOWN(M9/10000,0)</f>
-        <v>354</v>
+        <f t="shared" si="8"/>
+        <v>356</v>
       </c>
       <c r="N18" s="10">
-        <f>ROUNDDOWN(N9/10000,0)</f>
-        <v>10</v>
-      </c>
-      <c r="O18" s="66"/>
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="O18" s="65"/>
       <c r="P18" s="41" t="s">
         <v>117</v>
       </c>
       <c r="Q18" s="42">
         <f>R18+V18+Z18+AD18</f>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="R18" s="42">
         <f>SUM(S18:U18)</f>
@@ -8333,7 +6279,7 @@
       </c>
       <c r="V18" s="42">
         <f>SUM(W18:Y18)</f>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="W18" s="42">
         <v>0</v>
@@ -8343,7 +6289,7 @@
       </c>
       <c r="Y18" s="42">
         <f>N15</f>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="Z18" s="42">
         <f>SUM(AA18:AC18)</f>
@@ -8381,13 +6327,13 @@
         <v>144</v>
       </c>
       <c r="J19" s="78"/>
-      <c r="K19" s="68" t="s">
+      <c r="K19" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="64" t="s">
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="63" t="s">
         <v>92</v>
       </c>
       <c r="P19" s="38" t="s">
@@ -8398,67 +6344,67 @@
         <v>1200</v>
       </c>
       <c r="R19" s="39">
-        <f t="shared" ref="R19:AG20" si="21">R14+R9+R4</f>
+        <f t="shared" ref="R19:AG20" si="25">R14+R9+R4</f>
         <v>152.88000000000002</v>
       </c>
       <c r="S19" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>8.52</v>
       </c>
       <c r="T19" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>46.320000000000007</v>
       </c>
       <c r="U19" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>98.039999999999992</v>
       </c>
       <c r="V19" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>297.71999999999997</v>
       </c>
       <c r="W19" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>85.799999999999983</v>
       </c>
       <c r="X19" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>98.88</v>
       </c>
       <c r="Y19" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>113.04000000000002</v>
       </c>
       <c r="Z19" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>344.28</v>
       </c>
       <c r="AA19" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>100.80000000000001</v>
       </c>
       <c r="AB19" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>102.84</v>
       </c>
       <c r="AC19" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>140.63999999999999</v>
       </c>
       <c r="AD19" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>405.12</v>
       </c>
       <c r="AE19" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>104.76</v>
       </c>
       <c r="AF19" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>122.52</v>
       </c>
       <c r="AG19" s="40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>177.84</v>
       </c>
     </row>
@@ -8505,76 +6451,76 @@
       <c r="N20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="O20" s="65"/>
+      <c r="O20" s="64"/>
       <c r="P20" s="14" t="s">
         <v>88</v>
       </c>
       <c r="Q20" s="16">
         <f>Q15+Q10+Q5</f>
-        <v>399.13477499999999</v>
+        <v>415.13477499999999</v>
       </c>
       <c r="R20" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>217.14047500000001</v>
       </c>
       <c r="S20" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>6.3552999999999997</v>
       </c>
       <c r="T20" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>45.856675000000003</v>
       </c>
       <c r="U20" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>164.92850000000001</v>
       </c>
       <c r="V20" s="16">
-        <f t="shared" si="21"/>
-        <v>181.99429999999998</v>
+        <f t="shared" si="25"/>
+        <v>197.99429999999998</v>
       </c>
       <c r="W20" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>52.994300000000003</v>
       </c>
       <c r="X20" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>101</v>
       </c>
       <c r="Y20" s="16">
-        <f t="shared" si="21"/>
-        <v>28</v>
+        <f t="shared" si="25"/>
+        <v>44</v>
       </c>
       <c r="Z20" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA20" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AB20" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AC20" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AD20" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AE20" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AF20" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AG20" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -8613,84 +6559,84 @@
         <v>131</v>
       </c>
       <c r="L21" s="7">
-        <v>1058317</v>
+        <v>1022027</v>
       </c>
       <c r="M21" s="7">
-        <v>9225893.3000000007</v>
+        <v>9189603.3000000007</v>
       </c>
       <c r="N21" s="7">
-        <v>3822251</v>
-      </c>
-      <c r="O21" s="65"/>
+        <v>3868758</v>
+      </c>
+      <c r="O21" s="64"/>
       <c r="P21" s="35" t="s">
         <v>89</v>
       </c>
       <c r="Q21" s="47">
         <f>Q20/Q19</f>
-        <v>0.33261231250000001</v>
+        <v>0.34594564583333332</v>
       </c>
       <c r="R21" s="47">
-        <f t="shared" ref="R21:AG21" si="22">R20/R19</f>
+        <f t="shared" ref="R21:AG21" si="26">R20/R19</f>
         <v>1.4203327773417058</v>
       </c>
       <c r="S21" s="47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.74592723004694839</v>
       </c>
       <c r="T21" s="47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.98999730138169251</v>
       </c>
       <c r="U21" s="47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.6822572419420647</v>
       </c>
       <c r="V21" s="47">
-        <f t="shared" si="22"/>
-        <v>0.61129349724573423</v>
+        <f t="shared" si="26"/>
+        <v>0.66503526803708179</v>
       </c>
       <c r="W21" s="47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.61764918414918435</v>
       </c>
       <c r="X21" s="47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.0214401294498383</v>
       </c>
       <c r="Y21" s="47">
-        <f t="shared" si="22"/>
-        <v>0.2476999292285916</v>
+        <f t="shared" si="26"/>
+        <v>0.38924274593064395</v>
       </c>
       <c r="Z21" s="47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AA21" s="47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AB21" s="47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AC21" s="47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AD21" s="47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AE21" s="47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AF21" s="47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AG21" s="48">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -8737,76 +6683,76 @@
       <c r="N22" s="7">
         <v>16182</v>
       </c>
-      <c r="O22" s="65"/>
+      <c r="O22" s="64"/>
       <c r="P22" s="14" t="s">
         <v>90</v>
       </c>
       <c r="Q22" s="16">
         <f>ROUNDUP(Q19-Q20,0)</f>
-        <v>801</v>
+        <v>785</v>
       </c>
       <c r="R22" s="16">
-        <f t="shared" ref="R22:AG22" si="23">ROUNDUP(R19-R20,0)</f>
+        <f t="shared" ref="R22:AG22" si="27">ROUNDUP(R19-R20,0)</f>
         <v>-65</v>
       </c>
       <c r="S22" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="T22" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="U22" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-67</v>
       </c>
       <c r="V22" s="16">
-        <f t="shared" si="23"/>
-        <v>116</v>
+        <f t="shared" si="27"/>
+        <v>100</v>
       </c>
       <c r="W22" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>33</v>
       </c>
       <c r="X22" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-3</v>
       </c>
       <c r="Y22" s="16">
-        <f t="shared" si="23"/>
-        <v>86</v>
+        <f t="shared" si="27"/>
+        <v>70</v>
       </c>
       <c r="Z22" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>345</v>
       </c>
       <c r="AA22" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>101</v>
       </c>
       <c r="AB22" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>103</v>
       </c>
       <c r="AC22" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>141</v>
       </c>
       <c r="AD22" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>406</v>
       </c>
       <c r="AE22" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>105</v>
       </c>
       <c r="AF22" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>123</v>
       </c>
       <c r="AG22" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>178</v>
       </c>
     </row>
@@ -8845,21 +6791,21 @@
         <v>133</v>
       </c>
       <c r="L23" s="7">
-        <v>0</v>
-      </c>
-      <c r="M23" s="7">
-        <v>46252.9</v>
+        <v>8699.25</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="N23" s="7">
-        <v>16831.5</v>
-      </c>
-      <c r="O23" s="66"/>
+        <v>8132.25</v>
+      </c>
+      <c r="O23" s="65"/>
       <c r="P23" s="41" t="s">
         <v>117</v>
       </c>
       <c r="Q23" s="42">
         <f>Q8+Q13+Q18</f>
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="R23" s="42">
         <f>SUM(S23:U23)</f>
@@ -8870,28 +6816,28 @@
         <v>0</v>
       </c>
       <c r="T23" s="42">
-        <f t="shared" ref="T23:U23" si="24">T8+T13+T18</f>
+        <f t="shared" ref="T23:U23" si="28">T8+T13+T18</f>
         <v>0</v>
       </c>
       <c r="U23" s="42">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V23" s="42">
         <f>SUM(W23:Y23)</f>
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="W23" s="42">
         <f>W8+W13+W18</f>
         <v>0</v>
       </c>
       <c r="X23" s="42">
-        <f t="shared" ref="X23:Y23" si="25">X8+X13+X18</f>
+        <f t="shared" ref="X23:Y23" si="29">X8+X13+X18</f>
         <v>0</v>
       </c>
       <c r="Y23" s="42">
-        <f t="shared" si="25"/>
-        <v>69</v>
+        <f t="shared" si="29"/>
+        <v>57</v>
       </c>
       <c r="Z23" s="42">
         <f>SUM(AA23:AC23)</f>
@@ -8951,7 +6897,7 @@
       <c r="N24" s="7">
         <v>2928</v>
       </c>
-      <c r="O24" s="64" t="s">
+      <c r="O24" s="63" t="s">
         <v>130</v>
       </c>
       <c r="P24" s="38" t="s">
@@ -8965,63 +6911,63 @@
         <v>898.17000000000007</v>
       </c>
       <c r="S24" s="39">
-        <f t="shared" ref="S24:AG24" si="26">7050*S3</f>
+        <f t="shared" ref="S24:AG24" si="30">7050*S3</f>
         <v>50.055</v>
       </c>
       <c r="T24" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>272.13</v>
       </c>
       <c r="U24" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>575.98500000000001</v>
       </c>
       <c r="V24" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1749.105</v>
       </c>
       <c r="W24" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>504.07499999999993</v>
       </c>
       <c r="X24" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>580.91999999999996</v>
       </c>
       <c r="Y24" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>664.11</v>
       </c>
       <c r="Z24" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>2022.645</v>
       </c>
       <c r="AA24" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>592.20000000000005</v>
       </c>
       <c r="AB24" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>604.18499999999995</v>
       </c>
       <c r="AC24" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>826.26</v>
       </c>
       <c r="AD24" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>2380.08</v>
       </c>
       <c r="AE24" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>615.46500000000003</v>
       </c>
       <c r="AF24" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>719.80499999999995</v>
       </c>
       <c r="AG24" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1044.81</v>
       </c>
     </row>
@@ -9060,21 +7006,21 @@
         <v>135</v>
       </c>
       <c r="L25" s="7">
-        <v>112045.5</v>
+        <v>132283.20000000001</v>
       </c>
       <c r="M25" s="7">
-        <v>791792.1</v>
+        <v>812029.8</v>
       </c>
       <c r="N25" s="7">
-        <v>112220.85</v>
-      </c>
-      <c r="O25" s="65"/>
+        <v>91983.15</v>
+      </c>
+      <c r="O25" s="64"/>
       <c r="P25" s="14" t="s">
         <v>88</v>
       </c>
       <c r="Q25" s="16">
         <f>R25+V25+Z25+AD25</f>
-        <v>1872</v>
+        <v>1889</v>
       </c>
       <c r="R25" s="16">
         <f>SUM(S25:U25)</f>
@@ -9094,7 +7040,7 @@
       </c>
       <c r="V25" s="16">
         <f>SUM(W25:Y25)</f>
-        <v>861</v>
+        <v>878</v>
       </c>
       <c r="W25" s="16">
         <f>H48+H17</f>
@@ -9106,7 +7052,7 @@
       </c>
       <c r="Y25" s="16">
         <f>L48+L17</f>
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="Z25" s="16">
         <f>SUM(AA25:AC25)</f>
@@ -9164,78 +7110,78 @@
         <v>869517.5</v>
       </c>
       <c r="N26" s="7">
-        <v>200340</v>
-      </c>
-      <c r="O26" s="65"/>
+        <v>216301</v>
+      </c>
+      <c r="O26" s="64"/>
       <c r="P26" s="35" t="s">
         <v>89</v>
       </c>
       <c r="Q26" s="47">
         <f>Q25/Q24</f>
-        <v>0.26553191489361699</v>
+        <v>0.26794326241134753</v>
       </c>
       <c r="R26" s="47">
-        <f t="shared" ref="R26:AG26" si="27">R25/R24</f>
+        <f t="shared" ref="R26:AG26" si="31">R25/R24</f>
         <v>1.1256220982664751</v>
       </c>
       <c r="S26" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1.278593547098192</v>
       </c>
       <c r="T26" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0.9774740013963914</v>
       </c>
       <c r="U26" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1.1823224563139665</v>
       </c>
       <c r="V26" s="47">
-        <f t="shared" si="27"/>
-        <v>0.49225175161010915</v>
+        <f t="shared" si="31"/>
+        <v>0.50197100802982098</v>
       </c>
       <c r="W26" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0.67648663393344255</v>
       </c>
       <c r="X26" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0.61109963506162646</v>
       </c>
       <c r="Y26" s="47">
-        <f t="shared" si="27"/>
-        <v>0.24845281655147491</v>
+        <f t="shared" si="31"/>
+        <v>0.27405098552950563</v>
       </c>
       <c r="Z26" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AA26" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AB26" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AC26" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AD26" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AE26" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AF26" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AG26" s="48">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -9282,76 +7228,76 @@
       <c r="N27" s="7">
         <v>294272</v>
       </c>
-      <c r="O27" s="65"/>
+      <c r="O27" s="64"/>
       <c r="P27" s="14" t="s">
         <v>90</v>
       </c>
       <c r="Q27" s="16">
         <f>ROUNDUP(Q24-Q25,0)</f>
-        <v>5178</v>
+        <v>5161</v>
       </c>
       <c r="R27" s="16">
-        <f t="shared" ref="R27:AG27" si="28">ROUNDUP(R24-R25,0)</f>
+        <f t="shared" ref="R27:AG27" si="32">ROUNDUP(R24-R25,0)</f>
         <v>-113</v>
       </c>
       <c r="S27" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>-14</v>
       </c>
       <c r="T27" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>7</v>
       </c>
       <c r="U27" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>-106</v>
       </c>
       <c r="V27" s="16">
-        <f t="shared" si="28"/>
-        <v>889</v>
+        <f t="shared" si="32"/>
+        <v>872</v>
       </c>
       <c r="W27" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>164</v>
       </c>
       <c r="X27" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>226</v>
       </c>
       <c r="Y27" s="16">
-        <f t="shared" si="28"/>
-        <v>500</v>
+        <f t="shared" si="32"/>
+        <v>483</v>
       </c>
       <c r="Z27" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2023</v>
       </c>
       <c r="AA27" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>593</v>
       </c>
       <c r="AB27" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>605</v>
       </c>
       <c r="AC27" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>827</v>
       </c>
       <c r="AD27" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2381</v>
       </c>
       <c r="AE27" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>616</v>
       </c>
       <c r="AF27" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>720</v>
       </c>
       <c r="AG27" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1045</v>
       </c>
     </row>
@@ -9398,13 +7344,13 @@
       <c r="N28" s="7">
         <v>194405</v>
       </c>
-      <c r="O28" s="66"/>
+      <c r="O28" s="65"/>
       <c r="P28" s="41" t="s">
         <v>117</v>
       </c>
       <c r="Q28" s="42">
         <f>R28+V28+Z28+AD28</f>
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="R28" s="42">
         <f>SUM(S28:U28)</f>
@@ -9415,28 +7361,28 @@
         <v>0</v>
       </c>
       <c r="T28" s="42">
-        <f t="shared" ref="T28:U28" si="29">T13+T18+T23</f>
+        <f t="shared" ref="T28:U28" si="33">T13+T18+T23</f>
         <v>0</v>
       </c>
       <c r="U28" s="42">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V28" s="42">
         <f>SUM(W28:Y28)</f>
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="W28" s="42">
         <f>W13+W18+W23</f>
         <v>0</v>
       </c>
       <c r="X28" s="42">
-        <f t="shared" ref="X28" si="30">X13+X18+X23</f>
+        <f t="shared" ref="X28" si="34">X13+X18+X23</f>
         <v>0</v>
       </c>
       <c r="Y28" s="42">
         <f>N48+N17</f>
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="Z28" s="42">
         <f>SUM(AA28:AC28)</f>
@@ -9670,15 +7616,15 @@
       </c>
       <c r="L33" s="8">
         <f>SUM(L21:L32)</f>
-        <v>1377428.5</v>
+        <v>1370075.45</v>
       </c>
       <c r="M33" s="8">
         <f>SUM(M21:M32)</f>
-        <v>14759617.270000001</v>
+        <v>14697312.070000002</v>
       </c>
       <c r="N33" s="8">
         <f>SUM(N21:N32)</f>
-        <v>4802074.3499999996</v>
+        <v>4835605.4000000004</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.5" x14ac:dyDescent="0.3">
@@ -9702,12 +7648,12 @@
         <v>144</v>
       </c>
       <c r="J34" s="78"/>
-      <c r="K34" s="68" t="s">
+      <c r="K34" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
@@ -9794,15 +7740,15 @@
       </c>
       <c r="L36" s="7">
         <f>ROUNDDOWN(L21/10000,0)</f>
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M36" s="7">
-        <f t="shared" ref="M36:N36" si="31">ROUNDDOWN(M21/10000,0)</f>
-        <v>922</v>
+        <f t="shared" ref="M36:N36" si="35">ROUNDDOWN(M21/10000,0)</f>
+        <v>918</v>
       </c>
       <c r="N36" s="7">
-        <f t="shared" si="31"/>
-        <v>382</v>
+        <f t="shared" si="35"/>
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -9810,50 +7756,50 @@
         <v>132</v>
       </c>
       <c r="B37" s="7">
-        <f t="shared" ref="B37" si="32">ROUNDDOWN(B22/10000,0)</f>
+        <f t="shared" ref="B37" si="36">ROUNDDOWN(B22/10000,0)</f>
         <v>0</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>132</v>
       </c>
       <c r="D37" s="7">
-        <f t="shared" ref="D37" si="33">ROUNDDOWN(D22/10000,0)</f>
+        <f t="shared" ref="D37" si="37">ROUNDDOWN(D22/10000,0)</f>
         <v>6</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>132</v>
       </c>
       <c r="F37" s="7">
-        <f t="shared" ref="F37:H37" si="34">ROUNDDOWN(F22/10000,0)</f>
+        <f t="shared" ref="F37:H37" si="38">ROUNDDOWN(F22/10000,0)</f>
         <v>21</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>132</v>
       </c>
       <c r="H37" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>8</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>132</v>
       </c>
       <c r="J37" s="7">
-        <f t="shared" ref="J37:J48" si="35">ROUNDDOWN(J22/10000,0)</f>
+        <f t="shared" ref="J37:J48" si="39">ROUNDDOWN(J22/10000,0)</f>
         <v>8</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>132</v>
       </c>
       <c r="L37" s="7">
-        <f t="shared" ref="L37:N37" si="36">ROUNDDOWN(L22/10000,0)</f>
+        <f t="shared" ref="L37:N37" si="40">ROUNDDOWN(L22/10000,0)</f>
         <v>4</v>
       </c>
       <c r="M37" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>50</v>
       </c>
       <c r="N37" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
     </row>
@@ -9862,51 +7808,51 @@
         <v>133</v>
       </c>
       <c r="B38" s="7">
-        <f t="shared" ref="B38" si="37">ROUNDDOWN(B23/10000,0)</f>
+        <f t="shared" ref="B38" si="41">ROUNDDOWN(B23/10000,0)</f>
         <v>0</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>133</v>
       </c>
       <c r="D38" s="7">
-        <f t="shared" ref="D38" si="38">ROUNDDOWN(D23/10000,0)</f>
+        <f t="shared" ref="D38" si="42">ROUNDDOWN(D23/10000,0)</f>
         <v>2</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>133</v>
       </c>
       <c r="F38" s="7">
-        <f t="shared" ref="F38:H38" si="39">ROUNDDOWN(F23/10000,0)</f>
+        <f t="shared" ref="F38:H38" si="43">ROUNDDOWN(F23/10000,0)</f>
         <v>0</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>133</v>
       </c>
       <c r="H38" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>133</v>
       </c>
       <c r="J38" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>133</v>
       </c>
       <c r="L38" s="7">
-        <f t="shared" ref="L38:N38" si="40">ROUNDDOWN(L23/10000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M38" s="7">
-        <f t="shared" si="40"/>
-        <v>4</v>
+        <f t="shared" ref="L38:N38" si="44">ROUNDDOWN(L23/10000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="7" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
       </c>
       <c r="N38" s="7">
-        <f t="shared" si="40"/>
-        <v>1</v>
+        <f t="shared" si="44"/>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
@@ -9914,50 +7860,50 @@
         <v>134</v>
       </c>
       <c r="B39" s="7">
-        <f t="shared" ref="B39" si="41">ROUNDDOWN(B24/10000,0)</f>
+        <f t="shared" ref="B39" si="45">ROUNDDOWN(B24/10000,0)</f>
         <v>0</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>134</v>
       </c>
       <c r="D39" s="7">
-        <f t="shared" ref="D39" si="42">ROUNDDOWN(D24/10000,0)</f>
+        <f t="shared" ref="D39" si="46">ROUNDDOWN(D24/10000,0)</f>
         <v>13</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>134</v>
       </c>
       <c r="F39" s="7">
-        <f t="shared" ref="F39:H39" si="43">ROUNDDOWN(F24/10000,0)</f>
+        <f t="shared" ref="F39:H39" si="47">ROUNDDOWN(F24/10000,0)</f>
         <v>0</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>134</v>
       </c>
       <c r="H39" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>134</v>
       </c>
       <c r="J39" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>134</v>
       </c>
       <c r="L39" s="7">
-        <f t="shared" ref="L39:N39" si="44">ROUNDDOWN(L24/10000,0)</f>
+        <f t="shared" ref="L39:N39" si="48">ROUNDDOWN(L24/10000,0)</f>
         <v>0</v>
       </c>
       <c r="M39" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>13</v>
       </c>
       <c r="N39" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -9966,51 +7912,51 @@
         <v>135</v>
       </c>
       <c r="B40" s="7">
-        <f t="shared" ref="B40" si="45">ROUNDDOWN(B25/10000,0)</f>
+        <f t="shared" ref="B40" si="49">ROUNDDOWN(B25/10000,0)</f>
         <v>5</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D40" s="7">
-        <f t="shared" ref="D40" si="46">ROUNDDOWN(D25/10000,0)</f>
+        <f t="shared" ref="D40" si="50">ROUNDDOWN(D25/10000,0)</f>
         <v>12</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>135</v>
       </c>
       <c r="F40" s="7">
-        <f t="shared" ref="F40:H40" si="47">ROUNDDOWN(F25/10000,0)</f>
+        <f t="shared" ref="F40:H40" si="51">ROUNDDOWN(F25/10000,0)</f>
         <v>20</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>135</v>
       </c>
       <c r="H40" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>7</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>135</v>
       </c>
       <c r="J40" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>21</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>135</v>
       </c>
       <c r="L40" s="7">
-        <f t="shared" ref="L40:N40" si="48">ROUNDDOWN(L25/10000,0)</f>
-        <v>11</v>
+        <f t="shared" ref="L40:N40" si="52">ROUNDDOWN(L25/10000,0)</f>
+        <v>13</v>
       </c>
       <c r="M40" s="7">
-        <f t="shared" si="48"/>
-        <v>79</v>
+        <f t="shared" si="52"/>
+        <v>81</v>
       </c>
       <c r="N40" s="7">
-        <f t="shared" si="48"/>
-        <v>11</v>
+        <f t="shared" si="52"/>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -10018,51 +7964,51 @@
         <v>136</v>
       </c>
       <c r="B41" s="7">
-        <f t="shared" ref="B41" si="49">ROUNDDOWN(B26/10000,0)</f>
+        <f t="shared" ref="B41" si="53">ROUNDDOWN(B26/10000,0)</f>
         <v>0</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>136</v>
       </c>
       <c r="D41" s="7">
-        <f t="shared" ref="D41" si="50">ROUNDDOWN(D26/10000,0)</f>
+        <f t="shared" ref="D41" si="54">ROUNDDOWN(D26/10000,0)</f>
         <v>18</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>136</v>
       </c>
       <c r="F41" s="7">
-        <f t="shared" ref="F41:H41" si="51">ROUNDDOWN(F26/10000,0)</f>
+        <f t="shared" ref="F41:H41" si="55">ROUNDDOWN(F26/10000,0)</f>
         <v>43</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>136</v>
       </c>
       <c r="H41" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>7</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>136</v>
       </c>
       <c r="J41" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>15</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>136</v>
       </c>
       <c r="L41" s="7">
-        <f t="shared" ref="L41:N41" si="52">ROUNDDOWN(L26/10000,0)</f>
+        <f t="shared" ref="L41:N41" si="56">ROUNDDOWN(L26/10000,0)</f>
         <v>2</v>
       </c>
       <c r="M41" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>86</v>
       </c>
       <c r="N41" s="7">
-        <f t="shared" si="52"/>
-        <v>20</v>
+        <f t="shared" si="56"/>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -10070,50 +8016,50 @@
         <v>137</v>
       </c>
       <c r="B42" s="7">
-        <f t="shared" ref="B42" si="53">ROUNDDOWN(B27/10000,0)</f>
+        <f t="shared" ref="B42" si="57">ROUNDDOWN(B27/10000,0)</f>
         <v>0</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>137</v>
       </c>
       <c r="D42" s="7">
-        <f t="shared" ref="D42" si="54">ROUNDDOWN(D27/10000,0)</f>
+        <f t="shared" ref="D42" si="58">ROUNDDOWN(D27/10000,0)</f>
         <v>12</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>137</v>
       </c>
       <c r="F42" s="7">
-        <f t="shared" ref="F42:H42" si="55">ROUNDDOWN(F27/10000,0)</f>
+        <f t="shared" ref="F42:H42" si="59">ROUNDDOWN(F27/10000,0)</f>
         <v>21</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>137</v>
       </c>
       <c r="H42" s="7">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>16</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>137</v>
       </c>
       <c r="J42" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>17</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>137</v>
       </c>
       <c r="L42" s="7">
-        <f t="shared" ref="L42:N42" si="56">ROUNDDOWN(L27/10000,0)</f>
+        <f t="shared" ref="L42:N42" si="60">ROUNDDOWN(L27/10000,0)</f>
         <v>0</v>
       </c>
       <c r="M42" s="7">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>67</v>
       </c>
       <c r="N42" s="7">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>29</v>
       </c>
     </row>
@@ -10122,50 +8068,50 @@
         <v>138</v>
       </c>
       <c r="B43" s="7">
-        <f t="shared" ref="B43" si="57">ROUNDDOWN(B28/10000,0)</f>
+        <f t="shared" ref="B43" si="61">ROUNDDOWN(B28/10000,0)</f>
         <v>0</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>138</v>
       </c>
       <c r="D43" s="7">
-        <f t="shared" ref="D43" si="58">ROUNDDOWN(D28/10000,0)</f>
+        <f t="shared" ref="D43" si="62">ROUNDDOWN(D28/10000,0)</f>
         <v>33</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>138</v>
       </c>
       <c r="F43" s="7">
-        <f t="shared" ref="F43:H43" si="59">ROUNDDOWN(F28/10000,0)</f>
+        <f t="shared" ref="F43:H43" si="63">ROUNDDOWN(F28/10000,0)</f>
         <v>28</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>138</v>
       </c>
       <c r="H43" s="7">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>37</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>138</v>
       </c>
       <c r="J43" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>138</v>
       </c>
       <c r="L43" s="7">
-        <f t="shared" ref="L43:N43" si="60">ROUNDDOWN(L28/10000,0)</f>
+        <f t="shared" ref="L43:N43" si="64">ROUNDDOWN(L28/10000,0)</f>
         <v>0</v>
       </c>
       <c r="M43" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>99</v>
       </c>
       <c r="N43" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>19</v>
       </c>
     </row>
@@ -10174,50 +8120,50 @@
         <v>139</v>
       </c>
       <c r="B44" s="7">
-        <f t="shared" ref="B44" si="61">ROUNDDOWN(B29/10000,0)</f>
+        <f t="shared" ref="B44" si="65">ROUNDDOWN(B29/10000,0)</f>
         <v>0</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>139</v>
       </c>
       <c r="D44" s="7">
-        <f t="shared" ref="D44" si="62">ROUNDDOWN(D29/10000,0)</f>
+        <f t="shared" ref="D44" si="66">ROUNDDOWN(D29/10000,0)</f>
         <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>139</v>
       </c>
       <c r="F44" s="7">
-        <f t="shared" ref="F44:H44" si="63">ROUNDDOWN(F29/10000,0)</f>
+        <f t="shared" ref="F44:H44" si="67">ROUNDDOWN(F29/10000,0)</f>
         <v>4</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>139</v>
       </c>
       <c r="H44" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>25</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>139</v>
       </c>
       <c r="J44" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>13</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>139</v>
       </c>
       <c r="L44" s="7">
-        <f t="shared" ref="L44:N44" si="64">ROUNDDOWN(L29/10000,0)</f>
+        <f t="shared" ref="L44:N44" si="68">ROUNDDOWN(L29/10000,0)</f>
         <v>0</v>
       </c>
       <c r="M44" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>44</v>
       </c>
       <c r="N44" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>4</v>
       </c>
     </row>
@@ -10226,50 +8172,50 @@
         <v>140</v>
       </c>
       <c r="B45" s="7">
-        <f t="shared" ref="B45" si="65">ROUNDDOWN(B30/10000,0)</f>
+        <f t="shared" ref="B45" si="69">ROUNDDOWN(B30/10000,0)</f>
         <v>0</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>140</v>
       </c>
       <c r="D45" s="7">
-        <f t="shared" ref="D45" si="66">ROUNDDOWN(D30/10000,0)</f>
+        <f t="shared" ref="D45" si="70">ROUNDDOWN(D30/10000,0)</f>
         <v>34</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>140</v>
       </c>
       <c r="F45" s="7">
-        <f t="shared" ref="F45:H45" si="67">ROUNDDOWN(F30/10000,0)</f>
+        <f t="shared" ref="F45:H45" si="71">ROUNDDOWN(F30/10000,0)</f>
         <v>2</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>140</v>
       </c>
       <c r="H45" s="7">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>8</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>140</v>
       </c>
       <c r="J45" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>5</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>140</v>
       </c>
       <c r="L45" s="7">
-        <f t="shared" ref="L45:N45" si="68">ROUNDDOWN(L30/10000,0)</f>
+        <f t="shared" ref="L45:N45" si="72">ROUNDDOWN(L30/10000,0)</f>
         <v>9</v>
       </c>
       <c r="M45" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>60</v>
       </c>
       <c r="N45" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
     </row>
@@ -10278,50 +8224,50 @@
         <v>141</v>
       </c>
       <c r="B46" s="7">
-        <f t="shared" ref="B46" si="69">ROUNDDOWN(B31/10000,0)</f>
+        <f t="shared" ref="B46" si="73">ROUNDDOWN(B31/10000,0)</f>
         <v>0</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>141</v>
       </c>
       <c r="D46" s="7">
-        <f t="shared" ref="D46" si="70">ROUNDDOWN(D31/10000,0)</f>
+        <f t="shared" ref="D46" si="74">ROUNDDOWN(D31/10000,0)</f>
         <v>2</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>141</v>
       </c>
       <c r="F46" s="7">
-        <f t="shared" ref="F46:H46" si="71">ROUNDDOWN(F31/10000,0)</f>
+        <f t="shared" ref="F46:H46" si="75">ROUNDDOWN(F31/10000,0)</f>
         <v>20</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>141</v>
       </c>
       <c r="H46" s="7">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>141</v>
       </c>
       <c r="J46" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>141</v>
       </c>
       <c r="L46" s="7">
-        <f t="shared" ref="L46:N46" si="72">ROUNDDOWN(L31/10000,0)</f>
+        <f t="shared" ref="L46:N46" si="76">ROUNDDOWN(L31/10000,0)</f>
         <v>4</v>
       </c>
       <c r="M46" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>29</v>
       </c>
       <c r="N46" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
     </row>
@@ -10330,50 +8276,50 @@
         <v>142</v>
       </c>
       <c r="B47" s="7">
-        <f t="shared" ref="B47" si="73">ROUNDDOWN(B32/10000,0)</f>
+        <f t="shared" ref="B47" si="77">ROUNDDOWN(B32/10000,0)</f>
         <v>0</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>142</v>
       </c>
       <c r="D47" s="7">
-        <f t="shared" ref="D47" si="74">ROUNDDOWN(D32/10000,0)</f>
+        <f t="shared" ref="D47" si="78">ROUNDDOWN(D32/10000,0)</f>
         <v>6</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>142</v>
       </c>
       <c r="F47" s="7">
-        <f t="shared" ref="F47:H47" si="75">ROUNDDOWN(F32/10000,0)</f>
+        <f t="shared" ref="F47:H47" si="79">ROUNDDOWN(F32/10000,0)</f>
         <v>1</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>142</v>
       </c>
       <c r="H47" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>142</v>
       </c>
       <c r="J47" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>142</v>
       </c>
       <c r="L47" s="7">
-        <f t="shared" ref="L47:N47" si="76">ROUNDDOWN(L32/10000,0)</f>
+        <f t="shared" ref="L47:N47" si="80">ROUNDDOWN(L32/10000,0)</f>
         <v>0</v>
       </c>
       <c r="M47" s="7">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>17</v>
       </c>
       <c r="N47" s="7">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>9</v>
       </c>
     </row>
@@ -10382,72 +8328,55 @@
         <v>143</v>
       </c>
       <c r="B48" s="8">
-        <f t="shared" ref="B48" si="77">ROUNDDOWN(B33/10000,0)</f>
+        <f t="shared" ref="B48" si="81">ROUNDDOWN(B33/10000,0)</f>
         <v>58</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>143</v>
       </c>
       <c r="D48" s="8">
-        <f t="shared" ref="D48" si="78">ROUNDDOWN(D33/10000,0)</f>
+        <f t="shared" ref="D48" si="82">ROUNDDOWN(D33/10000,0)</f>
         <v>221</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>143</v>
       </c>
       <c r="F48" s="8">
-        <f t="shared" ref="F48:H48" si="79">ROUNDDOWN(F33/10000,0)</f>
+        <f t="shared" ref="F48:H48" si="83">ROUNDDOWN(F33/10000,0)</f>
         <v>517</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>143</v>
       </c>
       <c r="H48" s="8">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>288</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>143</v>
       </c>
       <c r="J48" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>252</v>
       </c>
       <c r="K48" s="8" t="s">
         <v>143</v>
       </c>
       <c r="L48" s="8">
-        <f t="shared" ref="L48:N48" si="80">ROUNDDOWN(L33/10000,0)</f>
+        <f t="shared" ref="L48:N48" si="84">ROUNDDOWN(L33/10000,0)</f>
         <v>137</v>
       </c>
       <c r="M48" s="8">
-        <f t="shared" si="80"/>
-        <v>1475</v>
+        <f t="shared" si="84"/>
+        <v>1469</v>
       </c>
       <c r="N48" s="8">
-        <f t="shared" si="80"/>
-        <v>480</v>
+        <f t="shared" si="84"/>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:N34"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G19:H19"/>
@@ -10464,17 +8393,26 @@
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="P4:AG23">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P24:AG28">
+  <conditionalFormatting sqref="P4:AG28">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
